--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0402c\Desktop\proseka Rating project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YNC\Desktop\programming\_Private\proseka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67E755C-6F22-47AE-BE78-0B5E9D31561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="-120" windowWidth="7500" windowHeight="10335" activeTab="1" xr2:uid="{5404BE33-AD9A-4E01-BCB0-6C8AC92EBCD9}"/>
+    <workbookView xWindow="14640" yWindow="-120" windowWidth="7500" windowHeight="10332"/>
   </bookViews>
   <sheets>
     <sheet name="곡 데이터(출시순)" sheetId="3" r:id="rId1"/>
     <sheet name="곡 데이터(APPEND_출시순)" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="main" guid="{9E8C27FD-5DF8-48AD-A74D-D3BBBDC46F2B}" includeHiddenRowCol="0" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="3"/>
   </customWorkbookViews>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1410">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -4165,9 +4164,6 @@
     <t xml:space="preserve">2024. 10. 15. </t>
   </si>
   <si>
-    <t xml:space="preserve">2024. 10. 21. </t>
-  </si>
-  <si>
     <t>의학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4450,15 +4446,117 @@
     <t>메모리아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Aira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なきそ</t>
+  </si>
+  <si>
+    <t>かめりあ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さつき が てんこもり</t>
+  </si>
+  <si>
+    <t>ryo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CosMo@暴走P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halyosy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市瀬るぽ</t>
+  </si>
+  <si>
+    <t>みきとP</t>
+  </si>
+  <si>
+    <t>Omoi</t>
+  </si>
+  <si>
+    <t>DECO*27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyPop</t>
+  </si>
+  <si>
+    <t>yuukiss</t>
+  </si>
+  <si>
+    <t>とあ</t>
+  </si>
+  <si>
+    <t>Giga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyanyannya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬゆり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日向電工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>脳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>天</t>
+    </r>
+  </si>
+  <si>
+    <t>정수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ムラタシユウ</t>
+  </si>
+  <si>
+    <t>2024. 10. 28.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2024. 10. 21. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;APD.&quot;0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4527,6 +4625,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4556,12 +4669,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4581,11 +4691,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4593,7 +4712,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4926,63 +5051,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38956D00-10A9-454B-9472-29387ADABB5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:K602"/>
+  <dimension ref="A1:K602"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C172" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C471" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C182" sqref="C182"/>
+      <selection pane="bottomRight" activeCell="F483" sqref="F483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.69921875" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" style="9" customWidth="1"/>
     <col min="7" max="11" width="9" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B1" s="10" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>870</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="1" t="s">
         <v>98</v>
       </c>
@@ -4999,7 +5124,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1</v>
       </c>
@@ -5010,9 +5135,9 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>873</v>
       </c>
       <c r="G3">
@@ -5031,21 +5156,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>105</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>3</v>
       </c>
@@ -5055,11 +5183,14 @@
       <c r="D5" t="s">
         <v>108</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>4</v>
       </c>
@@ -5069,11 +5200,14 @@
       <c r="D6" t="s">
         <v>110</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>5</v>
       </c>
@@ -5083,67 +5217,82 @@
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D11" t="s">
         <v>1332</v>
       </c>
-      <c r="D11" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>10</v>
       </c>
@@ -5153,11 +5302,14 @@
       <c r="D12" t="s">
         <v>116</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>11</v>
       </c>
@@ -5167,11 +5319,14 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>12</v>
       </c>
@@ -5181,11 +5336,14 @@
       <c r="D14" t="s">
         <v>118</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>13</v>
       </c>
@@ -5195,11 +5353,14 @@
       <c r="D15" t="s">
         <v>120</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>14</v>
       </c>
@@ -5209,11 +5370,14 @@
       <c r="D16" t="s">
         <v>122</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>15</v>
       </c>
@@ -5223,11 +5387,14 @@
       <c r="D17" t="s">
         <v>124</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>16</v>
       </c>
@@ -5237,11 +5404,14 @@
       <c r="D18" t="s">
         <v>126</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>17</v>
       </c>
@@ -5251,11 +5421,11 @@
       <c r="D19" t="s">
         <v>128</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>18</v>
       </c>
@@ -5265,11 +5435,11 @@
       <c r="D20" t="s">
         <v>130</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>19</v>
       </c>
@@ -5279,11 +5449,11 @@
       <c r="D21" t="s">
         <v>132</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>20</v>
       </c>
@@ -5293,11 +5463,11 @@
       <c r="D22" t="s">
         <v>134</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>21</v>
       </c>
@@ -5307,11 +5477,11 @@
       <c r="D23" t="s">
         <v>136</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>22</v>
       </c>
@@ -5321,11 +5491,11 @@
       <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>23</v>
       </c>
@@ -5335,11 +5505,11 @@
       <c r="D25" t="s">
         <v>138</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>24</v>
       </c>
@@ -5349,11 +5519,11 @@
       <c r="D26" t="s">
         <v>5</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>25</v>
       </c>
@@ -5363,11 +5533,11 @@
       <c r="D27" t="s">
         <v>140</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>26</v>
       </c>
@@ -5377,11 +5547,11 @@
       <c r="D28" t="s">
         <v>142</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>27</v>
       </c>
@@ -5391,11 +5561,11 @@
       <c r="D29" t="s">
         <v>144</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>28</v>
       </c>
@@ -5405,11 +5575,11 @@
       <c r="D30" t="s">
         <v>146</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="9" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>29</v>
       </c>
@@ -5419,11 +5589,11 @@
       <c r="D31" t="s">
         <v>148</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="9" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>30</v>
       </c>
@@ -5433,11 +5603,11 @@
       <c r="D32" t="s">
         <v>150</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="9" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>31</v>
       </c>
@@ -5447,11 +5617,11 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="9" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>32</v>
       </c>
@@ -5461,11 +5631,11 @@
       <c r="D34" t="s">
         <v>152</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="9" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>33</v>
       </c>
@@ -5475,11 +5645,11 @@
       <c r="D35" t="s">
         <v>154</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="9" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>34</v>
       </c>
@@ -5489,11 +5659,11 @@
       <c r="D36" t="s">
         <v>156</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="9" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>35</v>
       </c>
@@ -5503,11 +5673,11 @@
       <c r="D37" t="s">
         <v>158</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="9" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>36</v>
       </c>
@@ -5517,11 +5687,11 @@
       <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="9" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>37</v>
       </c>
@@ -5531,11 +5701,11 @@
       <c r="D39" t="s">
         <v>160</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="9" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>38</v>
       </c>
@@ -5545,11 +5715,11 @@
       <c r="D40" t="s">
         <v>8</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="9" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>39</v>
       </c>
@@ -5559,11 +5729,11 @@
       <c r="D41" t="s">
         <v>162</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="9" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>40</v>
       </c>
@@ -5573,11 +5743,11 @@
       <c r="D42" t="s">
         <v>164</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="9" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>41</v>
       </c>
@@ -5587,11 +5757,11 @@
       <c r="D43" t="s">
         <v>166</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="9" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>42</v>
       </c>
@@ -5601,11 +5771,11 @@
       <c r="D44" t="s">
         <v>9</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="9" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>43</v>
       </c>
@@ -5615,11 +5785,11 @@
       <c r="D45" t="s">
         <v>168</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="9" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>44</v>
       </c>
@@ -5629,11 +5799,11 @@
       <c r="D46" t="s">
         <v>170</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="9" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>45</v>
       </c>
@@ -5643,11 +5813,11 @@
       <c r="D47" t="s">
         <v>172</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="9" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>46</v>
       </c>
@@ -5657,11 +5827,11 @@
       <c r="D48" t="s">
         <v>174</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="9" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>47</v>
       </c>
@@ -5671,11 +5841,11 @@
       <c r="D49" t="s">
         <v>10</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="9" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>48</v>
       </c>
@@ -5685,11 +5855,11 @@
       <c r="D50" t="s">
         <v>177</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="9" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>49</v>
       </c>
@@ -5699,11 +5869,11 @@
       <c r="D51" t="s">
         <v>179</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="9" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>50</v>
       </c>
@@ -5713,11 +5883,11 @@
       <c r="D52" t="s">
         <v>181</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="9" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>51</v>
       </c>
@@ -5727,11 +5897,11 @@
       <c r="D53" t="s">
         <v>183</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="9" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>52</v>
       </c>
@@ -5741,11 +5911,11 @@
       <c r="D54" t="s">
         <v>185</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="9" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>53</v>
       </c>
@@ -5755,11 +5925,11 @@
       <c r="D55" t="s">
         <v>187</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="9" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56">
         <v>54</v>
       </c>
@@ -5769,11 +5939,11 @@
       <c r="D56" t="s">
         <v>189</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="9" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57">
         <v>55</v>
       </c>
@@ -5783,11 +5953,11 @@
       <c r="D57" t="s">
         <v>191</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="9" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58">
         <v>56</v>
       </c>
@@ -5797,11 +5967,11 @@
       <c r="D58" t="s">
         <v>193</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="9" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>57</v>
       </c>
@@ -5811,11 +5981,11 @@
       <c r="D59" t="s">
         <v>195</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="9" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>58</v>
       </c>
@@ -5825,11 +5995,11 @@
       <c r="D60" t="s">
         <v>11</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="9" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>59</v>
       </c>
@@ -5839,11 +6009,11 @@
       <c r="D61" t="s">
         <v>197</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="9" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>60</v>
       </c>
@@ -5853,11 +6023,11 @@
       <c r="D62" t="s">
         <v>199</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="9" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63">
         <v>61</v>
       </c>
@@ -5867,11 +6037,11 @@
       <c r="D63" t="s">
         <v>12</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="9" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B64">
         <v>62</v>
       </c>
@@ -5881,11 +6051,11 @@
       <c r="D64" t="s">
         <v>201</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="9" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65">
         <v>63</v>
       </c>
@@ -5895,11 +6065,11 @@
       <c r="D65" t="s">
         <v>203</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="9" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>64</v>
       </c>
@@ -5909,11 +6079,11 @@
       <c r="D66" t="s">
         <v>205</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="9" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>65</v>
       </c>
@@ -5923,11 +6093,11 @@
       <c r="D67" t="s">
         <v>207</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="9" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>66</v>
       </c>
@@ -5937,11 +6107,11 @@
       <c r="D68" t="s">
         <v>209</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="9" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>67</v>
       </c>
@@ -5951,11 +6121,11 @@
       <c r="D69" t="s">
         <v>13</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="9" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70">
         <v>68</v>
       </c>
@@ -5965,11 +6135,11 @@
       <c r="D70" t="s">
         <v>211</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="9" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71">
         <v>69</v>
       </c>
@@ -5979,11 +6149,11 @@
       <c r="D71" t="s">
         <v>213</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="9" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72">
         <v>70</v>
       </c>
@@ -5993,11 +6163,11 @@
       <c r="D72" t="s">
         <v>215</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="9" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>71</v>
       </c>
@@ -6007,11 +6177,11 @@
       <c r="D73" t="s">
         <v>217</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="9" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>72</v>
       </c>
@@ -6021,11 +6191,11 @@
       <c r="D74" t="s">
         <v>219</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="9" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>73</v>
       </c>
@@ -6035,39 +6205,39 @@
       <c r="D75" t="s">
         <v>221</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="9" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>74</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="9" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77">
         <v>75</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="9" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78">
         <v>76</v>
       </c>
@@ -6077,11 +6247,11 @@
       <c r="D78" t="s">
         <v>223</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="9" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79">
         <v>77</v>
       </c>
@@ -6091,25 +6261,25 @@
       <c r="D79" t="s">
         <v>225</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="9" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>78</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="9" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>79</v>
       </c>
@@ -6119,11 +6289,11 @@
       <c r="D81" t="s">
         <v>227</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="9" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82">
         <v>80</v>
       </c>
@@ -6133,11 +6303,11 @@
       <c r="D82" t="s">
         <v>228</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="9" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83">
         <v>81</v>
       </c>
@@ -6147,11 +6317,11 @@
       <c r="D83" t="s">
         <v>230</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="9" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84">
         <v>82</v>
       </c>
@@ -6161,11 +6331,11 @@
       <c r="D84" t="s">
         <v>232</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="9" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85">
         <v>83</v>
       </c>
@@ -6175,11 +6345,11 @@
       <c r="D85" t="s">
         <v>234</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="9" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86">
         <v>84</v>
       </c>
@@ -6189,11 +6359,11 @@
       <c r="D86" t="s">
         <v>236</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="9" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87">
         <v>85</v>
       </c>
@@ -6203,11 +6373,11 @@
       <c r="D87" t="s">
         <v>238</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="9" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88">
         <v>86</v>
       </c>
@@ -6217,11 +6387,11 @@
       <c r="D88" t="s">
         <v>17</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="9" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89">
         <v>87</v>
       </c>
@@ -6231,11 +6401,11 @@
       <c r="D89" t="s">
         <v>240</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="9" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90">
         <v>88</v>
       </c>
@@ -6245,11 +6415,11 @@
       <c r="D90" t="s">
         <v>242</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="9" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91">
         <v>89</v>
       </c>
@@ -6259,11 +6429,11 @@
       <c r="D91" t="s">
         <v>244</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="9" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92">
         <v>90</v>
       </c>
@@ -6273,11 +6443,11 @@
       <c r="D92" t="s">
         <v>246</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="9" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93">
         <v>91</v>
       </c>
@@ -6287,11 +6457,11 @@
       <c r="D93" t="s">
         <v>248</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="9" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B94">
         <v>92</v>
       </c>
@@ -6301,11 +6471,11 @@
       <c r="D94" t="s">
         <v>18</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="9" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95">
         <v>93</v>
       </c>
@@ -6315,11 +6485,11 @@
       <c r="D95" t="s">
         <v>250</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="9" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96">
         <v>94</v>
       </c>
@@ -6329,11 +6499,11 @@
       <c r="D96" t="s">
         <v>252</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="9" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97">
         <v>95</v>
       </c>
@@ -6343,11 +6513,11 @@
       <c r="D97" t="s">
         <v>254</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="9" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98">
         <v>96</v>
       </c>
@@ -6357,11 +6527,11 @@
       <c r="D98" t="s">
         <v>256</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="9" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99">
         <v>97</v>
       </c>
@@ -6371,11 +6541,11 @@
       <c r="D99" t="s">
         <v>19</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="9" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100">
         <v>98</v>
       </c>
@@ -6385,11 +6555,11 @@
       <c r="D100" t="s">
         <v>258</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="9" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101">
         <v>99</v>
       </c>
@@ -6399,11 +6569,11 @@
       <c r="D101" t="s">
         <v>260</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="9" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102">
         <v>100</v>
       </c>
@@ -6413,11 +6583,11 @@
       <c r="D102" t="s">
         <v>262</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="9" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103">
         <v>101</v>
       </c>
@@ -6427,11 +6597,11 @@
       <c r="D103" t="s">
         <v>264</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="9" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104">
         <v>102</v>
       </c>
@@ -6441,11 +6611,11 @@
       <c r="D104" t="s">
         <v>266</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="9" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105">
         <v>103</v>
       </c>
@@ -6455,11 +6625,11 @@
       <c r="D105" t="s">
         <v>268</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="9" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B106">
         <v>104</v>
       </c>
@@ -6469,11 +6639,11 @@
       <c r="D106" t="s">
         <v>270</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="9" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B107">
         <v>105</v>
       </c>
@@ -6483,11 +6653,11 @@
       <c r="D107" t="s">
         <v>272</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="9" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B108">
         <v>106</v>
       </c>
@@ -6497,11 +6667,11 @@
       <c r="D108" t="s">
         <v>20</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="9" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B109">
         <v>107</v>
       </c>
@@ -6511,11 +6681,11 @@
       <c r="D109" t="s">
         <v>274</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="9" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B110">
         <v>108</v>
       </c>
@@ -6525,11 +6695,11 @@
       <c r="D110" t="s">
         <v>276</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="9" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B111">
         <v>109</v>
       </c>
@@ -6539,11 +6709,11 @@
       <c r="D111" t="s">
         <v>278</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="9" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B112">
         <v>110</v>
       </c>
@@ -6553,11 +6723,11 @@
       <c r="D112" t="s">
         <v>280</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="9" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B113">
         <v>111</v>
       </c>
@@ -6567,11 +6737,11 @@
       <c r="D113" t="s">
         <v>282</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="9" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B114">
         <v>112</v>
       </c>
@@ -6581,11 +6751,11 @@
       <c r="D114" t="s">
         <v>284</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="9" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B115">
         <v>113</v>
       </c>
@@ -6595,11 +6765,11 @@
       <c r="D115" t="s">
         <v>21</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="9" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B116">
         <v>114</v>
       </c>
@@ -6609,11 +6779,11 @@
       <c r="D116" t="s">
         <v>286</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="9" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B117">
         <v>115</v>
       </c>
@@ -6623,11 +6793,11 @@
       <c r="D117" t="s">
         <v>22</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="9" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B118">
         <v>116</v>
       </c>
@@ -6637,11 +6807,11 @@
       <c r="D118" t="s">
         <v>288</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="9" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B119">
         <v>117</v>
       </c>
@@ -6651,11 +6821,11 @@
       <c r="D119" t="s">
         <v>290</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="9" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B120">
         <v>118</v>
       </c>
@@ -6665,11 +6835,11 @@
       <c r="D120" t="s">
         <v>292</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="9" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B121">
         <v>119</v>
       </c>
@@ -6679,11 +6849,11 @@
       <c r="D121" t="s">
         <v>294</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="9" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B122">
         <v>120</v>
       </c>
@@ -6693,11 +6863,11 @@
       <c r="D122" t="s">
         <v>296</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="9" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B123">
         <v>121</v>
       </c>
@@ -6707,11 +6877,11 @@
       <c r="D123" t="s">
         <v>298</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="9" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B124">
         <v>122</v>
       </c>
@@ -6721,11 +6891,11 @@
       <c r="D124" t="s">
         <v>300</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="9" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B125">
         <v>123</v>
       </c>
@@ -6735,11 +6905,11 @@
       <c r="D125" t="s">
         <v>302</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="9" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B126">
         <v>124</v>
       </c>
@@ -6749,11 +6919,11 @@
       <c r="D126" t="s">
         <v>304</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="9" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B127">
         <v>125</v>
       </c>
@@ -6763,11 +6933,11 @@
       <c r="D127" t="s">
         <v>306</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="9" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B128">
         <v>126</v>
       </c>
@@ -6777,11 +6947,11 @@
       <c r="D128" t="s">
         <v>308</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="9" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B129">
         <v>127</v>
       </c>
@@ -6791,11 +6961,11 @@
       <c r="D129" t="s">
         <v>310</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="9" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B130">
         <v>128</v>
       </c>
@@ -6805,11 +6975,11 @@
       <c r="D130" t="s">
         <v>312</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="9" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B131">
         <v>129</v>
       </c>
@@ -6819,11 +6989,11 @@
       <c r="D131" t="s">
         <v>314</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="9" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B132">
         <v>130</v>
       </c>
@@ -6833,11 +7003,11 @@
       <c r="D132" t="s">
         <v>316</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="9" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B133">
         <v>131</v>
       </c>
@@ -6847,11 +7017,11 @@
       <c r="D133" t="s">
         <v>23</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="9" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B134">
         <v>132</v>
       </c>
@@ -6861,11 +7031,11 @@
       <c r="D134" t="s">
         <v>24</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="9" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B135">
         <v>133</v>
       </c>
@@ -6875,11 +7045,11 @@
       <c r="D135" t="s">
         <v>319</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="9" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B136">
         <v>134</v>
       </c>
@@ -6889,11 +7059,11 @@
       <c r="D136" t="s">
         <v>321</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="9" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B137">
         <v>135</v>
       </c>
@@ -6903,11 +7073,11 @@
       <c r="D137" t="s">
         <v>25</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="9" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B138">
         <v>136</v>
       </c>
@@ -6917,11 +7087,11 @@
       <c r="D138" t="s">
         <v>323</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="9" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B139">
         <v>137</v>
       </c>
@@ -6931,11 +7101,11 @@
       <c r="D139" t="s">
         <v>325</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="9" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B140">
         <v>138</v>
       </c>
@@ -6945,11 +7115,11 @@
       <c r="D140" t="s">
         <v>327</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="9" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B141">
         <v>139</v>
       </c>
@@ -6959,11 +7129,11 @@
       <c r="D141" t="s">
         <v>26</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="9" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B142">
         <v>140</v>
       </c>
@@ -6973,11 +7143,11 @@
       <c r="D142" t="s">
         <v>329</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="9" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B143">
         <v>141</v>
       </c>
@@ -6987,11 +7157,11 @@
       <c r="D143" t="s">
         <v>331</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="9" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B144">
         <v>142</v>
       </c>
@@ -7001,11 +7171,11 @@
       <c r="D144" t="s">
         <v>333</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="9" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B145">
         <v>143</v>
       </c>
@@ -7015,11 +7185,11 @@
       <c r="D145" t="s">
         <v>335</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="9" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B146">
         <v>144</v>
       </c>
@@ -7029,11 +7199,11 @@
       <c r="D146" t="s">
         <v>337</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="9" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B147">
         <v>145</v>
       </c>
@@ -7043,11 +7213,11 @@
       <c r="D147" t="s">
         <v>339</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="9" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B148">
         <v>146</v>
       </c>
@@ -7057,11 +7227,11 @@
       <c r="D148" t="s">
         <v>341</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="9" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B149">
         <v>147</v>
       </c>
@@ -7071,11 +7241,11 @@
       <c r="D149" t="s">
         <v>343</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="9" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B150">
         <v>148</v>
       </c>
@@ -7085,11 +7255,11 @@
       <c r="D150" t="s">
         <v>345</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="9" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B151">
         <v>149</v>
       </c>
@@ -7099,11 +7269,11 @@
       <c r="D151" t="s">
         <v>347</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="9" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B152">
         <v>150</v>
       </c>
@@ -7113,11 +7283,11 @@
       <c r="D152" t="s">
         <v>349</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="9" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B153">
         <v>151</v>
       </c>
@@ -7127,11 +7297,11 @@
       <c r="D153" t="s">
         <v>351</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="9" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B154">
         <v>152</v>
       </c>
@@ -7141,11 +7311,11 @@
       <c r="D154" t="s">
         <v>353</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="9" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B155">
         <v>153</v>
       </c>
@@ -7155,11 +7325,11 @@
       <c r="D155" t="s">
         <v>355</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="9" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B156">
         <v>154</v>
       </c>
@@ -7169,11 +7339,11 @@
       <c r="D156" t="s">
         <v>27</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="9" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B157">
         <v>155</v>
       </c>
@@ -7183,11 +7353,11 @@
       <c r="D157" t="s">
         <v>28</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="9" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B158">
         <v>156</v>
       </c>
@@ -7197,11 +7367,11 @@
       <c r="D158" t="s">
         <v>357</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="9" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B159">
         <v>157</v>
       </c>
@@ -7211,11 +7381,11 @@
       <c r="D159" t="s">
         <v>359</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="9" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B160">
         <v>158</v>
       </c>
@@ -7225,11 +7395,11 @@
       <c r="D160" t="s">
         <v>361</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="9" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B161">
         <v>159</v>
       </c>
@@ -7239,11 +7409,11 @@
       <c r="D161" t="s">
         <v>362</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="9" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B162">
         <v>160</v>
       </c>
@@ -7253,11 +7423,11 @@
       <c r="D162" t="s">
         <v>364</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="9" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B163">
         <v>161</v>
       </c>
@@ -7267,11 +7437,11 @@
       <c r="D163" t="s">
         <v>366</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="9" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B164">
         <v>162</v>
       </c>
@@ -7281,11 +7451,11 @@
       <c r="D164" t="s">
         <v>368</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="9" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B165">
         <v>163</v>
       </c>
@@ -7295,11 +7465,11 @@
       <c r="D165" t="s">
         <v>30</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="9" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B166">
         <v>164</v>
       </c>
@@ -7309,11 +7479,11 @@
       <c r="D166" t="s">
         <v>31</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="9" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B167">
         <v>165</v>
       </c>
@@ -7323,11 +7493,11 @@
       <c r="D167" t="s">
         <v>370</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="9" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B168">
         <v>166</v>
       </c>
@@ -7337,11 +7507,11 @@
       <c r="D168" t="s">
         <v>372</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="9" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B169">
         <v>167</v>
       </c>
@@ -7351,11 +7521,11 @@
       <c r="D169" t="s">
         <v>373</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="9" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B170">
         <v>168</v>
       </c>
@@ -7365,11 +7535,11 @@
       <c r="D170" t="s">
         <v>375</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="9" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B171">
         <v>169</v>
       </c>
@@ -7379,11 +7549,11 @@
       <c r="D171" t="s">
         <v>33</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="9" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B172">
         <v>170</v>
       </c>
@@ -7393,11 +7563,11 @@
       <c r="D172" t="s">
         <v>377</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="9" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B173">
         <v>171</v>
       </c>
@@ -7407,11 +7577,11 @@
       <c r="D173" t="s">
         <v>379</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="9" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B174">
         <v>172</v>
       </c>
@@ -7421,11 +7591,11 @@
       <c r="D174" t="s">
         <v>381</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="9" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B175">
         <v>173</v>
       </c>
@@ -7435,11 +7605,11 @@
       <c r="D175" t="s">
         <v>383</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="9" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B176">
         <v>174</v>
       </c>
@@ -7449,11 +7619,11 @@
       <c r="D176" t="s">
         <v>385</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="9" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B177">
         <v>175</v>
       </c>
@@ -7463,11 +7633,11 @@
       <c r="D177" t="s">
         <v>387</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="9" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B178">
         <v>176</v>
       </c>
@@ -7477,11 +7647,11 @@
       <c r="D178" t="s">
         <v>389</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="9" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B179">
         <v>177</v>
       </c>
@@ -7491,11 +7661,11 @@
       <c r="D179" t="s">
         <v>391</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="9" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B180">
         <v>178</v>
       </c>
@@ -7505,11 +7675,11 @@
       <c r="D180" t="s">
         <v>393</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="9" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B181">
         <v>179</v>
       </c>
@@ -7519,11 +7689,11 @@
       <c r="D181" t="s">
         <v>395</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="9" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B182">
         <v>180</v>
       </c>
@@ -7533,11 +7703,11 @@
       <c r="D182" t="s">
         <v>396</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="9" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B183">
         <v>181</v>
       </c>
@@ -7547,11 +7717,11 @@
       <c r="D183" t="s">
         <v>34</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="9" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B184">
         <v>182</v>
       </c>
@@ -7561,11 +7731,11 @@
       <c r="D184" t="s">
         <v>35</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="9" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B185">
         <v>183</v>
       </c>
@@ -7575,11 +7745,11 @@
       <c r="D185" t="s">
         <v>398</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="9" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B186">
         <v>184</v>
       </c>
@@ -7589,11 +7759,11 @@
       <c r="D186" t="s">
         <v>400</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="9" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B187">
         <v>185</v>
       </c>
@@ -7603,11 +7773,11 @@
       <c r="D187" t="s">
         <v>402</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="9" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B188">
         <v>186</v>
       </c>
@@ -7617,11 +7787,11 @@
       <c r="D188" t="s">
         <v>404</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="9" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B189">
         <v>187</v>
       </c>
@@ -7631,11 +7801,11 @@
       <c r="D189" t="s">
         <v>406</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B190">
         <v>188</v>
       </c>
@@ -7645,11 +7815,11 @@
       <c r="D190" t="s">
         <v>408</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="9" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B191">
         <v>189</v>
       </c>
@@ -7659,11 +7829,11 @@
       <c r="D191" t="s">
         <v>410</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="9" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B192">
         <v>190</v>
       </c>
@@ -7673,11 +7843,11 @@
       <c r="D192" t="s">
         <v>412</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="9" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B193">
         <v>191</v>
       </c>
@@ -7687,11 +7857,11 @@
       <c r="D193" t="s">
         <v>414</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="9" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B194">
         <v>192</v>
       </c>
@@ -7701,11 +7871,11 @@
       <c r="D194" t="s">
         <v>416</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="9" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B195">
         <v>193</v>
       </c>
@@ -7715,11 +7885,11 @@
       <c r="D195" t="s">
         <v>418</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="9" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B196">
         <v>194</v>
       </c>
@@ -7729,43 +7899,43 @@
       <c r="D196" t="s">
         <v>420</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="9" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="197" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="7">
+    <row r="197" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B197" s="6">
         <v>195</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C197" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G197" s="6" t="s">
         <v>1325</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="H197" s="6" t="s">
         <v>1325</v>
       </c>
-      <c r="E197" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="H197" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I197" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="J197" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K197" s="7" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I197" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K197" s="6" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B198">
         <v>196</v>
       </c>
@@ -7775,11 +7945,11 @@
       <c r="D198" t="s">
         <v>423</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="9" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B199">
         <v>197</v>
       </c>
@@ -7789,11 +7959,11 @@
       <c r="D199" t="s">
         <v>36</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="9" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B200">
         <v>198</v>
       </c>
@@ -7803,11 +7973,11 @@
       <c r="D200" t="s">
         <v>425</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="9" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B201">
         <v>199</v>
       </c>
@@ -7817,11 +7987,11 @@
       <c r="D201" t="s">
         <v>427</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="9" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B202">
         <v>200</v>
       </c>
@@ -7831,11 +8001,11 @@
       <c r="D202" t="s">
         <v>429</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B203">
         <v>201</v>
       </c>
@@ -7845,11 +8015,11 @@
       <c r="D203" t="s">
         <v>431</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="9" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204">
         <v>202</v>
       </c>
@@ -7859,11 +8029,11 @@
       <c r="D204" t="s">
         <v>433</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="9" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B205">
         <v>203</v>
       </c>
@@ -7873,11 +8043,11 @@
       <c r="D205" t="s">
         <v>435</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B206">
         <v>204</v>
       </c>
@@ -7887,11 +8057,11 @@
       <c r="D206" t="s">
         <v>437</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="9" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B207">
         <v>205</v>
       </c>
@@ -7901,11 +8071,11 @@
       <c r="D207" t="s">
         <v>439</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="9" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B208">
         <v>206</v>
       </c>
@@ -7915,11 +8085,11 @@
       <c r="D208" t="s">
         <v>441</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="9" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B209">
         <v>207</v>
       </c>
@@ -7929,11 +8099,11 @@
       <c r="D209" t="s">
         <v>443</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="9" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B210">
         <v>208</v>
       </c>
@@ -7943,11 +8113,11 @@
       <c r="D210" t="s">
         <v>445</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="9" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B211">
         <v>209</v>
       </c>
@@ -7957,11 +8127,11 @@
       <c r="D211" t="s">
         <v>447</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="9" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B212">
         <v>210</v>
       </c>
@@ -7971,11 +8141,11 @@
       <c r="D212" t="s">
         <v>449</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="9" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B213">
         <v>211</v>
       </c>
@@ -7985,11 +8155,11 @@
       <c r="D213" t="s">
         <v>451</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="9" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B214">
         <v>212</v>
       </c>
@@ -7999,11 +8169,11 @@
       <c r="D214" t="s">
         <v>453</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="9" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B215">
         <v>213</v>
       </c>
@@ -8013,11 +8183,11 @@
       <c r="D215" t="s">
         <v>455</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="9" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B216">
         <v>214</v>
       </c>
@@ -8027,11 +8197,11 @@
       <c r="D216" t="s">
         <v>37</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="9" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B217">
         <v>215</v>
       </c>
@@ -8041,11 +8211,11 @@
       <c r="D217" t="s">
         <v>457</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="9" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B218">
         <v>216</v>
       </c>
@@ -8055,11 +8225,11 @@
       <c r="D218" t="s">
         <v>459</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="9" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B219">
         <v>217</v>
       </c>
@@ -8069,11 +8239,11 @@
       <c r="D219" t="s">
         <v>461</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="9" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B220">
         <v>218</v>
       </c>
@@ -8083,11 +8253,11 @@
       <c r="D220" t="s">
         <v>38</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="9" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B221">
         <v>219</v>
       </c>
@@ -8097,11 +8267,11 @@
       <c r="D221" t="s">
         <v>463</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="9" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B222">
         <v>220</v>
       </c>
@@ -8111,11 +8281,11 @@
       <c r="D222" t="s">
         <v>39</v>
       </c>
-      <c r="F222" s="4" t="s">
+      <c r="F222" s="15" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B223">
         <v>221</v>
       </c>
@@ -8125,11 +8295,11 @@
       <c r="D223" t="s">
         <v>465</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="9" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B224">
         <v>222</v>
       </c>
@@ -8139,11 +8309,11 @@
       <c r="D224" t="s">
         <v>40</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="9" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B225">
         <v>223</v>
       </c>
@@ -8153,11 +8323,11 @@
       <c r="D225" t="s">
         <v>466</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="9" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B226">
         <v>224</v>
       </c>
@@ -8167,11 +8337,11 @@
       <c r="D226" t="s">
         <v>468</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="9" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B227">
         <v>225</v>
       </c>
@@ -8181,11 +8351,11 @@
       <c r="D227" t="s">
         <v>470</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="9" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B228">
         <v>226</v>
       </c>
@@ -8195,11 +8365,11 @@
       <c r="D228" t="s">
         <v>472</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="9" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B229">
         <v>227</v>
       </c>
@@ -8209,11 +8379,11 @@
       <c r="D229" t="s">
         <v>474</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="9" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B230">
         <v>228</v>
       </c>
@@ -8223,11 +8393,11 @@
       <c r="D230" t="s">
         <v>476</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="9" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B231">
         <v>229</v>
       </c>
@@ -8237,11 +8407,11 @@
       <c r="D231" t="s">
         <v>42</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="9" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B232">
         <v>230</v>
       </c>
@@ -8251,11 +8421,11 @@
       <c r="D232" t="s">
         <v>478</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="9" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233">
         <v>231</v>
       </c>
@@ -8265,11 +8435,11 @@
       <c r="D233" t="s">
         <v>480</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="9" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B234">
         <v>232</v>
       </c>
@@ -8279,11 +8449,11 @@
       <c r="D234" t="s">
         <v>481</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="9" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B235">
         <v>233</v>
       </c>
@@ -8293,11 +8463,11 @@
       <c r="D235" t="s">
         <v>483</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="9" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B236">
         <v>234</v>
       </c>
@@ -8307,43 +8477,43 @@
       <c r="D236" t="s">
         <v>43</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="9" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="237" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="7">
+    <row r="237" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B237" s="6">
         <v>235</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C237" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F237" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G237" s="6" t="s">
         <v>1325</v>
       </c>
-      <c r="D237" s="7" t="s">
+      <c r="H237" s="6" t="s">
         <v>1325</v>
       </c>
-      <c r="E237" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="H237" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I237" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="J237" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="K237" s="7" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I237" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J237" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K237" s="6" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B238">
         <v>236</v>
       </c>
@@ -8353,11 +8523,11 @@
       <c r="D238" t="s">
         <v>485</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="9" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B239">
         <v>237</v>
       </c>
@@ -8367,11 +8537,11 @@
       <c r="D239" t="s">
         <v>487</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239" s="9" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B240">
         <v>238</v>
       </c>
@@ -8381,11 +8551,11 @@
       <c r="D240" t="s">
         <v>489</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" s="9" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B241">
         <v>239</v>
       </c>
@@ -8395,11 +8565,11 @@
       <c r="D241" t="s">
         <v>44</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="9" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B242">
         <v>240</v>
       </c>
@@ -8409,11 +8579,11 @@
       <c r="D242" t="s">
         <v>491</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="9" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B243">
         <v>241</v>
       </c>
@@ -8423,11 +8593,11 @@
       <c r="D243" t="s">
         <v>45</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="9" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B244">
         <v>242</v>
       </c>
@@ -8437,11 +8607,11 @@
       <c r="D244" t="s">
         <v>494</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="9" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B245">
         <v>243</v>
       </c>
@@ -8451,11 +8621,11 @@
       <c r="D245" t="s">
         <v>496</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="9" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B246">
         <v>244</v>
       </c>
@@ -8465,11 +8635,11 @@
       <c r="D246" t="s">
         <v>498</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="9" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B247">
         <v>245</v>
       </c>
@@ -8479,11 +8649,11 @@
       <c r="D247" t="s">
         <v>500</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="9" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B248">
         <v>246</v>
       </c>
@@ -8493,11 +8663,11 @@
       <c r="D248" t="s">
         <v>502</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="9" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B249">
         <v>247</v>
       </c>
@@ -8507,11 +8677,11 @@
       <c r="D249" t="s">
         <v>504</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F249" s="9" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B250">
         <v>248</v>
       </c>
@@ -8521,11 +8691,11 @@
       <c r="D250" t="s">
         <v>506</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F250" s="9" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B251">
         <v>249</v>
       </c>
@@ -8535,11 +8705,11 @@
       <c r="D251" t="s">
         <v>508</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="9" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B252">
         <v>250</v>
       </c>
@@ -8549,11 +8719,11 @@
       <c r="D252" t="s">
         <v>510</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="9" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B253">
         <v>251</v>
       </c>
@@ -8563,11 +8733,11 @@
       <c r="D253" t="s">
         <v>512</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F253" s="9" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B254">
         <v>252</v>
       </c>
@@ -8577,11 +8747,11 @@
       <c r="D254" t="s">
         <v>46</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" s="9" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B255">
         <v>253</v>
       </c>
@@ -8591,11 +8761,11 @@
       <c r="D255" t="s">
         <v>514</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F255" s="9" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B256">
         <v>254</v>
       </c>
@@ -8605,11 +8775,11 @@
       <c r="D256" t="s">
         <v>516</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="9" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B257">
         <v>255</v>
       </c>
@@ -8619,11 +8789,11 @@
       <c r="D257" t="s">
         <v>518</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F257" s="9" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B258">
         <v>256</v>
       </c>
@@ -8633,11 +8803,11 @@
       <c r="D258" t="s">
         <v>520</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F258" s="9" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B259">
         <v>257</v>
       </c>
@@ -8647,11 +8817,11 @@
       <c r="D259" t="s">
         <v>47</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F259" s="9" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B260">
         <v>258</v>
       </c>
@@ -8661,11 +8831,11 @@
       <c r="D260" t="s">
         <v>522</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="9" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B261">
         <v>259</v>
       </c>
@@ -8675,11 +8845,11 @@
       <c r="D261" t="s">
         <v>524</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="9" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B262">
         <v>260</v>
       </c>
@@ -8689,11 +8859,11 @@
       <c r="D262" t="s">
         <v>526</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" s="9" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B263">
         <v>261</v>
       </c>
@@ -8703,11 +8873,11 @@
       <c r="D263" t="s">
         <v>528</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F263" s="9" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B264">
         <v>262</v>
       </c>
@@ -8717,11 +8887,11 @@
       <c r="D264" t="s">
         <v>530</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="9" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B265">
         <v>263</v>
       </c>
@@ -8731,11 +8901,11 @@
       <c r="D265" t="s">
         <v>532</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="9" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B266">
         <v>264</v>
       </c>
@@ -8745,11 +8915,11 @@
       <c r="D266" t="s">
         <v>48</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="9" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B267">
         <v>265</v>
       </c>
@@ -8759,11 +8929,11 @@
       <c r="D267" t="s">
         <v>49</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F267" s="9" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B268">
         <v>266</v>
       </c>
@@ -8773,11 +8943,11 @@
       <c r="D268" t="s">
         <v>50</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F268" s="9" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B269">
         <v>267</v>
       </c>
@@ -8787,11 +8957,11 @@
       <c r="D269" t="s">
         <v>51</v>
       </c>
-      <c r="F269" t="s">
+      <c r="F269" s="9" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B270">
         <v>268</v>
       </c>
@@ -8801,11 +8971,11 @@
       <c r="D270" t="s">
         <v>534</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F270" s="9" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B271">
         <v>269</v>
       </c>
@@ -8815,11 +8985,11 @@
       <c r="D271" t="s">
         <v>536</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F271" s="9" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B272">
         <v>270</v>
       </c>
@@ -8829,11 +8999,11 @@
       <c r="D272" t="s">
         <v>52</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F272" s="9" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B273">
         <v>271</v>
       </c>
@@ -8843,11 +9013,11 @@
       <c r="D273" t="s">
         <v>538</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F273" s="9" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B274">
         <v>272</v>
       </c>
@@ -8857,25 +9027,25 @@
       <c r="D274" t="s">
         <v>540</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F274" s="9" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B275">
         <v>273</v>
       </c>
-      <c r="C275" s="5">
+      <c r="C275" s="4">
         <v>1925</v>
       </c>
-      <c r="D275" s="5">
+      <c r="D275" s="4">
         <v>1925</v>
       </c>
-      <c r="F275" t="s">
+      <c r="F275" s="9" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B276">
         <v>274</v>
       </c>
@@ -8885,11 +9055,11 @@
       <c r="D276" t="s">
         <v>542</v>
       </c>
-      <c r="F276" t="s">
+      <c r="F276" s="9" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B277">
         <v>275</v>
       </c>
@@ -8899,11 +9069,11 @@
       <c r="D277" t="s">
         <v>544</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F277" s="9" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B278">
         <v>276</v>
       </c>
@@ -8913,11 +9083,11 @@
       <c r="D278" t="s">
         <v>53</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F278" s="9" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B279">
         <v>277</v>
       </c>
@@ -8927,11 +9097,11 @@
       <c r="D279" t="s">
         <v>54</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F279" s="9" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B280">
         <v>278</v>
       </c>
@@ -8941,11 +9111,11 @@
       <c r="D280" t="s">
         <v>546</v>
       </c>
-      <c r="F280" t="s">
+      <c r="F280" s="9" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B281">
         <v>279</v>
       </c>
@@ -8955,11 +9125,11 @@
       <c r="D281" t="s">
         <v>548</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F281" s="9" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B282">
         <v>280</v>
       </c>
@@ -8969,11 +9139,11 @@
       <c r="D282" t="s">
         <v>550</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F282" s="9" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B283">
         <v>281</v>
       </c>
@@ -8983,11 +9153,11 @@
       <c r="D283" t="s">
         <v>55</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F283" s="9" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B284">
         <v>282</v>
       </c>
@@ -8997,11 +9167,11 @@
       <c r="D284" t="s">
         <v>552</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F284" s="9" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B285">
         <v>283</v>
       </c>
@@ -9011,25 +9181,25 @@
       <c r="D285" t="s">
         <v>56</v>
       </c>
-      <c r="F285" t="s">
+      <c r="F285" s="9" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B286">
         <v>284</v>
       </c>
-      <c r="C286" s="5">
+      <c r="C286" s="4">
         <v>39</v>
       </c>
-      <c r="D286" s="5">
+      <c r="D286" s="4">
         <v>39</v>
       </c>
-      <c r="F286" t="s">
+      <c r="F286" s="9" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B287">
         <v>285</v>
       </c>
@@ -9039,11 +9209,11 @@
       <c r="D287" t="s">
         <v>57</v>
       </c>
-      <c r="F287" t="s">
+      <c r="F287" s="9" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B288">
         <v>286</v>
       </c>
@@ -9053,11 +9223,11 @@
       <c r="D288" t="s">
         <v>554</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F288" s="9" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B289">
         <v>287</v>
       </c>
@@ -9067,11 +9237,11 @@
       <c r="D289" t="s">
         <v>556</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F289" s="9" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B290">
         <v>288</v>
       </c>
@@ -9081,11 +9251,11 @@
       <c r="D290" t="s">
         <v>58</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F290" s="9" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B291">
         <v>289</v>
       </c>
@@ -9095,11 +9265,11 @@
       <c r="D291" t="s">
         <v>558</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F291" s="9" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B292">
         <v>290</v>
       </c>
@@ -9109,11 +9279,11 @@
       <c r="D292" t="s">
         <v>560</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F292" s="9" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B293">
         <v>291</v>
       </c>
@@ -9123,11 +9293,11 @@
       <c r="D293" t="s">
         <v>562</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F293" s="9" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B294">
         <v>292</v>
       </c>
@@ -9137,11 +9307,11 @@
       <c r="D294" t="s">
         <v>59</v>
       </c>
-      <c r="F294" t="s">
+      <c r="F294" s="9" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B295">
         <v>293</v>
       </c>
@@ -9151,11 +9321,11 @@
       <c r="D295" t="s">
         <v>60</v>
       </c>
-      <c r="F295" t="s">
+      <c r="F295" s="9" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B296">
         <v>294</v>
       </c>
@@ -9165,11 +9335,11 @@
       <c r="D296" t="s">
         <v>61</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F296" s="9" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B297">
         <v>295</v>
       </c>
@@ -9179,11 +9349,11 @@
       <c r="D297" t="s">
         <v>564</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F297" s="9" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B298">
         <v>296</v>
       </c>
@@ -9193,11 +9363,11 @@
       <c r="D298" t="s">
         <v>566</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F298" s="9" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B299">
         <v>297</v>
       </c>
@@ -9207,11 +9377,11 @@
       <c r="D299" t="s">
         <v>568</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F299" s="9" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B300">
         <v>298</v>
       </c>
@@ -9221,11 +9391,11 @@
       <c r="D300" t="s">
         <v>570</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F300" s="9" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B301">
         <v>299</v>
       </c>
@@ -9235,11 +9405,11 @@
       <c r="D301" t="s">
         <v>572</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F301" s="9" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B302">
         <v>300</v>
       </c>
@@ -9249,11 +9419,11 @@
       <c r="D302" t="s">
         <v>574</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F302" s="9" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B303">
         <v>301</v>
       </c>
@@ -9263,11 +9433,11 @@
       <c r="D303" t="s">
         <v>576</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="9" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B304">
         <v>302</v>
       </c>
@@ -9277,11 +9447,11 @@
       <c r="D304" t="s">
         <v>578</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F304" s="9" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B305">
         <v>303</v>
       </c>
@@ -9291,11 +9461,11 @@
       <c r="D305" t="s">
         <v>580</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F305" s="9" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B306">
         <v>304</v>
       </c>
@@ -9305,11 +9475,11 @@
       <c r="D306" t="s">
         <v>582</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F306" s="9" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B307">
         <v>305</v>
       </c>
@@ -9319,11 +9489,11 @@
       <c r="D307" t="s">
         <v>584</v>
       </c>
-      <c r="F307" t="s">
+      <c r="F307" s="9" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B308">
         <v>306</v>
       </c>
@@ -9333,11 +9503,11 @@
       <c r="D308" t="s">
         <v>586</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F308" s="9" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B309">
         <v>307</v>
       </c>
@@ -9347,11 +9517,11 @@
       <c r="D309" t="s">
         <v>588</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F309" s="9" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B310">
         <v>308</v>
       </c>
@@ -9361,11 +9531,11 @@
       <c r="D310" t="s">
         <v>590</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F310" s="9" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B311">
         <v>309</v>
       </c>
@@ -9375,11 +9545,11 @@
       <c r="D311" t="s">
         <v>592</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F311" s="9" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B312">
         <v>310</v>
       </c>
@@ -9389,11 +9559,11 @@
       <c r="D312" t="s">
         <v>594</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F312" s="9" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B313">
         <v>311</v>
       </c>
@@ -9403,11 +9573,11 @@
       <c r="D313" t="s">
         <v>596</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F313" s="9" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B314">
         <v>312</v>
       </c>
@@ -9417,11 +9587,11 @@
       <c r="D314" t="s">
         <v>62</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F314" s="9" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B315">
         <v>313</v>
       </c>
@@ -9431,11 +9601,11 @@
       <c r="D315" t="s">
         <v>598</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F315" s="9" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B316">
         <v>314</v>
       </c>
@@ -9445,11 +9615,11 @@
       <c r="D316" t="s">
         <v>600</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F316" s="9" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B317">
         <v>315</v>
       </c>
@@ -9459,11 +9629,11 @@
       <c r="D317" t="s">
         <v>602</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F317" s="9" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B318">
         <v>316</v>
       </c>
@@ -9473,11 +9643,11 @@
       <c r="D318" t="s">
         <v>63</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F318" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B319">
         <v>317</v>
       </c>
@@ -9487,11 +9657,11 @@
       <c r="D319" t="s">
         <v>604</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F319" s="9" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B320">
         <v>318</v>
       </c>
@@ -9501,11 +9671,11 @@
       <c r="D320" t="s">
         <v>606</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F320" s="9" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B321">
         <v>319</v>
       </c>
@@ -9515,11 +9685,11 @@
       <c r="D321" t="s">
         <v>65</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F321" s="9" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B322">
         <v>320</v>
       </c>
@@ -9529,11 +9699,11 @@
       <c r="D322" t="s">
         <v>608</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F322" s="9" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B323">
         <v>321</v>
       </c>
@@ -9543,11 +9713,11 @@
       <c r="D323" t="s">
         <v>610</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F323" s="9" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B324">
         <v>322</v>
       </c>
@@ -9557,11 +9727,11 @@
       <c r="D324" t="s">
         <v>612</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F324" s="9" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B325">
         <v>323</v>
       </c>
@@ -9571,11 +9741,11 @@
       <c r="D325" t="s">
         <v>614</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F325" s="9" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B326">
         <v>324</v>
       </c>
@@ -9585,11 +9755,11 @@
       <c r="D326" t="s">
         <v>66</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F326" s="9" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B327">
         <v>325</v>
       </c>
@@ -9599,11 +9769,11 @@
       <c r="D327" t="s">
         <v>616</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F327" s="9" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B328">
         <v>326</v>
       </c>
@@ -9613,11 +9783,11 @@
       <c r="D328" t="s">
         <v>67</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F328" s="9" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B329">
         <v>327</v>
       </c>
@@ -9627,11 +9797,11 @@
       <c r="D329" t="s">
         <v>618</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F329" s="9" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B330">
         <v>328</v>
       </c>
@@ -9641,11 +9811,11 @@
       <c r="D330" t="s">
         <v>68</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F330" s="9" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B331">
         <v>329</v>
       </c>
@@ -9655,11 +9825,11 @@
       <c r="D331" t="s">
         <v>620</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F331" s="9" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B332">
         <v>330</v>
       </c>
@@ -9669,11 +9839,11 @@
       <c r="D332" t="s">
         <v>622</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="9" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B333">
         <v>331</v>
       </c>
@@ -9683,11 +9853,11 @@
       <c r="D333" t="s">
         <v>624</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F333" s="9" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B334">
         <v>332</v>
       </c>
@@ -9697,11 +9867,11 @@
       <c r="D334" t="s">
         <v>626</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F334" s="9" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B335">
         <v>333</v>
       </c>
@@ -9711,11 +9881,11 @@
       <c r="D335" t="s">
         <v>628</v>
       </c>
-      <c r="F335" t="s">
+      <c r="F335" s="9" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B336">
         <v>334</v>
       </c>
@@ -9725,11 +9895,11 @@
       <c r="D336" t="s">
         <v>69</v>
       </c>
-      <c r="F336" t="s">
+      <c r="F336" s="9" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B337">
         <v>335</v>
       </c>
@@ -9739,11 +9909,11 @@
       <c r="D337" t="s">
         <v>630</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F337" s="9" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B338">
         <v>336</v>
       </c>
@@ -9753,11 +9923,11 @@
       <c r="D338" t="s">
         <v>632</v>
       </c>
-      <c r="F338" t="s">
+      <c r="F338" s="9" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B339">
         <v>337</v>
       </c>
@@ -9767,11 +9937,11 @@
       <c r="D339" t="s">
         <v>634</v>
       </c>
-      <c r="F339" t="s">
+      <c r="F339" s="9" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B340">
         <v>338</v>
       </c>
@@ -9781,11 +9951,11 @@
       <c r="D340" t="s">
         <v>70</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F340" s="9" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B341">
         <v>339</v>
       </c>
@@ -9795,11 +9965,11 @@
       <c r="D341" t="s">
         <v>636</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F341" s="9" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B342">
         <v>340</v>
       </c>
@@ -9809,11 +9979,11 @@
       <c r="D342" t="s">
         <v>638</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F342" s="9" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B343">
         <v>341</v>
       </c>
@@ -9823,11 +9993,11 @@
       <c r="D343" t="s">
         <v>640</v>
       </c>
-      <c r="F343" t="s">
+      <c r="F343" s="9" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B344">
         <v>342</v>
       </c>
@@ -9837,11 +10007,11 @@
       <c r="D344" t="s">
         <v>642</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F344" s="9" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B345">
         <v>343</v>
       </c>
@@ -9851,11 +10021,11 @@
       <c r="D345" t="s">
         <v>644</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F345" s="9" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B346">
         <v>344</v>
       </c>
@@ -9865,11 +10035,11 @@
       <c r="D346" t="s">
         <v>646</v>
       </c>
-      <c r="F346" t="s">
+      <c r="F346" s="9" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B347">
         <v>345</v>
       </c>
@@ -9879,11 +10049,11 @@
       <c r="D347" t="s">
         <v>71</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F347" s="9" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B348">
         <v>346</v>
       </c>
@@ -9893,11 +10063,11 @@
       <c r="D348" t="s">
         <v>72</v>
       </c>
-      <c r="F348" t="s">
+      <c r="F348" s="9" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B349">
         <v>347</v>
       </c>
@@ -9907,11 +10077,11 @@
       <c r="D349" t="s">
         <v>649</v>
       </c>
-      <c r="F349" t="s">
+      <c r="F349" s="9" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B350">
         <v>348</v>
       </c>
@@ -9921,11 +10091,11 @@
       <c r="D350" t="s">
         <v>73</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F350" s="9" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B351">
         <v>349</v>
       </c>
@@ -9935,11 +10105,11 @@
       <c r="D351" t="s">
         <v>651</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F351" s="9" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B352">
         <v>350</v>
       </c>
@@ -9949,11 +10119,11 @@
       <c r="D352" t="s">
         <v>74</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F352" s="9" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B353">
         <v>351</v>
       </c>
@@ -9963,11 +10133,11 @@
       <c r="D353" t="s">
         <v>653</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F353" s="9" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B354">
         <v>352</v>
       </c>
@@ -9977,11 +10147,11 @@
       <c r="D354" t="s">
         <v>655</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F354" s="9" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B355">
         <v>353</v>
       </c>
@@ -9991,11 +10161,11 @@
       <c r="D355" t="s">
         <v>657</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F355" s="9" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B356">
         <v>354</v>
       </c>
@@ -10005,11 +10175,11 @@
       <c r="D356" t="s">
         <v>659</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F356" s="9" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B357">
         <v>355</v>
       </c>
@@ -10019,11 +10189,11 @@
       <c r="D357" t="s">
         <v>661</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F357" s="9" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B358">
         <v>356</v>
       </c>
@@ -10033,11 +10203,11 @@
       <c r="D358" t="s">
         <v>663</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F358" s="9" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B359">
         <v>357</v>
       </c>
@@ -10047,11 +10217,11 @@
       <c r="D359" t="s">
         <v>665</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F359" s="9" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B360">
         <v>358</v>
       </c>
@@ -10061,11 +10231,11 @@
       <c r="D360" t="s">
         <v>667</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F360" s="9" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B361">
         <v>359</v>
       </c>
@@ -10075,11 +10245,11 @@
       <c r="D361" t="s">
         <v>669</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F361" s="9" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B362">
         <v>360</v>
       </c>
@@ -10089,11 +10259,11 @@
       <c r="D362" t="s">
         <v>671</v>
       </c>
-      <c r="F362" t="s">
+      <c r="F362" s="9" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B363">
         <v>361</v>
       </c>
@@ -10103,11 +10273,11 @@
       <c r="D363" t="s">
         <v>672</v>
       </c>
-      <c r="F363" t="s">
+      <c r="F363" s="9" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B364">
         <v>362</v>
       </c>
@@ -10117,11 +10287,11 @@
       <c r="D364" t="s">
         <v>674</v>
       </c>
-      <c r="F364" t="s">
+      <c r="F364" s="9" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B365">
         <v>363</v>
       </c>
@@ -10131,11 +10301,11 @@
       <c r="D365" t="s">
         <v>76</v>
       </c>
-      <c r="F365" t="s">
+      <c r="F365" s="9" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B366">
         <v>364</v>
       </c>
@@ -10145,11 +10315,11 @@
       <c r="D366" t="s">
         <v>676</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F366" s="9" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B367">
         <v>365</v>
       </c>
@@ -10159,11 +10329,11 @@
       <c r="D367" t="s">
         <v>678</v>
       </c>
-      <c r="F367" t="s">
+      <c r="F367" s="9" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B368">
         <v>366</v>
       </c>
@@ -10173,11 +10343,11 @@
       <c r="D368" t="s">
         <v>679</v>
       </c>
-      <c r="F368" t="s">
+      <c r="F368" s="9" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B369">
         <v>367</v>
       </c>
@@ -10187,11 +10357,11 @@
       <c r="D369" t="s">
         <v>681</v>
       </c>
-      <c r="F369" t="s">
+      <c r="F369" s="9" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B370">
         <v>368</v>
       </c>
@@ -10201,11 +10371,11 @@
       <c r="D370" t="s">
         <v>683</v>
       </c>
-      <c r="F370" t="s">
+      <c r="F370" s="9" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B371">
         <v>369</v>
       </c>
@@ -10215,11 +10385,11 @@
       <c r="D371" t="s">
         <v>685</v>
       </c>
-      <c r="F371" t="s">
+      <c r="F371" s="9" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B372">
         <v>370</v>
       </c>
@@ -10229,11 +10399,11 @@
       <c r="D372" t="s">
         <v>686</v>
       </c>
-      <c r="F372" t="s">
+      <c r="F372" s="9" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B373">
         <v>371</v>
       </c>
@@ -10243,11 +10413,11 @@
       <c r="D373" t="s">
         <v>687</v>
       </c>
-      <c r="F373" t="s">
+      <c r="F373" s="9" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B374">
         <v>372</v>
       </c>
@@ -10257,11 +10427,11 @@
       <c r="D374" t="s">
         <v>689</v>
       </c>
-      <c r="F374" t="s">
+      <c r="F374" s="9" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B375">
         <v>373</v>
       </c>
@@ -10271,11 +10441,11 @@
       <c r="D375" t="s">
         <v>691</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F375" s="9" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B376">
         <v>374</v>
       </c>
@@ -10285,11 +10455,11 @@
       <c r="D376" t="s">
         <v>693</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F376" s="9" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B377">
         <v>375</v>
       </c>
@@ -10299,11 +10469,11 @@
       <c r="D377" t="s">
         <v>694</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F377" s="9" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B378">
         <v>376</v>
       </c>
@@ -10313,11 +10483,11 @@
       <c r="D378" t="s">
         <v>696</v>
       </c>
-      <c r="F378" t="s">
+      <c r="F378" s="9" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B379">
         <v>377</v>
       </c>
@@ -10327,11 +10497,11 @@
       <c r="D379" t="s">
         <v>698</v>
       </c>
-      <c r="F379" t="s">
+      <c r="F379" s="9" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B380">
         <v>378</v>
       </c>
@@ -10341,11 +10511,11 @@
       <c r="D380" t="s">
         <v>700</v>
       </c>
-      <c r="F380" t="s">
+      <c r="F380" s="9" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B381">
         <v>379</v>
       </c>
@@ -10355,11 +10525,11 @@
       <c r="D381" t="s">
         <v>702</v>
       </c>
-      <c r="F381" t="s">
+      <c r="F381" s="9" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B382">
         <v>380</v>
       </c>
@@ -10369,11 +10539,11 @@
       <c r="D382" t="s">
         <v>704</v>
       </c>
-      <c r="F382" t="s">
+      <c r="F382" s="9" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B383">
         <v>381</v>
       </c>
@@ -10383,11 +10553,11 @@
       <c r="D383" t="s">
         <v>706</v>
       </c>
-      <c r="F383" t="s">
+      <c r="F383" s="9" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B384">
         <v>382</v>
       </c>
@@ -10397,11 +10567,11 @@
       <c r="D384" t="s">
         <v>708</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F384" s="9" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B385">
         <v>383</v>
       </c>
@@ -10411,11 +10581,11 @@
       <c r="D385" t="s">
         <v>710</v>
       </c>
-      <c r="F385" t="s">
+      <c r="F385" s="9" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B386">
         <v>384</v>
       </c>
@@ -10425,11 +10595,11 @@
       <c r="D386" t="s">
         <v>712</v>
       </c>
-      <c r="F386" t="s">
+      <c r="F386" s="9" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B387">
         <v>385</v>
       </c>
@@ -10439,11 +10609,11 @@
       <c r="D387" t="s">
         <v>714</v>
       </c>
-      <c r="F387" t="s">
+      <c r="F387" s="9" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B388">
         <v>386</v>
       </c>
@@ -10453,11 +10623,11 @@
       <c r="D388" t="s">
         <v>716</v>
       </c>
-      <c r="F388" t="s">
+      <c r="F388" s="9" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B389">
         <v>387</v>
       </c>
@@ -10467,11 +10637,11 @@
       <c r="D389" t="s">
         <v>718</v>
       </c>
-      <c r="F389" t="s">
+      <c r="F389" s="9" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B390">
         <v>388</v>
       </c>
@@ -10481,11 +10651,11 @@
       <c r="D390" t="s">
         <v>720</v>
       </c>
-      <c r="F390" t="s">
+      <c r="F390" s="9" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B391">
         <v>389</v>
       </c>
@@ -10495,11 +10665,11 @@
       <c r="D391" t="s">
         <v>722</v>
       </c>
-      <c r="F391" t="s">
+      <c r="F391" s="9" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B392">
         <v>390</v>
       </c>
@@ -10509,11 +10679,11 @@
       <c r="D392" t="s">
         <v>78</v>
       </c>
-      <c r="F392" t="s">
+      <c r="F392" s="9" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B393">
         <v>391</v>
       </c>
@@ -10523,11 +10693,11 @@
       <c r="D393" t="s">
         <v>79</v>
       </c>
-      <c r="F393" t="s">
+      <c r="F393" s="9" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B394">
         <v>392</v>
       </c>
@@ -10537,25 +10707,25 @@
       <c r="D394" t="s">
         <v>80</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F394" s="9" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B395">
         <v>393</v>
       </c>
       <c r="C395" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D395" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F395" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F395" s="9" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B396">
         <v>394</v>
       </c>
@@ -10565,11 +10735,11 @@
       <c r="D396" t="s">
         <v>725</v>
       </c>
-      <c r="F396" t="s">
+      <c r="F396" s="9" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B397">
         <v>395</v>
       </c>
@@ -10579,11 +10749,11 @@
       <c r="D397" t="s">
         <v>81</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F397" s="9" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B398">
         <v>396</v>
       </c>
@@ -10593,11 +10763,11 @@
       <c r="D398" t="s">
         <v>727</v>
       </c>
-      <c r="F398" t="s">
+      <c r="F398" s="9" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B399">
         <v>397</v>
       </c>
@@ -10607,11 +10777,11 @@
       <c r="D399" t="s">
         <v>729</v>
       </c>
-      <c r="F399" t="s">
+      <c r="F399" s="9" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B400">
         <v>398</v>
       </c>
@@ -10621,11 +10791,11 @@
       <c r="D400" t="s">
         <v>731</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F400" s="9" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B401">
         <v>399</v>
       </c>
@@ -10635,11 +10805,11 @@
       <c r="D401" t="s">
         <v>733</v>
       </c>
-      <c r="F401" t="s">
+      <c r="F401" s="9" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B402">
         <v>400</v>
       </c>
@@ -10649,11 +10819,11 @@
       <c r="D402" t="s">
         <v>735</v>
       </c>
-      <c r="F402" t="s">
+      <c r="F402" s="9" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B403">
         <v>401</v>
       </c>
@@ -10663,11 +10833,11 @@
       <c r="D403" t="s">
         <v>737</v>
       </c>
-      <c r="F403" t="s">
+      <c r="F403" s="9" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B404">
         <v>402</v>
       </c>
@@ -10677,11 +10847,11 @@
       <c r="D404" t="s">
         <v>739</v>
       </c>
-      <c r="F404" t="s">
+      <c r="F404" s="9" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B405">
         <v>403</v>
       </c>
@@ -10691,11 +10861,11 @@
       <c r="D405" t="s">
         <v>82</v>
       </c>
-      <c r="F405" t="s">
+      <c r="F405" s="9" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B406">
         <v>404</v>
       </c>
@@ -10705,11 +10875,11 @@
       <c r="D406" t="s">
         <v>741</v>
       </c>
-      <c r="F406" t="s">
+      <c r="F406" s="9" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B407">
         <v>405</v>
       </c>
@@ -10719,11 +10889,11 @@
       <c r="D407" t="s">
         <v>743</v>
       </c>
-      <c r="F407" t="s">
+      <c r="F407" s="9" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B408">
         <v>406</v>
       </c>
@@ -10733,11 +10903,11 @@
       <c r="D408" t="s">
         <v>83</v>
       </c>
-      <c r="F408" t="s">
+      <c r="F408" s="9" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B409">
         <v>407</v>
       </c>
@@ -10747,11 +10917,11 @@
       <c r="D409" t="s">
         <v>745</v>
       </c>
-      <c r="F409" t="s">
+      <c r="F409" s="9" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B410">
         <v>408</v>
       </c>
@@ -10761,11 +10931,11 @@
       <c r="D410" t="s">
         <v>747</v>
       </c>
-      <c r="F410" t="s">
+      <c r="F410" s="9" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B411">
         <v>409</v>
       </c>
@@ -10775,11 +10945,11 @@
       <c r="D411" t="s">
         <v>749</v>
       </c>
-      <c r="F411" t="s">
+      <c r="F411" s="9" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B412">
         <v>410</v>
       </c>
@@ -10789,11 +10959,11 @@
       <c r="D412" t="s">
         <v>751</v>
       </c>
-      <c r="F412" t="s">
+      <c r="F412" s="9" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B413">
         <v>411</v>
       </c>
@@ -10803,11 +10973,11 @@
       <c r="D413" t="s">
         <v>753</v>
       </c>
-      <c r="F413" t="s">
+      <c r="F413" s="9" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B414">
         <v>412</v>
       </c>
@@ -10817,11 +10987,11 @@
       <c r="D414" t="s">
         <v>84</v>
       </c>
-      <c r="F414" t="s">
+      <c r="F414" s="9" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B415">
         <v>413</v>
       </c>
@@ -10831,11 +11001,11 @@
       <c r="D415" t="s">
         <v>755</v>
       </c>
-      <c r="F415" t="s">
+      <c r="F415" s="9" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B416">
         <v>414</v>
       </c>
@@ -10845,11 +11015,11 @@
       <c r="D416" t="s">
         <v>757</v>
       </c>
-      <c r="F416" t="s">
+      <c r="F416" s="9" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B417">
         <v>415</v>
       </c>
@@ -10859,11 +11029,11 @@
       <c r="D417" t="s">
         <v>759</v>
       </c>
-      <c r="F417" t="s">
+      <c r="F417" s="9" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B418">
         <v>416</v>
       </c>
@@ -10873,11 +11043,11 @@
       <c r="D418" t="s">
         <v>761</v>
       </c>
-      <c r="F418" t="s">
+      <c r="F418" s="9" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B419">
         <v>417</v>
       </c>
@@ -10887,11 +11057,11 @@
       <c r="D419" t="s">
         <v>763</v>
       </c>
-      <c r="F419" t="s">
+      <c r="F419" s="9" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B420">
         <v>418</v>
       </c>
@@ -10901,11 +11071,11 @@
       <c r="D420" t="s">
         <v>85</v>
       </c>
-      <c r="F420" t="s">
+      <c r="F420" s="9" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B421">
         <v>419</v>
       </c>
@@ -10915,11 +11085,11 @@
       <c r="D421" t="s">
         <v>765</v>
       </c>
-      <c r="F421" t="s">
+      <c r="F421" s="9" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B422">
         <v>420</v>
       </c>
@@ -10929,11 +11099,11 @@
       <c r="D422" t="s">
         <v>767</v>
       </c>
-      <c r="F422" t="s">
+      <c r="F422" s="9" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B423">
         <v>421</v>
       </c>
@@ -10943,11 +11113,11 @@
       <c r="D423" t="s">
         <v>769</v>
       </c>
-      <c r="F423" t="s">
+      <c r="F423" s="9" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B424">
         <v>422</v>
       </c>
@@ -10957,11 +11127,11 @@
       <c r="D424" t="s">
         <v>771</v>
       </c>
-      <c r="F424" t="s">
+      <c r="F424" s="9" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B425">
         <v>423</v>
       </c>
@@ -10971,11 +11141,11 @@
       <c r="D425" t="s">
         <v>773</v>
       </c>
-      <c r="F425" t="s">
+      <c r="F425" s="9" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B426">
         <v>424</v>
       </c>
@@ -10985,11 +11155,11 @@
       <c r="D426" t="s">
         <v>775</v>
       </c>
-      <c r="F426" t="s">
+      <c r="F426" s="9" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B427">
         <v>425</v>
       </c>
@@ -10999,11 +11169,11 @@
       <c r="D427" t="s">
         <v>777</v>
       </c>
-      <c r="F427" t="s">
+      <c r="F427" s="9" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B428">
         <v>426</v>
       </c>
@@ -11013,11 +11183,11 @@
       <c r="D428" t="s">
         <v>779</v>
       </c>
-      <c r="F428" t="s">
+      <c r="F428" s="9" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B429">
         <v>427</v>
       </c>
@@ -11027,11 +11197,11 @@
       <c r="D429" t="s">
         <v>781</v>
       </c>
-      <c r="F429" t="s">
+      <c r="F429" s="9" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B430">
         <v>428</v>
       </c>
@@ -11041,11 +11211,11 @@
       <c r="D430" t="s">
         <v>783</v>
       </c>
-      <c r="F430" t="s">
+      <c r="F430" s="9" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B431">
         <v>429</v>
       </c>
@@ -11055,11 +11225,11 @@
       <c r="D431" t="s">
         <v>785</v>
       </c>
-      <c r="F431" t="s">
+      <c r="F431" s="9" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B432">
         <v>430</v>
       </c>
@@ -11069,11 +11239,11 @@
       <c r="D432" t="s">
         <v>787</v>
       </c>
-      <c r="F432" t="s">
+      <c r="F432" s="9" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B433">
         <v>431</v>
       </c>
@@ -11083,11 +11253,11 @@
       <c r="D433" t="s">
         <v>86</v>
       </c>
-      <c r="F433" t="s">
+      <c r="F433" s="9" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B434">
         <v>432</v>
       </c>
@@ -11097,11 +11267,11 @@
       <c r="D434" t="s">
         <v>87</v>
       </c>
-      <c r="F434" t="s">
+      <c r="F434" s="9" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B435">
         <v>433</v>
       </c>
@@ -11111,11 +11281,11 @@
       <c r="D435" t="s">
         <v>790</v>
       </c>
-      <c r="F435" t="s">
+      <c r="F435" s="9" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B436">
         <v>434</v>
       </c>
@@ -11125,11 +11295,11 @@
       <c r="D436" t="s">
         <v>792</v>
       </c>
-      <c r="F436" t="s">
+      <c r="F436" s="9" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B437">
         <v>435</v>
       </c>
@@ -11139,11 +11309,11 @@
       <c r="D437" t="s">
         <v>794</v>
       </c>
-      <c r="F437" t="s">
+      <c r="F437" s="9" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B438">
         <v>436</v>
       </c>
@@ -11153,11 +11323,11 @@
       <c r="D438" t="s">
         <v>796</v>
       </c>
-      <c r="F438" t="s">
+      <c r="F438" s="9" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B439">
         <v>437</v>
       </c>
@@ -11167,11 +11337,11 @@
       <c r="D439" t="s">
         <v>798</v>
       </c>
-      <c r="F439" t="s">
+      <c r="F439" s="9" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B440">
         <v>438</v>
       </c>
@@ -11181,11 +11351,11 @@
       <c r="D440" t="s">
         <v>800</v>
       </c>
-      <c r="F440" t="s">
+      <c r="F440" s="9" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B441">
         <v>439</v>
       </c>
@@ -11195,11 +11365,11 @@
       <c r="D441" t="s">
         <v>802</v>
       </c>
-      <c r="F441" t="s">
+      <c r="F441" s="9" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B442">
         <v>440</v>
       </c>
@@ -11209,11 +11379,11 @@
       <c r="D442" t="s">
         <v>804</v>
       </c>
-      <c r="F442" t="s">
+      <c r="F442" s="9" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B443">
         <v>441</v>
       </c>
@@ -11223,11 +11393,11 @@
       <c r="D443" t="s">
         <v>806</v>
       </c>
-      <c r="F443" t="s">
+      <c r="F443" s="9" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B444">
         <v>442</v>
       </c>
@@ -11237,11 +11407,11 @@
       <c r="D444" t="s">
         <v>88</v>
       </c>
-      <c r="F444" t="s">
+      <c r="F444" s="9" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B445">
         <v>443</v>
       </c>
@@ -11251,11 +11421,11 @@
       <c r="D445" t="s">
         <v>808</v>
       </c>
-      <c r="F445" t="s">
+      <c r="F445" s="9" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B446">
         <v>444</v>
       </c>
@@ -11265,11 +11435,11 @@
       <c r="D446" t="s">
         <v>810</v>
       </c>
-      <c r="F446" t="s">
+      <c r="F446" s="9" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B447">
         <v>445</v>
       </c>
@@ -11279,11 +11449,11 @@
       <c r="D447" t="s">
         <v>89</v>
       </c>
-      <c r="F447" t="s">
+      <c r="F447" s="9" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B448">
         <v>446</v>
       </c>
@@ -11293,11 +11463,11 @@
       <c r="D448" t="s">
         <v>812</v>
       </c>
-      <c r="F448" t="s">
+      <c r="F448" s="9" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B449">
         <v>447</v>
       </c>
@@ -11307,11 +11477,11 @@
       <c r="D449" t="s">
         <v>90</v>
       </c>
-      <c r="F449" t="s">
+      <c r="F449" s="9" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B450">
         <v>448</v>
       </c>
@@ -11321,11 +11491,11 @@
       <c r="D450" t="s">
         <v>814</v>
       </c>
-      <c r="F450" t="s">
+      <c r="F450" s="9" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B451">
         <v>449</v>
       </c>
@@ -11335,11 +11505,11 @@
       <c r="D451" t="s">
         <v>816</v>
       </c>
-      <c r="F451" t="s">
+      <c r="F451" s="9" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B452">
         <v>450</v>
       </c>
@@ -11349,11 +11519,11 @@
       <c r="D452" t="s">
         <v>818</v>
       </c>
-      <c r="F452" t="s">
+      <c r="F452" s="9" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B453">
         <v>451</v>
       </c>
@@ -11363,11 +11533,11 @@
       <c r="D453" t="s">
         <v>820</v>
       </c>
-      <c r="F453" t="s">
+      <c r="F453" s="9" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B454">
         <v>452</v>
       </c>
@@ -11377,25 +11547,25 @@
       <c r="D454" t="s">
         <v>822</v>
       </c>
-      <c r="F454" t="s">
+      <c r="F454" s="9" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B455">
         <v>453</v>
       </c>
       <c r="C455" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D455" t="s">
         <v>823</v>
       </c>
-      <c r="F455" t="s">
+      <c r="F455" s="9" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B456">
         <v>454</v>
       </c>
@@ -11405,11 +11575,11 @@
       <c r="D456" t="s">
         <v>825</v>
       </c>
-      <c r="F456" t="s">
+      <c r="F456" s="9" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B457">
         <v>455</v>
       </c>
@@ -11419,11 +11589,11 @@
       <c r="D457" t="s">
         <v>827</v>
       </c>
-      <c r="F457" t="s">
+      <c r="F457" s="9" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B458">
         <v>456</v>
       </c>
@@ -11433,11 +11603,11 @@
       <c r="D458" t="s">
         <v>828</v>
       </c>
-      <c r="F458" t="s">
+      <c r="F458" s="9" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B459">
         <v>457</v>
       </c>
@@ -11447,11 +11617,11 @@
       <c r="D459" t="s">
         <v>830</v>
       </c>
-      <c r="F459" t="s">
+      <c r="F459" s="9" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B460">
         <v>458</v>
       </c>
@@ -11461,11 +11631,11 @@
       <c r="D460" t="s">
         <v>832</v>
       </c>
-      <c r="F460" t="s">
+      <c r="F460" s="9" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B461">
         <v>459</v>
       </c>
@@ -11475,11 +11645,11 @@
       <c r="D461" t="s">
         <v>833</v>
       </c>
-      <c r="F461" t="s">
+      <c r="F461" s="9" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B462">
         <v>460</v>
       </c>
@@ -11489,11 +11659,11 @@
       <c r="D462" t="s">
         <v>835</v>
       </c>
-      <c r="F462" t="s">
+      <c r="F462" s="9" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B463">
         <v>461</v>
       </c>
@@ -11503,25 +11673,25 @@
       <c r="D463" t="s">
         <v>837</v>
       </c>
-      <c r="F463" t="s">
+      <c r="F463" s="9" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B464">
         <v>462</v>
       </c>
       <c r="C464" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D464" t="s">
         <v>838</v>
       </c>
-      <c r="F464" t="s">
+      <c r="F464" s="9" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B465">
         <v>463</v>
       </c>
@@ -11531,11 +11701,11 @@
       <c r="D465" t="s">
         <v>840</v>
       </c>
-      <c r="F465" t="s">
+      <c r="F465" s="9" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B466">
         <v>464</v>
       </c>
@@ -11545,11 +11715,11 @@
       <c r="D466" t="s">
         <v>842</v>
       </c>
-      <c r="F466" t="s">
+      <c r="F466" s="9" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B467">
         <v>465</v>
       </c>
@@ -11559,11 +11729,11 @@
       <c r="D467" t="s">
         <v>844</v>
       </c>
-      <c r="F467" t="s">
+      <c r="F467" s="9" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B468">
         <v>466</v>
       </c>
@@ -11573,11 +11743,11 @@
       <c r="D468" t="s">
         <v>93</v>
       </c>
-      <c r="F468" t="s">
+      <c r="F468" s="9" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B469">
         <v>467</v>
       </c>
@@ -11587,11 +11757,11 @@
       <c r="D469" t="s">
         <v>846</v>
       </c>
-      <c r="F469" t="s">
+      <c r="F469" s="9" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B470">
         <v>468</v>
       </c>
@@ -11601,11 +11771,11 @@
       <c r="D470" t="s">
         <v>848</v>
       </c>
-      <c r="F470" t="s">
+      <c r="F470" s="9" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B471">
         <v>469</v>
       </c>
@@ -11615,11 +11785,11 @@
       <c r="D471" t="s">
         <v>850</v>
       </c>
-      <c r="F471" t="s">
+      <c r="F471" s="9" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B472">
         <v>470</v>
       </c>
@@ -11629,11 +11799,11 @@
       <c r="D472" t="s">
         <v>852</v>
       </c>
-      <c r="F472" t="s">
+      <c r="F472" s="9" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B473">
         <v>471</v>
       </c>
@@ -11643,11 +11813,11 @@
       <c r="D473" t="s">
         <v>854</v>
       </c>
-      <c r="F473" t="s">
+      <c r="F473" s="9" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B474">
         <v>472</v>
       </c>
@@ -11657,11 +11827,11 @@
       <c r="D474" t="s">
         <v>856</v>
       </c>
-      <c r="F474" t="s">
+      <c r="F474" s="9" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B475">
         <v>473</v>
       </c>
@@ -11671,25 +11841,25 @@
       <c r="D475" t="s">
         <v>858</v>
       </c>
-      <c r="F475" t="s">
+      <c r="F475" s="9" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B476">
         <v>474</v>
       </c>
       <c r="C476" t="s">
         <v>859</v>
       </c>
-      <c r="D476" s="6" t="s">
+      <c r="D476" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="F476" t="s">
+      <c r="F476" s="9" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B477">
         <v>475</v>
       </c>
@@ -11699,11 +11869,11 @@
       <c r="D477" t="s">
         <v>94</v>
       </c>
-      <c r="F477" t="s">
+      <c r="F477" s="9" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B478">
         <v>476</v>
       </c>
@@ -11713,11 +11883,11 @@
       <c r="D478" t="s">
         <v>861</v>
       </c>
-      <c r="F478" t="s">
+      <c r="F478" s="9" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B479">
         <v>477</v>
       </c>
@@ -11727,11 +11897,14 @@
       <c r="D479" t="s">
         <v>863</v>
       </c>
-      <c r="F479" t="s">
+      <c r="E479" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F479" s="9" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B480">
         <v>478</v>
       </c>
@@ -11741,11 +11914,11 @@
       <c r="D480" t="s">
         <v>865</v>
       </c>
-      <c r="F480" t="s">
+      <c r="F480" s="9" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B481">
         <v>479</v>
       </c>
@@ -11755,11 +11928,14 @@
       <c r="D481" t="s">
         <v>867</v>
       </c>
-      <c r="F481" t="s">
+      <c r="E481" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F481" s="9" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B482">
         <v>480</v>
       </c>
@@ -11769,606 +11945,621 @@
       <c r="D482" t="s">
         <v>869</v>
       </c>
-      <c r="F482" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E482" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F482" s="9" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="483" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B483">
         <v>481</v>
       </c>
-    </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C483" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D483" s="16" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E483" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F483" s="9" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="484" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B484">
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B485">
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B486">
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B487">
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B488">
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B489">
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B490">
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B491">
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B492">
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B493">
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B494">
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B495">
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B496">
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B497">
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B498">
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B499">
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B500">
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B501">
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B502">
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B503">
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B504">
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B505">
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B506">
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B507">
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B508">
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B509">
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B510">
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B511">
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B512">
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B513">
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B514">
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B515">
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B516">
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B517">
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B518">
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B519">
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B520">
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B521">
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B522">
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B523">
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B524">
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B525">
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B526">
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B527">
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B528">
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B529">
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B530">
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B531">
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B532">
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B533">
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B534">
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B535">
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B536">
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B537">
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B538">
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B539">
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B540">
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B541">
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B542">
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B543">
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B544">
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B545">
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B546">
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B547">
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B548">
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B549">
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B550">
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B551">
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B552">
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B553">
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B554">
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B555">
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B556">
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B557">
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B558">
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B559">
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B560">
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B561">
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B562">
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B563">
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B564">
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B565">
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B566">
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B567">
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B568">
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B569">
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B570">
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B571">
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B572">
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B573">
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B574">
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B575">
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B576">
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B577">
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B578">
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B579">
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B580">
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B581">
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B582">
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B583">
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B584">
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B585">
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B586">
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B587">
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B588">
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B589">
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B590">
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B591">
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B592">
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B593">
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B594">
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B595">
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B596">
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B597">
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B598">
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B599">
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B600">
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B601">
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B602">
         <v>600</v>
       </c>
@@ -12396,56 +12587,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43353C82-3888-4D54-AED3-A3FB47A97DC2}">
-  <dimension ref="B1:K102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="9" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>1327</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="13"/>
       <c r="C2" s="2" t="s">
         <v>870</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="12">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -12455,30 +12647,30 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="12">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>1331</v>
       </c>
-      <c r="D4" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1332</v>
       </c>
-      <c r="D5" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -12488,8 +12680,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -12499,8 +12691,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
@@ -12510,8 +12702,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="8">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -12521,8 +12713,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="8">
         <v>8</v>
       </c>
       <c r="C10" t="s">
@@ -12532,8 +12724,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="8">
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -12543,8 +12735,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="12">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="8">
         <v>10</v>
       </c>
       <c r="C12" t="s">
@@ -12554,8 +12746,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="8">
         <v>11</v>
       </c>
       <c r="C13" t="s">
@@ -12565,8 +12757,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="8">
         <v>12</v>
       </c>
       <c r="C14" t="s">
@@ -12576,28 +12768,28 @@
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="12">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="8">
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D15" t="s">
         <v>1335</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F15" t="s">
         <v>1336</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1338</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1337</v>
       </c>
       <c r="G15">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="8">
         <v>14</v>
       </c>
       <c r="C16" t="s">
@@ -12607,8 +12799,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="12">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="8">
         <v>15</v>
       </c>
       <c r="C17" t="s">
@@ -12618,584 +12810,584 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="12">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="8">
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="12">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="12">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="8">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="12">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="12">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="8">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="12">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="8">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="12">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="8">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="12">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="8">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="12">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="8">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="12">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="8">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="8">
+        <v>27</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="8">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="12">
-        <v>27</v>
-      </c>
-      <c r="D29" s="9" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="8">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="8">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="8">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="12">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="12">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="12">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="12">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="12">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="8">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="12">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="8">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="12">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" s="8">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="12">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="8">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="12">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="8">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="12">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="8">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="12">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="8">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="12">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="8">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="12">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="8">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="12">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="8">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="12">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="8">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="12">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="8">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="12">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="8">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="12">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="8">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="12">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="8">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="12">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" s="8">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="12">
-        <v>48</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="8">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="12">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B52" s="8">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="12">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B53" s="8">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="12">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="8">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="12">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="8">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="12">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="8">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="12">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="8">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="12">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="8">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="12">
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B59" s="8">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="12">
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="8">
+        <v>58</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="12">
-        <v>58</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D60" s="9" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B61" s="8">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="12">
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B62" s="8">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="12">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="8">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="12">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B64" s="8">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="12">
-        <v>62</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="12">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B65" s="8">
         <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="12">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B66" s="8">
         <v>64</v>
       </c>
       <c r="C66" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B67" s="8">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="12">
-        <v>65</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68" s="8">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="12">
-        <v>66</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="12">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="12">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B70" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="12">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B71" s="8">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="12">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B72" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="12">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B73" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="12">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B74" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="12">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B75" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="12">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B76" s="8">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="12">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B77" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="12">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B78" s="8">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="12">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B79" s="8">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="12">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B80" s="8">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="12">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="12">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="12">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="12">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B84" s="8">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="12">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B85" s="8">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="12">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B86" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="12">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="12">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B88" s="8">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="12">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B89" s="8">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="12">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B90" s="8">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="12">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B91" s="8">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="12">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B92" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="12">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B93" s="8">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="12">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B94" s="8">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="12">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B95" s="8">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="12">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B96" s="8">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="12">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B97" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="12">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B98" s="8">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="12">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B99" s="8">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="12">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B100" s="8">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="12">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B101" s="8">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="12">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B102" s="8">
         <v>100</v>
       </c>
     </row>

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1407">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -2433,15 +2433,6 @@
   </si>
   <si>
     <t xml:space="preserve">烈火 </t>
-  </si>
-  <si>
-    <t>最終鬼畜妹フランドール・Ｓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">超最終鬼畜妹フランドール・Ｓ </t>
-  </si>
-  <si>
-    <t>Bad Apple!!</t>
   </si>
   <si>
     <t>장난기 기능</t>
@@ -4331,14 +4322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최종귀축 여동선 플랑도르 S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bad Apple!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Help me, ERINNNNNN!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4546,6 +4529,84 @@
   </si>
   <si>
     <t xml:space="preserve">2024. 10. 21. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>超最終鬼畜妹フランド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ｓ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>최종귀축 여동생 플랑도르</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4669,7 +4730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4701,6 +4762,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4711,15 +4784,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5058,10 +5122,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C471" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C462" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F483" sqref="F483"/>
+      <selection pane="bottomRight" activeCell="I468" sqref="I468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5072,55 +5136,55 @@
     <col min="4" max="4" width="35.69921875" customWidth="1"/>
     <col min="5" max="5" width="19.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.796875" style="9" customWidth="1"/>
-    <col min="7" max="11" width="9" customWidth="1"/>
-    <col min="12" max="16384" width="9" hidden="1"/>
+    <col min="7" max="11" width="9" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="10" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="11"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5135,24 +5199,24 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="G3">
+        <v>870</v>
+      </c>
+      <c r="G3" s="10">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="10">
         <v>16</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="10">
         <v>22</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="10">
         <v>25</v>
       </c>
     </row>
@@ -5167,10 +5231,10 @@
         <v>106</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
@@ -5184,10 +5248,10 @@
         <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
@@ -5201,10 +5265,10 @@
         <v>110</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -5218,10 +5282,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -5235,10 +5299,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -5252,10 +5316,10 @@
         <v>112</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -5269,10 +5333,10 @@
         <v>114</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -5280,16 +5344,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D11" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="E11" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -5303,10 +5367,10 @@
         <v>116</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -5320,10 +5384,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -5337,10 +5401,10 @@
         <v>118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -5354,10 +5418,10 @@
         <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -5371,10 +5435,10 @@
         <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
@@ -5388,10 +5452,10 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
@@ -5405,10 +5469,10 @@
         <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
@@ -5422,7 +5486,7 @@
         <v>128</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
@@ -5436,7 +5500,7 @@
         <v>130</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
@@ -5450,7 +5514,7 @@
         <v>132</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
@@ -5464,7 +5528,7 @@
         <v>134</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
@@ -5478,7 +5542,7 @@
         <v>136</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
@@ -5492,7 +5556,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
@@ -5506,7 +5570,7 @@
         <v>138</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
@@ -5520,7 +5584,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
@@ -5534,7 +5598,7 @@
         <v>140</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
@@ -5548,7 +5612,7 @@
         <v>142</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
@@ -5562,7 +5626,7 @@
         <v>144</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
@@ -5576,7 +5640,7 @@
         <v>146</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
@@ -5590,7 +5654,7 @@
         <v>148</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
@@ -5604,7 +5668,7 @@
         <v>150</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
@@ -5618,7 +5682,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
@@ -5632,7 +5696,7 @@
         <v>152</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
@@ -5646,7 +5710,7 @@
         <v>154</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
@@ -5660,7 +5724,7 @@
         <v>156</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
@@ -5674,7 +5738,7 @@
         <v>158</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
@@ -5688,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
@@ -5702,7 +5766,7 @@
         <v>160</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
@@ -5716,7 +5780,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
@@ -5730,7 +5794,7 @@
         <v>162</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
@@ -5744,7 +5808,7 @@
         <v>164</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
@@ -5758,7 +5822,7 @@
         <v>166</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
@@ -5772,7 +5836,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
@@ -5786,7 +5850,7 @@
         <v>168</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.4">
@@ -5800,7 +5864,7 @@
         <v>170</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
@@ -5814,7 +5878,7 @@
         <v>172</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
@@ -5828,7 +5892,7 @@
         <v>174</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
@@ -5842,7 +5906,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.4">
@@ -5856,7 +5920,7 @@
         <v>177</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.4">
@@ -5870,7 +5934,7 @@
         <v>179</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
@@ -5884,7 +5948,7 @@
         <v>181</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.4">
@@ -5898,7 +5962,7 @@
         <v>183</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
@@ -5912,7 +5976,7 @@
         <v>185</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
@@ -5926,7 +5990,7 @@
         <v>187</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
@@ -5940,7 +6004,7 @@
         <v>189</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
@@ -5954,7 +6018,7 @@
         <v>191</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
@@ -5968,7 +6032,7 @@
         <v>193</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.4">
@@ -5982,7 +6046,7 @@
         <v>195</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.4">
@@ -5996,7 +6060,7 @@
         <v>11</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.4">
@@ -6010,7 +6074,7 @@
         <v>197</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.4">
@@ -6024,7 +6088,7 @@
         <v>199</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.4">
@@ -6038,7 +6102,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.4">
@@ -6052,7 +6116,7 @@
         <v>201</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.4">
@@ -6066,7 +6130,7 @@
         <v>203</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.4">
@@ -6080,7 +6144,7 @@
         <v>205</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
@@ -6094,7 +6158,7 @@
         <v>207</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.4">
@@ -6108,7 +6172,7 @@
         <v>209</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.4">
@@ -6122,7 +6186,7 @@
         <v>13</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
@@ -6136,7 +6200,7 @@
         <v>211</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.4">
@@ -6150,7 +6214,7 @@
         <v>213</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
@@ -6164,7 +6228,7 @@
         <v>215</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.4">
@@ -6178,7 +6242,7 @@
         <v>217</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.4">
@@ -6192,7 +6256,7 @@
         <v>219</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
@@ -6206,7 +6270,7 @@
         <v>221</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
@@ -6220,7 +6284,7 @@
         <v>14</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.4">
@@ -6234,7 +6298,7 @@
         <v>15</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.4">
@@ -6248,7 +6312,7 @@
         <v>223</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.4">
@@ -6262,7 +6326,7 @@
         <v>225</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.4">
@@ -6276,7 +6340,7 @@
         <v>16</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.4">
@@ -6290,7 +6354,7 @@
         <v>227</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
@@ -6304,7 +6368,7 @@
         <v>228</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
@@ -6318,7 +6382,7 @@
         <v>230</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
@@ -6332,7 +6396,7 @@
         <v>232</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
@@ -6346,7 +6410,7 @@
         <v>234</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
@@ -6360,7 +6424,7 @@
         <v>236</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.4">
@@ -6374,7 +6438,7 @@
         <v>238</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.4">
@@ -6388,7 +6452,7 @@
         <v>17</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
@@ -6402,7 +6466,7 @@
         <v>240</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
@@ -6416,7 +6480,7 @@
         <v>242</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
@@ -6430,7 +6494,7 @@
         <v>244</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
@@ -6444,7 +6508,7 @@
         <v>246</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.4">
@@ -6458,7 +6522,7 @@
         <v>248</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.4">
@@ -6472,7 +6536,7 @@
         <v>18</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.4">
@@ -6486,7 +6550,7 @@
         <v>250</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
@@ -6500,7 +6564,7 @@
         <v>252</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.4">
@@ -6514,7 +6578,7 @@
         <v>254</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.4">
@@ -6528,7 +6592,7 @@
         <v>256</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.4">
@@ -6542,7 +6606,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.4">
@@ -6556,7 +6620,7 @@
         <v>258</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
@@ -6570,7 +6634,7 @@
         <v>260</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
@@ -6584,7 +6648,7 @@
         <v>262</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.4">
@@ -6598,7 +6662,7 @@
         <v>264</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.4">
@@ -6612,7 +6676,7 @@
         <v>266</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.4">
@@ -6626,7 +6690,7 @@
         <v>268</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.4">
@@ -6640,7 +6704,7 @@
         <v>270</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.4">
@@ -6654,7 +6718,7 @@
         <v>272</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.4">
@@ -6668,7 +6732,7 @@
         <v>20</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.4">
@@ -6682,7 +6746,7 @@
         <v>274</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.4">
@@ -6696,7 +6760,7 @@
         <v>276</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.4">
@@ -6710,7 +6774,7 @@
         <v>278</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.4">
@@ -6724,7 +6788,7 @@
         <v>280</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.4">
@@ -6738,7 +6802,7 @@
         <v>282</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.4">
@@ -6752,7 +6816,7 @@
         <v>284</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.4">
@@ -6766,7 +6830,7 @@
         <v>21</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.4">
@@ -6780,7 +6844,7 @@
         <v>286</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.4">
@@ -6794,7 +6858,7 @@
         <v>22</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.4">
@@ -6808,7 +6872,7 @@
         <v>288</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.4">
@@ -6822,7 +6886,7 @@
         <v>290</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.4">
@@ -6836,7 +6900,7 @@
         <v>292</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.4">
@@ -6850,7 +6914,7 @@
         <v>294</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.4">
@@ -6864,7 +6928,7 @@
         <v>296</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.4">
@@ -6878,7 +6942,7 @@
         <v>298</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.4">
@@ -6892,7 +6956,7 @@
         <v>300</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.4">
@@ -6906,7 +6970,7 @@
         <v>302</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.4">
@@ -6920,7 +6984,7 @@
         <v>304</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.4">
@@ -6934,7 +6998,7 @@
         <v>306</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.4">
@@ -6948,7 +7012,7 @@
         <v>308</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.4">
@@ -6962,7 +7026,7 @@
         <v>310</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.4">
@@ -6976,7 +7040,7 @@
         <v>312</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.4">
@@ -6990,7 +7054,7 @@
         <v>314</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.4">
@@ -7004,7 +7068,7 @@
         <v>316</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.4">
@@ -7018,7 +7082,7 @@
         <v>23</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.4">
@@ -7032,7 +7096,7 @@
         <v>24</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.4">
@@ -7046,7 +7110,7 @@
         <v>319</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.4">
@@ -7060,7 +7124,7 @@
         <v>321</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.4">
@@ -7074,7 +7138,7 @@
         <v>25</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.4">
@@ -7088,7 +7152,7 @@
         <v>323</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.4">
@@ -7102,7 +7166,7 @@
         <v>325</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.4">
@@ -7116,7 +7180,7 @@
         <v>327</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.4">
@@ -7130,7 +7194,7 @@
         <v>26</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.4">
@@ -7144,7 +7208,7 @@
         <v>329</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.4">
@@ -7158,7 +7222,7 @@
         <v>331</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.4">
@@ -7172,7 +7236,7 @@
         <v>333</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.4">
@@ -7186,7 +7250,7 @@
         <v>335</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.4">
@@ -7200,7 +7264,7 @@
         <v>337</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.4">
@@ -7214,7 +7278,7 @@
         <v>339</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.4">
@@ -7228,7 +7292,7 @@
         <v>341</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.4">
@@ -7242,7 +7306,7 @@
         <v>343</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.4">
@@ -7256,7 +7320,7 @@
         <v>345</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.4">
@@ -7270,7 +7334,7 @@
         <v>347</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.4">
@@ -7284,7 +7348,7 @@
         <v>349</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.4">
@@ -7298,7 +7362,7 @@
         <v>351</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.4">
@@ -7312,7 +7376,7 @@
         <v>353</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.4">
@@ -7326,7 +7390,7 @@
         <v>355</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.4">
@@ -7340,7 +7404,7 @@
         <v>27</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.4">
@@ -7354,7 +7418,7 @@
         <v>28</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.4">
@@ -7368,7 +7432,7 @@
         <v>357</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.4">
@@ -7382,7 +7446,7 @@
         <v>359</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.4">
@@ -7396,7 +7460,7 @@
         <v>361</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.4">
@@ -7410,7 +7474,7 @@
         <v>362</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.4">
@@ -7424,7 +7488,7 @@
         <v>364</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.4">
@@ -7438,7 +7502,7 @@
         <v>366</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.4">
@@ -7452,7 +7516,7 @@
         <v>368</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.4">
@@ -7466,7 +7530,7 @@
         <v>30</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.4">
@@ -7480,7 +7544,7 @@
         <v>31</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.4">
@@ -7494,7 +7558,7 @@
         <v>370</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.4">
@@ -7508,7 +7572,7 @@
         <v>372</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.4">
@@ -7522,7 +7586,7 @@
         <v>373</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.4">
@@ -7536,7 +7600,7 @@
         <v>375</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.4">
@@ -7550,7 +7614,7 @@
         <v>33</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.4">
@@ -7564,7 +7628,7 @@
         <v>377</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.4">
@@ -7578,7 +7642,7 @@
         <v>379</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.4">
@@ -7592,7 +7656,7 @@
         <v>381</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.4">
@@ -7606,7 +7670,7 @@
         <v>383</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.4">
@@ -7620,7 +7684,7 @@
         <v>385</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.4">
@@ -7634,7 +7698,7 @@
         <v>387</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.4">
@@ -7648,7 +7712,7 @@
         <v>389</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.4">
@@ -7662,7 +7726,7 @@
         <v>391</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.4">
@@ -7676,7 +7740,7 @@
         <v>393</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.4">
@@ -7690,7 +7754,7 @@
         <v>395</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.4">
@@ -7704,7 +7768,7 @@
         <v>396</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.4">
@@ -7718,7 +7782,7 @@
         <v>34</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.4">
@@ -7732,7 +7796,7 @@
         <v>35</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.4">
@@ -7746,7 +7810,7 @@
         <v>398</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.4">
@@ -7760,7 +7824,7 @@
         <v>400</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.4">
@@ -7774,7 +7838,7 @@
         <v>402</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.4">
@@ -7788,7 +7852,7 @@
         <v>404</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.4">
@@ -7802,7 +7866,7 @@
         <v>406</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.4">
@@ -7816,7 +7880,7 @@
         <v>408</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.4">
@@ -7830,7 +7894,7 @@
         <v>410</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.4">
@@ -7844,10 +7908,10 @@
         <v>412</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B193">
         <v>191</v>
       </c>
@@ -7858,10 +7922,10 @@
         <v>414</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B194">
         <v>192</v>
       </c>
@@ -7872,10 +7936,10 @@
         <v>416</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B195">
         <v>193</v>
       </c>
@@ -7886,10 +7950,10 @@
         <v>418</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B196">
         <v>194</v>
       </c>
@@ -7900,42 +7964,43 @@
         <v>420</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="6"/>
       <c r="B197" s="6">
         <v>195</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="F197" s="14" t="s">
+      <c r="F197" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="G197" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H197" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I197" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="J197" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K197" s="6" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G197" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H197" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I197" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J197" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K197" s="11" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B198">
         <v>196</v>
       </c>
@@ -7946,10 +8011,10 @@
         <v>423</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B199">
         <v>197</v>
       </c>
@@ -7960,10 +8025,10 @@
         <v>36</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B200">
         <v>198</v>
       </c>
@@ -7974,10 +8039,10 @@
         <v>425</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B201">
         <v>199</v>
       </c>
@@ -7988,10 +8053,10 @@
         <v>427</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B202">
         <v>200</v>
       </c>
@@ -8002,10 +8067,10 @@
         <v>429</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B203">
         <v>201</v>
       </c>
@@ -8016,10 +8081,10 @@
         <v>431</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B204">
         <v>202</v>
       </c>
@@ -8030,10 +8095,10 @@
         <v>433</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B205">
         <v>203</v>
       </c>
@@ -8044,10 +8109,10 @@
         <v>435</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B206">
         <v>204</v>
       </c>
@@ -8058,10 +8123,10 @@
         <v>437</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B207">
         <v>205</v>
       </c>
@@ -8072,10 +8137,10 @@
         <v>439</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B208">
         <v>206</v>
       </c>
@@ -8086,7 +8151,7 @@
         <v>441</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.4">
@@ -8100,7 +8165,7 @@
         <v>443</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.4">
@@ -8114,7 +8179,7 @@
         <v>445</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.4">
@@ -8128,7 +8193,7 @@
         <v>447</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.4">
@@ -8142,7 +8207,7 @@
         <v>449</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.4">
@@ -8156,7 +8221,7 @@
         <v>451</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.4">
@@ -8170,7 +8235,7 @@
         <v>453</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.4">
@@ -8184,7 +8249,7 @@
         <v>455</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.4">
@@ -8198,7 +8263,7 @@
         <v>37</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.4">
@@ -8212,7 +8277,7 @@
         <v>457</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.4">
@@ -8226,7 +8291,7 @@
         <v>459</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.4">
@@ -8240,7 +8305,7 @@
         <v>461</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.4">
@@ -8254,7 +8319,7 @@
         <v>38</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.4">
@@ -8268,7 +8333,7 @@
         <v>463</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.4">
@@ -8281,8 +8346,8 @@
       <c r="D222" t="s">
         <v>39</v>
       </c>
-      <c r="F222" s="15" t="s">
-        <v>1063</v>
+      <c r="F222" s="12" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.4">
@@ -8296,7 +8361,7 @@
         <v>465</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.4">
@@ -8310,10 +8375,10 @@
         <v>40</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B225">
         <v>223</v>
       </c>
@@ -8324,10 +8389,10 @@
         <v>466</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B226">
         <v>224</v>
       </c>
@@ -8338,10 +8403,10 @@
         <v>468</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B227">
         <v>225</v>
       </c>
@@ -8352,10 +8417,10 @@
         <v>470</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B228">
         <v>226</v>
       </c>
@@ -8366,10 +8431,10 @@
         <v>472</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B229">
         <v>227</v>
       </c>
@@ -8380,10 +8445,10 @@
         <v>474</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B230">
         <v>228</v>
       </c>
@@ -8394,10 +8459,10 @@
         <v>476</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B231">
         <v>229</v>
       </c>
@@ -8408,10 +8473,10 @@
         <v>42</v>
       </c>
       <c r="F231" s="9" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B232">
         <v>230</v>
       </c>
@@ -8422,10 +8487,10 @@
         <v>478</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B233">
         <v>231</v>
       </c>
@@ -8436,10 +8501,10 @@
         <v>480</v>
       </c>
       <c r="F233" s="9" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B234">
         <v>232</v>
       </c>
@@ -8450,10 +8515,10 @@
         <v>481</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B235">
         <v>233</v>
       </c>
@@ -8464,10 +8529,10 @@
         <v>483</v>
       </c>
       <c r="F235" s="9" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B236">
         <v>234</v>
       </c>
@@ -8478,42 +8543,43 @@
         <v>43</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="237" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="6"/>
       <c r="B237" s="6">
         <v>235</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="E237" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="F237" s="14" t="s">
+      <c r="F237" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="G237" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H237" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="I237" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="J237" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K237" s="6" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G237" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H237" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I237" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J237" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K237" s="11" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B238">
         <v>236</v>
       </c>
@@ -8524,10 +8590,10 @@
         <v>485</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B239">
         <v>237</v>
       </c>
@@ -8538,10 +8604,10 @@
         <v>487</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B240">
         <v>238</v>
       </c>
@@ -8552,10 +8618,10 @@
         <v>489</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B241">
         <v>239</v>
       </c>
@@ -8566,10 +8632,10 @@
         <v>44</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B242">
         <v>240</v>
       </c>
@@ -8580,10 +8646,10 @@
         <v>491</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B243">
         <v>241</v>
       </c>
@@ -8594,10 +8660,10 @@
         <v>45</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B244">
         <v>242</v>
       </c>
@@ -8608,10 +8674,10 @@
         <v>494</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B245">
         <v>243</v>
       </c>
@@ -8622,10 +8688,10 @@
         <v>496</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B246">
         <v>244</v>
       </c>
@@ -8636,10 +8702,10 @@
         <v>498</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B247">
         <v>245</v>
       </c>
@@ -8650,10 +8716,10 @@
         <v>500</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B248">
         <v>246</v>
       </c>
@@ -8664,10 +8730,10 @@
         <v>502</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B249">
         <v>247</v>
       </c>
@@ -8678,10 +8744,10 @@
         <v>504</v>
       </c>
       <c r="F249" s="9" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B250">
         <v>248</v>
       </c>
@@ -8692,10 +8758,10 @@
         <v>506</v>
       </c>
       <c r="F250" s="9" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B251">
         <v>249</v>
       </c>
@@ -8706,10 +8772,10 @@
         <v>508</v>
       </c>
       <c r="F251" s="9" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B252">
         <v>250</v>
       </c>
@@ -8720,10 +8786,10 @@
         <v>510</v>
       </c>
       <c r="F252" s="9" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B253">
         <v>251</v>
       </c>
@@ -8734,10 +8800,10 @@
         <v>512</v>
       </c>
       <c r="F253" s="9" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B254">
         <v>252</v>
       </c>
@@ -8748,10 +8814,10 @@
         <v>46</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B255">
         <v>253</v>
       </c>
@@ -8762,10 +8828,25 @@
         <v>514</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1092</v>
+      </c>
+      <c r="G255" s="10">
+        <v>9</v>
+      </c>
+      <c r="H255" s="10">
+        <v>14</v>
+      </c>
+      <c r="I255" s="10">
+        <v>21</v>
+      </c>
+      <c r="J255" s="10">
+        <v>30</v>
+      </c>
+      <c r="K255" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B256">
         <v>254</v>
       </c>
@@ -8776,10 +8857,10 @@
         <v>516</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B257">
         <v>255</v>
       </c>
@@ -8790,10 +8871,10 @@
         <v>518</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B258">
         <v>256</v>
       </c>
@@ -8804,10 +8885,10 @@
         <v>520</v>
       </c>
       <c r="F258" s="9" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B259">
         <v>257</v>
       </c>
@@ -8818,10 +8899,10 @@
         <v>47</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B260">
         <v>258</v>
       </c>
@@ -8832,10 +8913,10 @@
         <v>522</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B261">
         <v>259</v>
       </c>
@@ -8846,10 +8927,10 @@
         <v>524</v>
       </c>
       <c r="F261" s="9" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B262">
         <v>260</v>
       </c>
@@ -8860,10 +8941,10 @@
         <v>526</v>
       </c>
       <c r="F262" s="9" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B263">
         <v>261</v>
       </c>
@@ -8874,10 +8955,10 @@
         <v>528</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B264">
         <v>262</v>
       </c>
@@ -8888,10 +8969,10 @@
         <v>530</v>
       </c>
       <c r="F264" s="9" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B265">
         <v>263</v>
       </c>
@@ -8902,10 +8983,10 @@
         <v>532</v>
       </c>
       <c r="F265" s="9" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B266">
         <v>264</v>
       </c>
@@ -8916,10 +8997,10 @@
         <v>48</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B267">
         <v>265</v>
       </c>
@@ -8930,10 +9011,10 @@
         <v>49</v>
       </c>
       <c r="F267" s="9" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B268">
         <v>266</v>
       </c>
@@ -8944,10 +9025,10 @@
         <v>50</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B269">
         <v>267</v>
       </c>
@@ -8958,10 +9039,10 @@
         <v>51</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B270">
         <v>268</v>
       </c>
@@ -8972,10 +9053,25 @@
         <v>534</v>
       </c>
       <c r="F270" s="9" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1107</v>
+      </c>
+      <c r="G270" s="10">
+        <v>9</v>
+      </c>
+      <c r="H270" s="10">
+        <v>14</v>
+      </c>
+      <c r="I270" s="10">
+        <v>20</v>
+      </c>
+      <c r="J270" s="10">
+        <v>29</v>
+      </c>
+      <c r="K270" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B271">
         <v>269</v>
       </c>
@@ -8986,10 +9082,10 @@
         <v>536</v>
       </c>
       <c r="F271" s="9" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B272">
         <v>270</v>
       </c>
@@ -9000,7 +9096,7 @@
         <v>52</v>
       </c>
       <c r="F272" s="9" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.4">
@@ -9014,7 +9110,7 @@
         <v>538</v>
       </c>
       <c r="F273" s="9" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.4">
@@ -9028,7 +9124,7 @@
         <v>540</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.4">
@@ -9042,7 +9138,7 @@
         <v>1925</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.4">
@@ -9056,7 +9152,7 @@
         <v>542</v>
       </c>
       <c r="F276" s="9" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.4">
@@ -9070,7 +9166,7 @@
         <v>544</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.4">
@@ -9084,7 +9180,7 @@
         <v>53</v>
       </c>
       <c r="F278" s="9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.4">
@@ -9098,7 +9194,7 @@
         <v>54</v>
       </c>
       <c r="F279" s="9" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.4">
@@ -9112,7 +9208,7 @@
         <v>546</v>
       </c>
       <c r="F280" s="9" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.4">
@@ -9126,7 +9222,7 @@
         <v>548</v>
       </c>
       <c r="F281" s="9" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.4">
@@ -9140,7 +9236,7 @@
         <v>550</v>
       </c>
       <c r="F282" s="9" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.4">
@@ -9154,7 +9250,7 @@
         <v>55</v>
       </c>
       <c r="F283" s="9" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.4">
@@ -9168,7 +9264,7 @@
         <v>552</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.4">
@@ -9182,7 +9278,7 @@
         <v>56</v>
       </c>
       <c r="F285" s="9" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.4">
@@ -9196,7 +9292,7 @@
         <v>39</v>
       </c>
       <c r="F286" s="9" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.4">
@@ -9210,7 +9306,7 @@
         <v>57</v>
       </c>
       <c r="F287" s="9" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.4">
@@ -9224,7 +9320,7 @@
         <v>554</v>
       </c>
       <c r="F288" s="9" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.4">
@@ -9238,7 +9334,7 @@
         <v>556</v>
       </c>
       <c r="F289" s="9" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.4">
@@ -9252,7 +9348,7 @@
         <v>58</v>
       </c>
       <c r="F290" s="9" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.4">
@@ -9266,7 +9362,7 @@
         <v>558</v>
       </c>
       <c r="F291" s="9" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.4">
@@ -9280,7 +9376,7 @@
         <v>560</v>
       </c>
       <c r="F292" s="9" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.4">
@@ -9294,7 +9390,7 @@
         <v>562</v>
       </c>
       <c r="F293" s="9" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.4">
@@ -9308,7 +9404,7 @@
         <v>59</v>
       </c>
       <c r="F294" s="9" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.4">
@@ -9322,7 +9418,7 @@
         <v>60</v>
       </c>
       <c r="F295" s="9" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.4">
@@ -9336,7 +9432,7 @@
         <v>61</v>
       </c>
       <c r="F296" s="9" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.4">
@@ -9350,7 +9446,7 @@
         <v>564</v>
       </c>
       <c r="F297" s="9" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.4">
@@ -9364,7 +9460,7 @@
         <v>566</v>
       </c>
       <c r="F298" s="9" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.4">
@@ -9378,7 +9474,7 @@
         <v>568</v>
       </c>
       <c r="F299" s="9" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.4">
@@ -9392,7 +9488,7 @@
         <v>570</v>
       </c>
       <c r="F300" s="9" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.4">
@@ -9406,7 +9502,7 @@
         <v>572</v>
       </c>
       <c r="F301" s="9" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.4">
@@ -9420,7 +9516,7 @@
         <v>574</v>
       </c>
       <c r="F302" s="9" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.4">
@@ -9434,7 +9530,7 @@
         <v>576</v>
       </c>
       <c r="F303" s="9" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.4">
@@ -9448,7 +9544,7 @@
         <v>578</v>
       </c>
       <c r="F304" s="9" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.4">
@@ -9462,7 +9558,7 @@
         <v>580</v>
       </c>
       <c r="F305" s="9" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.4">
@@ -9476,7 +9572,7 @@
         <v>582</v>
       </c>
       <c r="F306" s="9" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.4">
@@ -9490,7 +9586,7 @@
         <v>584</v>
       </c>
       <c r="F307" s="9" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.4">
@@ -9504,7 +9600,7 @@
         <v>586</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.4">
@@ -9518,7 +9614,7 @@
         <v>588</v>
       </c>
       <c r="F309" s="9" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.4">
@@ -9532,7 +9628,7 @@
         <v>590</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.4">
@@ -9546,7 +9642,7 @@
         <v>592</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.4">
@@ -9560,7 +9656,7 @@
         <v>594</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.4">
@@ -9574,7 +9670,7 @@
         <v>596</v>
       </c>
       <c r="F313" s="9" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.4">
@@ -9588,7 +9684,7 @@
         <v>62</v>
       </c>
       <c r="F314" s="9" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.4">
@@ -9602,7 +9698,7 @@
         <v>598</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.4">
@@ -9616,7 +9712,7 @@
         <v>600</v>
       </c>
       <c r="F316" s="9" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.4">
@@ -9630,7 +9726,7 @@
         <v>602</v>
       </c>
       <c r="F317" s="9" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.4">
@@ -9658,7 +9754,7 @@
         <v>604</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.4">
@@ -9672,7 +9768,7 @@
         <v>606</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.4">
@@ -9686,7 +9782,7 @@
         <v>65</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.4">
@@ -9700,7 +9796,7 @@
         <v>608</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.4">
@@ -9714,7 +9810,7 @@
         <v>610</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.4">
@@ -9728,7 +9824,7 @@
         <v>612</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.4">
@@ -9742,7 +9838,7 @@
         <v>614</v>
       </c>
       <c r="F325" s="9" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.4">
@@ -9756,7 +9852,7 @@
         <v>66</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.4">
@@ -9770,7 +9866,7 @@
         <v>616</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.4">
@@ -9784,7 +9880,7 @@
         <v>67</v>
       </c>
       <c r="F328" s="9" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.4">
@@ -9798,7 +9894,7 @@
         <v>618</v>
       </c>
       <c r="F329" s="9" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.4">
@@ -9812,7 +9908,7 @@
         <v>68</v>
       </c>
       <c r="F330" s="9" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.4">
@@ -9826,7 +9922,7 @@
         <v>620</v>
       </c>
       <c r="F331" s="9" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.4">
@@ -9840,7 +9936,7 @@
         <v>622</v>
       </c>
       <c r="F332" s="9" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.4">
@@ -9854,7 +9950,7 @@
         <v>624</v>
       </c>
       <c r="F333" s="9" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.4">
@@ -9868,7 +9964,7 @@
         <v>626</v>
       </c>
       <c r="F334" s="9" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.4">
@@ -9882,7 +9978,7 @@
         <v>628</v>
       </c>
       <c r="F335" s="9" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.4">
@@ -9896,7 +9992,7 @@
         <v>69</v>
       </c>
       <c r="F336" s="9" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.4">
@@ -9910,7 +10006,7 @@
         <v>630</v>
       </c>
       <c r="F337" s="9" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.4">
@@ -9924,7 +10020,7 @@
         <v>632</v>
       </c>
       <c r="F338" s="9" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.4">
@@ -9938,7 +10034,7 @@
         <v>634</v>
       </c>
       <c r="F339" s="9" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.4">
@@ -9952,7 +10048,7 @@
         <v>70</v>
       </c>
       <c r="F340" s="9" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.4">
@@ -9966,7 +10062,7 @@
         <v>636</v>
       </c>
       <c r="F341" s="9" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.4">
@@ -9980,7 +10076,7 @@
         <v>638</v>
       </c>
       <c r="F342" s="9" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.4">
@@ -9994,7 +10090,7 @@
         <v>640</v>
       </c>
       <c r="F343" s="9" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.4">
@@ -10008,7 +10104,7 @@
         <v>642</v>
       </c>
       <c r="F344" s="9" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.4">
@@ -10022,7 +10118,7 @@
         <v>644</v>
       </c>
       <c r="F345" s="9" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.4">
@@ -10036,7 +10132,7 @@
         <v>646</v>
       </c>
       <c r="F346" s="9" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.4">
@@ -10050,7 +10146,7 @@
         <v>71</v>
       </c>
       <c r="F347" s="9" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.4">
@@ -10064,7 +10160,7 @@
         <v>72</v>
       </c>
       <c r="F348" s="9" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.4">
@@ -10078,7 +10174,7 @@
         <v>649</v>
       </c>
       <c r="F349" s="9" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.4">
@@ -10092,7 +10188,7 @@
         <v>73</v>
       </c>
       <c r="F350" s="9" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.4">
@@ -10106,7 +10202,7 @@
         <v>651</v>
       </c>
       <c r="F351" s="9" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.4">
@@ -10120,7 +10216,7 @@
         <v>74</v>
       </c>
       <c r="F352" s="9" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.4">
@@ -10134,7 +10230,7 @@
         <v>653</v>
       </c>
       <c r="F353" s="9" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.4">
@@ -10148,7 +10244,7 @@
         <v>655</v>
       </c>
       <c r="F354" s="9" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.4">
@@ -10162,7 +10258,7 @@
         <v>657</v>
       </c>
       <c r="F355" s="9" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.4">
@@ -10176,7 +10272,7 @@
         <v>659</v>
       </c>
       <c r="F356" s="9" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.4">
@@ -10190,7 +10286,7 @@
         <v>661</v>
       </c>
       <c r="F357" s="9" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.4">
@@ -10204,7 +10300,7 @@
         <v>663</v>
       </c>
       <c r="F358" s="9" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.4">
@@ -10218,7 +10314,7 @@
         <v>665</v>
       </c>
       <c r="F359" s="9" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.4">
@@ -10232,7 +10328,7 @@
         <v>667</v>
       </c>
       <c r="F360" s="9" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.4">
@@ -10246,7 +10342,7 @@
         <v>669</v>
       </c>
       <c r="F361" s="9" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.4">
@@ -10260,7 +10356,7 @@
         <v>671</v>
       </c>
       <c r="F362" s="9" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.4">
@@ -10274,7 +10370,7 @@
         <v>672</v>
       </c>
       <c r="F363" s="9" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.4">
@@ -10288,7 +10384,7 @@
         <v>674</v>
       </c>
       <c r="F364" s="9" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.4">
@@ -10302,7 +10398,7 @@
         <v>76</v>
       </c>
       <c r="F365" s="9" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.4">
@@ -10316,7 +10412,7 @@
         <v>676</v>
       </c>
       <c r="F366" s="9" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.4">
@@ -10330,7 +10426,7 @@
         <v>678</v>
       </c>
       <c r="F367" s="9" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.4">
@@ -10344,7 +10440,7 @@
         <v>679</v>
       </c>
       <c r="F368" s="9" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.4">
@@ -10358,7 +10454,7 @@
         <v>681</v>
       </c>
       <c r="F369" s="9" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.4">
@@ -10372,7 +10468,7 @@
         <v>683</v>
       </c>
       <c r="F370" s="9" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.4">
@@ -10386,7 +10482,7 @@
         <v>685</v>
       </c>
       <c r="F371" s="9" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.4">
@@ -10400,7 +10496,7 @@
         <v>686</v>
       </c>
       <c r="F372" s="9" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.4">
@@ -10414,7 +10510,7 @@
         <v>687</v>
       </c>
       <c r="F373" s="9" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.4">
@@ -10428,7 +10524,7 @@
         <v>689</v>
       </c>
       <c r="F374" s="9" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.4">
@@ -10442,7 +10538,7 @@
         <v>691</v>
       </c>
       <c r="F375" s="9" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.4">
@@ -10456,7 +10552,7 @@
         <v>693</v>
       </c>
       <c r="F376" s="9" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.4">
@@ -10470,7 +10566,7 @@
         <v>694</v>
       </c>
       <c r="F377" s="9" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.4">
@@ -10484,7 +10580,7 @@
         <v>696</v>
       </c>
       <c r="F378" s="9" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.4">
@@ -10498,7 +10594,7 @@
         <v>698</v>
       </c>
       <c r="F379" s="9" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.4">
@@ -10512,7 +10608,7 @@
         <v>700</v>
       </c>
       <c r="F380" s="9" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.4">
@@ -10526,7 +10622,7 @@
         <v>702</v>
       </c>
       <c r="F381" s="9" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.4">
@@ -10540,7 +10636,7 @@
         <v>704</v>
       </c>
       <c r="F382" s="9" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.4">
@@ -10554,7 +10650,7 @@
         <v>706</v>
       </c>
       <c r="F383" s="9" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.4">
@@ -10568,7 +10664,7 @@
         <v>708</v>
       </c>
       <c r="F384" s="9" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="385" spans="2:6" x14ac:dyDescent="0.4">
@@ -10582,7 +10678,7 @@
         <v>710</v>
       </c>
       <c r="F385" s="9" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="386" spans="2:6" x14ac:dyDescent="0.4">
@@ -10596,7 +10692,7 @@
         <v>712</v>
       </c>
       <c r="F386" s="9" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="387" spans="2:6" x14ac:dyDescent="0.4">
@@ -10610,7 +10706,7 @@
         <v>714</v>
       </c>
       <c r="F387" s="9" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="388" spans="2:6" x14ac:dyDescent="0.4">
@@ -10624,7 +10720,7 @@
         <v>716</v>
       </c>
       <c r="F388" s="9" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="389" spans="2:6" x14ac:dyDescent="0.4">
@@ -10638,7 +10734,7 @@
         <v>718</v>
       </c>
       <c r="F389" s="9" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="390" spans="2:6" x14ac:dyDescent="0.4">
@@ -10652,7 +10748,7 @@
         <v>720</v>
       </c>
       <c r="F390" s="9" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="391" spans="2:6" x14ac:dyDescent="0.4">
@@ -10666,7 +10762,7 @@
         <v>722</v>
       </c>
       <c r="F391" s="9" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="392" spans="2:6" x14ac:dyDescent="0.4">
@@ -10680,7 +10776,7 @@
         <v>78</v>
       </c>
       <c r="F392" s="9" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="393" spans="2:6" x14ac:dyDescent="0.4">
@@ -10694,7 +10790,7 @@
         <v>79</v>
       </c>
       <c r="F393" s="9" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="394" spans="2:6" x14ac:dyDescent="0.4">
@@ -10708,7 +10804,7 @@
         <v>80</v>
       </c>
       <c r="F394" s="9" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="395" spans="2:6" x14ac:dyDescent="0.4">
@@ -10716,13 +10812,13 @@
         <v>393</v>
       </c>
       <c r="C395" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D395" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="F395" s="9" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="396" spans="2:6" x14ac:dyDescent="0.4">
@@ -10736,7 +10832,7 @@
         <v>725</v>
       </c>
       <c r="F396" s="9" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="397" spans="2:6" x14ac:dyDescent="0.4">
@@ -10750,7 +10846,7 @@
         <v>81</v>
       </c>
       <c r="F397" s="9" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="398" spans="2:6" x14ac:dyDescent="0.4">
@@ -10764,7 +10860,7 @@
         <v>727</v>
       </c>
       <c r="F398" s="9" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="399" spans="2:6" x14ac:dyDescent="0.4">
@@ -10778,7 +10874,7 @@
         <v>729</v>
       </c>
       <c r="F399" s="9" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="400" spans="2:6" x14ac:dyDescent="0.4">
@@ -10792,7 +10888,7 @@
         <v>731</v>
       </c>
       <c r="F400" s="9" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="401" spans="2:6" x14ac:dyDescent="0.4">
@@ -10806,7 +10902,7 @@
         <v>733</v>
       </c>
       <c r="F401" s="9" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="402" spans="2:6" x14ac:dyDescent="0.4">
@@ -10820,7 +10916,7 @@
         <v>735</v>
       </c>
       <c r="F402" s="9" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="403" spans="2:6" x14ac:dyDescent="0.4">
@@ -10834,7 +10930,7 @@
         <v>737</v>
       </c>
       <c r="F403" s="9" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="404" spans="2:6" x14ac:dyDescent="0.4">
@@ -10848,7 +10944,7 @@
         <v>739</v>
       </c>
       <c r="F404" s="9" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="405" spans="2:6" x14ac:dyDescent="0.4">
@@ -10862,7 +10958,7 @@
         <v>82</v>
       </c>
       <c r="F405" s="9" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="406" spans="2:6" x14ac:dyDescent="0.4">
@@ -10876,7 +10972,7 @@
         <v>741</v>
       </c>
       <c r="F406" s="9" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="407" spans="2:6" x14ac:dyDescent="0.4">
@@ -10890,7 +10986,7 @@
         <v>743</v>
       </c>
       <c r="F407" s="9" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="408" spans="2:6" x14ac:dyDescent="0.4">
@@ -10904,7 +11000,7 @@
         <v>83</v>
       </c>
       <c r="F408" s="9" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="409" spans="2:6" x14ac:dyDescent="0.4">
@@ -10918,7 +11014,7 @@
         <v>745</v>
       </c>
       <c r="F409" s="9" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="410" spans="2:6" x14ac:dyDescent="0.4">
@@ -10932,7 +11028,7 @@
         <v>747</v>
       </c>
       <c r="F410" s="9" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="411" spans="2:6" x14ac:dyDescent="0.4">
@@ -10946,7 +11042,7 @@
         <v>749</v>
       </c>
       <c r="F411" s="9" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="412" spans="2:6" x14ac:dyDescent="0.4">
@@ -10960,7 +11056,7 @@
         <v>751</v>
       </c>
       <c r="F412" s="9" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="413" spans="2:6" x14ac:dyDescent="0.4">
@@ -10974,7 +11070,7 @@
         <v>753</v>
       </c>
       <c r="F413" s="9" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="414" spans="2:6" x14ac:dyDescent="0.4">
@@ -10988,7 +11084,7 @@
         <v>84</v>
       </c>
       <c r="F414" s="9" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="415" spans="2:6" x14ac:dyDescent="0.4">
@@ -11002,7 +11098,7 @@
         <v>755</v>
       </c>
       <c r="F415" s="9" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="416" spans="2:6" x14ac:dyDescent="0.4">
@@ -11016,7 +11112,7 @@
         <v>757</v>
       </c>
       <c r="F416" s="9" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="417" spans="2:6" x14ac:dyDescent="0.4">
@@ -11030,7 +11126,7 @@
         <v>759</v>
       </c>
       <c r="F417" s="9" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="418" spans="2:6" x14ac:dyDescent="0.4">
@@ -11044,7 +11140,7 @@
         <v>761</v>
       </c>
       <c r="F418" s="9" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="419" spans="2:6" x14ac:dyDescent="0.4">
@@ -11058,7 +11154,7 @@
         <v>763</v>
       </c>
       <c r="F419" s="9" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="420" spans="2:6" x14ac:dyDescent="0.4">
@@ -11072,7 +11168,7 @@
         <v>85</v>
       </c>
       <c r="F420" s="9" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="421" spans="2:6" x14ac:dyDescent="0.4">
@@ -11086,7 +11182,7 @@
         <v>765</v>
       </c>
       <c r="F421" s="9" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="422" spans="2:6" x14ac:dyDescent="0.4">
@@ -11100,7 +11196,7 @@
         <v>767</v>
       </c>
       <c r="F422" s="9" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="423" spans="2:6" x14ac:dyDescent="0.4">
@@ -11114,7 +11210,7 @@
         <v>769</v>
       </c>
       <c r="F423" s="9" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="424" spans="2:6" x14ac:dyDescent="0.4">
@@ -11128,7 +11224,7 @@
         <v>771</v>
       </c>
       <c r="F424" s="9" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="425" spans="2:6" x14ac:dyDescent="0.4">
@@ -11142,7 +11238,7 @@
         <v>773</v>
       </c>
       <c r="F425" s="9" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="426" spans="2:6" x14ac:dyDescent="0.4">
@@ -11156,7 +11252,7 @@
         <v>775</v>
       </c>
       <c r="F426" s="9" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="427" spans="2:6" x14ac:dyDescent="0.4">
@@ -11170,7 +11266,7 @@
         <v>777</v>
       </c>
       <c r="F427" s="9" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="428" spans="2:6" x14ac:dyDescent="0.4">
@@ -11184,7 +11280,7 @@
         <v>779</v>
       </c>
       <c r="F428" s="9" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="429" spans="2:6" x14ac:dyDescent="0.4">
@@ -11198,7 +11294,7 @@
         <v>781</v>
       </c>
       <c r="F429" s="9" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="430" spans="2:6" x14ac:dyDescent="0.4">
@@ -11212,7 +11308,7 @@
         <v>783</v>
       </c>
       <c r="F430" s="9" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="431" spans="2:6" x14ac:dyDescent="0.4">
@@ -11226,35 +11322,35 @@
         <v>785</v>
       </c>
       <c r="F431" s="9" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="432" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B432">
         <v>430</v>
       </c>
-      <c r="C432" t="s">
-        <v>786</v>
+      <c r="C432" s="7" t="s">
+        <v>1406</v>
       </c>
       <c r="D432" t="s">
-        <v>787</v>
+        <v>1405</v>
       </c>
       <c r="F432" s="9" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="433" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B433">
         <v>431</v>
       </c>
-      <c r="C433" t="s">
-        <v>788</v>
+      <c r="C433" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D433" t="s">
         <v>86</v>
       </c>
       <c r="F433" s="9" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="434" spans="2:6" x14ac:dyDescent="0.4">
@@ -11268,7 +11364,7 @@
         <v>87</v>
       </c>
       <c r="F434" s="9" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="435" spans="2:6" x14ac:dyDescent="0.4">
@@ -11276,13 +11372,13 @@
         <v>433</v>
       </c>
       <c r="C435" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D435" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F435" s="9" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="436" spans="2:6" x14ac:dyDescent="0.4">
@@ -11290,13 +11386,13 @@
         <v>434</v>
       </c>
       <c r="C436" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D436" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F436" s="9" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="437" spans="2:6" x14ac:dyDescent="0.4">
@@ -11304,13 +11400,13 @@
         <v>435</v>
       </c>
       <c r="C437" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D437" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F437" s="9" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="438" spans="2:6" x14ac:dyDescent="0.4">
@@ -11318,13 +11414,13 @@
         <v>436</v>
       </c>
       <c r="C438" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D438" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F438" s="9" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="439" spans="2:6" x14ac:dyDescent="0.4">
@@ -11332,13 +11428,13 @@
         <v>437</v>
       </c>
       <c r="C439" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D439" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F439" s="9" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="440" spans="2:6" x14ac:dyDescent="0.4">
@@ -11346,13 +11442,13 @@
         <v>438</v>
       </c>
       <c r="C440" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D440" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F440" s="9" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="441" spans="2:6" x14ac:dyDescent="0.4">
@@ -11360,13 +11456,13 @@
         <v>439</v>
       </c>
       <c r="C441" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D441" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F441" s="9" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="442" spans="2:6" x14ac:dyDescent="0.4">
@@ -11374,13 +11470,13 @@
         <v>440</v>
       </c>
       <c r="C442" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D442" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F442" s="9" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="443" spans="2:6" x14ac:dyDescent="0.4">
@@ -11388,13 +11484,13 @@
         <v>441</v>
       </c>
       <c r="C443" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D443" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F443" s="9" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="444" spans="2:6" x14ac:dyDescent="0.4">
@@ -11408,7 +11504,7 @@
         <v>88</v>
       </c>
       <c r="F444" s="9" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="445" spans="2:6" x14ac:dyDescent="0.4">
@@ -11416,13 +11512,13 @@
         <v>443</v>
       </c>
       <c r="C445" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D445" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F445" s="9" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="446" spans="2:6" x14ac:dyDescent="0.4">
@@ -11430,13 +11526,13 @@
         <v>444</v>
       </c>
       <c r="C446" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D446" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F446" s="9" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="447" spans="2:6" x14ac:dyDescent="0.4">
@@ -11450,7 +11546,7 @@
         <v>89</v>
       </c>
       <c r="F447" s="9" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="448" spans="2:6" x14ac:dyDescent="0.4">
@@ -11458,13 +11554,13 @@
         <v>446</v>
       </c>
       <c r="C448" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D448" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F448" s="9" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="449" spans="2:6" x14ac:dyDescent="0.4">
@@ -11478,7 +11574,7 @@
         <v>90</v>
       </c>
       <c r="F449" s="9" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="450" spans="2:6" x14ac:dyDescent="0.4">
@@ -11486,13 +11582,13 @@
         <v>448</v>
       </c>
       <c r="C450" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D450" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F450" s="9" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="451" spans="2:6" x14ac:dyDescent="0.4">
@@ -11500,13 +11596,13 @@
         <v>449</v>
       </c>
       <c r="C451" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D451" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F451" s="9" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="452" spans="2:6" x14ac:dyDescent="0.4">
@@ -11514,13 +11610,13 @@
         <v>450</v>
       </c>
       <c r="C452" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D452" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F452" s="9" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="453" spans="2:6" x14ac:dyDescent="0.4">
@@ -11528,13 +11624,13 @@
         <v>451</v>
       </c>
       <c r="C453" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D453" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F453" s="9" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="454" spans="2:6" x14ac:dyDescent="0.4">
@@ -11542,13 +11638,13 @@
         <v>452</v>
       </c>
       <c r="C454" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D454" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F454" s="9" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="455" spans="2:6" x14ac:dyDescent="0.4">
@@ -11556,13 +11652,13 @@
         <v>453</v>
       </c>
       <c r="C455" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="D455" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F455" s="9" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="456" spans="2:6" x14ac:dyDescent="0.4">
@@ -11570,13 +11666,13 @@
         <v>454</v>
       </c>
       <c r="C456" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D456" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F456" s="9" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="457" spans="2:6" x14ac:dyDescent="0.4">
@@ -11584,13 +11680,13 @@
         <v>455</v>
       </c>
       <c r="C457" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D457" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F457" s="9" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="458" spans="2:6" x14ac:dyDescent="0.4">
@@ -11601,10 +11697,10 @@
         <v>91</v>
       </c>
       <c r="D458" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F458" s="9" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="459" spans="2:6" x14ac:dyDescent="0.4">
@@ -11612,13 +11708,13 @@
         <v>457</v>
       </c>
       <c r="C459" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D459" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F459" s="9" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="460" spans="2:6" x14ac:dyDescent="0.4">
@@ -11626,13 +11722,13 @@
         <v>458</v>
       </c>
       <c r="C460" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D460" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F460" s="9" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="461" spans="2:6" x14ac:dyDescent="0.4">
@@ -11643,10 +11739,10 @@
         <v>92</v>
       </c>
       <c r="D461" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F461" s="9" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="462" spans="2:6" x14ac:dyDescent="0.4">
@@ -11654,13 +11750,13 @@
         <v>460</v>
       </c>
       <c r="C462" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D462" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F462" s="9" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="463" spans="2:6" x14ac:dyDescent="0.4">
@@ -11668,13 +11764,13 @@
         <v>461</v>
       </c>
       <c r="C463" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D463" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F463" s="9" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="464" spans="2:6" x14ac:dyDescent="0.4">
@@ -11682,58 +11778,58 @@
         <v>462</v>
       </c>
       <c r="C464" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D464" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F464" s="9" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="465" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B465">
         <v>463</v>
       </c>
       <c r="C465" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D465" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F465" s="9" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="466" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B466">
         <v>464</v>
       </c>
       <c r="C466" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D466" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F466" s="9" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="467" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B467">
         <v>465</v>
       </c>
       <c r="C467" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D467" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F467" s="9" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="468" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B468">
         <v>466</v>
       </c>
@@ -11744,122 +11840,122 @@
         <v>93</v>
       </c>
       <c r="F468" s="9" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="469" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B469">
         <v>467</v>
       </c>
       <c r="C469" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D469" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F469" s="9" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="470" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B470">
         <v>468</v>
       </c>
       <c r="C470" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D470" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F470" s="9" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="471" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B471">
         <v>469</v>
       </c>
       <c r="C471" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D471" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F471" s="9" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="472" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B472">
         <v>470</v>
       </c>
       <c r="C472" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D472" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F472" s="9" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="473" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B473">
         <v>471</v>
       </c>
       <c r="C473" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D473" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F473" s="9" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="474" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B474">
         <v>472</v>
       </c>
       <c r="C474" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D474" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F474" s="9" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="475" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B475">
         <v>473</v>
       </c>
       <c r="C475" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D475" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F475" s="9" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="476" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B476">
         <v>474</v>
       </c>
       <c r="C476" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F476" s="9" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="477" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B477">
         <v>475</v>
       </c>
@@ -11870,52 +11966,67 @@
         <v>94</v>
       </c>
       <c r="F477" s="9" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="478" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B478">
         <v>476</v>
       </c>
       <c r="C478" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D478" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F478" s="9" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="479" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B479">
         <v>477</v>
       </c>
       <c r="C479" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D479" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E479" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="F479" s="9" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="480" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B480">
         <v>478</v>
       </c>
       <c r="C480" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D480" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F480" s="9" t="s">
-        <v>1318</v>
+        <v>1315</v>
+      </c>
+      <c r="G480" s="10">
+        <v>8</v>
+      </c>
+      <c r="H480" s="10">
+        <v>13</v>
+      </c>
+      <c r="I480" s="10">
+        <v>18</v>
+      </c>
+      <c r="J480" s="10">
+        <v>27</v>
+      </c>
+      <c r="K480" s="10">
+        <v>31</v>
       </c>
     </row>
     <row r="481" spans="2:6" x14ac:dyDescent="0.4">
@@ -11923,16 +12034,16 @@
         <v>479</v>
       </c>
       <c r="C481" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D481" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E481" s="7" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="F481" s="9" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="482" spans="2:6" x14ac:dyDescent="0.4">
@@ -11940,16 +12051,16 @@
         <v>480</v>
       </c>
       <c r="C482" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D482" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E482" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="F482" s="9" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="483" spans="2:6" x14ac:dyDescent="0.4">
@@ -11957,16 +12068,16 @@
         <v>481</v>
       </c>
       <c r="C483" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D483" s="16" t="s">
-        <v>1405</v>
+        <v>1401</v>
+      </c>
+      <c r="D483" s="13" t="s">
+        <v>1400</v>
       </c>
       <c r="E483" s="7" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="F483" s="9" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="484" spans="2:6" x14ac:dyDescent="0.4">
@@ -12590,16 +12701,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.59765625" customWidth="1"/>
     <col min="2" max="2" width="9" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
     <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
@@ -12607,34 +12718,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="12" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>1327</v>
+      <c r="F1" s="14" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="13"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+        <v>868</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="8">
@@ -12652,10 +12763,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D4" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -12663,10 +12774,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D5" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -12773,16 +12884,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E15" t="s">
         <v>1334</v>
       </c>
-      <c r="D15" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1337</v>
-      </c>
       <c r="F15" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="G15">
         <v>36</v>
@@ -12815,7 +12926,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
@@ -12823,7 +12934,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
@@ -12831,7 +12942,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
@@ -12839,7 +12950,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
@@ -12847,7 +12958,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
@@ -12855,7 +12966,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
@@ -12863,7 +12974,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
@@ -12871,7 +12982,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
@@ -12879,7 +12990,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
@@ -12887,7 +12998,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
@@ -12895,7 +13006,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
@@ -12911,7 +13022,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
@@ -12919,7 +13030,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
@@ -12927,135 +13038,144 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="8">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="8">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="8">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="8">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="8">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="8">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="8">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="8">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41" s="8">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" s="8">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C42" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43" s="8">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44" s="8">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1358</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45" s="8">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46" s="8">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="8">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48" s="8">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
@@ -13063,7 +13183,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
@@ -13071,7 +13191,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
@@ -13079,7 +13199,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
@@ -13087,7 +13207,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
@@ -13095,7 +13215,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
@@ -13103,7 +13223,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
@@ -13111,7 +13231,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
@@ -13119,7 +13239,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
@@ -13127,7 +13247,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.4">
@@ -13135,7 +13255,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
@@ -13143,7 +13263,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
@@ -13154,7 +13274,7 @@
         <v>396</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
@@ -13162,7 +13282,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
@@ -13170,7 +13290,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
@@ -13178,7 +13298,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.4">
@@ -13186,7 +13306,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.4">
@@ -13194,7 +13314,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -13202,7 +13322,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -13210,7 +13330,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -13218,7 +13338,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YNC\Desktop\programming\_Private\proseka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0402c\Desktop\proseka Rating project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C1BA32-2FE2-4E84-AD90-BDC67E91C9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="-120" windowWidth="7500" windowHeight="10332"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="곡 데이터(출시순)" sheetId="3" r:id="rId1"/>
@@ -23,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="1454">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -4771,11 +4763,42 @@
     <t>koyori</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Eve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omoi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40mP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasakure.UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黒うさP</t>
+  </si>
+  <si>
+    <t>Crusher-P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くらげP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZFG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;APD.&quot;0"/>
   </numFmts>
@@ -4929,21 +4952,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4951,6 +4959,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5283,63 +5306,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:K602"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E56" sqref="E56"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="35.69921875" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="9" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9" style="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="s">
         <v>1313</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="13"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>866</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="9" t="s">
         <v>97</v>
       </c>
@@ -5356,7 +5379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -5369,7 +5392,7 @@
       <c r="E3" t="s">
         <v>1314</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="12" t="s">
         <v>1406</v>
       </c>
       <c r="G3" s="9">
@@ -5388,7 +5411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -5401,11 +5424,11 @@
       <c r="E4" s="7" t="s">
         <v>1373</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -5418,11 +5441,11 @@
       <c r="E5" t="s">
         <v>1374</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -5435,11 +5458,11 @@
       <c r="E6" s="7" t="s">
         <v>1375</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -5452,11 +5475,11 @@
       <c r="E7" s="7" t="s">
         <v>1376</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -5469,11 +5492,11 @@
       <c r="E8" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -5486,11 +5509,11 @@
       <c r="E9" s="7" t="s">
         <v>1378</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -5503,11 +5526,11 @@
       <c r="E10" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -5520,11 +5543,11 @@
       <c r="E11" t="s">
         <v>1380</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -5537,11 +5560,11 @@
       <c r="E12" s="7" t="s">
         <v>1381</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -5554,11 +5577,11 @@
       <c r="E13" s="7" t="s">
         <v>1382</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>12</v>
       </c>
@@ -5571,11 +5594,11 @@
       <c r="E14" s="7" t="s">
         <v>1383</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>13</v>
       </c>
@@ -5588,11 +5611,11 @@
       <c r="E15" t="s">
         <v>1384</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>14</v>
       </c>
@@ -5605,11 +5628,11 @@
       <c r="E16" t="s">
         <v>1385</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>15</v>
       </c>
@@ -5622,11 +5645,11 @@
       <c r="E17" t="s">
         <v>1386</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>16</v>
       </c>
@@ -5639,11 +5662,11 @@
       <c r="E18" t="s">
         <v>1387</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>17</v>
       </c>
@@ -5656,11 +5679,11 @@
       <c r="E19" t="s">
         <v>1407</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>18</v>
       </c>
@@ -5673,11 +5696,11 @@
       <c r="E20" s="7" t="s">
         <v>1408</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>19</v>
       </c>
@@ -5690,11 +5713,11 @@
       <c r="E21" s="7" t="s">
         <v>1409</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>20</v>
       </c>
@@ -5707,11 +5730,11 @@
       <c r="E22" s="7" t="s">
         <v>1410</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>21</v>
       </c>
@@ -5724,11 +5747,11 @@
       <c r="E23" s="7" t="s">
         <v>1411</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>22</v>
       </c>
@@ -5741,11 +5764,11 @@
       <c r="E24" s="7" t="s">
         <v>1380</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>23</v>
       </c>
@@ -5758,11 +5781,11 @@
       <c r="E25" s="7" t="s">
         <v>1412</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>24</v>
       </c>
@@ -5775,11 +5798,11 @@
       <c r="E26" s="7" t="s">
         <v>1384</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>25</v>
       </c>
@@ -5792,11 +5815,11 @@
       <c r="E27" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="12" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>26</v>
       </c>
@@ -5809,11 +5832,11 @@
       <c r="E28" s="7" t="s">
         <v>1414</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="12" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>27</v>
       </c>
@@ -5826,11 +5849,11 @@
       <c r="E29" t="s">
         <v>1415</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="12" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>28</v>
       </c>
@@ -5843,11 +5866,11 @@
       <c r="E30" t="s">
         <v>1416</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="12" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>29</v>
       </c>
@@ -5860,11 +5883,11 @@
       <c r="E31" t="s">
         <v>1417</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="12" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>30</v>
       </c>
@@ -5877,11 +5900,11 @@
       <c r="E32" t="s">
         <v>1418</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="12" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>31</v>
       </c>
@@ -5894,11 +5917,11 @@
       <c r="E33" t="s">
         <v>1419</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="12" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>32</v>
       </c>
@@ -5911,11 +5934,11 @@
       <c r="E34" t="s">
         <v>1420</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="12" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>33</v>
       </c>
@@ -5928,11 +5951,11 @@
       <c r="E35" t="s">
         <v>1421</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="12" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>34</v>
       </c>
@@ -5945,11 +5968,11 @@
       <c r="E36" t="s">
         <v>1422</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="12" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>35</v>
       </c>
@@ -5962,11 +5985,11 @@
       <c r="E37" t="s">
         <v>1423</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="12" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>36</v>
       </c>
@@ -5979,11 +6002,11 @@
       <c r="E38" t="s">
         <v>1425</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="12" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>37</v>
       </c>
@@ -5996,11 +6019,11 @@
       <c r="E39" t="s">
         <v>1426</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="12" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>38</v>
       </c>
@@ -6013,11 +6036,11 @@
       <c r="E40" t="s">
         <v>1427</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="12" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>39</v>
       </c>
@@ -6030,11 +6053,11 @@
       <c r="E41" t="s">
         <v>1428</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="12" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>40</v>
       </c>
@@ -6047,11 +6070,11 @@
       <c r="E42" t="s">
         <v>1429</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="12" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>41</v>
       </c>
@@ -6064,11 +6087,11 @@
       <c r="E43" t="s">
         <v>1430</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="12" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>42</v>
       </c>
@@ -6081,11 +6104,11 @@
       <c r="E44" t="s">
         <v>1430</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="12" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>43</v>
       </c>
@@ -6098,11 +6121,11 @@
       <c r="E45" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="12" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>44</v>
       </c>
@@ -6115,11 +6138,11 @@
       <c r="E46" t="s">
         <v>1432</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="12" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>45</v>
       </c>
@@ -6132,11 +6155,11 @@
       <c r="E47" t="s">
         <v>1433</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="12" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>46</v>
       </c>
@@ -6149,11 +6172,11 @@
       <c r="E48" s="7" t="s">
         <v>1434</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="12" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>47</v>
       </c>
@@ -6166,11 +6189,11 @@
       <c r="E49" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="12" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>48</v>
       </c>
@@ -6183,11 +6206,11 @@
       <c r="E50" t="s">
         <v>1436</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="12" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>49</v>
       </c>
@@ -6200,11 +6223,11 @@
       <c r="E51" t="s">
         <v>1437</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="12" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>50</v>
       </c>
@@ -6217,11 +6240,11 @@
       <c r="E52" t="s">
         <v>1438</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="12" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>51</v>
       </c>
@@ -6234,11 +6257,11 @@
       <c r="E53" t="s">
         <v>1439</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="12" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>52</v>
       </c>
@@ -6251,11 +6274,11 @@
       <c r="E54" t="s">
         <v>1440</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="12" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>53</v>
       </c>
@@ -6268,11 +6291,11 @@
       <c r="E55" t="s">
         <v>1441</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="12" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>54</v>
       </c>
@@ -6285,11 +6308,11 @@
       <c r="E56" t="s">
         <v>1442</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="12" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>55</v>
       </c>
@@ -6302,11 +6325,11 @@
       <c r="E57" t="s">
         <v>1442</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="12" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>56</v>
       </c>
@@ -6319,11 +6342,11 @@
       <c r="E58" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="12" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>57</v>
       </c>
@@ -6336,11 +6359,11 @@
       <c r="E59" t="s">
         <v>1443</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="12" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>58</v>
       </c>
@@ -6353,11 +6376,11 @@
       <c r="E60" t="s">
         <v>1444</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="12" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>59</v>
       </c>
@@ -6370,11 +6393,11 @@
       <c r="E61" t="s">
         <v>1445</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="F61" s="12" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>60</v>
       </c>
@@ -6387,11 +6410,11 @@
       <c r="E62" t="s">
         <v>1430</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F62" s="12" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>61</v>
       </c>
@@ -6401,11 +6424,14 @@
       <c r="D63" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="E63" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>62</v>
       </c>
@@ -6415,11 +6441,14 @@
       <c r="D64" t="s">
         <v>200</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="E64" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F64" s="12" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>63</v>
       </c>
@@ -6429,11 +6458,14 @@
       <c r="D65" t="s">
         <v>202</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="E65" s="7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F65" s="12" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>64</v>
       </c>
@@ -6443,11 +6475,14 @@
       <c r="D66" t="s">
         <v>204</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="E66" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F66" s="12" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>65</v>
       </c>
@@ -6457,11 +6492,14 @@
       <c r="D67" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="E67" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F67" s="12" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>66</v>
       </c>
@@ -6471,11 +6509,14 @@
       <c r="D68" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="E68" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F68" s="12" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>67</v>
       </c>
@@ -6485,11 +6526,14 @@
       <c r="D69" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="E69" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F69" s="12" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>68</v>
       </c>
@@ -6499,11 +6543,14 @@
       <c r="D70" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="E70" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>69</v>
       </c>
@@ -6513,11 +6560,14 @@
       <c r="D71" t="s">
         <v>212</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="E71" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F71" s="12" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>70</v>
       </c>
@@ -6527,11 +6577,14 @@
       <c r="D72" t="s">
         <v>214</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="E72" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F72" s="12" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>71</v>
       </c>
@@ -6541,11 +6594,11 @@
       <c r="D73" t="s">
         <v>216</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="12" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>72</v>
       </c>
@@ -6555,11 +6608,11 @@
       <c r="D74" t="s">
         <v>218</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="12" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>73</v>
       </c>
@@ -6569,11 +6622,11 @@
       <c r="D75" t="s">
         <v>220</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="12" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>74</v>
       </c>
@@ -6583,11 +6636,11 @@
       <c r="D76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="12" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>75</v>
       </c>
@@ -6597,11 +6650,11 @@
       <c r="D77" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="F77" s="12" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>76</v>
       </c>
@@ -6611,11 +6664,11 @@
       <c r="D78" t="s">
         <v>222</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="12" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>77</v>
       </c>
@@ -6625,11 +6678,11 @@
       <c r="D79" t="s">
         <v>224</v>
       </c>
-      <c r="F79" s="17" t="s">
+      <c r="F79" s="12" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>78</v>
       </c>
@@ -6639,11 +6692,11 @@
       <c r="D80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="17" t="s">
+      <c r="F80" s="12" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>79</v>
       </c>
@@ -6653,11 +6706,11 @@
       <c r="D81" t="s">
         <v>226</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="12" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>80</v>
       </c>
@@ -6667,11 +6720,11 @@
       <c r="D82" t="s">
         <v>227</v>
       </c>
-      <c r="F82" s="17" t="s">
+      <c r="F82" s="12" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>81</v>
       </c>
@@ -6681,11 +6734,11 @@
       <c r="D83" t="s">
         <v>229</v>
       </c>
-      <c r="F83" s="17" t="s">
+      <c r="F83" s="12" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>82</v>
       </c>
@@ -6695,11 +6748,11 @@
       <c r="D84" t="s">
         <v>231</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="12" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>83</v>
       </c>
@@ -6709,11 +6762,11 @@
       <c r="D85" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="17" t="s">
+      <c r="F85" s="12" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>84</v>
       </c>
@@ -6723,11 +6776,11 @@
       <c r="D86" t="s">
         <v>235</v>
       </c>
-      <c r="F86" s="17" t="s">
+      <c r="F86" s="12" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>85</v>
       </c>
@@ -6737,11 +6790,11 @@
       <c r="D87" t="s">
         <v>237</v>
       </c>
-      <c r="F87" s="17" t="s">
+      <c r="F87" s="12" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>86</v>
       </c>
@@ -6751,11 +6804,11 @@
       <c r="D88" t="s">
         <v>17</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F88" s="12" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>87</v>
       </c>
@@ -6765,11 +6818,11 @@
       <c r="D89" t="s">
         <v>239</v>
       </c>
-      <c r="F89" s="17" t="s">
+      <c r="F89" s="12" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>88</v>
       </c>
@@ -6779,11 +6832,11 @@
       <c r="D90" t="s">
         <v>241</v>
       </c>
-      <c r="F90" s="17" t="s">
+      <c r="F90" s="12" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>89</v>
       </c>
@@ -6793,11 +6846,11 @@
       <c r="D91" t="s">
         <v>243</v>
       </c>
-      <c r="F91" s="17" t="s">
+      <c r="F91" s="12" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>90</v>
       </c>
@@ -6807,11 +6860,11 @@
       <c r="D92" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="17" t="s">
+      <c r="F92" s="12" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>91</v>
       </c>
@@ -6821,11 +6874,11 @@
       <c r="D93" t="s">
         <v>247</v>
       </c>
-      <c r="F93" s="17" t="s">
+      <c r="F93" s="12" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>92</v>
       </c>
@@ -6835,11 +6888,11 @@
       <c r="D94" t="s">
         <v>18</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="F94" s="12" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>93</v>
       </c>
@@ -6849,11 +6902,11 @@
       <c r="D95" t="s">
         <v>249</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="F95" s="12" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>94</v>
       </c>
@@ -6863,11 +6916,11 @@
       <c r="D96" t="s">
         <v>251</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F96" s="12" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>95</v>
       </c>
@@ -6877,11 +6930,11 @@
       <c r="D97" t="s">
         <v>253</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" s="12" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>96</v>
       </c>
@@ -6891,11 +6944,11 @@
       <c r="D98" t="s">
         <v>255</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="F98" s="12" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>97</v>
       </c>
@@ -6905,11 +6958,11 @@
       <c r="D99" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="12" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>98</v>
       </c>
@@ -6919,11 +6972,11 @@
       <c r="D100" t="s">
         <v>257</v>
       </c>
-      <c r="F100" s="17" t="s">
+      <c r="F100" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>99</v>
       </c>
@@ -6933,11 +6986,11 @@
       <c r="D101" t="s">
         <v>259</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="F101" s="12" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>100</v>
       </c>
@@ -6947,11 +7000,11 @@
       <c r="D102" t="s">
         <v>261</v>
       </c>
-      <c r="F102" s="17" t="s">
+      <c r="F102" s="12" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>101</v>
       </c>
@@ -6961,11 +7014,11 @@
       <c r="D103" t="s">
         <v>263</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="12" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>102</v>
       </c>
@@ -6975,11 +7028,11 @@
       <c r="D104" t="s">
         <v>265</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F104" s="12" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>103</v>
       </c>
@@ -6989,11 +7042,11 @@
       <c r="D105" t="s">
         <v>267</v>
       </c>
-      <c r="F105" s="17" t="s">
+      <c r="F105" s="12" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>104</v>
       </c>
@@ -7003,11 +7056,11 @@
       <c r="D106" t="s">
         <v>269</v>
       </c>
-      <c r="F106" s="17" t="s">
+      <c r="F106" s="12" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>105</v>
       </c>
@@ -7017,11 +7070,11 @@
       <c r="D107" t="s">
         <v>271</v>
       </c>
-      <c r="F107" s="17" t="s">
+      <c r="F107" s="12" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>106</v>
       </c>
@@ -7031,11 +7084,11 @@
       <c r="D108" t="s">
         <v>20</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F108" s="12" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>107</v>
       </c>
@@ -7045,11 +7098,11 @@
       <c r="D109" t="s">
         <v>273</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F109" s="12" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>108</v>
       </c>
@@ -7059,11 +7112,11 @@
       <c r="D110" t="s">
         <v>275</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F110" s="12" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>109</v>
       </c>
@@ -7073,11 +7126,11 @@
       <c r="D111" t="s">
         <v>277</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="F111" s="12" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>110</v>
       </c>
@@ -7087,11 +7140,11 @@
       <c r="D112" t="s">
         <v>279</v>
       </c>
-      <c r="F112" s="17" t="s">
+      <c r="F112" s="12" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>111</v>
       </c>
@@ -7101,11 +7154,11 @@
       <c r="D113" t="s">
         <v>281</v>
       </c>
-      <c r="F113" s="17" t="s">
+      <c r="F113" s="12" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>112</v>
       </c>
@@ -7115,11 +7168,11 @@
       <c r="D114" t="s">
         <v>283</v>
       </c>
-      <c r="F114" s="17" t="s">
+      <c r="F114" s="12" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>113</v>
       </c>
@@ -7129,11 +7182,11 @@
       <c r="D115" t="s">
         <v>21</v>
       </c>
-      <c r="F115" s="17" t="s">
+      <c r="F115" s="12" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>114</v>
       </c>
@@ -7143,11 +7196,11 @@
       <c r="D116" t="s">
         <v>285</v>
       </c>
-      <c r="F116" s="17" t="s">
+      <c r="F116" s="12" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>115</v>
       </c>
@@ -7157,11 +7210,11 @@
       <c r="D117" t="s">
         <v>22</v>
       </c>
-      <c r="F117" s="17" t="s">
+      <c r="F117" s="12" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>116</v>
       </c>
@@ -7171,11 +7224,11 @@
       <c r="D118" t="s">
         <v>287</v>
       </c>
-      <c r="F118" s="17" t="s">
+      <c r="F118" s="12" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>117</v>
       </c>
@@ -7185,11 +7238,11 @@
       <c r="D119" t="s">
         <v>289</v>
       </c>
-      <c r="F119" s="17" t="s">
+      <c r="F119" s="12" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>118</v>
       </c>
@@ -7199,11 +7252,11 @@
       <c r="D120" t="s">
         <v>291</v>
       </c>
-      <c r="F120" s="17" t="s">
+      <c r="F120" s="12" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>119</v>
       </c>
@@ -7213,11 +7266,11 @@
       <c r="D121" t="s">
         <v>293</v>
       </c>
-      <c r="F121" s="17" t="s">
+      <c r="F121" s="12" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>120</v>
       </c>
@@ -7227,11 +7280,11 @@
       <c r="D122" t="s">
         <v>295</v>
       </c>
-      <c r="F122" s="17" t="s">
+      <c r="F122" s="12" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>121</v>
       </c>
@@ -7241,11 +7294,11 @@
       <c r="D123" t="s">
         <v>297</v>
       </c>
-      <c r="F123" s="17" t="s">
+      <c r="F123" s="12" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>122</v>
       </c>
@@ -7255,11 +7308,11 @@
       <c r="D124" t="s">
         <v>299</v>
       </c>
-      <c r="F124" s="17" t="s">
+      <c r="F124" s="12" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125">
         <v>123</v>
       </c>
@@ -7269,11 +7322,11 @@
       <c r="D125" t="s">
         <v>301</v>
       </c>
-      <c r="F125" s="17" t="s">
+      <c r="F125" s="12" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>124</v>
       </c>
@@ -7283,11 +7336,11 @@
       <c r="D126" t="s">
         <v>303</v>
       </c>
-      <c r="F126" s="17" t="s">
+      <c r="F126" s="12" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>125</v>
       </c>
@@ -7297,11 +7350,11 @@
       <c r="D127" t="s">
         <v>305</v>
       </c>
-      <c r="F127" s="17" t="s">
+      <c r="F127" s="12" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>126</v>
       </c>
@@ -7311,11 +7364,11 @@
       <c r="D128" t="s">
         <v>307</v>
       </c>
-      <c r="F128" s="17" t="s">
+      <c r="F128" s="12" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>127</v>
       </c>
@@ -7325,11 +7378,11 @@
       <c r="D129" t="s">
         <v>309</v>
       </c>
-      <c r="F129" s="17" t="s">
+      <c r="F129" s="12" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>128</v>
       </c>
@@ -7339,11 +7392,11 @@
       <c r="D130" t="s">
         <v>311</v>
       </c>
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="12" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>129</v>
       </c>
@@ -7353,11 +7406,11 @@
       <c r="D131" t="s">
         <v>313</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="F131" s="12" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>130</v>
       </c>
@@ -7367,11 +7420,11 @@
       <c r="D132" t="s">
         <v>315</v>
       </c>
-      <c r="F132" s="17" t="s">
+      <c r="F132" s="12" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>131</v>
       </c>
@@ -7381,11 +7434,11 @@
       <c r="D133" t="s">
         <v>23</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="F133" s="12" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>132</v>
       </c>
@@ -7395,11 +7448,11 @@
       <c r="D134" t="s">
         <v>24</v>
       </c>
-      <c r="F134" s="17" t="s">
+      <c r="F134" s="12" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>133</v>
       </c>
@@ -7409,11 +7462,11 @@
       <c r="D135" t="s">
         <v>318</v>
       </c>
-      <c r="F135" s="17" t="s">
+      <c r="F135" s="12" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>134</v>
       </c>
@@ -7423,11 +7476,11 @@
       <c r="D136" t="s">
         <v>320</v>
       </c>
-      <c r="F136" s="17" t="s">
+      <c r="F136" s="12" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>135</v>
       </c>
@@ -7437,11 +7490,11 @@
       <c r="D137" t="s">
         <v>25</v>
       </c>
-      <c r="F137" s="17" t="s">
+      <c r="F137" s="12" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>136</v>
       </c>
@@ -7451,11 +7504,11 @@
       <c r="D138" t="s">
         <v>322</v>
       </c>
-      <c r="F138" s="17" t="s">
+      <c r="F138" s="12" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>137</v>
       </c>
@@ -7465,11 +7518,11 @@
       <c r="D139" t="s">
         <v>324</v>
       </c>
-      <c r="F139" s="17" t="s">
+      <c r="F139" s="12" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>138</v>
       </c>
@@ -7479,11 +7532,11 @@
       <c r="D140" t="s">
         <v>326</v>
       </c>
-      <c r="F140" s="17" t="s">
+      <c r="F140" s="12" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141">
         <v>139</v>
       </c>
@@ -7493,11 +7546,11 @@
       <c r="D141" t="s">
         <v>26</v>
       </c>
-      <c r="F141" s="17" t="s">
+      <c r="F141" s="12" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142">
         <v>140</v>
       </c>
@@ -7507,11 +7560,11 @@
       <c r="D142" t="s">
         <v>328</v>
       </c>
-      <c r="F142" s="17" t="s">
+      <c r="F142" s="12" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143">
         <v>141</v>
       </c>
@@ -7521,11 +7574,11 @@
       <c r="D143" t="s">
         <v>330</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F143" s="12" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144">
         <v>142</v>
       </c>
@@ -7535,11 +7588,11 @@
       <c r="D144" t="s">
         <v>332</v>
       </c>
-      <c r="F144" s="17" t="s">
+      <c r="F144" s="12" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145">
         <v>143</v>
       </c>
@@ -7549,11 +7602,11 @@
       <c r="D145" t="s">
         <v>334</v>
       </c>
-      <c r="F145" s="17" t="s">
+      <c r="F145" s="12" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146">
         <v>144</v>
       </c>
@@ -7563,11 +7616,11 @@
       <c r="D146" t="s">
         <v>336</v>
       </c>
-      <c r="F146" s="17" t="s">
+      <c r="F146" s="12" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147">
         <v>145</v>
       </c>
@@ -7577,11 +7630,11 @@
       <c r="D147" t="s">
         <v>338</v>
       </c>
-      <c r="F147" s="17" t="s">
+      <c r="F147" s="12" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148">
         <v>146</v>
       </c>
@@ -7591,11 +7644,11 @@
       <c r="D148" t="s">
         <v>340</v>
       </c>
-      <c r="F148" s="17" t="s">
+      <c r="F148" s="12" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149">
         <v>147</v>
       </c>
@@ -7605,11 +7658,11 @@
       <c r="D149" t="s">
         <v>342</v>
       </c>
-      <c r="F149" s="17" t="s">
+      <c r="F149" s="12" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>148</v>
       </c>
@@ -7619,11 +7672,11 @@
       <c r="D150" t="s">
         <v>344</v>
       </c>
-      <c r="F150" s="17" t="s">
+      <c r="F150" s="12" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>149</v>
       </c>
@@ -7633,11 +7686,11 @@
       <c r="D151" t="s">
         <v>346</v>
       </c>
-      <c r="F151" s="17" t="s">
+      <c r="F151" s="12" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152">
         <v>150</v>
       </c>
@@ -7647,11 +7700,11 @@
       <c r="D152" t="s">
         <v>348</v>
       </c>
-      <c r="F152" s="17" t="s">
+      <c r="F152" s="12" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153">
         <v>151</v>
       </c>
@@ -7661,11 +7714,11 @@
       <c r="D153" t="s">
         <v>350</v>
       </c>
-      <c r="F153" s="17" t="s">
+      <c r="F153" s="12" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>152</v>
       </c>
@@ -7675,11 +7728,11 @@
       <c r="D154" t="s">
         <v>352</v>
       </c>
-      <c r="F154" s="17" t="s">
+      <c r="F154" s="12" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>153</v>
       </c>
@@ -7689,11 +7742,11 @@
       <c r="D155" t="s">
         <v>354</v>
       </c>
-      <c r="F155" s="17" t="s">
+      <c r="F155" s="12" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>154</v>
       </c>
@@ -7703,11 +7756,11 @@
       <c r="D156" t="s">
         <v>27</v>
       </c>
-      <c r="F156" s="17" t="s">
+      <c r="F156" s="12" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>155</v>
       </c>
@@ -7717,11 +7770,11 @@
       <c r="D157" t="s">
         <v>28</v>
       </c>
-      <c r="F157" s="17" t="s">
+      <c r="F157" s="12" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>156</v>
       </c>
@@ -7731,11 +7784,11 @@
       <c r="D158" t="s">
         <v>356</v>
       </c>
-      <c r="F158" s="17" t="s">
+      <c r="F158" s="12" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>157</v>
       </c>
@@ -7745,11 +7798,11 @@
       <c r="D159" t="s">
         <v>358</v>
       </c>
-      <c r="F159" s="17" t="s">
+      <c r="F159" s="12" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160">
         <v>158</v>
       </c>
@@ -7759,11 +7812,11 @@
       <c r="D160" t="s">
         <v>360</v>
       </c>
-      <c r="F160" s="17" t="s">
+      <c r="F160" s="12" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161">
         <v>159</v>
       </c>
@@ -7773,11 +7826,11 @@
       <c r="D161" t="s">
         <v>361</v>
       </c>
-      <c r="F161" s="17" t="s">
+      <c r="F161" s="12" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162">
         <v>160</v>
       </c>
@@ -7787,11 +7840,11 @@
       <c r="D162" t="s">
         <v>363</v>
       </c>
-      <c r="F162" s="17" t="s">
+      <c r="F162" s="12" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163">
         <v>161</v>
       </c>
@@ -7801,11 +7854,11 @@
       <c r="D163" t="s">
         <v>365</v>
       </c>
-      <c r="F163" s="17" t="s">
+      <c r="F163" s="12" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>162</v>
       </c>
@@ -7815,11 +7868,11 @@
       <c r="D164" t="s">
         <v>367</v>
       </c>
-      <c r="F164" s="17" t="s">
+      <c r="F164" s="12" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165">
         <v>163</v>
       </c>
@@ -7829,11 +7882,11 @@
       <c r="D165" t="s">
         <v>30</v>
       </c>
-      <c r="F165" s="17" t="s">
+      <c r="F165" s="12" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166">
         <v>164</v>
       </c>
@@ -7843,11 +7896,11 @@
       <c r="D166" t="s">
         <v>31</v>
       </c>
-      <c r="F166" s="17" t="s">
+      <c r="F166" s="12" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167">
         <v>165</v>
       </c>
@@ -7857,11 +7910,11 @@
       <c r="D167" t="s">
         <v>369</v>
       </c>
-      <c r="F167" s="17" t="s">
+      <c r="F167" s="12" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168">
         <v>166</v>
       </c>
@@ -7871,11 +7924,11 @@
       <c r="D168" t="s">
         <v>371</v>
       </c>
-      <c r="F168" s="17" t="s">
+      <c r="F168" s="12" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169">
         <v>167</v>
       </c>
@@ -7885,11 +7938,11 @@
       <c r="D169" t="s">
         <v>372</v>
       </c>
-      <c r="F169" s="17" t="s">
+      <c r="F169" s="12" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170">
         <v>168</v>
       </c>
@@ -7899,11 +7952,11 @@
       <c r="D170" t="s">
         <v>374</v>
       </c>
-      <c r="F170" s="17" t="s">
+      <c r="F170" s="12" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171">
         <v>169</v>
       </c>
@@ -7913,11 +7966,11 @@
       <c r="D171" t="s">
         <v>33</v>
       </c>
-      <c r="F171" s="17" t="s">
+      <c r="F171" s="12" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172">
         <v>170</v>
       </c>
@@ -7927,11 +7980,11 @@
       <c r="D172" t="s">
         <v>376</v>
       </c>
-      <c r="F172" s="17" t="s">
+      <c r="F172" s="12" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173">
         <v>171</v>
       </c>
@@ -7941,11 +7994,11 @@
       <c r="D173" t="s">
         <v>378</v>
       </c>
-      <c r="F173" s="17" t="s">
+      <c r="F173" s="12" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174">
         <v>172</v>
       </c>
@@ -7955,11 +8008,11 @@
       <c r="D174" t="s">
         <v>380</v>
       </c>
-      <c r="F174" s="17" t="s">
+      <c r="F174" s="12" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175">
         <v>173</v>
       </c>
@@ -7969,11 +8022,11 @@
       <c r="D175" t="s">
         <v>382</v>
       </c>
-      <c r="F175" s="17" t="s">
+      <c r="F175" s="12" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176">
         <v>174</v>
       </c>
@@ -7983,11 +8036,11 @@
       <c r="D176" t="s">
         <v>384</v>
       </c>
-      <c r="F176" s="17" t="s">
+      <c r="F176" s="12" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>175</v>
       </c>
@@ -7997,11 +8050,11 @@
       <c r="D177" t="s">
         <v>386</v>
       </c>
-      <c r="F177" s="17" t="s">
+      <c r="F177" s="12" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>176</v>
       </c>
@@ -8011,11 +8064,11 @@
       <c r="D178" t="s">
         <v>388</v>
       </c>
-      <c r="F178" s="17" t="s">
+      <c r="F178" s="12" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179">
         <v>177</v>
       </c>
@@ -8025,11 +8078,11 @@
       <c r="D179" t="s">
         <v>390</v>
       </c>
-      <c r="F179" s="17" t="s">
+      <c r="F179" s="12" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>178</v>
       </c>
@@ -8039,11 +8092,11 @@
       <c r="D180" t="s">
         <v>392</v>
       </c>
-      <c r="F180" s="17" t="s">
+      <c r="F180" s="12" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181">
         <v>179</v>
       </c>
@@ -8053,11 +8106,11 @@
       <c r="D181" t="s">
         <v>394</v>
       </c>
-      <c r="F181" s="17" t="s">
+      <c r="F181" s="12" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182">
         <v>180</v>
       </c>
@@ -8067,11 +8120,11 @@
       <c r="D182" t="s">
         <v>395</v>
       </c>
-      <c r="F182" s="17" t="s">
+      <c r="F182" s="12" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183">
         <v>181</v>
       </c>
@@ -8081,11 +8134,11 @@
       <c r="D183" t="s">
         <v>34</v>
       </c>
-      <c r="F183" s="17" t="s">
+      <c r="F183" s="12" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184">
         <v>182</v>
       </c>
@@ -8095,11 +8148,11 @@
       <c r="D184" t="s">
         <v>35</v>
       </c>
-      <c r="F184" s="17" t="s">
+      <c r="F184" s="12" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185">
         <v>183</v>
       </c>
@@ -8109,11 +8162,11 @@
       <c r="D185" t="s">
         <v>397</v>
       </c>
-      <c r="F185" s="17" t="s">
+      <c r="F185" s="12" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>184</v>
       </c>
@@ -8123,11 +8176,11 @@
       <c r="D186" t="s">
         <v>399</v>
       </c>
-      <c r="F186" s="17" t="s">
+      <c r="F186" s="12" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187">
         <v>185</v>
       </c>
@@ -8137,11 +8190,11 @@
       <c r="D187" t="s">
         <v>401</v>
       </c>
-      <c r="F187" s="17" t="s">
+      <c r="F187" s="12" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188">
         <v>186</v>
       </c>
@@ -8151,11 +8204,11 @@
       <c r="D188" t="s">
         <v>403</v>
       </c>
-      <c r="F188" s="17" t="s">
+      <c r="F188" s="12" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189">
         <v>187</v>
       </c>
@@ -8165,11 +8218,11 @@
       <c r="D189" t="s">
         <v>405</v>
       </c>
-      <c r="F189" s="17" t="s">
+      <c r="F189" s="12" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190">
         <v>188</v>
       </c>
@@ -8179,11 +8232,11 @@
       <c r="D190" t="s">
         <v>407</v>
       </c>
-      <c r="F190" s="17" t="s">
+      <c r="F190" s="12" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>189</v>
       </c>
@@ -8193,11 +8246,11 @@
       <c r="D191" t="s">
         <v>409</v>
       </c>
-      <c r="F191" s="17" t="s">
+      <c r="F191" s="12" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192">
         <v>190</v>
       </c>
@@ -8207,11 +8260,11 @@
       <c r="D192" t="s">
         <v>411</v>
       </c>
-      <c r="F192" s="17" t="s">
+      <c r="F192" s="12" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>191</v>
       </c>
@@ -8221,11 +8274,11 @@
       <c r="D193" t="s">
         <v>413</v>
       </c>
-      <c r="F193" s="17" t="s">
+      <c r="F193" s="12" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B194">
         <v>192</v>
       </c>
@@ -8235,11 +8288,11 @@
       <c r="D194" t="s">
         <v>415</v>
       </c>
-      <c r="F194" s="17" t="s">
+      <c r="F194" s="12" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B195">
         <v>193</v>
       </c>
@@ -8249,11 +8302,11 @@
       <c r="D195" t="s">
         <v>417</v>
       </c>
-      <c r="F195" s="17" t="s">
+      <c r="F195" s="12" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>194</v>
       </c>
@@ -8263,11 +8316,11 @@
       <c r="D196" t="s">
         <v>419</v>
       </c>
-      <c r="F196" s="17" t="s">
+      <c r="F196" s="12" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="197" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6">
         <v>195</v>
@@ -8281,7 +8334,7 @@
       <c r="E197" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F197" s="18" t="s">
+      <c r="F197" s="13" t="s">
         <v>420</v>
       </c>
       <c r="G197" s="10" t="s">
@@ -8300,7 +8353,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>196</v>
       </c>
@@ -8310,11 +8363,11 @@
       <c r="D198" t="s">
         <v>422</v>
       </c>
-      <c r="F198" s="17" t="s">
+      <c r="F198" s="12" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>197</v>
       </c>
@@ -8324,11 +8377,11 @@
       <c r="D199" t="s">
         <v>36</v>
       </c>
-      <c r="F199" s="17" t="s">
+      <c r="F199" s="12" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B200">
         <v>198</v>
       </c>
@@ -8338,11 +8391,11 @@
       <c r="D200" t="s">
         <v>424</v>
       </c>
-      <c r="F200" s="17" t="s">
+      <c r="F200" s="12" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>199</v>
       </c>
@@ -8352,11 +8405,11 @@
       <c r="D201" t="s">
         <v>426</v>
       </c>
-      <c r="F201" s="17" t="s">
+      <c r="F201" s="12" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>200</v>
       </c>
@@ -8366,11 +8419,11 @@
       <c r="D202" t="s">
         <v>428</v>
       </c>
-      <c r="F202" s="17" t="s">
+      <c r="F202" s="12" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>201</v>
       </c>
@@ -8380,11 +8433,11 @@
       <c r="D203" t="s">
         <v>430</v>
       </c>
-      <c r="F203" s="17" t="s">
+      <c r="F203" s="12" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B204">
         <v>202</v>
       </c>
@@ -8394,11 +8447,11 @@
       <c r="D204" t="s">
         <v>432</v>
       </c>
-      <c r="F204" s="17" t="s">
+      <c r="F204" s="12" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B205">
         <v>203</v>
       </c>
@@ -8408,11 +8461,11 @@
       <c r="D205" t="s">
         <v>434</v>
       </c>
-      <c r="F205" s="17" t="s">
+      <c r="F205" s="12" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B206">
         <v>204</v>
       </c>
@@ -8422,11 +8475,11 @@
       <c r="D206" t="s">
         <v>436</v>
       </c>
-      <c r="F206" s="17" t="s">
+      <c r="F206" s="12" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B207">
         <v>205</v>
       </c>
@@ -8436,11 +8489,11 @@
       <c r="D207" t="s">
         <v>438</v>
       </c>
-      <c r="F207" s="17" t="s">
+      <c r="F207" s="12" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B208">
         <v>206</v>
       </c>
@@ -8450,11 +8503,11 @@
       <c r="D208" t="s">
         <v>440</v>
       </c>
-      <c r="F208" s="17" t="s">
+      <c r="F208" s="12" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209">
         <v>207</v>
       </c>
@@ -8464,11 +8517,11 @@
       <c r="D209" t="s">
         <v>442</v>
       </c>
-      <c r="F209" s="17" t="s">
+      <c r="F209" s="12" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210">
         <v>208</v>
       </c>
@@ -8478,11 +8531,11 @@
       <c r="D210" t="s">
         <v>444</v>
       </c>
-      <c r="F210" s="17" t="s">
+      <c r="F210" s="12" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211">
         <v>209</v>
       </c>
@@ -8492,11 +8545,11 @@
       <c r="D211" t="s">
         <v>446</v>
       </c>
-      <c r="F211" s="17" t="s">
+      <c r="F211" s="12" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212">
         <v>210</v>
       </c>
@@ -8506,11 +8559,11 @@
       <c r="D212" t="s">
         <v>448</v>
       </c>
-      <c r="F212" s="17" t="s">
+      <c r="F212" s="12" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213">
         <v>211</v>
       </c>
@@ -8520,11 +8573,11 @@
       <c r="D213" t="s">
         <v>450</v>
       </c>
-      <c r="F213" s="17" t="s">
+      <c r="F213" s="12" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214">
         <v>212</v>
       </c>
@@ -8534,11 +8587,11 @@
       <c r="D214" t="s">
         <v>452</v>
       </c>
-      <c r="F214" s="17" t="s">
+      <c r="F214" s="12" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215">
         <v>213</v>
       </c>
@@ -8548,11 +8601,11 @@
       <c r="D215" t="s">
         <v>454</v>
       </c>
-      <c r="F215" s="17" t="s">
+      <c r="F215" s="12" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216">
         <v>214</v>
       </c>
@@ -8562,11 +8615,11 @@
       <c r="D216" t="s">
         <v>37</v>
       </c>
-      <c r="F216" s="17" t="s">
+      <c r="F216" s="12" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217">
         <v>215</v>
       </c>
@@ -8576,11 +8629,11 @@
       <c r="D217" t="s">
         <v>456</v>
       </c>
-      <c r="F217" s="17" t="s">
+      <c r="F217" s="12" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218">
         <v>216</v>
       </c>
@@ -8590,11 +8643,11 @@
       <c r="D218" t="s">
         <v>458</v>
       </c>
-      <c r="F218" s="17" t="s">
+      <c r="F218" s="12" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219">
         <v>217</v>
       </c>
@@ -8604,11 +8657,11 @@
       <c r="D219" t="s">
         <v>460</v>
       </c>
-      <c r="F219" s="17" t="s">
+      <c r="F219" s="12" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220">
         <v>218</v>
       </c>
@@ -8618,11 +8671,11 @@
       <c r="D220" t="s">
         <v>38</v>
       </c>
-      <c r="F220" s="17" t="s">
+      <c r="F220" s="12" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221">
         <v>219</v>
       </c>
@@ -8632,11 +8685,11 @@
       <c r="D221" t="s">
         <v>462</v>
       </c>
-      <c r="F221" s="17" t="s">
+      <c r="F221" s="12" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222">
         <v>220</v>
       </c>
@@ -8646,11 +8699,11 @@
       <c r="D222" t="s">
         <v>39</v>
       </c>
-      <c r="F222" s="19" t="s">
+      <c r="F222" s="14" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223">
         <v>221</v>
       </c>
@@ -8660,11 +8713,11 @@
       <c r="D223" t="s">
         <v>464</v>
       </c>
-      <c r="F223" s="17" t="s">
+      <c r="F223" s="12" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224">
         <v>222</v>
       </c>
@@ -8674,11 +8727,11 @@
       <c r="D224" t="s">
         <v>40</v>
       </c>
-      <c r="F224" s="17" t="s">
+      <c r="F224" s="12" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B225">
         <v>223</v>
       </c>
@@ -8688,11 +8741,11 @@
       <c r="D225" t="s">
         <v>465</v>
       </c>
-      <c r="F225" s="17" t="s">
+      <c r="F225" s="12" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B226">
         <v>224</v>
       </c>
@@ -8702,11 +8755,11 @@
       <c r="D226" t="s">
         <v>467</v>
       </c>
-      <c r="F226" s="17" t="s">
+      <c r="F226" s="12" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B227">
         <v>225</v>
       </c>
@@ -8716,11 +8769,11 @@
       <c r="D227" t="s">
         <v>469</v>
       </c>
-      <c r="F227" s="17" t="s">
+      <c r="F227" s="12" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B228">
         <v>226</v>
       </c>
@@ -8730,11 +8783,11 @@
       <c r="D228" t="s">
         <v>471</v>
       </c>
-      <c r="F228" s="17" t="s">
+      <c r="F228" s="12" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B229">
         <v>227</v>
       </c>
@@ -8744,11 +8797,11 @@
       <c r="D229" t="s">
         <v>473</v>
       </c>
-      <c r="F229" s="17" t="s">
+      <c r="F229" s="12" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B230">
         <v>228</v>
       </c>
@@ -8758,11 +8811,11 @@
       <c r="D230" t="s">
         <v>475</v>
       </c>
-      <c r="F230" s="17" t="s">
+      <c r="F230" s="12" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B231">
         <v>229</v>
       </c>
@@ -8772,11 +8825,11 @@
       <c r="D231" t="s">
         <v>42</v>
       </c>
-      <c r="F231" s="17" t="s">
+      <c r="F231" s="12" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B232">
         <v>230</v>
       </c>
@@ -8786,11 +8839,11 @@
       <c r="D232" t="s">
         <v>477</v>
       </c>
-      <c r="F232" s="17" t="s">
+      <c r="F232" s="12" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B233">
         <v>231</v>
       </c>
@@ -8800,11 +8853,11 @@
       <c r="D233" t="s">
         <v>479</v>
       </c>
-      <c r="F233" s="17" t="s">
+      <c r="F233" s="12" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B234">
         <v>232</v>
       </c>
@@ -8814,11 +8867,11 @@
       <c r="D234" t="s">
         <v>480</v>
       </c>
-      <c r="F234" s="17" t="s">
+      <c r="F234" s="12" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B235">
         <v>233</v>
       </c>
@@ -8828,11 +8881,11 @@
       <c r="D235" t="s">
         <v>482</v>
       </c>
-      <c r="F235" s="17" t="s">
+      <c r="F235" s="12" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B236">
         <v>234</v>
       </c>
@@ -8842,11 +8895,11 @@
       <c r="D236" t="s">
         <v>43</v>
       </c>
-      <c r="F236" s="17" t="s">
+      <c r="F236" s="12" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="237" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="6">
         <v>235</v>
@@ -8860,7 +8913,7 @@
       <c r="E237" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="F237" s="18" t="s">
+      <c r="F237" s="13" t="s">
         <v>420</v>
       </c>
       <c r="G237" s="10" t="s">
@@ -8879,7 +8932,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B238">
         <v>236</v>
       </c>
@@ -8889,11 +8942,11 @@
       <c r="D238" t="s">
         <v>484</v>
       </c>
-      <c r="F238" s="17" t="s">
+      <c r="F238" s="12" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B239">
         <v>237</v>
       </c>
@@ -8903,11 +8956,11 @@
       <c r="D239" t="s">
         <v>486</v>
       </c>
-      <c r="F239" s="17" t="s">
+      <c r="F239" s="12" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B240">
         <v>238</v>
       </c>
@@ -8917,11 +8970,11 @@
       <c r="D240" t="s">
         <v>488</v>
       </c>
-      <c r="F240" s="17" t="s">
+      <c r="F240" s="12" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B241">
         <v>239</v>
       </c>
@@ -8931,11 +8984,11 @@
       <c r="D241" t="s">
         <v>44</v>
       </c>
-      <c r="F241" s="17" t="s">
+      <c r="F241" s="12" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B242">
         <v>240</v>
       </c>
@@ -8945,11 +8998,11 @@
       <c r="D242" t="s">
         <v>490</v>
       </c>
-      <c r="F242" s="17" t="s">
+      <c r="F242" s="12" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B243">
         <v>241</v>
       </c>
@@ -8959,11 +9012,11 @@
       <c r="D243" t="s">
         <v>45</v>
       </c>
-      <c r="F243" s="17" t="s">
+      <c r="F243" s="12" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B244">
         <v>242</v>
       </c>
@@ -8973,11 +9026,11 @@
       <c r="D244" t="s">
         <v>493</v>
       </c>
-      <c r="F244" s="17" t="s">
+      <c r="F244" s="12" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B245">
         <v>243</v>
       </c>
@@ -8987,11 +9040,11 @@
       <c r="D245" t="s">
         <v>495</v>
       </c>
-      <c r="F245" s="17" t="s">
+      <c r="F245" s="12" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B246">
         <v>244</v>
       </c>
@@ -9001,11 +9054,11 @@
       <c r="D246" t="s">
         <v>497</v>
       </c>
-      <c r="F246" s="17" t="s">
+      <c r="F246" s="12" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B247">
         <v>245</v>
       </c>
@@ -9015,11 +9068,11 @@
       <c r="D247" t="s">
         <v>499</v>
       </c>
-      <c r="F247" s="17" t="s">
+      <c r="F247" s="12" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B248">
         <v>246</v>
       </c>
@@ -9029,11 +9082,11 @@
       <c r="D248" t="s">
         <v>501</v>
       </c>
-      <c r="F248" s="17" t="s">
+      <c r="F248" s="12" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B249">
         <v>247</v>
       </c>
@@ -9043,11 +9096,11 @@
       <c r="D249" t="s">
         <v>503</v>
       </c>
-      <c r="F249" s="17" t="s">
+      <c r="F249" s="12" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B250">
         <v>248</v>
       </c>
@@ -9057,11 +9110,11 @@
       <c r="D250" t="s">
         <v>505</v>
       </c>
-      <c r="F250" s="17" t="s">
+      <c r="F250" s="12" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B251">
         <v>249</v>
       </c>
@@ -9071,11 +9124,11 @@
       <c r="D251" t="s">
         <v>507</v>
       </c>
-      <c r="F251" s="17" t="s">
+      <c r="F251" s="12" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B252">
         <v>250</v>
       </c>
@@ -9085,11 +9138,11 @@
       <c r="D252" t="s">
         <v>509</v>
       </c>
-      <c r="F252" s="17" t="s">
+      <c r="F252" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B253">
         <v>251</v>
       </c>
@@ -9099,11 +9152,11 @@
       <c r="D253" t="s">
         <v>511</v>
       </c>
-      <c r="F253" s="17" t="s">
+      <c r="F253" s="12" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B254">
         <v>252</v>
       </c>
@@ -9113,11 +9166,11 @@
       <c r="D254" t="s">
         <v>46</v>
       </c>
-      <c r="F254" s="17" t="s">
+      <c r="F254" s="12" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B255">
         <v>253</v>
       </c>
@@ -9127,7 +9180,7 @@
       <c r="D255" t="s">
         <v>513</v>
       </c>
-      <c r="F255" s="17" t="s">
+      <c r="F255" s="12" t="s">
         <v>1086</v>
       </c>
       <c r="G255" s="9">
@@ -9146,7 +9199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B256">
         <v>254</v>
       </c>
@@ -9156,11 +9209,11 @@
       <c r="D256" t="s">
         <v>515</v>
       </c>
-      <c r="F256" s="17" t="s">
+      <c r="F256" s="12" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="257" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B257">
         <v>255</v>
       </c>
@@ -9170,11 +9223,11 @@
       <c r="D257" t="s">
         <v>517</v>
       </c>
-      <c r="F257" s="17" t="s">
+      <c r="F257" s="12" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="258" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B258">
         <v>256</v>
       </c>
@@ -9184,11 +9237,11 @@
       <c r="D258" t="s">
         <v>519</v>
       </c>
-      <c r="F258" s="17" t="s">
+      <c r="F258" s="12" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="259" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B259">
         <v>257</v>
       </c>
@@ -9198,11 +9251,11 @@
       <c r="D259" t="s">
         <v>47</v>
       </c>
-      <c r="F259" s="17" t="s">
+      <c r="F259" s="12" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="260" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B260">
         <v>258</v>
       </c>
@@ -9212,11 +9265,11 @@
       <c r="D260" t="s">
         <v>521</v>
       </c>
-      <c r="F260" s="17" t="s">
+      <c r="F260" s="12" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="261" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B261">
         <v>259</v>
       </c>
@@ -9226,11 +9279,11 @@
       <c r="D261" t="s">
         <v>523</v>
       </c>
-      <c r="F261" s="17" t="s">
+      <c r="F261" s="12" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="262" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B262">
         <v>260</v>
       </c>
@@ -9240,11 +9293,11 @@
       <c r="D262" t="s">
         <v>525</v>
       </c>
-      <c r="F262" s="17" t="s">
+      <c r="F262" s="12" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="263" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B263">
         <v>261</v>
       </c>
@@ -9254,11 +9307,11 @@
       <c r="D263" t="s">
         <v>527</v>
       </c>
-      <c r="F263" s="17" t="s">
+      <c r="F263" s="12" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="264" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B264">
         <v>262</v>
       </c>
@@ -9268,11 +9321,11 @@
       <c r="D264" t="s">
         <v>529</v>
       </c>
-      <c r="F264" s="17" t="s">
+      <c r="F264" s="12" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="265" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B265">
         <v>263</v>
       </c>
@@ -9282,11 +9335,11 @@
       <c r="D265" t="s">
         <v>531</v>
       </c>
-      <c r="F265" s="17" t="s">
+      <c r="F265" s="12" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="266" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B266">
         <v>264</v>
       </c>
@@ -9296,11 +9349,11 @@
       <c r="D266" t="s">
         <v>48</v>
       </c>
-      <c r="F266" s="17" t="s">
+      <c r="F266" s="12" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="267" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B267">
         <v>265</v>
       </c>
@@ -9310,11 +9363,11 @@
       <c r="D267" t="s">
         <v>49</v>
       </c>
-      <c r="F267" s="17" t="s">
+      <c r="F267" s="12" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="268" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B268">
         <v>266</v>
       </c>
@@ -9324,11 +9377,11 @@
       <c r="D268" t="s">
         <v>50</v>
       </c>
-      <c r="F268" s="17" t="s">
+      <c r="F268" s="12" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="269" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B269">
         <v>267</v>
       </c>
@@ -9338,11 +9391,11 @@
       <c r="D269" t="s">
         <v>51</v>
       </c>
-      <c r="F269" s="17" t="s">
+      <c r="F269" s="12" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="270" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B270">
         <v>268</v>
       </c>
@@ -9352,7 +9405,7 @@
       <c r="D270" t="s">
         <v>533</v>
       </c>
-      <c r="F270" s="17" t="s">
+      <c r="F270" s="12" t="s">
         <v>1101</v>
       </c>
       <c r="G270" s="9">
@@ -9371,7 +9424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="271" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B271">
         <v>269</v>
       </c>
@@ -9381,11 +9434,11 @@
       <c r="D271" t="s">
         <v>535</v>
       </c>
-      <c r="F271" s="17" t="s">
+      <c r="F271" s="12" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="272" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B272">
         <v>270</v>
       </c>
@@ -9395,11 +9448,11 @@
       <c r="D272" t="s">
         <v>52</v>
       </c>
-      <c r="F272" s="17" t="s">
+      <c r="F272" s="12" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273">
         <v>271</v>
       </c>
@@ -9409,11 +9462,11 @@
       <c r="D273" t="s">
         <v>537</v>
       </c>
-      <c r="F273" s="17" t="s">
+      <c r="F273" s="12" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274">
         <v>272</v>
       </c>
@@ -9423,11 +9476,11 @@
       <c r="D274" t="s">
         <v>539</v>
       </c>
-      <c r="F274" s="17" t="s">
+      <c r="F274" s="12" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275">
         <v>273</v>
       </c>
@@ -9437,11 +9490,11 @@
       <c r="D275" s="4">
         <v>1925</v>
       </c>
-      <c r="F275" s="17" t="s">
+      <c r="F275" s="12" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276">
         <v>274</v>
       </c>
@@ -9451,11 +9504,11 @@
       <c r="D276" t="s">
         <v>541</v>
       </c>
-      <c r="F276" s="17" t="s">
+      <c r="F276" s="12" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277">
         <v>275</v>
       </c>
@@ -9465,11 +9518,11 @@
       <c r="D277" t="s">
         <v>543</v>
       </c>
-      <c r="F277" s="17" t="s">
+      <c r="F277" s="12" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278">
         <v>276</v>
       </c>
@@ -9479,11 +9532,11 @@
       <c r="D278" t="s">
         <v>53</v>
       </c>
-      <c r="F278" s="17" t="s">
+      <c r="F278" s="12" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279">
         <v>277</v>
       </c>
@@ -9493,11 +9546,11 @@
       <c r="D279" t="s">
         <v>54</v>
       </c>
-      <c r="F279" s="17" t="s">
+      <c r="F279" s="12" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280">
         <v>278</v>
       </c>
@@ -9507,11 +9560,11 @@
       <c r="D280" t="s">
         <v>545</v>
       </c>
-      <c r="F280" s="17" t="s">
+      <c r="F280" s="12" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281">
         <v>279</v>
       </c>
@@ -9521,11 +9574,11 @@
       <c r="D281" t="s">
         <v>547</v>
       </c>
-      <c r="F281" s="17" t="s">
+      <c r="F281" s="12" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282">
         <v>280</v>
       </c>
@@ -9535,11 +9588,11 @@
       <c r="D282" t="s">
         <v>549</v>
       </c>
-      <c r="F282" s="17" t="s">
+      <c r="F282" s="12" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283">
         <v>281</v>
       </c>
@@ -9549,11 +9602,11 @@
       <c r="D283" t="s">
         <v>55</v>
       </c>
-      <c r="F283" s="17" t="s">
+      <c r="F283" s="12" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284">
         <v>282</v>
       </c>
@@ -9563,11 +9616,11 @@
       <c r="D284" t="s">
         <v>551</v>
       </c>
-      <c r="F284" s="17" t="s">
+      <c r="F284" s="12" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285">
         <v>283</v>
       </c>
@@ -9577,11 +9630,11 @@
       <c r="D285" t="s">
         <v>56</v>
       </c>
-      <c r="F285" s="17" t="s">
+      <c r="F285" s="12" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286">
         <v>284</v>
       </c>
@@ -9591,11 +9644,11 @@
       <c r="D286" s="4">
         <v>39</v>
       </c>
-      <c r="F286" s="17" t="s">
+      <c r="F286" s="12" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287">
         <v>285</v>
       </c>
@@ -9605,11 +9658,11 @@
       <c r="D287" t="s">
         <v>57</v>
       </c>
-      <c r="F287" s="17" t="s">
+      <c r="F287" s="12" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288">
         <v>286</v>
       </c>
@@ -9619,11 +9672,11 @@
       <c r="D288" t="s">
         <v>553</v>
       </c>
-      <c r="F288" s="17" t="s">
+      <c r="F288" s="12" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289">
         <v>287</v>
       </c>
@@ -9633,11 +9686,11 @@
       <c r="D289" t="s">
         <v>555</v>
       </c>
-      <c r="F289" s="17" t="s">
+      <c r="F289" s="12" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290">
         <v>288</v>
       </c>
@@ -9647,11 +9700,11 @@
       <c r="D290" t="s">
         <v>58</v>
       </c>
-      <c r="F290" s="17" t="s">
+      <c r="F290" s="12" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291">
         <v>289</v>
       </c>
@@ -9661,11 +9714,11 @@
       <c r="D291" t="s">
         <v>557</v>
       </c>
-      <c r="F291" s="17" t="s">
+      <c r="F291" s="12" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292">
         <v>290</v>
       </c>
@@ -9675,11 +9728,11 @@
       <c r="D292" t="s">
         <v>559</v>
       </c>
-      <c r="F292" s="17" t="s">
+      <c r="F292" s="12" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293">
         <v>291</v>
       </c>
@@ -9689,11 +9742,11 @@
       <c r="D293" t="s">
         <v>561</v>
       </c>
-      <c r="F293" s="17" t="s">
+      <c r="F293" s="12" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294">
         <v>292</v>
       </c>
@@ -9703,11 +9756,11 @@
       <c r="D294" t="s">
         <v>59</v>
       </c>
-      <c r="F294" s="17" t="s">
+      <c r="F294" s="12" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295">
         <v>293</v>
       </c>
@@ -9717,11 +9770,11 @@
       <c r="D295" t="s">
         <v>60</v>
       </c>
-      <c r="F295" s="17" t="s">
+      <c r="F295" s="12" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296">
         <v>294</v>
       </c>
@@ -9731,11 +9784,11 @@
       <c r="D296" t="s">
         <v>61</v>
       </c>
-      <c r="F296" s="17" t="s">
+      <c r="F296" s="12" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297">
         <v>295</v>
       </c>
@@ -9745,11 +9798,11 @@
       <c r="D297" t="s">
         <v>563</v>
       </c>
-      <c r="F297" s="17" t="s">
+      <c r="F297" s="12" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298">
         <v>296</v>
       </c>
@@ -9759,11 +9812,11 @@
       <c r="D298" t="s">
         <v>565</v>
       </c>
-      <c r="F298" s="17" t="s">
+      <c r="F298" s="12" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299">
         <v>297</v>
       </c>
@@ -9773,11 +9826,11 @@
       <c r="D299" t="s">
         <v>567</v>
       </c>
-      <c r="F299" s="17" t="s">
+      <c r="F299" s="12" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300">
         <v>298</v>
       </c>
@@ -9787,11 +9840,11 @@
       <c r="D300" t="s">
         <v>569</v>
       </c>
-      <c r="F300" s="17" t="s">
+      <c r="F300" s="12" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301">
         <v>299</v>
       </c>
@@ -9801,11 +9854,11 @@
       <c r="D301" t="s">
         <v>571</v>
       </c>
-      <c r="F301" s="17" t="s">
+      <c r="F301" s="12" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302">
         <v>300</v>
       </c>
@@ -9815,11 +9868,11 @@
       <c r="D302" t="s">
         <v>573</v>
       </c>
-      <c r="F302" s="17" t="s">
+      <c r="F302" s="12" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303">
         <v>301</v>
       </c>
@@ -9829,11 +9882,11 @@
       <c r="D303" t="s">
         <v>575</v>
       </c>
-      <c r="F303" s="17" t="s">
+      <c r="F303" s="12" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304">
         <v>302</v>
       </c>
@@ -9843,11 +9896,11 @@
       <c r="D304" t="s">
         <v>577</v>
       </c>
-      <c r="F304" s="17" t="s">
+      <c r="F304" s="12" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B305">
         <v>303</v>
       </c>
@@ -9857,11 +9910,11 @@
       <c r="D305" t="s">
         <v>579</v>
       </c>
-      <c r="F305" s="17" t="s">
+      <c r="F305" s="12" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B306">
         <v>304</v>
       </c>
@@ -9871,11 +9924,11 @@
       <c r="D306" t="s">
         <v>581</v>
       </c>
-      <c r="F306" s="17" t="s">
+      <c r="F306" s="12" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B307">
         <v>305</v>
       </c>
@@ -9885,11 +9938,11 @@
       <c r="D307" t="s">
         <v>583</v>
       </c>
-      <c r="F307" s="17" t="s">
+      <c r="F307" s="12" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B308">
         <v>306</v>
       </c>
@@ -9899,11 +9952,11 @@
       <c r="D308" t="s">
         <v>585</v>
       </c>
-      <c r="F308" s="17" t="s">
+      <c r="F308" s="12" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B309">
         <v>307</v>
       </c>
@@ -9913,11 +9966,11 @@
       <c r="D309" t="s">
         <v>587</v>
       </c>
-      <c r="F309" s="17" t="s">
+      <c r="F309" s="12" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B310">
         <v>308</v>
       </c>
@@ -9927,11 +9980,11 @@
       <c r="D310" t="s">
         <v>589</v>
       </c>
-      <c r="F310" s="17" t="s">
+      <c r="F310" s="12" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B311">
         <v>309</v>
       </c>
@@ -9941,11 +9994,11 @@
       <c r="D311" t="s">
         <v>591</v>
       </c>
-      <c r="F311" s="17" t="s">
+      <c r="F311" s="12" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B312">
         <v>310</v>
       </c>
@@ -9955,11 +10008,11 @@
       <c r="D312" t="s">
         <v>593</v>
       </c>
-      <c r="F312" s="17" t="s">
+      <c r="F312" s="12" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B313">
         <v>311</v>
       </c>
@@ -9969,11 +10022,11 @@
       <c r="D313" t="s">
         <v>595</v>
       </c>
-      <c r="F313" s="17" t="s">
+      <c r="F313" s="12" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B314">
         <v>312</v>
       </c>
@@ -9983,11 +10036,11 @@
       <c r="D314" t="s">
         <v>62</v>
       </c>
-      <c r="F314" s="17" t="s">
+      <c r="F314" s="12" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B315">
         <v>313</v>
       </c>
@@ -9997,11 +10050,11 @@
       <c r="D315" t="s">
         <v>597</v>
       </c>
-      <c r="F315" s="17" t="s">
+      <c r="F315" s="12" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B316">
         <v>314</v>
       </c>
@@ -10011,11 +10064,11 @@
       <c r="D316" t="s">
         <v>599</v>
       </c>
-      <c r="F316" s="17" t="s">
+      <c r="F316" s="12" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B317">
         <v>315</v>
       </c>
@@ -10025,11 +10078,11 @@
       <c r="D317" t="s">
         <v>601</v>
       </c>
-      <c r="F317" s="17" t="s">
+      <c r="F317" s="12" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B318">
         <v>316</v>
       </c>
@@ -10039,11 +10092,11 @@
       <c r="D318" t="s">
         <v>63</v>
       </c>
-      <c r="F318" s="17" t="s">
+      <c r="F318" s="12" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B319">
         <v>317</v>
       </c>
@@ -10053,11 +10106,11 @@
       <c r="D319" t="s">
         <v>603</v>
       </c>
-      <c r="F319" s="17" t="s">
+      <c r="F319" s="12" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B320">
         <v>318</v>
       </c>
@@ -10067,11 +10120,11 @@
       <c r="D320" t="s">
         <v>605</v>
       </c>
-      <c r="F320" s="17" t="s">
+      <c r="F320" s="12" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B321">
         <v>319</v>
       </c>
@@ -10081,11 +10134,11 @@
       <c r="D321" t="s">
         <v>64</v>
       </c>
-      <c r="F321" s="17" t="s">
+      <c r="F321" s="12" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B322">
         <v>320</v>
       </c>
@@ -10095,11 +10148,11 @@
       <c r="D322" t="s">
         <v>607</v>
       </c>
-      <c r="F322" s="17" t="s">
+      <c r="F322" s="12" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B323">
         <v>321</v>
       </c>
@@ -10109,11 +10162,11 @@
       <c r="D323" t="s">
         <v>609</v>
       </c>
-      <c r="F323" s="17" t="s">
+      <c r="F323" s="12" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324">
         <v>322</v>
       </c>
@@ -10123,11 +10176,11 @@
       <c r="D324" t="s">
         <v>611</v>
       </c>
-      <c r="F324" s="17" t="s">
+      <c r="F324" s="12" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325">
         <v>323</v>
       </c>
@@ -10137,11 +10190,11 @@
       <c r="D325" t="s">
         <v>613</v>
       </c>
-      <c r="F325" s="17" t="s">
+      <c r="F325" s="12" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B326">
         <v>324</v>
       </c>
@@ -10151,11 +10204,11 @@
       <c r="D326" t="s">
         <v>65</v>
       </c>
-      <c r="F326" s="17" t="s">
+      <c r="F326" s="12" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B327">
         <v>325</v>
       </c>
@@ -10165,11 +10218,11 @@
       <c r="D327" t="s">
         <v>615</v>
       </c>
-      <c r="F327" s="17" t="s">
+      <c r="F327" s="12" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B328">
         <v>326</v>
       </c>
@@ -10179,11 +10232,11 @@
       <c r="D328" t="s">
         <v>66</v>
       </c>
-      <c r="F328" s="17" t="s">
+      <c r="F328" s="12" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B329">
         <v>327</v>
       </c>
@@ -10193,11 +10246,11 @@
       <c r="D329" t="s">
         <v>617</v>
       </c>
-      <c r="F329" s="17" t="s">
+      <c r="F329" s="12" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B330">
         <v>328</v>
       </c>
@@ -10207,11 +10260,11 @@
       <c r="D330" t="s">
         <v>67</v>
       </c>
-      <c r="F330" s="17" t="s">
+      <c r="F330" s="12" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B331">
         <v>329</v>
       </c>
@@ -10221,11 +10274,11 @@
       <c r="D331" t="s">
         <v>619</v>
       </c>
-      <c r="F331" s="17" t="s">
+      <c r="F331" s="12" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B332">
         <v>330</v>
       </c>
@@ -10235,11 +10288,11 @@
       <c r="D332" t="s">
         <v>621</v>
       </c>
-      <c r="F332" s="17" t="s">
+      <c r="F332" s="12" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B333">
         <v>331</v>
       </c>
@@ -10249,11 +10302,11 @@
       <c r="D333" t="s">
         <v>623</v>
       </c>
-      <c r="F333" s="17" t="s">
+      <c r="F333" s="12" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B334">
         <v>332</v>
       </c>
@@ -10263,11 +10316,11 @@
       <c r="D334" t="s">
         <v>625</v>
       </c>
-      <c r="F334" s="17" t="s">
+      <c r="F334" s="12" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B335">
         <v>333</v>
       </c>
@@ -10277,11 +10330,11 @@
       <c r="D335" t="s">
         <v>627</v>
       </c>
-      <c r="F335" s="17" t="s">
+      <c r="F335" s="12" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B336">
         <v>334</v>
       </c>
@@ -10291,11 +10344,11 @@
       <c r="D336" t="s">
         <v>68</v>
       </c>
-      <c r="F336" s="17" t="s">
+      <c r="F336" s="12" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337">
         <v>335</v>
       </c>
@@ -10305,11 +10358,11 @@
       <c r="D337" t="s">
         <v>629</v>
       </c>
-      <c r="F337" s="17" t="s">
+      <c r="F337" s="12" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338">
         <v>336</v>
       </c>
@@ -10319,11 +10372,11 @@
       <c r="D338" t="s">
         <v>631</v>
       </c>
-      <c r="F338" s="17" t="s">
+      <c r="F338" s="12" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339">
         <v>337</v>
       </c>
@@ -10333,11 +10386,11 @@
       <c r="D339" t="s">
         <v>633</v>
       </c>
-      <c r="F339" s="17" t="s">
+      <c r="F339" s="12" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340">
         <v>338</v>
       </c>
@@ -10347,11 +10400,11 @@
       <c r="D340" t="s">
         <v>69</v>
       </c>
-      <c r="F340" s="17" t="s">
+      <c r="F340" s="12" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341">
         <v>339</v>
       </c>
@@ -10361,11 +10414,11 @@
       <c r="D341" t="s">
         <v>635</v>
       </c>
-      <c r="F341" s="17" t="s">
+      <c r="F341" s="12" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342">
         <v>340</v>
       </c>
@@ -10375,11 +10428,11 @@
       <c r="D342" t="s">
         <v>637</v>
       </c>
-      <c r="F342" s="17" t="s">
+      <c r="F342" s="12" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343">
         <v>341</v>
       </c>
@@ -10389,11 +10442,11 @@
       <c r="D343" t="s">
         <v>639</v>
       </c>
-      <c r="F343" s="17" t="s">
+      <c r="F343" s="12" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344">
         <v>342</v>
       </c>
@@ -10403,11 +10456,11 @@
       <c r="D344" t="s">
         <v>641</v>
       </c>
-      <c r="F344" s="17" t="s">
+      <c r="F344" s="12" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B345">
         <v>343</v>
       </c>
@@ -10417,11 +10470,11 @@
       <c r="D345" t="s">
         <v>643</v>
       </c>
-      <c r="F345" s="17" t="s">
+      <c r="F345" s="12" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B346">
         <v>344</v>
       </c>
@@ -10431,11 +10484,11 @@
       <c r="D346" t="s">
         <v>645</v>
       </c>
-      <c r="F346" s="17" t="s">
+      <c r="F346" s="12" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347">
         <v>345</v>
       </c>
@@ -10445,11 +10498,11 @@
       <c r="D347" t="s">
         <v>70</v>
       </c>
-      <c r="F347" s="17" t="s">
+      <c r="F347" s="12" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B348">
         <v>346</v>
       </c>
@@ -10459,11 +10512,11 @@
       <c r="D348" t="s">
         <v>71</v>
       </c>
-      <c r="F348" s="17" t="s">
+      <c r="F348" s="12" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B349">
         <v>347</v>
       </c>
@@ -10473,11 +10526,11 @@
       <c r="D349" t="s">
         <v>648</v>
       </c>
-      <c r="F349" s="17" t="s">
+      <c r="F349" s="12" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350">
         <v>348</v>
       </c>
@@ -10487,11 +10540,11 @@
       <c r="D350" t="s">
         <v>72</v>
       </c>
-      <c r="F350" s="17" t="s">
+      <c r="F350" s="12" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351">
         <v>349</v>
       </c>
@@ -10501,11 +10554,11 @@
       <c r="D351" t="s">
         <v>650</v>
       </c>
-      <c r="F351" s="17" t="s">
+      <c r="F351" s="12" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352">
         <v>350</v>
       </c>
@@ -10515,11 +10568,11 @@
       <c r="D352" t="s">
         <v>73</v>
       </c>
-      <c r="F352" s="17" t="s">
+      <c r="F352" s="12" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B353">
         <v>351</v>
       </c>
@@ -10529,11 +10582,11 @@
       <c r="D353" t="s">
         <v>652</v>
       </c>
-      <c r="F353" s="17" t="s">
+      <c r="F353" s="12" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354">
         <v>352</v>
       </c>
@@ -10543,11 +10596,11 @@
       <c r="D354" t="s">
         <v>654</v>
       </c>
-      <c r="F354" s="17" t="s">
+      <c r="F354" s="12" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355">
         <v>353</v>
       </c>
@@ -10557,11 +10610,11 @@
       <c r="D355" t="s">
         <v>656</v>
       </c>
-      <c r="F355" s="17" t="s">
+      <c r="F355" s="12" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356">
         <v>354</v>
       </c>
@@ -10571,11 +10624,11 @@
       <c r="D356" t="s">
         <v>658</v>
       </c>
-      <c r="F356" s="17" t="s">
+      <c r="F356" s="12" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357">
         <v>355</v>
       </c>
@@ -10585,11 +10638,11 @@
       <c r="D357" t="s">
         <v>660</v>
       </c>
-      <c r="F357" s="17" t="s">
+      <c r="F357" s="12" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B358">
         <v>356</v>
       </c>
@@ -10599,11 +10652,11 @@
       <c r="D358" t="s">
         <v>662</v>
       </c>
-      <c r="F358" s="17" t="s">
+      <c r="F358" s="12" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359">
         <v>357</v>
       </c>
@@ -10613,11 +10666,11 @@
       <c r="D359" t="s">
         <v>664</v>
       </c>
-      <c r="F359" s="17" t="s">
+      <c r="F359" s="12" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B360">
         <v>358</v>
       </c>
@@ -10627,11 +10680,11 @@
       <c r="D360" t="s">
         <v>666</v>
       </c>
-      <c r="F360" s="17" t="s">
+      <c r="F360" s="12" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B361">
         <v>359</v>
       </c>
@@ -10641,11 +10694,11 @@
       <c r="D361" t="s">
         <v>668</v>
       </c>
-      <c r="F361" s="17" t="s">
+      <c r="F361" s="12" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B362">
         <v>360</v>
       </c>
@@ -10655,11 +10708,11 @@
       <c r="D362" t="s">
         <v>670</v>
       </c>
-      <c r="F362" s="17" t="s">
+      <c r="F362" s="12" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363">
         <v>361</v>
       </c>
@@ -10669,11 +10722,11 @@
       <c r="D363" t="s">
         <v>671</v>
       </c>
-      <c r="F363" s="17" t="s">
+      <c r="F363" s="12" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364">
         <v>362</v>
       </c>
@@ -10683,11 +10736,11 @@
       <c r="D364" t="s">
         <v>673</v>
       </c>
-      <c r="F364" s="17" t="s">
+      <c r="F364" s="12" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365">
         <v>363</v>
       </c>
@@ -10697,11 +10750,11 @@
       <c r="D365" t="s">
         <v>75</v>
       </c>
-      <c r="F365" s="17" t="s">
+      <c r="F365" s="12" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366">
         <v>364</v>
       </c>
@@ -10711,11 +10764,11 @@
       <c r="D366" t="s">
         <v>675</v>
       </c>
-      <c r="F366" s="17" t="s">
+      <c r="F366" s="12" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367">
         <v>365</v>
       </c>
@@ -10725,11 +10778,11 @@
       <c r="D367" t="s">
         <v>677</v>
       </c>
-      <c r="F367" s="17" t="s">
+      <c r="F367" s="12" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368">
         <v>366</v>
       </c>
@@ -10739,11 +10792,11 @@
       <c r="D368" t="s">
         <v>678</v>
       </c>
-      <c r="F368" s="17" t="s">
+      <c r="F368" s="12" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369">
         <v>367</v>
       </c>
@@ -10753,11 +10806,11 @@
       <c r="D369" t="s">
         <v>680</v>
       </c>
-      <c r="F369" s="17" t="s">
+      <c r="F369" s="12" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370">
         <v>368</v>
       </c>
@@ -10767,11 +10820,11 @@
       <c r="D370" t="s">
         <v>682</v>
       </c>
-      <c r="F370" s="17" t="s">
+      <c r="F370" s="12" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371">
         <v>369</v>
       </c>
@@ -10781,11 +10834,11 @@
       <c r="D371" t="s">
         <v>684</v>
       </c>
-      <c r="F371" s="17" t="s">
+      <c r="F371" s="12" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372">
         <v>370</v>
       </c>
@@ -10795,11 +10848,11 @@
       <c r="D372" t="s">
         <v>685</v>
       </c>
-      <c r="F372" s="17" t="s">
+      <c r="F372" s="12" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373">
         <v>371</v>
       </c>
@@ -10809,11 +10862,11 @@
       <c r="D373" t="s">
         <v>686</v>
       </c>
-      <c r="F373" s="17" t="s">
+      <c r="F373" s="12" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374">
         <v>372</v>
       </c>
@@ -10823,11 +10876,11 @@
       <c r="D374" t="s">
         <v>688</v>
       </c>
-      <c r="F374" s="17" t="s">
+      <c r="F374" s="12" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375">
         <v>373</v>
       </c>
@@ -10837,11 +10890,11 @@
       <c r="D375" t="s">
         <v>690</v>
       </c>
-      <c r="F375" s="17" t="s">
+      <c r="F375" s="12" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376">
         <v>374</v>
       </c>
@@ -10851,11 +10904,11 @@
       <c r="D376" t="s">
         <v>692</v>
       </c>
-      <c r="F376" s="17" t="s">
+      <c r="F376" s="12" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377">
         <v>375</v>
       </c>
@@ -10865,11 +10918,11 @@
       <c r="D377" t="s">
         <v>693</v>
       </c>
-      <c r="F377" s="17" t="s">
+      <c r="F377" s="12" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378">
         <v>376</v>
       </c>
@@ -10879,11 +10932,11 @@
       <c r="D378" t="s">
         <v>695</v>
       </c>
-      <c r="F378" s="17" t="s">
+      <c r="F378" s="12" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379">
         <v>377</v>
       </c>
@@ -10893,11 +10946,11 @@
       <c r="D379" t="s">
         <v>697</v>
       </c>
-      <c r="F379" s="17" t="s">
+      <c r="F379" s="12" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380">
         <v>378</v>
       </c>
@@ -10907,11 +10960,11 @@
       <c r="D380" t="s">
         <v>699</v>
       </c>
-      <c r="F380" s="17" t="s">
+      <c r="F380" s="12" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381">
         <v>379</v>
       </c>
@@ -10921,11 +10974,11 @@
       <c r="D381" t="s">
         <v>701</v>
       </c>
-      <c r="F381" s="17" t="s">
+      <c r="F381" s="12" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B382">
         <v>380</v>
       </c>
@@ -10935,11 +10988,11 @@
       <c r="D382" t="s">
         <v>703</v>
       </c>
-      <c r="F382" s="17" t="s">
+      <c r="F382" s="12" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383">
         <v>381</v>
       </c>
@@ -10949,11 +11002,11 @@
       <c r="D383" t="s">
         <v>705</v>
       </c>
-      <c r="F383" s="17" t="s">
+      <c r="F383" s="12" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B384">
         <v>382</v>
       </c>
@@ -10963,11 +11016,11 @@
       <c r="D384" t="s">
         <v>707</v>
       </c>
-      <c r="F384" s="17" t="s">
+      <c r="F384" s="12" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B385">
         <v>383</v>
       </c>
@@ -10977,11 +11030,11 @@
       <c r="D385" t="s">
         <v>709</v>
       </c>
-      <c r="F385" s="17" t="s">
+      <c r="F385" s="12" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B386">
         <v>384</v>
       </c>
@@ -10991,11 +11044,11 @@
       <c r="D386" t="s">
         <v>711</v>
       </c>
-      <c r="F386" s="17" t="s">
+      <c r="F386" s="12" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B387">
         <v>385</v>
       </c>
@@ -11005,11 +11058,11 @@
       <c r="D387" t="s">
         <v>713</v>
       </c>
-      <c r="F387" s="17" t="s">
+      <c r="F387" s="12" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B388">
         <v>386</v>
       </c>
@@ -11019,11 +11072,11 @@
       <c r="D388" t="s">
         <v>715</v>
       </c>
-      <c r="F388" s="17" t="s">
+      <c r="F388" s="12" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B389">
         <v>387</v>
       </c>
@@ -11033,11 +11086,11 @@
       <c r="D389" t="s">
         <v>717</v>
       </c>
-      <c r="F389" s="17" t="s">
+      <c r="F389" s="12" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B390">
         <v>388</v>
       </c>
@@ -11047,11 +11100,11 @@
       <c r="D390" t="s">
         <v>719</v>
       </c>
-      <c r="F390" s="17" t="s">
+      <c r="F390" s="12" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B391">
         <v>389</v>
       </c>
@@ -11061,11 +11114,11 @@
       <c r="D391" t="s">
         <v>721</v>
       </c>
-      <c r="F391" s="17" t="s">
+      <c r="F391" s="12" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B392">
         <v>390</v>
       </c>
@@ -11075,11 +11128,11 @@
       <c r="D392" t="s">
         <v>77</v>
       </c>
-      <c r="F392" s="17" t="s">
+      <c r="F392" s="12" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B393">
         <v>391</v>
       </c>
@@ -11089,11 +11142,11 @@
       <c r="D393" t="s">
         <v>78</v>
       </c>
-      <c r="F393" s="17" t="s">
+      <c r="F393" s="12" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B394">
         <v>392</v>
       </c>
@@ -11103,11 +11156,11 @@
       <c r="D394" t="s">
         <v>79</v>
       </c>
-      <c r="F394" s="17" t="s">
+      <c r="F394" s="12" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B395">
         <v>393</v>
       </c>
@@ -11117,11 +11170,11 @@
       <c r="D395" t="s">
         <v>1307</v>
       </c>
-      <c r="F395" s="17" t="s">
+      <c r="F395" s="12" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B396">
         <v>394</v>
       </c>
@@ -11131,11 +11184,11 @@
       <c r="D396" t="s">
         <v>724</v>
       </c>
-      <c r="F396" s="17" t="s">
+      <c r="F396" s="12" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B397">
         <v>395</v>
       </c>
@@ -11145,11 +11198,11 @@
       <c r="D397" t="s">
         <v>80</v>
       </c>
-      <c r="F397" s="17" t="s">
+      <c r="F397" s="12" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B398">
         <v>396</v>
       </c>
@@ -11159,11 +11212,11 @@
       <c r="D398" t="s">
         <v>726</v>
       </c>
-      <c r="F398" s="17" t="s">
+      <c r="F398" s="12" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B399">
         <v>397</v>
       </c>
@@ -11173,11 +11226,11 @@
       <c r="D399" t="s">
         <v>728</v>
       </c>
-      <c r="F399" s="17" t="s">
+      <c r="F399" s="12" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B400">
         <v>398</v>
       </c>
@@ -11187,11 +11240,11 @@
       <c r="D400" t="s">
         <v>730</v>
       </c>
-      <c r="F400" s="17" t="s">
+      <c r="F400" s="12" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B401">
         <v>399</v>
       </c>
@@ -11201,11 +11254,11 @@
       <c r="D401" t="s">
         <v>732</v>
       </c>
-      <c r="F401" s="17" t="s">
+      <c r="F401" s="12" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B402">
         <v>400</v>
       </c>
@@ -11215,11 +11268,11 @@
       <c r="D402" t="s">
         <v>734</v>
       </c>
-      <c r="F402" s="17" t="s">
+      <c r="F402" s="12" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B403">
         <v>401</v>
       </c>
@@ -11229,11 +11282,11 @@
       <c r="D403" t="s">
         <v>736</v>
       </c>
-      <c r="F403" s="17" t="s">
+      <c r="F403" s="12" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B404">
         <v>402</v>
       </c>
@@ -11243,11 +11296,11 @@
       <c r="D404" t="s">
         <v>738</v>
       </c>
-      <c r="F404" s="17" t="s">
+      <c r="F404" s="12" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B405">
         <v>403</v>
       </c>
@@ -11257,11 +11310,11 @@
       <c r="D405" t="s">
         <v>81</v>
       </c>
-      <c r="F405" s="17" t="s">
+      <c r="F405" s="12" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B406">
         <v>404</v>
       </c>
@@ -11271,11 +11324,11 @@
       <c r="D406" t="s">
         <v>740</v>
       </c>
-      <c r="F406" s="17" t="s">
+      <c r="F406" s="12" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B407">
         <v>405</v>
       </c>
@@ -11285,11 +11338,11 @@
       <c r="D407" t="s">
         <v>742</v>
       </c>
-      <c r="F407" s="17" t="s">
+      <c r="F407" s="12" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B408">
         <v>406</v>
       </c>
@@ -11299,11 +11352,11 @@
       <c r="D408" t="s">
         <v>82</v>
       </c>
-      <c r="F408" s="17" t="s">
+      <c r="F408" s="12" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B409">
         <v>407</v>
       </c>
@@ -11313,11 +11366,11 @@
       <c r="D409" t="s">
         <v>744</v>
       </c>
-      <c r="F409" s="17" t="s">
+      <c r="F409" s="12" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B410">
         <v>408</v>
       </c>
@@ -11327,11 +11380,11 @@
       <c r="D410" t="s">
         <v>746</v>
       </c>
-      <c r="F410" s="17" t="s">
+      <c r="F410" s="12" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B411">
         <v>409</v>
       </c>
@@ -11341,11 +11394,11 @@
       <c r="D411" t="s">
         <v>748</v>
       </c>
-      <c r="F411" s="17" t="s">
+      <c r="F411" s="12" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B412">
         <v>410</v>
       </c>
@@ -11355,11 +11408,11 @@
       <c r="D412" t="s">
         <v>750</v>
       </c>
-      <c r="F412" s="17" t="s">
+      <c r="F412" s="12" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B413">
         <v>411</v>
       </c>
@@ -11369,11 +11422,11 @@
       <c r="D413" t="s">
         <v>752</v>
       </c>
-      <c r="F413" s="17" t="s">
+      <c r="F413" s="12" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B414">
         <v>412</v>
       </c>
@@ -11383,11 +11436,11 @@
       <c r="D414" t="s">
         <v>83</v>
       </c>
-      <c r="F414" s="17" t="s">
+      <c r="F414" s="12" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B415">
         <v>413</v>
       </c>
@@ -11397,11 +11450,11 @@
       <c r="D415" t="s">
         <v>754</v>
       </c>
-      <c r="F415" s="17" t="s">
+      <c r="F415" s="12" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B416">
         <v>414</v>
       </c>
@@ -11411,11 +11464,11 @@
       <c r="D416" t="s">
         <v>756</v>
       </c>
-      <c r="F416" s="17" t="s">
+      <c r="F416" s="12" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B417">
         <v>415</v>
       </c>
@@ -11425,11 +11478,11 @@
       <c r="D417" t="s">
         <v>758</v>
       </c>
-      <c r="F417" s="17" t="s">
+      <c r="F417" s="12" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B418">
         <v>416</v>
       </c>
@@ -11439,11 +11492,11 @@
       <c r="D418" t="s">
         <v>760</v>
       </c>
-      <c r="F418" s="17" t="s">
+      <c r="F418" s="12" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B419">
         <v>417</v>
       </c>
@@ -11453,11 +11506,11 @@
       <c r="D419" t="s">
         <v>762</v>
       </c>
-      <c r="F419" s="17" t="s">
+      <c r="F419" s="12" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B420">
         <v>418</v>
       </c>
@@ -11467,11 +11520,11 @@
       <c r="D420" t="s">
         <v>84</v>
       </c>
-      <c r="F420" s="17" t="s">
+      <c r="F420" s="12" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B421">
         <v>419</v>
       </c>
@@ -11481,11 +11534,11 @@
       <c r="D421" t="s">
         <v>764</v>
       </c>
-      <c r="F421" s="17" t="s">
+      <c r="F421" s="12" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B422">
         <v>420</v>
       </c>
@@ -11495,11 +11548,11 @@
       <c r="D422" t="s">
         <v>766</v>
       </c>
-      <c r="F422" s="17" t="s">
+      <c r="F422" s="12" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B423">
         <v>421</v>
       </c>
@@ -11509,11 +11562,11 @@
       <c r="D423" t="s">
         <v>768</v>
       </c>
-      <c r="F423" s="17" t="s">
+      <c r="F423" s="12" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B424">
         <v>422</v>
       </c>
@@ -11523,11 +11576,11 @@
       <c r="D424" t="s">
         <v>770</v>
       </c>
-      <c r="F424" s="17" t="s">
+      <c r="F424" s="12" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B425">
         <v>423</v>
       </c>
@@ -11537,11 +11590,11 @@
       <c r="D425" t="s">
         <v>772</v>
       </c>
-      <c r="F425" s="17" t="s">
+      <c r="F425" s="12" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B426">
         <v>424</v>
       </c>
@@ -11551,11 +11604,11 @@
       <c r="D426" t="s">
         <v>774</v>
       </c>
-      <c r="F426" s="17" t="s">
+      <c r="F426" s="12" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B427">
         <v>425</v>
       </c>
@@ -11565,11 +11618,11 @@
       <c r="D427" t="s">
         <v>776</v>
       </c>
-      <c r="F427" s="17" t="s">
+      <c r="F427" s="12" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B428">
         <v>426</v>
       </c>
@@ -11579,11 +11632,11 @@
       <c r="D428" t="s">
         <v>778</v>
       </c>
-      <c r="F428" s="17" t="s">
+      <c r="F428" s="12" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B429">
         <v>427</v>
       </c>
@@ -11593,11 +11646,11 @@
       <c r="D429" t="s">
         <v>780</v>
       </c>
-      <c r="F429" s="17" t="s">
+      <c r="F429" s="12" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B430">
         <v>428</v>
       </c>
@@ -11607,11 +11660,11 @@
       <c r="D430" t="s">
         <v>782</v>
       </c>
-      <c r="F430" s="17" t="s">
+      <c r="F430" s="12" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B431">
         <v>429</v>
       </c>
@@ -11621,11 +11674,11 @@
       <c r="D431" t="s">
         <v>784</v>
       </c>
-      <c r="F431" s="17" t="s">
+      <c r="F431" s="12" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B432">
         <v>430</v>
       </c>
@@ -11635,11 +11688,11 @@
       <c r="D432" t="s">
         <v>1392</v>
       </c>
-      <c r="F432" s="17" t="s">
+      <c r="F432" s="12" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B433">
         <v>431</v>
       </c>
@@ -11649,11 +11702,11 @@
       <c r="D433" t="s">
         <v>85</v>
       </c>
-      <c r="F433" s="17" t="s">
+      <c r="F433" s="12" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B434">
         <v>432</v>
       </c>
@@ -11663,11 +11716,11 @@
       <c r="D434" t="s">
         <v>86</v>
       </c>
-      <c r="F434" s="17" t="s">
+      <c r="F434" s="12" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B435">
         <v>433</v>
       </c>
@@ -11677,11 +11730,11 @@
       <c r="D435" t="s">
         <v>786</v>
       </c>
-      <c r="F435" s="17" t="s">
+      <c r="F435" s="12" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B436">
         <v>434</v>
       </c>
@@ -11691,11 +11744,11 @@
       <c r="D436" t="s">
         <v>788</v>
       </c>
-      <c r="F436" s="17" t="s">
+      <c r="F436" s="12" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B437">
         <v>435</v>
       </c>
@@ -11705,11 +11758,11 @@
       <c r="D437" t="s">
         <v>790</v>
       </c>
-      <c r="F437" s="17" t="s">
+      <c r="F437" s="12" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B438">
         <v>436</v>
       </c>
@@ -11719,11 +11772,11 @@
       <c r="D438" t="s">
         <v>792</v>
       </c>
-      <c r="F438" s="17" t="s">
+      <c r="F438" s="12" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B439">
         <v>437</v>
       </c>
@@ -11733,11 +11786,11 @@
       <c r="D439" t="s">
         <v>794</v>
       </c>
-      <c r="F439" s="17" t="s">
+      <c r="F439" s="12" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B440">
         <v>438</v>
       </c>
@@ -11747,11 +11800,11 @@
       <c r="D440" t="s">
         <v>796</v>
       </c>
-      <c r="F440" s="17" t="s">
+      <c r="F440" s="12" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B441">
         <v>439</v>
       </c>
@@ -11761,11 +11814,11 @@
       <c r="D441" t="s">
         <v>798</v>
       </c>
-      <c r="F441" s="17" t="s">
+      <c r="F441" s="12" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B442">
         <v>440</v>
       </c>
@@ -11775,11 +11828,11 @@
       <c r="D442" t="s">
         <v>800</v>
       </c>
-      <c r="F442" s="17" t="s">
+      <c r="F442" s="12" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B443">
         <v>441</v>
       </c>
@@ -11789,11 +11842,11 @@
       <c r="D443" t="s">
         <v>802</v>
       </c>
-      <c r="F443" s="17" t="s">
+      <c r="F443" s="12" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B444">
         <v>442</v>
       </c>
@@ -11803,11 +11856,11 @@
       <c r="D444" t="s">
         <v>87</v>
       </c>
-      <c r="F444" s="17" t="s">
+      <c r="F444" s="12" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B445">
         <v>443</v>
       </c>
@@ -11817,11 +11870,11 @@
       <c r="D445" t="s">
         <v>804</v>
       </c>
-      <c r="F445" s="17" t="s">
+      <c r="F445" s="12" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B446">
         <v>444</v>
       </c>
@@ -11831,11 +11884,11 @@
       <c r="D446" t="s">
         <v>806</v>
       </c>
-      <c r="F446" s="17" t="s">
+      <c r="F446" s="12" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B447">
         <v>445</v>
       </c>
@@ -11845,11 +11898,11 @@
       <c r="D447" t="s">
         <v>88</v>
       </c>
-      <c r="F447" s="17" t="s">
+      <c r="F447" s="12" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B448">
         <v>446</v>
       </c>
@@ -11859,11 +11912,11 @@
       <c r="D448" t="s">
         <v>808</v>
       </c>
-      <c r="F448" s="17" t="s">
+      <c r="F448" s="12" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B449">
         <v>447</v>
       </c>
@@ -11873,11 +11926,11 @@
       <c r="D449" t="s">
         <v>89</v>
       </c>
-      <c r="F449" s="17" t="s">
+      <c r="F449" s="12" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B450">
         <v>448</v>
       </c>
@@ -11887,11 +11940,11 @@
       <c r="D450" t="s">
         <v>810</v>
       </c>
-      <c r="F450" s="17" t="s">
+      <c r="F450" s="12" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B451">
         <v>449</v>
       </c>
@@ -11901,11 +11954,11 @@
       <c r="D451" t="s">
         <v>812</v>
       </c>
-      <c r="F451" s="17" t="s">
+      <c r="F451" s="12" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B452">
         <v>450</v>
       </c>
@@ -11915,11 +11968,11 @@
       <c r="D452" t="s">
         <v>814</v>
       </c>
-      <c r="F452" s="17" t="s">
+      <c r="F452" s="12" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B453">
         <v>451</v>
       </c>
@@ -11929,11 +11982,11 @@
       <c r="D453" t="s">
         <v>816</v>
       </c>
-      <c r="F453" s="17" t="s">
+      <c r="F453" s="12" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B454">
         <v>452</v>
       </c>
@@ -11943,11 +11996,11 @@
       <c r="D454" t="s">
         <v>818</v>
       </c>
-      <c r="F454" s="17" t="s">
+      <c r="F454" s="12" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B455">
         <v>453</v>
       </c>
@@ -11957,11 +12010,11 @@
       <c r="D455" t="s">
         <v>819</v>
       </c>
-      <c r="F455" s="17" t="s">
+      <c r="F455" s="12" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B456">
         <v>454</v>
       </c>
@@ -11971,11 +12024,11 @@
       <c r="D456" t="s">
         <v>821</v>
       </c>
-      <c r="F456" s="17" t="s">
+      <c r="F456" s="12" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B457">
         <v>455</v>
       </c>
@@ -11985,11 +12038,11 @@
       <c r="D457" t="s">
         <v>823</v>
       </c>
-      <c r="F457" s="17" t="s">
+      <c r="F457" s="12" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B458">
         <v>456</v>
       </c>
@@ -11999,11 +12052,11 @@
       <c r="D458" t="s">
         <v>824</v>
       </c>
-      <c r="F458" s="17" t="s">
+      <c r="F458" s="12" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B459">
         <v>457</v>
       </c>
@@ -12013,11 +12066,11 @@
       <c r="D459" t="s">
         <v>826</v>
       </c>
-      <c r="F459" s="17" t="s">
+      <c r="F459" s="12" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B460">
         <v>458</v>
       </c>
@@ -12027,11 +12080,11 @@
       <c r="D460" t="s">
         <v>828</v>
       </c>
-      <c r="F460" s="17" t="s">
+      <c r="F460" s="12" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B461">
         <v>459</v>
       </c>
@@ -12041,11 +12094,11 @@
       <c r="D461" t="s">
         <v>829</v>
       </c>
-      <c r="F461" s="17" t="s">
+      <c r="F461" s="12" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B462">
         <v>460</v>
       </c>
@@ -12055,11 +12108,11 @@
       <c r="D462" t="s">
         <v>831</v>
       </c>
-      <c r="F462" s="17" t="s">
+      <c r="F462" s="12" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B463">
         <v>461</v>
       </c>
@@ -12069,11 +12122,11 @@
       <c r="D463" t="s">
         <v>833</v>
       </c>
-      <c r="F463" s="17" t="s">
+      <c r="F463" s="12" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B464">
         <v>462</v>
       </c>
@@ -12083,11 +12136,11 @@
       <c r="D464" t="s">
         <v>834</v>
       </c>
-      <c r="F464" s="17" t="s">
+      <c r="F464" s="12" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="465" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="465" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B465">
         <v>463</v>
       </c>
@@ -12097,11 +12150,11 @@
       <c r="D465" t="s">
         <v>836</v>
       </c>
-      <c r="F465" s="17" t="s">
+      <c r="F465" s="12" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="466" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="466" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B466">
         <v>464</v>
       </c>
@@ -12111,11 +12164,11 @@
       <c r="D466" t="s">
         <v>838</v>
       </c>
-      <c r="F466" s="17" t="s">
+      <c r="F466" s="12" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="467" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="467" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B467">
         <v>465</v>
       </c>
@@ -12125,11 +12178,11 @@
       <c r="D467" t="s">
         <v>840</v>
       </c>
-      <c r="F467" s="17" t="s">
+      <c r="F467" s="12" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="468" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="468" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B468">
         <v>466</v>
       </c>
@@ -12139,11 +12192,11 @@
       <c r="D468" t="s">
         <v>92</v>
       </c>
-      <c r="F468" s="17" t="s">
+      <c r="F468" s="12" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="469" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="469" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B469">
         <v>467</v>
       </c>
@@ -12153,11 +12206,11 @@
       <c r="D469" t="s">
         <v>842</v>
       </c>
-      <c r="F469" s="17" t="s">
+      <c r="F469" s="12" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="470" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="470" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B470">
         <v>468</v>
       </c>
@@ -12167,11 +12220,11 @@
       <c r="D470" t="s">
         <v>844</v>
       </c>
-      <c r="F470" s="17" t="s">
+      <c r="F470" s="12" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="471" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="471" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B471">
         <v>469</v>
       </c>
@@ -12181,11 +12234,11 @@
       <c r="D471" t="s">
         <v>846</v>
       </c>
-      <c r="F471" s="17" t="s">
+      <c r="F471" s="12" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="472" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="472" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B472">
         <v>470</v>
       </c>
@@ -12195,11 +12248,11 @@
       <c r="D472" t="s">
         <v>848</v>
       </c>
-      <c r="F472" s="17" t="s">
+      <c r="F472" s="12" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="473" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="473" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B473">
         <v>471</v>
       </c>
@@ -12209,11 +12262,11 @@
       <c r="D473" t="s">
         <v>850</v>
       </c>
-      <c r="F473" s="17" t="s">
+      <c r="F473" s="12" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="474" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="474" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B474">
         <v>472</v>
       </c>
@@ -12223,11 +12276,11 @@
       <c r="D474" t="s">
         <v>852</v>
       </c>
-      <c r="F474" s="17" t="s">
+      <c r="F474" s="12" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="475" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="475" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B475">
         <v>473</v>
       </c>
@@ -12237,11 +12290,11 @@
       <c r="D475" t="s">
         <v>854</v>
       </c>
-      <c r="F475" s="17" t="s">
+      <c r="F475" s="12" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="476" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="476" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B476">
         <v>474</v>
       </c>
@@ -12251,11 +12304,11 @@
       <c r="D476" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="F476" s="17" t="s">
+      <c r="F476" s="12" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="477" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="477" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B477">
         <v>475</v>
       </c>
@@ -12265,11 +12318,11 @@
       <c r="D477" t="s">
         <v>93</v>
       </c>
-      <c r="F477" s="17" t="s">
+      <c r="F477" s="12" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="478" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="478" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B478">
         <v>476</v>
       </c>
@@ -12279,11 +12332,11 @@
       <c r="D478" t="s">
         <v>857</v>
       </c>
-      <c r="F478" s="17" t="s">
+      <c r="F478" s="12" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="479" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="479" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B479">
         <v>477</v>
       </c>
@@ -12296,11 +12349,11 @@
       <c r="E479" t="s">
         <v>1372</v>
       </c>
-      <c r="F479" s="17" t="s">
+      <c r="F479" s="12" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="480" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="480" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B480">
         <v>478</v>
       </c>
@@ -12310,7 +12363,7 @@
       <c r="D480" t="s">
         <v>861</v>
       </c>
-      <c r="F480" s="17" t="s">
+      <c r="F480" s="12" t="s">
         <v>1303</v>
       </c>
       <c r="G480" s="9">
@@ -12329,7 +12382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B481">
         <v>479</v>
       </c>
@@ -12342,11 +12395,11 @@
       <c r="E481" s="7" t="s">
         <v>1371</v>
       </c>
-      <c r="F481" s="17" t="s">
+      <c r="F481" s="12" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B482">
         <v>480</v>
       </c>
@@ -12359,11 +12412,11 @@
       <c r="E482" t="s">
         <v>1370</v>
       </c>
-      <c r="F482" s="17" t="s">
+      <c r="F482" s="12" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B483">
         <v>481</v>
       </c>
@@ -12376,601 +12429,601 @@
       <c r="E483" s="7" t="s">
         <v>1390</v>
       </c>
-      <c r="F483" s="17" t="s">
+      <c r="F483" s="12" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="484" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B484">
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B485">
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="486" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B486">
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B487">
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="488" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B488">
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B489">
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B490">
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B491">
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B492">
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B493">
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B494">
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B495">
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B496">
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B497">
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B498">
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B499">
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B500">
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B501">
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B502">
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B503">
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B504">
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B505">
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B506">
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B507">
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B508">
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B509">
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B510">
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B511">
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B512">
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B513">
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B514">
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B515">
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B516">
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B517">
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B518">
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B519">
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B520">
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B521">
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B522">
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B523">
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B524">
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B525">
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B526">
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B527">
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B528">
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B529">
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B530">
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B531">
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B532">
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B533">
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B534">
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B535">
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B536">
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B537">
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B538">
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B539">
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B540">
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B541">
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B542">
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B543">
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B544">
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B545">
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B546">
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B547">
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B548">
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B549">
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B550">
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B551">
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B552">
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B553">
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B554">
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B555">
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B556">
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B557">
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B558">
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B559">
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B560">
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B561">
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B562">
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B563">
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B564">
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B565">
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B566">
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B567">
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B568">
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B569">
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B570">
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B571">
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B572">
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B573">
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B574">
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B575">
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B576">
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B577">
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B578">
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B579">
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B580">
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B581">
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B582">
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B583">
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B584">
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B585">
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B586">
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B587">
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B588">
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B589">
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B590">
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B591">
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B592">
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B593">
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B594">
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B595">
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B596">
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B597">
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B598">
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B599">
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B600">
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B601">
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B602">
         <v>600</v>
       </c>
@@ -12998,56 +13051,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="9" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
     <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
         <v>1318</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>1311</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="15" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="15"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -13058,7 +13111,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -13069,7 +13122,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -13080,7 +13133,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -13091,7 +13144,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -13102,7 +13155,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -13113,7 +13166,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -13124,7 +13177,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -13135,7 +13188,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -13146,7 +13199,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -13157,7 +13210,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -13168,7 +13221,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -13179,7 +13232,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -13199,7 +13252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -13210,7 +13263,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -13221,7 +13274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -13229,7 +13282,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -13237,7 +13290,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -13245,7 +13298,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -13253,7 +13306,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -13261,7 +13314,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -13269,7 +13322,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -13277,7 +13330,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -13285,7 +13338,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -13293,7 +13346,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -13301,7 +13354,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -13309,7 +13362,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -13317,7 +13370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -13325,7 +13378,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -13333,7 +13386,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -13341,7 +13394,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -13349,7 +13402,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="8">
         <v>32</v>
       </c>
@@ -13357,7 +13410,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="8">
         <v>33</v>
       </c>
@@ -13365,7 +13418,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="8">
         <v>34</v>
       </c>
@@ -13373,7 +13426,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
         <v>35</v>
       </c>
@@ -13381,7 +13434,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
         <v>36</v>
       </c>
@@ -13389,7 +13442,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="8">
         <v>37</v>
       </c>
@@ -13397,7 +13450,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="8">
         <v>38</v>
       </c>
@@ -13405,7 +13458,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="8">
         <v>39</v>
       </c>
@@ -13413,7 +13466,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="8">
         <v>40</v>
       </c>
@@ -13424,7 +13477,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="8">
         <v>41</v>
       </c>
@@ -13435,7 +13488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="8">
         <v>42</v>
       </c>
@@ -13446,7 +13499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="8">
         <v>43</v>
       </c>
@@ -13454,7 +13507,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="8">
         <v>44</v>
       </c>
@@ -13462,7 +13515,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
         <v>45</v>
       </c>
@@ -13470,7 +13523,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="8">
         <v>46</v>
       </c>
@@ -13478,7 +13531,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="8">
         <v>47</v>
       </c>
@@ -13486,7 +13539,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="8">
         <v>48</v>
       </c>
@@ -13494,7 +13547,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="8">
         <v>49</v>
       </c>
@@ -13502,7 +13555,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="8">
         <v>50</v>
       </c>
@@ -13510,7 +13563,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="8">
         <v>51</v>
       </c>
@@ -13518,7 +13571,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="8">
         <v>52</v>
       </c>
@@ -13526,7 +13579,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="8">
         <v>53</v>
       </c>
@@ -13534,7 +13587,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="8">
         <v>54</v>
       </c>
@@ -13542,7 +13595,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="8">
         <v>55</v>
       </c>
@@ -13550,7 +13603,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="8">
         <v>56</v>
       </c>
@@ -13558,7 +13611,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="8">
         <v>57</v>
       </c>
@@ -13566,7 +13619,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="8">
         <v>58</v>
       </c>
@@ -13577,7 +13630,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="8">
         <v>59</v>
       </c>
@@ -13585,7 +13638,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="8">
         <v>60</v>
       </c>
@@ -13593,7 +13646,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="8">
         <v>61</v>
       </c>
@@ -13601,7 +13654,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="8">
         <v>62</v>
       </c>
@@ -13609,7 +13662,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="8">
         <v>63</v>
       </c>
@@ -13617,7 +13670,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="8">
         <v>64</v>
       </c>
@@ -13625,7 +13678,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="8">
         <v>65</v>
       </c>
@@ -13633,7 +13686,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="8">
         <v>66</v>
       </c>
@@ -13641,172 +13694,172 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="8">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="8">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="8">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="8">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="8">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="8">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="8">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="8">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="8">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="8">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="8">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="8">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="8">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="8">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="8">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="8">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="8">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="8">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="8">
         <v>100</v>
       </c>

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -19,7 +19,6 @@
   <customWorkbookViews>
     <customWorkbookView name="main" guid="{9E8C27FD-5DF8-48AD-A74D-D3BBBDC46F2B}" includeHiddenRowCol="0" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="3"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1505">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -4935,6 +4934,127 @@
   </si>
   <si>
     <t>doriko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加賀(ネギシャワーP)</t>
+  </si>
+  <si>
+    <t>sasakure.UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ササノマリイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>煮ル果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>実</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏代 孝明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ポリスピカデリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kemu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kemu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syudou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タケノコ少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqu3ra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キノシタ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊東 健人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Luna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有機酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ピコン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iroha(sasaki)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいりきベア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kemu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すりぃ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5104,6 +5224,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5118,9 +5241,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5459,10 +5579,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomRight" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5478,37 +5598,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1313</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="1" t="s">
         <v>866</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="9" t="s">
         <v>97</v>
       </c>
@@ -7250,6 +7370,9 @@
       <c r="C103" t="s">
         <v>263</v>
       </c>
+      <c r="D103" s="4" t="s">
+        <v>1481</v>
+      </c>
       <c r="E103" s="12" t="s">
         <v>938</v>
       </c>
@@ -7264,6 +7387,9 @@
       <c r="C104" t="s">
         <v>265</v>
       </c>
+      <c r="D104" s="4" t="s">
+        <v>1482</v>
+      </c>
       <c r="E104" s="12" t="s">
         <v>939</v>
       </c>
@@ -7278,6 +7404,9 @@
       <c r="C105" t="s">
         <v>267</v>
       </c>
+      <c r="D105" s="4" t="s">
+        <v>1483</v>
+      </c>
       <c r="E105" s="12" t="s">
         <v>940</v>
       </c>
@@ -7292,6 +7421,9 @@
       <c r="C106" t="s">
         <v>269</v>
       </c>
+      <c r="D106" s="4" t="s">
+        <v>1484</v>
+      </c>
       <c r="E106" s="12" t="s">
         <v>941</v>
       </c>
@@ -7306,6 +7438,9 @@
       <c r="C107" t="s">
         <v>271</v>
       </c>
+      <c r="D107" s="4" t="s">
+        <v>1485</v>
+      </c>
       <c r="E107" s="12" t="s">
         <v>942</v>
       </c>
@@ -7320,6 +7455,9 @@
       <c r="C108" t="s">
         <v>20</v>
       </c>
+      <c r="D108" s="4" t="s">
+        <v>1486</v>
+      </c>
       <c r="E108" s="12" t="s">
         <v>943</v>
       </c>
@@ -7334,6 +7472,9 @@
       <c r="C109" t="s">
         <v>273</v>
       </c>
+      <c r="D109" s="4" t="s">
+        <v>1487</v>
+      </c>
       <c r="E109" s="12" t="s">
         <v>944</v>
       </c>
@@ -7348,6 +7489,9 @@
       <c r="C110" t="s">
         <v>275</v>
       </c>
+      <c r="D110" s="4" t="s">
+        <v>1488</v>
+      </c>
       <c r="E110" s="12" t="s">
         <v>945</v>
       </c>
@@ -7362,6 +7506,9 @@
       <c r="C111" t="s">
         <v>277</v>
       </c>
+      <c r="D111" s="4" t="s">
+        <v>1489</v>
+      </c>
       <c r="E111" s="12" t="s">
         <v>946</v>
       </c>
@@ -7376,6 +7523,9 @@
       <c r="C112" t="s">
         <v>279</v>
       </c>
+      <c r="D112" s="4" t="s">
+        <v>1490</v>
+      </c>
       <c r="E112" s="12" t="s">
         <v>947</v>
       </c>
@@ -7390,6 +7540,9 @@
       <c r="C113" t="s">
         <v>281</v>
       </c>
+      <c r="D113" s="4" t="s">
+        <v>1493</v>
+      </c>
       <c r="E113" s="12" t="s">
         <v>948</v>
       </c>
@@ -7404,6 +7557,9 @@
       <c r="C114" t="s">
         <v>283</v>
       </c>
+      <c r="D114" s="4" t="s">
+        <v>1491</v>
+      </c>
       <c r="E114" s="12" t="s">
         <v>949</v>
       </c>
@@ -7418,6 +7574,9 @@
       <c r="C115" t="s">
         <v>21</v>
       </c>
+      <c r="D115" s="4" t="s">
+        <v>1492</v>
+      </c>
       <c r="E115" s="12" t="s">
         <v>950</v>
       </c>
@@ -7432,6 +7591,9 @@
       <c r="C116" t="s">
         <v>285</v>
       </c>
+      <c r="D116" s="4" t="s">
+        <v>1494</v>
+      </c>
       <c r="E116" s="12" t="s">
         <v>951</v>
       </c>
@@ -7446,6 +7608,9 @@
       <c r="C117" t="s">
         <v>22</v>
       </c>
+      <c r="D117" s="4" t="s">
+        <v>1495</v>
+      </c>
       <c r="E117" s="12" t="s">
         <v>952</v>
       </c>
@@ -7460,6 +7625,9 @@
       <c r="C118" t="s">
         <v>287</v>
       </c>
+      <c r="D118" s="4" t="s">
+        <v>1496</v>
+      </c>
       <c r="E118" s="12" t="s">
         <v>953</v>
       </c>
@@ -7474,6 +7642,9 @@
       <c r="C119" t="s">
         <v>289</v>
       </c>
+      <c r="D119" s="4" t="s">
+        <v>1497</v>
+      </c>
       <c r="E119" s="12" t="s">
         <v>954</v>
       </c>
@@ -7488,6 +7659,9 @@
       <c r="C120" t="s">
         <v>291</v>
       </c>
+      <c r="D120" s="4" t="s">
+        <v>1498</v>
+      </c>
       <c r="E120" s="12" t="s">
         <v>955</v>
       </c>
@@ -7502,6 +7676,9 @@
       <c r="C121" t="s">
         <v>293</v>
       </c>
+      <c r="D121" s="4" t="s">
+        <v>1499</v>
+      </c>
       <c r="E121" s="12" t="s">
         <v>956</v>
       </c>
@@ -7516,6 +7693,9 @@
       <c r="C122" t="s">
         <v>295</v>
       </c>
+      <c r="D122" s="4" t="s">
+        <v>1500</v>
+      </c>
       <c r="E122" s="12" t="s">
         <v>957</v>
       </c>
@@ -7530,6 +7710,9 @@
       <c r="C123" t="s">
         <v>297</v>
       </c>
+      <c r="D123" s="4" t="s">
+        <v>1501</v>
+      </c>
       <c r="E123" s="12" t="s">
         <v>958</v>
       </c>
@@ -7544,6 +7727,9 @@
       <c r="C124" t="s">
         <v>299</v>
       </c>
+      <c r="D124" s="4" t="s">
+        <v>1468</v>
+      </c>
       <c r="E124" s="12" t="s">
         <v>959</v>
       </c>
@@ -7558,6 +7744,9 @@
       <c r="C125" t="s">
         <v>301</v>
       </c>
+      <c r="D125" s="4" t="s">
+        <v>1502</v>
+      </c>
       <c r="E125" s="12" t="s">
         <v>960</v>
       </c>
@@ -7572,6 +7761,9 @@
       <c r="C126" t="s">
         <v>303</v>
       </c>
+      <c r="D126" s="4" t="s">
+        <v>1503</v>
+      </c>
       <c r="E126" s="12" t="s">
         <v>961</v>
       </c>
@@ -7586,6 +7778,9 @@
       <c r="C127" t="s">
         <v>305</v>
       </c>
+      <c r="D127" s="4" t="s">
+        <v>1504</v>
+      </c>
       <c r="E127" s="12" t="s">
         <v>962</v>
       </c>
@@ -8566,7 +8761,7 @@
       <c r="C197" s="6" t="s">
         <v>1309</v>
       </c>
-      <c r="D197" s="20" t="s">
+      <c r="D197" s="15" t="s">
         <v>420</v>
       </c>
       <c r="E197" s="13" t="s">
@@ -9144,7 +9339,7 @@
       <c r="C237" s="6" t="s">
         <v>1309</v>
       </c>
-      <c r="D237" s="20" t="s">
+      <c r="D237" s="15" t="s">
         <v>420</v>
       </c>
       <c r="E237" s="13" t="s">
@@ -13305,34 +13500,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1318</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>1311</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="8">

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YNC\Desktop\programming\_Private\proseka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0402c\Desktop\proseka Rating project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A13FB0-A006-41B8-B5A8-8FC264D70AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="곡 데이터(출시순)" sheetId="3" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="1520">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -4404,9 +4405,6 @@
   <si>
     <t>halyosy</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市瀬るぽ</t>
   </si>
   <si>
     <t>みきとP</t>
@@ -4611,14 +4609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>じーざすP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>バルーン</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ナノウ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4630,9 +4620,6 @@
     <t>Mitchie M</t>
   </si>
   <si>
-    <t>ピノキオピー</t>
-  </si>
-  <si>
     <t>まふまふ</t>
   </si>
   <si>
@@ -4773,9 +4760,6 @@
   <si>
     <t>sasakure.UK</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黒うさP</t>
   </si>
   <si>
     <t>Crusher-P</t>
@@ -4856,6 +4840,326 @@
   <si>
     <t>梅とら</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosMo@暴走P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosMo@暴走P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIVELA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emon(Tes.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とあ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シノ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ayase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ayase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kanaria</t>
+  </si>
+  <si>
+    <t>Junky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想太</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doriko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasakure.UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ササノマリイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>煮ル果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>実</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏代 孝明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ポリスピカデリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kemu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kemu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syudou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タケノコ少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqu3ra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キノシタ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊東 健人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Luna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有機酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ピコン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iroha(sasaki)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいりきベア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kemu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すりぃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takamatt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キタニタツヤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤原 基央</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オゾン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カラスヤサボウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misumi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>瀬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>るぽ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>じ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ざすP</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>バル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ン</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ピノキオピ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>うさP</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4877,7 +5181,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -4886,70 +5190,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cosMo@暴走P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cosMo@暴走P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIVELA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emon(Tes.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>とあ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>シノ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ayase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ayase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kanaria</t>
-  </si>
-  <si>
-    <t>Junky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想太</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doriko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加賀(ネギシャワーP)</t>
-  </si>
-  <si>
-    <t>sasakure.UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ササノマリイ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>煮ル果</t>
+      <t>加賀(ネギシャワ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -4957,20 +5210,26 @@
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ユリイ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>実</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏代 孝明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ポリスピカデリ</t>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -4978,6 +5237,23 @@
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カノン</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>のりぴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -4986,86 +5262,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kemu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kemu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>syudou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>タケノコ少年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aqu3ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>キノシタ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>じん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>じん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊東 健人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*Luna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有機酸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ピコン</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iroha(sasaki)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>かいりきベア</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kemu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>すりぃ</t>
+    <r>
+      <t>針原翼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(はりーP)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TOKOTOKO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>沢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>さんP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mothy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せきこみごはん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てにをは</t>
+  </si>
+  <si>
+    <t>Dios/シグナルP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;APD.&quot;0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5149,6 +5442,37 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5178,7 +5502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5224,9 +5548,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5241,6 +5562,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5572,63 +5905,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:K602"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D127" sqref="D127"/>
+      <selection pane="bottomRight" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9" style="9" customWidth="1"/>
     <col min="11" max="11" width="0" style="9" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>1313</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
       <c r="B2" s="1" t="s">
         <v>866</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="9" t="s">
         <v>97</v>
       </c>
@@ -5645,7 +5978,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5655,11 +5988,11 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="21" t="s">
         <v>1314</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F3" s="9">
         <v>5</v>
@@ -5677,7 +6010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5687,14 +6020,14 @@
       <c r="C4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="21" t="s">
         <v>1373</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5704,14 +6037,14 @@
       <c r="C5" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="21" t="s">
         <v>1374</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5721,14 +6054,14 @@
       <c r="C6" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>1469</v>
+      <c r="D6" s="21" t="s">
+        <v>1463</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5738,14 +6071,14 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="21" t="s">
         <v>1375</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5755,14 +6088,14 @@
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>1376</v>
+      <c r="D8" s="21" t="s">
+        <v>1505</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5772,14 +6105,14 @@
       <c r="C9" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>1377</v>
+      <c r="D9" s="21" t="s">
+        <v>1376</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5789,14 +6122,14 @@
       <c r="C10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>1378</v>
+      <c r="D10" s="21" t="s">
+        <v>1377</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5806,14 +6139,14 @@
       <c r="C11" t="s">
         <v>1317</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>1379</v>
+      <c r="D11" s="21" t="s">
+        <v>1378</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5823,14 +6156,14 @@
       <c r="C12" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>1380</v>
+      <c r="D12" s="21" t="s">
+        <v>1379</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5840,14 +6173,14 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>1381</v>
+      <c r="D13" s="21" t="s">
+        <v>1380</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5857,14 +6190,14 @@
       <c r="C14" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>1382</v>
+      <c r="D14" s="21" t="s">
+        <v>1381</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5874,14 +6207,14 @@
       <c r="C15" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>1383</v>
+      <c r="D15" s="21" t="s">
+        <v>1382</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5891,14 +6224,14 @@
       <c r="C16" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>1384</v>
+      <c r="D16" s="21" t="s">
+        <v>1383</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5908,14 +6241,14 @@
       <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>1385</v>
+      <c r="D17" s="21" t="s">
+        <v>1384</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5925,14 +6258,14 @@
       <c r="C18" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>1386</v>
+      <c r="D18" s="21" t="s">
+        <v>1385</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5942,14 +6275,14 @@
       <c r="C19" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>1406</v>
+      <c r="D19" s="21" t="s">
+        <v>1405</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5959,14 +6292,14 @@
       <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>1407</v>
+      <c r="D20" s="21" t="s">
+        <v>1506</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5976,14 +6309,14 @@
       <c r="C21" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>1408</v>
+      <c r="D21" s="21" t="s">
+        <v>1507</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5993,14 +6326,14 @@
       <c r="C22" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>1409</v>
+      <c r="D22" s="21" t="s">
+        <v>1406</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6010,14 +6343,14 @@
       <c r="C23" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>1410</v>
+      <c r="D23" s="21" t="s">
+        <v>1407</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6027,14 +6360,14 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>1379</v>
+      <c r="D24" s="21" t="s">
+        <v>1378</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6044,14 +6377,14 @@
       <c r="C25" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>1411</v>
+      <c r="D25" s="21" t="s">
+        <v>1408</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6061,14 +6394,14 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>1383</v>
+      <c r="D26" s="21" t="s">
+        <v>1382</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6078,14 +6411,14 @@
       <c r="C27" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>1412</v>
+      <c r="D27" s="21" t="s">
+        <v>1508</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6095,14 +6428,14 @@
       <c r="C28" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>1413</v>
+      <c r="D28" s="21" t="s">
+        <v>1409</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6112,14 +6445,14 @@
       <c r="C29" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>1414</v>
+      <c r="D29" s="21" t="s">
+        <v>1410</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6129,14 +6462,14 @@
       <c r="C30" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>1415</v>
+      <c r="D30" s="21" t="s">
+        <v>1411</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6146,14 +6479,14 @@
       <c r="C31" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>1416</v>
+      <c r="D31" s="21" t="s">
+        <v>1412</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6163,14 +6496,14 @@
       <c r="C32" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>1417</v>
+      <c r="D32" s="21" t="s">
+        <v>1413</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6180,14 +6513,14 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>1418</v>
+      <c r="D33" s="21" t="s">
+        <v>1414</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6197,14 +6530,14 @@
       <c r="C34" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>1419</v>
+      <c r="D34" s="21" t="s">
+        <v>1415</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6214,14 +6547,14 @@
       <c r="C35" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>1420</v>
+      <c r="D35" s="21" t="s">
+        <v>1416</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6231,14 +6564,14 @@
       <c r="C36" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>1421</v>
+      <c r="D36" s="21" t="s">
+        <v>1417</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6248,14 +6581,14 @@
       <c r="C37" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>1422</v>
+      <c r="D37" s="21" t="s">
+        <v>1418</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6263,16 +6596,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>1424</v>
+        <v>1419</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>1420</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6282,14 +6615,14 @@
       <c r="C39" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>1425</v>
+      <c r="D39" s="21" t="s">
+        <v>1421</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6299,14 +6632,14 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>1426</v>
+      <c r="D40" s="21" t="s">
+        <v>1422</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6316,14 +6649,14 @@
       <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>1427</v>
+      <c r="D41" s="21" t="s">
+        <v>1423</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6333,14 +6666,14 @@
       <c r="C42" t="s">
         <v>163</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>1428</v>
+      <c r="D42" s="21" t="s">
+        <v>1424</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6350,14 +6683,14 @@
       <c r="C43" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>1429</v>
+      <c r="D43" s="21" t="s">
+        <v>1425</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6367,14 +6700,14 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>1429</v>
+      <c r="D44" s="21" t="s">
+        <v>1425</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6384,14 +6717,14 @@
       <c r="C45" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>1430</v>
+      <c r="D45" s="21" t="s">
+        <v>1426</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6401,14 +6734,14 @@
       <c r="C46" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>1431</v>
+      <c r="D46" s="21" t="s">
+        <v>1427</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6418,14 +6751,14 @@
       <c r="C47" t="s">
         <v>171</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>1432</v>
+      <c r="D47" s="21" t="s">
+        <v>1428</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6435,14 +6768,14 @@
       <c r="C48" t="s">
         <v>173</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>1433</v>
+      <c r="D48" s="21" t="s">
+        <v>1429</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6452,14 +6785,14 @@
       <c r="C49" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>1434</v>
+      <c r="D49" s="21" t="s">
+        <v>1430</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6469,14 +6802,14 @@
       <c r="C50" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>1435</v>
+      <c r="D50" s="21" t="s">
+        <v>1431</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6486,14 +6819,14 @@
       <c r="C51" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>1436</v>
+      <c r="D51" s="21" t="s">
+        <v>1432</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6503,14 +6836,14 @@
       <c r="C52" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>1437</v>
+      <c r="D52" s="21" t="s">
+        <v>1433</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6520,14 +6853,14 @@
       <c r="C53" t="s">
         <v>182</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>1438</v>
+      <c r="D53" s="21" t="s">
+        <v>1434</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6537,14 +6870,14 @@
       <c r="C54" t="s">
         <v>184</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>1439</v>
+      <c r="D54" s="21" t="s">
+        <v>1435</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6554,14 +6887,14 @@
       <c r="C55" t="s">
         <v>186</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>1440</v>
+      <c r="D55" s="21" t="s">
+        <v>1436</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6571,14 +6904,14 @@
       <c r="C56" t="s">
         <v>188</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>1441</v>
+      <c r="D56" s="21" t="s">
+        <v>1437</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6588,14 +6921,14 @@
       <c r="C57" t="s">
         <v>190</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>1441</v>
+      <c r="D57" s="21" t="s">
+        <v>1437</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6605,14 +6938,14 @@
       <c r="C58" t="s">
         <v>192</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>1412</v>
+      <c r="D58" s="21" t="s">
+        <v>1508</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6622,14 +6955,14 @@
       <c r="C59" t="s">
         <v>194</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>1442</v>
+      <c r="D59" s="21" t="s">
+        <v>1438</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6639,14 +6972,14 @@
       <c r="C60" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>1443</v>
+      <c r="D60" s="21" t="s">
+        <v>1439</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6656,14 +6989,14 @@
       <c r="C61" t="s">
         <v>196</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>1444</v>
+      <c r="D61" s="21" t="s">
+        <v>1440</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6673,14 +7006,14 @@
       <c r="C62" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>1429</v>
+      <c r="D62" s="21" t="s">
+        <v>1425</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6690,14 +7023,14 @@
       <c r="C63" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="21" t="s">
         <v>1374</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6707,14 +7040,14 @@
       <c r="C64" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>1445</v>
+      <c r="D64" s="21" t="s">
+        <v>1441</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6724,14 +7057,14 @@
       <c r="C65" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>1446</v>
+      <c r="D65" s="21" t="s">
+        <v>1442</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6741,14 +7074,14 @@
       <c r="C66" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>1447</v>
+      <c r="D66" s="21" t="s">
+        <v>1443</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6758,14 +7091,14 @@
       <c r="C67" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>1448</v>
+      <c r="D67" s="21" t="s">
+        <v>1444</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6775,14 +7108,14 @@
       <c r="C68" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>1449</v>
+      <c r="D68" s="21" t="s">
+        <v>1509</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6792,14 +7125,14 @@
       <c r="C69" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>1450</v>
+      <c r="D69" s="21" t="s">
+        <v>1445</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6809,14 +7142,14 @@
       <c r="C70" t="s">
         <v>210</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>1451</v>
+      <c r="D70" s="21" t="s">
+        <v>1446</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6826,14 +7159,14 @@
       <c r="C71" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>1451</v>
+      <c r="D71" s="21" t="s">
+        <v>1446</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6843,14 +7176,14 @@
       <c r="C72" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>1452</v>
+      <c r="D72" s="21" t="s">
+        <v>1447</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6860,14 +7193,14 @@
       <c r="C73" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>1453</v>
+      <c r="D73" s="21" t="s">
+        <v>1448</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6877,14 +7210,14 @@
       <c r="C74" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>1454</v>
+      <c r="D74" s="21" t="s">
+        <v>1449</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6894,14 +7227,14 @@
       <c r="C75" t="s">
         <v>220</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>1455</v>
+      <c r="D75" s="21" t="s">
+        <v>1450</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6911,14 +7244,14 @@
       <c r="C76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>1456</v>
+      <c r="D76" s="21" t="s">
+        <v>1451</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6928,14 +7261,14 @@
       <c r="C77" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>1457</v>
+      <c r="D77" s="21" t="s">
+        <v>1452</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6945,14 +7278,14 @@
       <c r="C78" t="s">
         <v>222</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>1458</v>
+      <c r="D78" s="21" t="s">
+        <v>1453</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6962,14 +7295,14 @@
       <c r="C79" t="s">
         <v>224</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>1459</v>
+      <c r="D79" s="21" t="s">
+        <v>1454</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6979,14 +7312,14 @@
       <c r="C80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>1455</v>
+      <c r="D80" s="21" t="s">
+        <v>1450</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6996,14 +7329,14 @@
       <c r="C81" t="s">
         <v>226</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>1460</v>
+      <c r="D81" s="21" t="s">
+        <v>1455</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7013,14 +7346,14 @@
       <c r="C82" t="s">
         <v>227</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>1461</v>
+      <c r="D82" s="21" t="s">
+        <v>1456</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7030,14 +7363,14 @@
       <c r="C83" t="s">
         <v>229</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>1462</v>
+      <c r="D83" s="21" t="s">
+        <v>1457</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7047,14 +7380,14 @@
       <c r="C84" t="s">
         <v>231</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>1463</v>
+      <c r="D84" s="21" t="s">
+        <v>1458</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7064,14 +7397,14 @@
       <c r="C85" t="s">
         <v>233</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>1464</v>
+      <c r="D85" s="21" t="s">
+        <v>1459</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7081,14 +7414,14 @@
       <c r="C86" t="s">
         <v>235</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>1465</v>
+      <c r="D86" s="21" t="s">
+        <v>1460</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7098,14 +7431,14 @@
       <c r="C87" t="s">
         <v>237</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>1466</v>
+      <c r="D87" s="21" t="s">
+        <v>1461</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7115,14 +7448,14 @@
       <c r="C88" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>1467</v>
+      <c r="D88" s="21" t="s">
+        <v>1510</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7132,14 +7465,14 @@
       <c r="C89" t="s">
         <v>239</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>1468</v>
+      <c r="D89" s="21" t="s">
+        <v>1462</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7149,14 +7482,14 @@
       <c r="C90" t="s">
         <v>241</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>1470</v>
+      <c r="D90" s="21" t="s">
+        <v>1464</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7166,14 +7499,14 @@
       <c r="C91" t="s">
         <v>243</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>1471</v>
+      <c r="D91" s="21" t="s">
+        <v>1465</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7183,14 +7516,14 @@
       <c r="C92" t="s">
         <v>245</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>1472</v>
+      <c r="D92" s="21" t="s">
+        <v>1466</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7200,14 +7533,14 @@
       <c r="C93" t="s">
         <v>247</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>1473</v>
+      <c r="D93" s="21" t="s">
+        <v>1467</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7217,14 +7550,14 @@
       <c r="C94" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="21">
         <v>164</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7234,14 +7567,14 @@
       <c r="C95" t="s">
         <v>249</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>1474</v>
+      <c r="D95" s="21" t="s">
+        <v>1468</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7251,14 +7584,14 @@
       <c r="C96" t="s">
         <v>251</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>1475</v>
+      <c r="D96" s="21" t="s">
+        <v>1469</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7268,14 +7601,14 @@
       <c r="C97" t="s">
         <v>253</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>1476</v>
+      <c r="D97" s="21" t="s">
+        <v>1470</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7285,14 +7618,14 @@
       <c r="C98" t="s">
         <v>255</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>1476</v>
+      <c r="D98" s="21" t="s">
+        <v>1470</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7302,14 +7635,14 @@
       <c r="C99" t="s">
         <v>19</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>1477</v>
+      <c r="D99" s="21" t="s">
+        <v>1471</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7319,14 +7652,14 @@
       <c r="C100" t="s">
         <v>257</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>1478</v>
+      <c r="D100" s="21" t="s">
+        <v>1472</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7336,14 +7669,14 @@
       <c r="C101" t="s">
         <v>259</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>1479</v>
+      <c r="D101" s="21" t="s">
+        <v>1473</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7353,14 +7686,14 @@
       <c r="C102" t="s">
         <v>261</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>1480</v>
+      <c r="D102" s="21" t="s">
+        <v>1474</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7370,14 +7703,14 @@
       <c r="C103" t="s">
         <v>263</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>1481</v>
+      <c r="D103" s="21" t="s">
+        <v>1511</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7387,14 +7720,14 @@
       <c r="C104" t="s">
         <v>265</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>1482</v>
+      <c r="D104" s="21" t="s">
+        <v>1475</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7404,14 +7737,14 @@
       <c r="C105" t="s">
         <v>267</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>1483</v>
+      <c r="D105" s="21" t="s">
+        <v>1476</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7421,14 +7754,14 @@
       <c r="C106" t="s">
         <v>269</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>1484</v>
+      <c r="D106" s="21" t="s">
+        <v>1477</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7438,14 +7771,14 @@
       <c r="C107" t="s">
         <v>271</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>1485</v>
+      <c r="D107" s="21" t="s">
+        <v>1478</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7455,14 +7788,14 @@
       <c r="C108" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>1486</v>
+      <c r="D108" s="21" t="s">
+        <v>1479</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7472,14 +7805,14 @@
       <c r="C109" t="s">
         <v>273</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>1487</v>
+      <c r="D109" s="21" t="s">
+        <v>1480</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -7489,14 +7822,14 @@
       <c r="C110" t="s">
         <v>275</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>1488</v>
+      <c r="D110" s="21" t="s">
+        <v>1481</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -7506,14 +7839,14 @@
       <c r="C111" t="s">
         <v>277</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>1489</v>
+      <c r="D111" s="21" t="s">
+        <v>1482</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7523,14 +7856,14 @@
       <c r="C112" t="s">
         <v>279</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>1490</v>
+      <c r="D112" s="21" t="s">
+        <v>1483</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7540,14 +7873,14 @@
       <c r="C113" t="s">
         <v>281</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>1493</v>
+      <c r="D113" s="21" t="s">
+        <v>1486</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7557,14 +7890,14 @@
       <c r="C114" t="s">
         <v>283</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>1491</v>
+      <c r="D114" s="21" t="s">
+        <v>1484</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7574,14 +7907,14 @@
       <c r="C115" t="s">
         <v>21</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>1492</v>
+      <c r="D115" s="21" t="s">
+        <v>1485</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7591,14 +7924,14 @@
       <c r="C116" t="s">
         <v>285</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>1494</v>
+      <c r="D116" s="21" t="s">
+        <v>1487</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7608,14 +7941,14 @@
       <c r="C117" t="s">
         <v>22</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>1495</v>
+      <c r="D117" s="21" t="s">
+        <v>1488</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7625,14 +7958,14 @@
       <c r="C118" t="s">
         <v>287</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>1496</v>
+      <c r="D118" s="21" t="s">
+        <v>1489</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7642,14 +7975,14 @@
       <c r="C119" t="s">
         <v>289</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>1497</v>
+      <c r="D119" s="21" t="s">
+        <v>1490</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7659,14 +7992,14 @@
       <c r="C120" t="s">
         <v>291</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>1498</v>
+      <c r="D120" s="21" t="s">
+        <v>1491</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7676,14 +8009,14 @@
       <c r="C121" t="s">
         <v>293</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>1499</v>
+      <c r="D121" s="21" t="s">
+        <v>1492</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7693,14 +8026,14 @@
       <c r="C122" t="s">
         <v>295</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>1500</v>
+      <c r="D122" s="21" t="s">
+        <v>1493</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7710,14 +8043,14 @@
       <c r="C123" t="s">
         <v>297</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>1501</v>
+      <c r="D123" s="21" t="s">
+        <v>1494</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7727,14 +8060,14 @@
       <c r="C124" t="s">
         <v>299</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>1468</v>
+      <c r="D124" s="21" t="s">
+        <v>1462</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7744,14 +8077,14 @@
       <c r="C125" t="s">
         <v>301</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>1502</v>
+      <c r="D125" s="21" t="s">
+        <v>1495</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7761,14 +8094,14 @@
       <c r="C126" t="s">
         <v>303</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>1503</v>
+      <c r="D126" s="21" t="s">
+        <v>1496</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7778,14 +8111,14 @@
       <c r="C127" t="s">
         <v>305</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>1504</v>
+      <c r="D127" s="21" t="s">
+        <v>1497</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7795,11 +8128,14 @@
       <c r="C128" t="s">
         <v>307</v>
       </c>
+      <c r="D128" s="21" t="s">
+        <v>1498</v>
+      </c>
       <c r="E128" s="12" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7809,11 +8145,14 @@
       <c r="C129" t="s">
         <v>309</v>
       </c>
+      <c r="D129" s="21" t="s">
+        <v>1499</v>
+      </c>
       <c r="E129" s="12" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7823,11 +8162,14 @@
       <c r="C130" t="s">
         <v>311</v>
       </c>
+      <c r="D130" s="21" t="s">
+        <v>1512</v>
+      </c>
       <c r="E130" s="12" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -7837,11 +8179,14 @@
       <c r="C131" t="s">
         <v>313</v>
       </c>
+      <c r="D131" s="21" t="s">
+        <v>1500</v>
+      </c>
       <c r="E131" s="12" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -7851,11 +8196,14 @@
       <c r="C132" t="s">
         <v>315</v>
       </c>
+      <c r="D132" s="21" t="s">
+        <v>1513</v>
+      </c>
       <c r="E132" s="12" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -7865,11 +8213,14 @@
       <c r="C133" t="s">
         <v>23</v>
       </c>
+      <c r="D133" s="21" t="s">
+        <v>1501</v>
+      </c>
       <c r="E133" s="12" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -7879,11 +8230,14 @@
       <c r="C134" t="s">
         <v>24</v>
       </c>
+      <c r="D134" s="21" t="s">
+        <v>1501</v>
+      </c>
       <c r="E134" s="12" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -7893,11 +8247,14 @@
       <c r="C135" t="s">
         <v>318</v>
       </c>
+      <c r="D135" s="21" t="s">
+        <v>1502</v>
+      </c>
       <c r="E135" s="12" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -7907,11 +8264,14 @@
       <c r="C136" t="s">
         <v>320</v>
       </c>
+      <c r="D136" s="21" t="s">
+        <v>1503</v>
+      </c>
       <c r="E136" s="12" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -7921,11 +8281,14 @@
       <c r="C137" t="s">
         <v>25</v>
       </c>
+      <c r="D137" s="21" t="s">
+        <v>1405</v>
+      </c>
       <c r="E137" s="12" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -7935,11 +8298,14 @@
       <c r="C138" t="s">
         <v>322</v>
       </c>
+      <c r="D138" s="21" t="s">
+        <v>1384</v>
+      </c>
       <c r="E138" s="12" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -7949,11 +8315,14 @@
       <c r="C139" t="s">
         <v>324</v>
       </c>
+      <c r="D139" s="3" t="s">
+        <v>1462</v>
+      </c>
       <c r="E139" s="12" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -7963,11 +8332,14 @@
       <c r="C140" t="s">
         <v>326</v>
       </c>
+      <c r="D140" s="21" t="s">
+        <v>1504</v>
+      </c>
       <c r="E140" s="12" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -7977,11 +8349,14 @@
       <c r="C141" t="s">
         <v>26</v>
       </c>
+      <c r="D141" s="21" t="s">
+        <v>1514</v>
+      </c>
       <c r="E141" s="12" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7991,11 +8366,14 @@
       <c r="C142" t="s">
         <v>328</v>
       </c>
+      <c r="D142" s="23" t="s">
+        <v>1443</v>
+      </c>
       <c r="E142" s="12" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -8005,11 +8383,14 @@
       <c r="C143" t="s">
         <v>330</v>
       </c>
+      <c r="D143" s="21" t="s">
+        <v>1515</v>
+      </c>
       <c r="E143" s="12" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -8019,11 +8400,14 @@
       <c r="C144" t="s">
         <v>332</v>
       </c>
+      <c r="D144" s="23" t="s">
+        <v>1516</v>
+      </c>
       <c r="E144" s="12" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -8033,11 +8417,14 @@
       <c r="C145" t="s">
         <v>334</v>
       </c>
+      <c r="D145" s="23" t="s">
+        <v>1516</v>
+      </c>
       <c r="E145" s="12" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -8047,11 +8434,14 @@
       <c r="C146" t="s">
         <v>336</v>
       </c>
+      <c r="D146" s="23" t="s">
+        <v>1516</v>
+      </c>
       <c r="E146" s="12" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -8061,11 +8451,14 @@
       <c r="C147" t="s">
         <v>338</v>
       </c>
+      <c r="D147" s="21" t="s">
+        <v>1517</v>
+      </c>
       <c r="E147" s="12" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -8075,11 +8468,14 @@
       <c r="C148" t="s">
         <v>340</v>
       </c>
+      <c r="D148" s="21" t="s">
+        <v>1384</v>
+      </c>
       <c r="E148" s="12" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8089,11 +8485,14 @@
       <c r="C149" t="s">
         <v>342</v>
       </c>
+      <c r="D149" s="21" t="s">
+        <v>1490</v>
+      </c>
       <c r="E149" s="12" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -8103,11 +8502,14 @@
       <c r="C150" t="s">
         <v>344</v>
       </c>
+      <c r="D150" s="23" t="s">
+        <v>1378</v>
+      </c>
       <c r="E150" s="12" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -8117,11 +8519,14 @@
       <c r="C151" t="s">
         <v>346</v>
       </c>
+      <c r="D151" s="21" t="s">
+        <v>1518</v>
+      </c>
       <c r="E151" s="12" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -8131,11 +8536,14 @@
       <c r="C152" t="s">
         <v>348</v>
       </c>
+      <c r="D152" s="21" t="s">
+        <v>1519</v>
+      </c>
       <c r="E152" s="12" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -8149,7 +8557,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -8163,7 +8571,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -8177,7 +8585,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -8191,7 +8599,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -8205,7 +8613,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -8219,7 +8627,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -8233,7 +8641,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -8247,7 +8655,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -8261,7 +8669,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -8275,7 +8683,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -8289,7 +8697,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -8303,7 +8711,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -8317,7 +8725,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -8331,7 +8739,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -8345,7 +8753,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -8359,7 +8767,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -8373,7 +8781,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -8387,7 +8795,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -8401,7 +8809,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -8415,7 +8823,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -8429,7 +8837,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -8443,7 +8851,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -8457,7 +8865,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -8471,7 +8879,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -8485,7 +8893,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -8499,7 +8907,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -8513,7 +8921,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -8527,7 +8935,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -8541,7 +8949,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -8555,7 +8963,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -8569,7 +8977,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -8583,7 +8991,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -8597,7 +9005,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -8611,7 +9019,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -8625,7 +9033,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -8639,7 +9047,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -8653,7 +9061,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -8667,7 +9075,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -8681,7 +9089,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -8695,7 +9103,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -8709,7 +9117,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -8723,7 +9131,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -8737,7 +9145,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -8748,10 +9156,10 @@
         <v>419</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>195</v>
       </c>
@@ -8761,7 +9169,7 @@
       <c r="C197" s="6" t="s">
         <v>1309</v>
       </c>
-      <c r="D197" s="15" t="s">
+      <c r="D197" s="22" t="s">
         <v>420</v>
       </c>
       <c r="E197" s="13" t="s">
@@ -8783,7 +9191,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -8797,7 +9205,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -8811,7 +9219,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -8825,7 +9233,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -8839,7 +9247,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -8853,7 +9261,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -8867,7 +9275,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -8881,7 +9289,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8895,7 +9303,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8909,7 +9317,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8923,7 +9331,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8937,7 +9345,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8951,7 +9359,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8965,7 +9373,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8979,7 +9387,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8993,7 +9401,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -9007,7 +9415,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -9021,7 +9429,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -9035,7 +9443,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -9049,7 +9457,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -9063,7 +9471,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -9077,7 +9485,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -9091,7 +9499,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -9105,7 +9513,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -9119,7 +9527,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -9133,7 +9541,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -9144,10 +9552,10 @@
         <v>464</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -9161,7 +9569,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -9175,7 +9583,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -9189,7 +9597,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -9203,7 +9611,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -9217,7 +9625,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -9231,7 +9639,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -9245,7 +9653,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -9259,7 +9667,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -9273,7 +9681,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -9287,7 +9695,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -9301,7 +9709,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -9315,7 +9723,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -9329,7 +9737,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="237" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>235</v>
       </c>
@@ -9339,7 +9747,7 @@
       <c r="C237" s="6" t="s">
         <v>1309</v>
       </c>
-      <c r="D237" s="15" t="s">
+      <c r="D237" s="22" t="s">
         <v>420</v>
       </c>
       <c r="E237" s="13" t="s">
@@ -9361,7 +9769,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -9375,7 +9783,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -9389,7 +9797,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -9403,7 +9811,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -9417,7 +9825,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -9431,7 +9839,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -9445,7 +9853,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -9459,7 +9867,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -9473,7 +9881,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -9487,7 +9895,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -9501,7 +9909,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -9515,7 +9923,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -9529,7 +9937,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -9543,7 +9951,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -9557,7 +9965,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -9571,7 +9979,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -9585,7 +9993,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -9599,7 +10007,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -9628,7 +10036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -9642,7 +10050,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -9656,7 +10064,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -9670,7 +10078,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -9684,7 +10092,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
@@ -9698,7 +10106,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -9712,7 +10120,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -9726,7 +10134,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -9740,7 +10148,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -9754,7 +10162,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
@@ -9768,7 +10176,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -9782,7 +10190,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -9796,7 +10204,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -9810,7 +10218,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
@@ -9824,7 +10232,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
@@ -9853,7 +10261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
@@ -9867,7 +10275,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -9881,7 +10289,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -9895,7 +10303,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -9909,7 +10317,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9923,7 +10331,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -9937,7 +10345,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -9951,7 +10359,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
@@ -9962,10 +10370,10 @@
         <v>53</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9979,7 +10387,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
@@ -9993,7 +10401,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
@@ -10007,7 +10415,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
@@ -10021,7 +10429,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
@@ -10035,7 +10443,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
@@ -10049,7 +10457,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
@@ -10063,7 +10471,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
@@ -10077,7 +10485,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
@@ -10091,7 +10499,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
@@ -10105,7 +10513,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>287</v>
       </c>
@@ -10119,7 +10527,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>288</v>
       </c>
@@ -10130,10 +10538,10 @@
         <v>58</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>289</v>
       </c>
@@ -10147,7 +10555,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>290</v>
       </c>
@@ -10161,7 +10569,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>291</v>
       </c>
@@ -10175,7 +10583,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
@@ -10189,7 +10597,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
@@ -10203,7 +10611,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>294</v>
       </c>
@@ -10217,7 +10625,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
@@ -10231,7 +10639,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
@@ -10245,7 +10653,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>297</v>
       </c>
@@ -10259,7 +10667,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>298</v>
       </c>
@@ -10273,7 +10681,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>299</v>
       </c>
@@ -10287,7 +10695,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>300</v>
       </c>
@@ -10301,7 +10709,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>301</v>
       </c>
@@ -10315,7 +10723,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>302</v>
       </c>
@@ -10329,7 +10737,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>303</v>
       </c>
@@ -10343,7 +10751,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>304</v>
       </c>
@@ -10357,7 +10765,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>305</v>
       </c>
@@ -10371,7 +10779,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>306</v>
       </c>
@@ -10385,7 +10793,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>307</v>
       </c>
@@ -10399,7 +10807,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>308</v>
       </c>
@@ -10413,7 +10821,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>309</v>
       </c>
@@ -10427,7 +10835,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>310</v>
       </c>
@@ -10441,7 +10849,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>311</v>
       </c>
@@ -10455,7 +10863,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>312</v>
       </c>
@@ -10469,7 +10877,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>313</v>
       </c>
@@ -10483,7 +10891,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>314</v>
       </c>
@@ -10497,7 +10905,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>315</v>
       </c>
@@ -10511,7 +10919,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>316</v>
       </c>
@@ -10522,10 +10930,10 @@
         <v>63</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>317</v>
       </c>
@@ -10539,7 +10947,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
@@ -10553,7 +10961,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>319</v>
       </c>
@@ -10567,7 +10975,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>320</v>
       </c>
@@ -10581,7 +10989,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>321</v>
       </c>
@@ -10595,7 +11003,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>322</v>
       </c>
@@ -10609,7 +11017,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>323</v>
       </c>
@@ -10620,10 +11028,10 @@
         <v>613</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
@@ -10637,7 +11045,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>325</v>
       </c>
@@ -10651,7 +11059,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>326</v>
       </c>
@@ -10665,7 +11073,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>327</v>
       </c>
@@ -10679,7 +11087,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>328</v>
       </c>
@@ -10693,7 +11101,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>329</v>
       </c>
@@ -10707,7 +11115,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>330</v>
       </c>
@@ -10721,7 +11129,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>331</v>
       </c>
@@ -10735,7 +11143,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>332</v>
       </c>
@@ -10749,7 +11157,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>333</v>
       </c>
@@ -10763,7 +11171,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>334</v>
       </c>
@@ -10777,7 +11185,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>335</v>
       </c>
@@ -10791,7 +11199,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>336</v>
       </c>
@@ -10805,7 +11213,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>337</v>
       </c>
@@ -10819,7 +11227,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>338</v>
       </c>
@@ -10833,7 +11241,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>339</v>
       </c>
@@ -10847,7 +11255,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>340</v>
       </c>
@@ -10861,7 +11269,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>341</v>
       </c>
@@ -10875,7 +11283,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>342</v>
       </c>
@@ -10889,7 +11297,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>343</v>
       </c>
@@ -10903,7 +11311,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>344</v>
       </c>
@@ -10917,7 +11325,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>345</v>
       </c>
@@ -10931,7 +11339,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>346</v>
       </c>
@@ -10945,7 +11353,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>347</v>
       </c>
@@ -10959,7 +11367,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>348</v>
       </c>
@@ -10973,7 +11381,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>349</v>
       </c>
@@ -10987,7 +11395,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>350</v>
       </c>
@@ -11001,7 +11409,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>351</v>
       </c>
@@ -11015,7 +11423,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>352</v>
       </c>
@@ -11029,7 +11437,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>353</v>
       </c>
@@ -11043,7 +11451,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>354</v>
       </c>
@@ -11057,7 +11465,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>355</v>
       </c>
@@ -11071,7 +11479,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>356</v>
       </c>
@@ -11085,7 +11493,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>357</v>
       </c>
@@ -11099,7 +11507,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>358</v>
       </c>
@@ -11113,7 +11521,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>359</v>
       </c>
@@ -11127,7 +11535,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>360</v>
       </c>
@@ -11141,7 +11549,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>361</v>
       </c>
@@ -11155,7 +11563,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>362</v>
       </c>
@@ -11169,7 +11577,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>363</v>
       </c>
@@ -11183,7 +11591,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>364</v>
       </c>
@@ -11197,7 +11605,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>365</v>
       </c>
@@ -11211,7 +11619,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>366</v>
       </c>
@@ -11225,7 +11633,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>367</v>
       </c>
@@ -11239,7 +11647,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>368</v>
       </c>
@@ -11253,7 +11661,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>369</v>
       </c>
@@ -11267,7 +11675,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>370</v>
       </c>
@@ -11281,7 +11689,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>371</v>
       </c>
@@ -11295,7 +11703,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>372</v>
       </c>
@@ -11309,7 +11717,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>373</v>
       </c>
@@ -11323,7 +11731,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>374</v>
       </c>
@@ -11337,7 +11745,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
@@ -11351,7 +11759,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>376</v>
       </c>
@@ -11365,7 +11773,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>377</v>
       </c>
@@ -11379,7 +11787,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>378</v>
       </c>
@@ -11393,7 +11801,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>379</v>
       </c>
@@ -11407,7 +11815,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>380</v>
       </c>
@@ -11421,7 +11829,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>381</v>
       </c>
@@ -11435,7 +11843,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>382</v>
       </c>
@@ -11449,7 +11857,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>383</v>
       </c>
@@ -11463,7 +11871,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>384</v>
       </c>
@@ -11477,7 +11885,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>385</v>
       </c>
@@ -11491,7 +11899,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>386</v>
       </c>
@@ -11505,7 +11913,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>387</v>
       </c>
@@ -11519,7 +11927,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>388</v>
       </c>
@@ -11533,7 +11941,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>389</v>
       </c>
@@ -11547,7 +11955,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>390</v>
       </c>
@@ -11561,7 +11969,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>391</v>
       </c>
@@ -11575,7 +11983,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>392</v>
       </c>
@@ -11589,7 +11997,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>393</v>
       </c>
@@ -11603,7 +12011,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>394</v>
       </c>
@@ -11617,7 +12025,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>395</v>
       </c>
@@ -11631,7 +12039,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>396</v>
       </c>
@@ -11645,7 +12053,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>397</v>
       </c>
@@ -11659,7 +12067,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>398</v>
       </c>
@@ -11673,7 +12081,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>399</v>
       </c>
@@ -11687,7 +12095,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>400</v>
       </c>
@@ -11701,7 +12109,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>401</v>
       </c>
@@ -11715,7 +12123,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>402</v>
       </c>
@@ -11729,7 +12137,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>403</v>
       </c>
@@ -11743,7 +12151,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>404</v>
       </c>
@@ -11757,7 +12165,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>405</v>
       </c>
@@ -11771,7 +12179,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>406</v>
       </c>
@@ -11785,7 +12193,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>407</v>
       </c>
@@ -11799,7 +12207,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>408</v>
       </c>
@@ -11813,7 +12221,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>409</v>
       </c>
@@ -11827,7 +12235,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>410</v>
       </c>
@@ -11841,7 +12249,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>411</v>
       </c>
@@ -11855,7 +12263,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>412</v>
       </c>
@@ -11869,7 +12277,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>413</v>
       </c>
@@ -11883,7 +12291,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>414</v>
       </c>
@@ -11897,7 +12305,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>415</v>
       </c>
@@ -11911,7 +12319,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>416</v>
       </c>
@@ -11925,7 +12333,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>417</v>
       </c>
@@ -11939,7 +12347,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>418</v>
       </c>
@@ -11953,7 +12361,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>419</v>
       </c>
@@ -11967,7 +12375,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>420</v>
       </c>
@@ -11981,7 +12389,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>421</v>
       </c>
@@ -11995,7 +12403,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>422</v>
       </c>
@@ -12009,7 +12417,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>423</v>
       </c>
@@ -12023,7 +12431,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>424</v>
       </c>
@@ -12037,7 +12445,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>425</v>
       </c>
@@ -12051,7 +12459,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>426</v>
       </c>
@@ -12065,7 +12473,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>427</v>
       </c>
@@ -12079,7 +12487,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>428</v>
       </c>
@@ -12093,7 +12501,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>429</v>
       </c>
@@ -12107,21 +12515,21 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>430</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C432" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E432" s="12" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>431</v>
       </c>
@@ -12135,7 +12543,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>432</v>
       </c>
@@ -12149,7 +12557,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>433</v>
       </c>
@@ -12163,7 +12571,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>434</v>
       </c>
@@ -12177,7 +12585,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>435</v>
       </c>
@@ -12191,7 +12599,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>436</v>
       </c>
@@ -12205,7 +12613,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>437</v>
       </c>
@@ -12216,10 +12624,10 @@
         <v>794</v>
       </c>
       <c r="E439" s="12" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>438</v>
       </c>
@@ -12233,7 +12641,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>439</v>
       </c>
@@ -12247,7 +12655,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>440</v>
       </c>
@@ -12261,7 +12669,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>441</v>
       </c>
@@ -12275,7 +12683,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>442</v>
       </c>
@@ -12289,7 +12697,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>443</v>
       </c>
@@ -12300,10 +12708,10 @@
         <v>804</v>
       </c>
       <c r="E445" s="12" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>444</v>
       </c>
@@ -12317,7 +12725,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>445</v>
       </c>
@@ -12331,7 +12739,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>446</v>
       </c>
@@ -12345,7 +12753,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>447</v>
       </c>
@@ -12359,7 +12767,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>448</v>
       </c>
@@ -12373,7 +12781,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>449</v>
       </c>
@@ -12387,7 +12795,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>450</v>
       </c>
@@ -12401,7 +12809,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>451</v>
       </c>
@@ -12415,7 +12823,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>452</v>
       </c>
@@ -12429,7 +12837,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>453</v>
       </c>
@@ -12443,7 +12851,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>454</v>
       </c>
@@ -12457,7 +12865,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>455</v>
       </c>
@@ -12471,7 +12879,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>456</v>
       </c>
@@ -12485,7 +12893,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>457</v>
       </c>
@@ -12499,7 +12907,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>458</v>
       </c>
@@ -12513,7 +12921,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>459</v>
       </c>
@@ -12527,7 +12935,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>460</v>
       </c>
@@ -12541,7 +12949,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>461</v>
       </c>
@@ -12555,7 +12963,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>462</v>
       </c>
@@ -12569,7 +12977,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>463</v>
       </c>
@@ -12583,7 +12991,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>464</v>
       </c>
@@ -12597,7 +13005,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>465</v>
       </c>
@@ -12608,10 +13016,10 @@
         <v>840</v>
       </c>
       <c r="E467" s="12" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>466</v>
       </c>
@@ -12625,7 +13033,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>467</v>
       </c>
@@ -12639,7 +13047,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>468</v>
       </c>
@@ -12653,7 +13061,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>469</v>
       </c>
@@ -12667,7 +13075,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>470</v>
       </c>
@@ -12681,7 +13089,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>471</v>
       </c>
@@ -12695,7 +13103,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>472</v>
       </c>
@@ -12709,7 +13117,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>473</v>
       </c>
@@ -12723,7 +13131,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>474</v>
       </c>
@@ -12737,7 +13145,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>475</v>
       </c>
@@ -12751,7 +13159,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>476</v>
       </c>
@@ -12765,7 +13173,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>477</v>
       </c>
@@ -12775,14 +13183,14 @@
       <c r="C479" t="s">
         <v>859</v>
       </c>
-      <c r="D479" s="4" t="s">
+      <c r="D479" s="21" t="s">
         <v>1372</v>
       </c>
       <c r="E479" s="12" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>478</v>
       </c>
@@ -12811,7 +13219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>479</v>
       </c>
@@ -12821,14 +13229,14 @@
       <c r="C481" t="s">
         <v>863</v>
       </c>
-      <c r="D481" s="4" t="s">
+      <c r="D481" s="21" t="s">
         <v>1371</v>
       </c>
       <c r="E481" s="12" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>480</v>
       </c>
@@ -12838,621 +13246,621 @@
       <c r="C482" t="s">
         <v>865</v>
       </c>
-      <c r="D482" s="4" t="s">
+      <c r="D482" s="21" t="s">
         <v>1370</v>
       </c>
       <c r="E482" s="12" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>481</v>
       </c>
       <c r="B483" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C483" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D483" s="21" t="s">
         <v>1388</v>
       </c>
-      <c r="C483" s="11" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D483" s="4" t="s">
-        <v>1389</v>
-      </c>
       <c r="E483" s="12" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>600</v>
       </c>
@@ -13480,56 +13888,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="9" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
     <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
         <v>1318</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>1311</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="20"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>866</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -13540,7 +13948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -13551,7 +13959,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -13562,7 +13970,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -13573,7 +13981,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -13584,7 +13992,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -13595,7 +14003,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -13606,7 +14014,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -13617,7 +14025,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -13628,7 +14036,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -13639,7 +14047,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -13650,7 +14058,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -13661,7 +14069,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -13681,7 +14089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -13692,7 +14100,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -13703,7 +14111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -13711,7 +14119,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -13719,7 +14127,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -13727,7 +14135,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -13735,7 +14143,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -13743,7 +14151,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -13751,7 +14159,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -13759,7 +14167,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -13767,7 +14175,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -13775,7 +14183,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -13783,7 +14191,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -13791,7 +14199,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -13799,7 +14207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -13807,7 +14215,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -13815,7 +14223,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -13823,7 +14231,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -13831,7 +14239,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="8">
         <v>32</v>
       </c>
@@ -13839,7 +14247,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="8">
         <v>33</v>
       </c>
@@ -13847,7 +14255,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="8">
         <v>34</v>
       </c>
@@ -13855,7 +14263,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
         <v>35</v>
       </c>
@@ -13863,7 +14271,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
         <v>36</v>
       </c>
@@ -13871,7 +14279,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="8">
         <v>37</v>
       </c>
@@ -13879,7 +14287,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="8">
         <v>38</v>
       </c>
@@ -13887,7 +14295,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="8">
         <v>39</v>
       </c>
@@ -13895,18 +14303,18 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="8">
         <v>40</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="8">
         <v>41</v>
       </c>
@@ -13917,7 +14325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="8">
         <v>42</v>
       </c>
@@ -13928,7 +14336,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="8">
         <v>43</v>
       </c>
@@ -13936,7 +14344,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="8">
         <v>44</v>
       </c>
@@ -13944,7 +14352,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
         <v>45</v>
       </c>
@@ -13952,7 +14360,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="8">
         <v>46</v>
       </c>
@@ -13960,7 +14368,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="8">
         <v>47</v>
       </c>
@@ -13968,7 +14376,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="8">
         <v>48</v>
       </c>
@@ -13976,7 +14384,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="8">
         <v>49</v>
       </c>
@@ -13984,7 +14392,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="8">
         <v>50</v>
       </c>
@@ -13992,7 +14400,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="8">
         <v>51</v>
       </c>
@@ -14000,7 +14408,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="8">
         <v>52</v>
       </c>
@@ -14008,7 +14416,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="8">
         <v>53</v>
       </c>
@@ -14016,7 +14424,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="8">
         <v>54</v>
       </c>
@@ -14024,7 +14432,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="8">
         <v>55</v>
       </c>
@@ -14032,7 +14440,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="8">
         <v>56</v>
       </c>
@@ -14040,7 +14448,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="8">
         <v>57</v>
       </c>
@@ -14048,7 +14456,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="8">
         <v>58</v>
       </c>
@@ -14059,7 +14467,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="8">
         <v>59</v>
       </c>
@@ -14067,7 +14475,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="8">
         <v>60</v>
       </c>
@@ -14075,7 +14483,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="8">
         <v>61</v>
       </c>
@@ -14083,7 +14491,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="8">
         <v>62</v>
       </c>
@@ -14091,7 +14499,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="8">
         <v>63</v>
       </c>
@@ -14099,7 +14507,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="8">
         <v>64</v>
       </c>
@@ -14107,7 +14515,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="8">
         <v>65</v>
       </c>
@@ -14115,7 +14523,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="8">
         <v>66</v>
       </c>
@@ -14123,172 +14531,172 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="8">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="8">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="8">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="8">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="8">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="8">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="8">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="8">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="8">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="8">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="8">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="8">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="8">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="8">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="8">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="8">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="8">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="8">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="8">
         <v>100</v>
       </c>

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1601">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -5782,6 +5782,139 @@
   </si>
   <si>
     <t>ツミキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アゴアニキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kemu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すりぃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとしずくP × やま△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40mP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うたたP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orangestar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasakure.UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyPop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>針原翼(はり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nogumi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R Sound Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shu-t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柊キライ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buzzG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れるりり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ガルナ (オワタP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otetsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoneyWorks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halyosy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavenz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ピノキオピ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqu3ra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤乃わい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5992,6 +6125,12 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6009,12 +6148,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6353,10 +6486,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B231" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D228" sqref="D228"/>
+      <selection pane="bottomRight" activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6372,37 +6505,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>1312</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="19"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="1" t="s">
         <v>865</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="9" t="s">
         <v>97</v>
       </c>
@@ -9062,7 +9195,7 @@
       <c r="C157" t="s">
         <v>28</v>
       </c>
-      <c r="D157" s="24" t="s">
+      <c r="D157" s="18" t="s">
         <v>1523</v>
       </c>
       <c r="E157" s="12" t="s">
@@ -9351,7 +9484,7 @@
       <c r="C174" t="s">
         <v>379</v>
       </c>
-      <c r="D174" s="24" t="s">
+      <c r="D174" s="18" t="s">
         <v>1534</v>
       </c>
       <c r="E174" s="12" t="s">
@@ -9368,7 +9501,7 @@
       <c r="C175" t="s">
         <v>381</v>
       </c>
-      <c r="D175" s="24" t="s">
+      <c r="D175" s="18" t="s">
         <v>1534</v>
       </c>
       <c r="E175" s="12" t="s">
@@ -9791,7 +9924,7 @@
       <c r="C199" t="s">
         <v>36</v>
       </c>
-      <c r="D199" s="25" t="s">
+      <c r="D199" s="19" t="s">
         <v>1552</v>
       </c>
       <c r="E199" s="12" t="s">
@@ -10284,6 +10417,9 @@
       <c r="C228" t="s">
         <v>470</v>
       </c>
+      <c r="D228" s="15" t="s">
+        <v>1577</v>
+      </c>
       <c r="E228" s="12" t="s">
         <v>1059</v>
       </c>
@@ -10298,6 +10434,9 @@
       <c r="C229" t="s">
         <v>472</v>
       </c>
+      <c r="D229" s="15" t="s">
+        <v>1578</v>
+      </c>
       <c r="E229" s="12" t="s">
         <v>1060</v>
       </c>
@@ -10312,6 +10451,9 @@
       <c r="C230" t="s">
         <v>474</v>
       </c>
+      <c r="D230" s="15" t="s">
+        <v>1579</v>
+      </c>
       <c r="E230" s="12" t="s">
         <v>1061</v>
       </c>
@@ -10326,6 +10468,9 @@
       <c r="C231" t="s">
         <v>42</v>
       </c>
+      <c r="D231" s="15" t="s">
+        <v>1580</v>
+      </c>
       <c r="E231" s="12" t="s">
         <v>1062</v>
       </c>
@@ -10340,6 +10485,9 @@
       <c r="C232" t="s">
         <v>476</v>
       </c>
+      <c r="D232" s="15" t="s">
+        <v>1581</v>
+      </c>
       <c r="E232" s="12" t="s">
         <v>1063</v>
       </c>
@@ -10354,6 +10502,9 @@
       <c r="C233" t="s">
         <v>478</v>
       </c>
+      <c r="D233" s="15" t="s">
+        <v>1582</v>
+      </c>
       <c r="E233" s="12" t="s">
         <v>1064</v>
       </c>
@@ -10368,6 +10519,9 @@
       <c r="C234" t="s">
         <v>479</v>
       </c>
+      <c r="D234" s="15" t="s">
+        <v>1583</v>
+      </c>
       <c r="E234" s="12" t="s">
         <v>1065</v>
       </c>
@@ -10382,6 +10536,9 @@
       <c r="C235" t="s">
         <v>481</v>
       </c>
+      <c r="D235" s="15" t="s">
+        <v>1584</v>
+      </c>
       <c r="E235" s="12" t="s">
         <v>1066</v>
       </c>
@@ -10396,6 +10553,9 @@
       <c r="C236" t="s">
         <v>43</v>
       </c>
+      <c r="D236" s="15" t="s">
+        <v>1585</v>
+      </c>
       <c r="E236" s="12" t="s">
         <v>1067</v>
       </c>
@@ -10442,6 +10602,9 @@
       <c r="C238" t="s">
         <v>483</v>
       </c>
+      <c r="D238" s="15" t="s">
+        <v>1586</v>
+      </c>
       <c r="E238" s="12" t="s">
         <v>1068</v>
       </c>
@@ -10456,6 +10619,9 @@
       <c r="C239" t="s">
         <v>485</v>
       </c>
+      <c r="D239" s="15" t="s">
+        <v>1587</v>
+      </c>
       <c r="E239" s="12" t="s">
         <v>1069</v>
       </c>
@@ -10470,6 +10636,9 @@
       <c r="C240" t="s">
         <v>487</v>
       </c>
+      <c r="D240" s="15" t="s">
+        <v>1588</v>
+      </c>
       <c r="E240" s="12" t="s">
         <v>1070</v>
       </c>
@@ -10484,6 +10653,9 @@
       <c r="C241" t="s">
         <v>44</v>
       </c>
+      <c r="D241" s="15" t="s">
+        <v>1589</v>
+      </c>
       <c r="E241" s="12" t="s">
         <v>1071</v>
       </c>
@@ -10498,6 +10670,9 @@
       <c r="C242" t="s">
         <v>489</v>
       </c>
+      <c r="D242" s="15" t="s">
+        <v>1590</v>
+      </c>
       <c r="E242" s="12" t="s">
         <v>1072</v>
       </c>
@@ -10512,6 +10687,9 @@
       <c r="C243" t="s">
         <v>45</v>
       </c>
+      <c r="D243" s="15" t="s">
+        <v>1591</v>
+      </c>
       <c r="E243" s="12" t="s">
         <v>1073</v>
       </c>
@@ -10526,6 +10704,9 @@
       <c r="C244" t="s">
         <v>492</v>
       </c>
+      <c r="D244" s="15" t="s">
+        <v>1592</v>
+      </c>
       <c r="E244" s="12" t="s">
         <v>1074</v>
       </c>
@@ -10540,6 +10721,9 @@
       <c r="C245" t="s">
         <v>494</v>
       </c>
+      <c r="D245" s="15" t="s">
+        <v>1593</v>
+      </c>
       <c r="E245" s="12" t="s">
         <v>1075</v>
       </c>
@@ -10554,6 +10738,9 @@
       <c r="C246" t="s">
         <v>496</v>
       </c>
+      <c r="D246" s="15" t="s">
+        <v>1594</v>
+      </c>
       <c r="E246" s="12" t="s">
         <v>1076</v>
       </c>
@@ -10568,6 +10755,9 @@
       <c r="C247" t="s">
         <v>498</v>
       </c>
+      <c r="D247" s="15" t="s">
+        <v>1595</v>
+      </c>
       <c r="E247" s="12" t="s">
         <v>1077</v>
       </c>
@@ -10582,6 +10772,9 @@
       <c r="C248" t="s">
         <v>500</v>
       </c>
+      <c r="D248" s="15" t="s">
+        <v>1596</v>
+      </c>
       <c r="E248" s="12" t="s">
         <v>1078</v>
       </c>
@@ -10596,6 +10789,9 @@
       <c r="C249" t="s">
         <v>502</v>
       </c>
+      <c r="D249" s="15" t="s">
+        <v>1597</v>
+      </c>
       <c r="E249" s="12" t="s">
         <v>1079</v>
       </c>
@@ -10610,6 +10806,9 @@
       <c r="C250" t="s">
         <v>504</v>
       </c>
+      <c r="D250" s="15" t="s">
+        <v>1598</v>
+      </c>
       <c r="E250" s="12" t="s">
         <v>1080</v>
       </c>
@@ -10624,6 +10823,9 @@
       <c r="C251" t="s">
         <v>506</v>
       </c>
+      <c r="D251" s="15" t="s">
+        <v>1599</v>
+      </c>
       <c r="E251" s="12" t="s">
         <v>1081</v>
       </c>
@@ -10637,6 +10839,9 @@
       </c>
       <c r="C252" t="s">
         <v>508</v>
+      </c>
+      <c r="D252" s="15" t="s">
+        <v>1600</v>
       </c>
       <c r="E252" s="12" t="s">
         <v>1082</v>
@@ -14571,34 +14776,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>1317</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="20" t="s">
         <v>1310</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="20" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="2" t="s">
         <v>865</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="8">

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1612">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -5873,6 +5873,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ガルナ(オワタP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ガルナ (オワタP)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5915,6 +5919,91 @@
   </si>
   <si>
     <t>赤乃わい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遼遼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capchii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TOKOTOKO(西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>さんP)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さつき が てんこもり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>うさP (WhiteFlame)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mitchie M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八王子P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavenz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗山夕璃 (蜂屋ななし)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-buna</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6486,10 +6575,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B246" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D252" sqref="D252"/>
+      <selection pane="bottomRight" activeCell="D265" sqref="D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10722,7 +10811,7 @@
         <v>494</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="E245" s="12" t="s">
         <v>1075</v>
@@ -10739,7 +10828,7 @@
         <v>496</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="E246" s="12" t="s">
         <v>1076</v>
@@ -10756,7 +10845,7 @@
         <v>498</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E247" s="12" t="s">
         <v>1077</v>
@@ -10773,7 +10862,7 @@
         <v>500</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E248" s="12" t="s">
         <v>1078</v>
@@ -10790,7 +10879,7 @@
         <v>502</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="E249" s="12" t="s">
         <v>1079</v>
@@ -10807,7 +10896,7 @@
         <v>504</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="E250" s="12" t="s">
         <v>1080</v>
@@ -10824,7 +10913,7 @@
         <v>506</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E251" s="12" t="s">
         <v>1081</v>
@@ -10841,7 +10930,7 @@
         <v>508</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="E252" s="12" t="s">
         <v>1082</v>
@@ -10857,6 +10946,9 @@
       <c r="C253" t="s">
         <v>510</v>
       </c>
+      <c r="D253" s="15" t="s">
+        <v>1602</v>
+      </c>
       <c r="E253" s="12" t="s">
         <v>1083</v>
       </c>
@@ -10871,6 +10963,9 @@
       <c r="C254" t="s">
         <v>46</v>
       </c>
+      <c r="D254" s="15" t="s">
+        <v>1603</v>
+      </c>
       <c r="E254" s="12" t="s">
         <v>1084</v>
       </c>
@@ -10885,6 +10980,9 @@
       <c r="C255" t="s">
         <v>512</v>
       </c>
+      <c r="D255" s="15" t="s">
+        <v>1599</v>
+      </c>
       <c r="E255" s="12" t="s">
         <v>1085</v>
       </c>
@@ -10914,6 +11012,9 @@
       <c r="C256" t="s">
         <v>514</v>
       </c>
+      <c r="D256" s="15" t="s">
+        <v>1604</v>
+      </c>
       <c r="E256" s="12" t="s">
         <v>1086</v>
       </c>
@@ -10928,6 +11029,9 @@
       <c r="C257" t="s">
         <v>516</v>
       </c>
+      <c r="D257" s="15" t="s">
+        <v>1605</v>
+      </c>
       <c r="E257" s="12" t="s">
         <v>1087</v>
       </c>
@@ -10942,6 +11046,9 @@
       <c r="C258" t="s">
         <v>518</v>
       </c>
+      <c r="D258" s="18" t="s">
+        <v>1606</v>
+      </c>
       <c r="E258" s="12" t="s">
         <v>1088</v>
       </c>
@@ -10956,6 +11063,9 @@
       <c r="C259" t="s">
         <v>47</v>
       </c>
+      <c r="D259" s="15" t="s">
+        <v>1607</v>
+      </c>
       <c r="E259" s="12" t="s">
         <v>1089</v>
       </c>
@@ -10970,6 +11080,9 @@
       <c r="C260" t="s">
         <v>520</v>
       </c>
+      <c r="D260" s="15" t="s">
+        <v>1608</v>
+      </c>
       <c r="E260" s="12" t="s">
         <v>1090</v>
       </c>
@@ -10984,6 +11097,9 @@
       <c r="C261" t="s">
         <v>522</v>
       </c>
+      <c r="D261" s="15" t="s">
+        <v>1609</v>
+      </c>
       <c r="E261" s="12" t="s">
         <v>1091</v>
       </c>
@@ -10998,6 +11114,9 @@
       <c r="C262" t="s">
         <v>524</v>
       </c>
+      <c r="D262" s="15" t="s">
+        <v>1593</v>
+      </c>
       <c r="E262" s="12" t="s">
         <v>1092</v>
       </c>
@@ -11012,6 +11131,9 @@
       <c r="C263" t="s">
         <v>526</v>
       </c>
+      <c r="D263" s="15" t="s">
+        <v>1610</v>
+      </c>
       <c r="E263" s="12" t="s">
         <v>1093</v>
       </c>
@@ -11025,6 +11147,9 @@
       </c>
       <c r="C264" t="s">
         <v>528</v>
+      </c>
+      <c r="D264" s="15" t="s">
+        <v>1611</v>
       </c>
       <c r="E264" s="12" t="s">
         <v>1094</v>

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YNC\Desktop\programming\_Private\proseka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0402c\Desktop\proseka Rating project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F1C865-857C-4807-8AD1-1C2092909773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="곡 데이터(출시순)" sheetId="3" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1623">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -5032,6 +5033,708 @@
   </si>
   <si>
     <r>
+      <t>ジミ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サムP</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ユリイ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カノン</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>のりぴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mothy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せきこみごはん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てにをは</t>
+  </si>
+  <si>
+    <t>Dios/シグナルP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みきとP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ピコン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosMo@暴走P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔드마크애 희망과 눈물을 더하며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasakure.UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ワンダフル☆オポチュニティ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蝶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>々</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ado × syudou </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ado × Giga, TeddyLoid &amp; DECO*27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カルロス袴田(サイゼP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きくお</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinozo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すこやか大聖堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anamanaguchi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハチ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM (samfree)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanagi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まらしぃ × 堀江晶太(kemu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twinfield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄之助</t>
+  </si>
+  <si>
+    <t>かいりきベア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>傘村ト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kanaria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くじら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ピノキオピ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mitchie M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECO*27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ユリイ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カノン (月詠み)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryo (supercell)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キタニタツヤ × はるまきごはん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れるりり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄之助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽生まゐご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かいりきベア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しゃいと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぽりふぁ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れるりり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-buna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ナユタン星人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jon-YAKITORI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和田たけあき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyanyannya (大天才P)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyanyannya (大天才P)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>YASUHIRO(康</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>寛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ナナホシ管弦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>楽団</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ponchi♪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>古川本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>舗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasakure.UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆよゆっぺ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wotaku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獅子志司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wowaka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツミキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アゴアニキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kemu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すりぃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとしずくP × やま△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40mP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うたたP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orangestar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasakure.UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyPop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>針原翼(はり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nogumi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R Sound Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shu-t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柊キライ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buzzG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れるりり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ガルナ(オワタP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ガルナ (オワタP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otetsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoneyWorks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halyosy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavenz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqu3ra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤乃わい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遼遼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capchii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TOKOTOKO(西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>さんP)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さつき が てんこもり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>うさP (WhiteFlame)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mitchie M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八王子P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavenz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗山夕璃 (蜂屋ななし)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-buna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水野あつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEVENTHLINKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CircusP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>市</t>
     </r>
     <r>
@@ -5155,34 +5858,6 @@
   </si>
   <si>
     <r>
-      <t>ジミ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>サムP</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>加賀(ネギシャワ</t>
     </r>
     <r>
@@ -5210,97 +5885,16 @@
   </si>
   <si>
     <r>
-      <t>ユリイ</t>
+      <t>TOKOTOKO(西</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="1"/>
         <charset val="129"/>
         <scheme val="minor"/>
-      </rPr>
-      <t>カノン</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>のりぴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>針原翼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(はりーP)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TOKOTOKO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>西</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="새굴림"/>
-        <family val="1"/>
-        <charset val="129"/>
       </rPr>
       <t>沢</t>
     </r>
@@ -5313,205 +5907,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>さんP</t>
+      <t>さんP)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mothy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>せきこみごはん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>てにをは</t>
-  </si>
-  <si>
-    <t>Dios/シグナルP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>みきとP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ピコン</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cosMo@暴走P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔드마크애 희망과 눈물을 더하며</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sasakure.UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>魔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ワンダフル☆オポチュニティ</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>煮ル果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>実</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>蝶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>々</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ado × syudou </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ado × Giga, TeddyLoid &amp; DECO*27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>カルロス袴田(サイゼP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>きくお</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinozo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>すこやか大聖堂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anamanaguchi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>バルーン</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ハチ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAM (samfree)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yanagi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>まらしぃ × 堀江晶太(kemu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Twinfield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雄之助</t>
-  </si>
-  <si>
-    <t>かいりきベア</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>傘村ト</t>
+      <t>バル</t>
     </r>
     <r>
       <rPr>
@@ -5533,484 +5935,58 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>タ</t>
+      <t>ン</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kanaria</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>くじら</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ピノキオピ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mitchie M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECO*27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ユリイ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>カノン (月詠み)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ryo (supercell)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>キタニタツヤ × はるまきごはん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>れるりり</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雄之助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽生まゐご</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>かいりきベア</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>しゃいと</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ぽりふぁ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>れるりり</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n-buna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ナユタン星人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jon-YAKITORI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和田たけあき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nyanyannya (大天才P)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nyanyannya (大天才P)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>YASUHIRO(康</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>寛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ナナホシ管弦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>楽団</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ponchi♪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>古川本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>舗</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sasakure.UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ゆよゆっぺ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wotaku</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ジミ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>サムP</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獅子志司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wowaka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ツミキ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>アゴアニキ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kemu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>すりぃ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ひとしずくP × やま△</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40mP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>うたたP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orangestar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sasakure.UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EasyPop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>針原翼(はり</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nogumi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R Sound Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shu-t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柊キライ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buzzG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>れるりり</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ガルナ(オワタP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ガルナ (オワタP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otetsu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HoneyWorks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>halyosy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heavenz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ピノキオピ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aqu3ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤乃わい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遼遼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capchii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TOKOTOKO(西</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>沢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>さんP)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>さつき が てんこもり</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>うさP (WhiteFlame)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mitchie M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八王子P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heavenz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栗山夕璃 (蜂屋ななし)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n-buna</t>
+    <t>南ノ南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re:nG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すこっぷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-POCKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guiano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めろくる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トラボルタ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椎名もた</t>
+  </si>
+  <si>
+    <t>椎名もた</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;APD.&quot;0"/>
   </numFmts>
@@ -6115,18 +6091,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -6159,7 +6136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6209,12 +6186,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -6568,63 +6539,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:K602"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B246" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B274" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D265" sqref="D265"/>
+      <selection pane="bottomRight" activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" customWidth="1"/>
-    <col min="4" max="4" width="35.09765625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9" style="9" customWidth="1"/>
     <col min="11" max="11" width="0" style="9" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>1312</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
       <c r="B2" s="1" t="s">
         <v>865</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="9" t="s">
         <v>97</v>
       </c>
@@ -6641,7 +6612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6673,7 +6644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6690,7 +6661,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6707,7 +6678,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6724,7 +6695,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6741,7 +6712,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6752,13 +6723,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1503</v>
+        <v>1604</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6775,7 +6746,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6792,7 +6763,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6809,7 +6780,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6826,7 +6797,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6843,7 +6814,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6860,7 +6831,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6877,7 +6848,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6888,13 +6859,13 @@
         <v>121</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6911,7 +6882,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6928,7 +6899,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6945,7 +6916,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6956,13 +6927,13 @@
         <v>129</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>1504</v>
+        <v>1605</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6973,13 +6944,13 @@
         <v>131</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1505</v>
+        <v>1606</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6996,7 +6967,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7013,7 +6984,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7030,7 +7001,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7047,7 +7018,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7064,7 +7035,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7075,13 +7046,13 @@
         <v>139</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1506</v>
+        <v>1607</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -7098,7 +7069,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -7115,7 +7086,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -7132,7 +7103,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -7149,7 +7120,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7166,7 +7137,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -7183,7 +7154,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7200,7 +7171,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -7217,7 +7188,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7234,7 +7205,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7251,7 +7222,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -7268,7 +7239,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -7285,7 +7256,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -7302,7 +7273,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -7319,7 +7290,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -7336,7 +7307,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -7353,7 +7324,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -7370,7 +7341,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -7387,7 +7358,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -7404,7 +7375,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -7421,7 +7392,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -7438,7 +7409,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -7455,7 +7426,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -7472,7 +7443,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -7489,7 +7460,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -7506,7 +7477,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -7523,7 +7494,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -7540,7 +7511,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -7557,7 +7528,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -7574,7 +7545,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -7591,7 +7562,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7602,13 +7573,13 @@
         <v>192</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>1506</v>
+        <v>1607</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7625,7 +7596,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7642,7 +7613,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7659,7 +7630,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7676,7 +7647,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7693,7 +7664,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7710,7 +7681,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7727,7 +7698,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7744,7 +7715,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7761,7 +7732,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7772,13 +7743,13 @@
         <v>208</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>1507</v>
+        <v>1608</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7795,7 +7766,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7812,7 +7783,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7829,7 +7800,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7846,7 +7817,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7863,7 +7834,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7880,7 +7851,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7897,7 +7868,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7914,7 +7885,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7931,7 +7902,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7948,7 +7919,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7965,7 +7936,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7982,7 +7953,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7999,7 +7970,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -8016,7 +7987,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -8033,7 +8004,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -8050,7 +8021,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -8067,7 +8038,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -8084,7 +8055,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -8101,7 +8072,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -8112,13 +8083,13 @@
         <v>17</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -8135,7 +8106,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -8152,7 +8123,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -8169,7 +8140,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -8186,7 +8157,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -8203,7 +8174,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -8220,7 +8191,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -8237,7 +8208,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8254,7 +8225,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8271,7 +8242,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -8288,7 +8259,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -8305,7 +8276,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -8322,7 +8293,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -8339,7 +8310,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -8356,7 +8327,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -8367,13 +8338,13 @@
         <v>263</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>1509</v>
+        <v>1609</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -8390,7 +8361,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -8407,7 +8378,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -8424,7 +8395,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -8441,7 +8412,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -8458,7 +8429,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8475,7 +8446,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -8492,7 +8463,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8509,7 +8480,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -8526,7 +8497,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8543,7 +8514,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8560,7 +8531,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8577,7 +8548,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8594,7 +8565,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8611,7 +8582,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8628,7 +8599,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8645,7 +8616,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8662,7 +8633,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8679,7 +8650,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8696,7 +8667,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8713,7 +8684,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8730,7 +8701,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8747,7 +8718,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8764,7 +8735,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8781,7 +8752,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8798,7 +8769,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8815,7 +8786,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8826,13 +8797,13 @@
         <v>311</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8849,7 +8820,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8860,13 +8831,13 @@
         <v>315</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8883,7 +8854,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8900,7 +8871,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8917,7 +8888,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8934,7 +8905,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8951,7 +8922,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8968,7 +8939,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -8985,7 +8956,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -9002,7 +8973,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -9013,13 +8984,13 @@
         <v>26</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>1512</v>
+        <v>1575</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9029,14 +9000,14 @@
       <c r="C142" t="s">
         <v>328</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="15" t="s">
         <v>1441</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9047,13 +9018,13 @@
         <v>330</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>1513</v>
+        <v>1610</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9063,14 +9034,14 @@
       <c r="C144" t="s">
         <v>332</v>
       </c>
-      <c r="D144" s="17" t="s">
-        <v>1514</v>
+      <c r="D144" s="15" t="s">
+        <v>1506</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9080,14 +9051,14 @@
       <c r="C145" t="s">
         <v>334</v>
       </c>
-      <c r="D145" s="17" t="s">
-        <v>1514</v>
+      <c r="D145" s="15" t="s">
+        <v>1506</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9097,14 +9068,14 @@
       <c r="C146" t="s">
         <v>336</v>
       </c>
-      <c r="D146" s="17" t="s">
-        <v>1514</v>
+      <c r="D146" s="15" t="s">
+        <v>1506</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9115,13 +9086,13 @@
         <v>338</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9138,7 +9109,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9155,7 +9126,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9165,14 +9136,14 @@
       <c r="C150" t="s">
         <v>344</v>
       </c>
-      <c r="D150" s="17" t="s">
+      <c r="D150" s="15" t="s">
         <v>1377</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9183,13 +9154,13 @@
         <v>346</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9200,13 +9171,13 @@
         <v>348</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9217,13 +9188,13 @@
         <v>350</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9234,30 +9205,30 @@
         <v>352</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
       <c r="C155" t="s">
         <v>353</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9268,13 +9239,13 @@
         <v>27</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9284,14 +9255,14 @@
       <c r="C157" t="s">
         <v>28</v>
       </c>
-      <c r="D157" s="18" t="s">
-        <v>1523</v>
+      <c r="D157" s="15" t="s">
+        <v>1515</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9302,13 +9273,13 @@
         <v>355</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9319,13 +9290,13 @@
         <v>357</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>1525</v>
+        <v>1475</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9336,13 +9307,13 @@
         <v>359</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -9353,13 +9324,13 @@
         <v>360</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -9370,13 +9341,13 @@
         <v>362</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -9387,13 +9358,13 @@
         <v>364</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -9404,13 +9375,13 @@
         <v>366</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -9421,13 +9392,13 @@
         <v>30</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -9444,7 +9415,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -9455,13 +9426,13 @@
         <v>368</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -9478,7 +9449,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -9495,7 +9466,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -9512,7 +9483,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -9523,13 +9494,13 @@
         <v>33</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -9546,7 +9517,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -9563,7 +9534,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -9573,14 +9544,14 @@
       <c r="C174" t="s">
         <v>379</v>
       </c>
-      <c r="D174" s="18" t="s">
-        <v>1534</v>
+      <c r="D174" s="15" t="s">
+        <v>1611</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -9590,14 +9561,14 @@
       <c r="C175" t="s">
         <v>381</v>
       </c>
-      <c r="D175" s="18" t="s">
-        <v>1534</v>
+      <c r="D175" s="15" t="s">
+        <v>1611</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -9608,13 +9579,13 @@
         <v>383</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -9625,13 +9596,13 @@
         <v>385</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -9642,13 +9613,13 @@
         <v>387</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -9659,13 +9630,13 @@
         <v>389</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -9682,7 +9653,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -9693,13 +9664,13 @@
         <v>393</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -9710,13 +9681,13 @@
         <v>394</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -9727,13 +9698,13 @@
         <v>34</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="E183" s="12" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -9744,13 +9715,13 @@
         <v>35</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="E184" s="12" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -9761,13 +9732,13 @@
         <v>396</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="E185" s="12" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -9778,13 +9749,13 @@
         <v>398</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -9795,13 +9766,13 @@
         <v>400</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="E187" s="12" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -9812,13 +9783,13 @@
         <v>402</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -9829,13 +9800,13 @@
         <v>404</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -9846,13 +9817,13 @@
         <v>406</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -9863,13 +9834,13 @@
         <v>408</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -9880,13 +9851,13 @@
         <v>410</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="E192" s="12" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -9897,13 +9868,13 @@
         <v>412</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="E193" s="12" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -9914,13 +9885,13 @@
         <v>414</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="E194" s="12" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -9931,13 +9902,13 @@
         <v>416</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -9948,13 +9919,13 @@
         <v>418</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="E196" s="12" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="197" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>195</v>
       </c>
@@ -9986,7 +9957,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -9997,13 +9968,13 @@
         <v>421</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="E198" s="12" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -10013,14 +9984,14 @@
       <c r="C199" t="s">
         <v>36</v>
       </c>
-      <c r="D199" s="19" t="s">
-        <v>1552</v>
+      <c r="D199" s="17" t="s">
+        <v>1542</v>
       </c>
       <c r="E199" s="12" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -10031,13 +10002,13 @@
         <v>423</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -10048,13 +10019,13 @@
         <v>425</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -10065,13 +10036,13 @@
         <v>427</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="E202" s="12" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -10088,7 +10059,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -10099,13 +10070,13 @@
         <v>431</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="E204" s="12" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -10116,13 +10087,13 @@
         <v>433</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="E205" s="12" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -10133,13 +10104,13 @@
         <v>435</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="E206" s="12" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -10150,13 +10121,13 @@
         <v>437</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
       <c r="E207" s="12" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -10167,13 +10138,13 @@
         <v>439</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="E208" s="12" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -10184,13 +10155,13 @@
         <v>441</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="E209" s="12" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -10201,13 +10172,13 @@
         <v>443</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="E210" s="12" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -10218,13 +10189,13 @@
         <v>445</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="E211" s="12" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -10235,13 +10206,13 @@
         <v>447</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="E212" s="12" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -10252,13 +10223,13 @@
         <v>449</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="E213" s="12" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -10269,13 +10240,13 @@
         <v>451</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="E214" s="12" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -10292,7 +10263,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -10303,13 +10274,13 @@
         <v>37</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="E216" s="12" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -10320,13 +10291,13 @@
         <v>455</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
       <c r="E217" s="12" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -10337,13 +10308,13 @@
         <v>457</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="E218" s="12" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -10354,13 +10325,13 @@
         <v>459</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="E219" s="12" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -10371,13 +10342,13 @@
         <v>38</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="E220" s="12" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -10388,13 +10359,13 @@
         <v>461</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="E221" s="12" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -10405,13 +10376,13 @@
         <v>39</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>1572</v>
+        <v>1503</v>
       </c>
       <c r="E222" s="14" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -10422,13 +10393,13 @@
         <v>463</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>1573</v>
+        <v>1562</v>
       </c>
       <c r="E223" s="12" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -10439,13 +10410,13 @@
         <v>40</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="E224" s="12" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -10456,13 +10427,13 @@
         <v>464</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
       <c r="E225" s="12" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -10473,13 +10444,13 @@
         <v>466</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="E226" s="12" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -10490,13 +10461,13 @@
         <v>468</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
       <c r="E227" s="12" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -10507,13 +10478,13 @@
         <v>470</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>1577</v>
+        <v>1566</v>
       </c>
       <c r="E228" s="12" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -10524,13 +10495,13 @@
         <v>472</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="E229" s="12" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -10541,13 +10512,13 @@
         <v>474</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
       <c r="E230" s="12" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -10558,13 +10529,13 @@
         <v>42</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
       <c r="E231" s="12" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -10575,13 +10546,13 @@
         <v>476</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="E232" s="12" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -10592,13 +10563,13 @@
         <v>478</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>1582</v>
+        <v>1571</v>
       </c>
       <c r="E233" s="12" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -10609,13 +10580,13 @@
         <v>479</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>1583</v>
+        <v>1572</v>
       </c>
       <c r="E234" s="12" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -10626,13 +10597,13 @@
         <v>481</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>1584</v>
+        <v>1573</v>
       </c>
       <c r="E235" s="12" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -10643,13 +10614,13 @@
         <v>43</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
       <c r="E236" s="12" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="237" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>235</v>
       </c>
@@ -10681,7 +10652,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -10692,13 +10663,13 @@
         <v>483</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>1586</v>
+        <v>1575</v>
       </c>
       <c r="E238" s="12" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -10709,13 +10680,13 @@
         <v>485</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="E239" s="12" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -10726,13 +10697,13 @@
         <v>487</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
       <c r="E240" s="12" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -10743,13 +10714,13 @@
         <v>44</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
       <c r="E241" s="12" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -10760,13 +10731,13 @@
         <v>489</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="E242" s="12" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -10777,13 +10748,13 @@
         <v>45</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="E243" s="12" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -10794,13 +10765,13 @@
         <v>492</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="E244" s="12" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -10811,13 +10782,13 @@
         <v>494</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
       <c r="E245" s="12" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -10828,13 +10799,13 @@
         <v>496</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="E246" s="12" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -10845,13 +10816,13 @@
         <v>498</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>1596</v>
+        <v>1585</v>
       </c>
       <c r="E247" s="12" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -10862,13 +10833,13 @@
         <v>500</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>1597</v>
+        <v>1586</v>
       </c>
       <c r="E248" s="12" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -10879,13 +10850,13 @@
         <v>502</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="E249" s="12" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -10896,13 +10867,13 @@
         <v>504</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>1599</v>
+        <v>1535</v>
       </c>
       <c r="E250" s="12" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -10913,13 +10884,13 @@
         <v>506</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="E251" s="12" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -10930,13 +10901,13 @@
         <v>508</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="E252" s="12" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -10947,13 +10918,13 @@
         <v>510</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="E253" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -10964,13 +10935,13 @@
         <v>46</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="E254" s="12" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -10981,7 +10952,7 @@
         <v>512</v>
       </c>
       <c r="D255" s="15" t="s">
-        <v>1599</v>
+        <v>1535</v>
       </c>
       <c r="E255" s="12" t="s">
         <v>1085</v>
@@ -11002,7 +10973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -11013,13 +10984,13 @@
         <v>514</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -11030,13 +11001,13 @@
         <v>516</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
       <c r="E257" s="12" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -11046,14 +11017,14 @@
       <c r="C258" t="s">
         <v>518</v>
       </c>
-      <c r="D258" s="18" t="s">
-        <v>1606</v>
+      <c r="D258" s="15" t="s">
+        <v>1594</v>
       </c>
       <c r="E258" s="12" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -11064,13 +11035,13 @@
         <v>47</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>1607</v>
+        <v>1595</v>
       </c>
       <c r="E259" s="12" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
@@ -11081,13 +11052,13 @@
         <v>520</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="E260" s="12" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -11098,13 +11069,13 @@
         <v>522</v>
       </c>
       <c r="D261" s="15" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
       <c r="E261" s="12" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -11115,13 +11086,13 @@
         <v>524</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
       <c r="E262" s="12" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -11132,13 +11103,13 @@
         <v>526</v>
       </c>
       <c r="D263" s="15" t="s">
-        <v>1610</v>
+        <v>1598</v>
       </c>
       <c r="E263" s="12" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -11149,13 +11120,13 @@
         <v>528</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="E264" s="12" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
@@ -11165,11 +11136,14 @@
       <c r="C265" t="s">
         <v>530</v>
       </c>
+      <c r="D265" s="15" t="s">
+        <v>1600</v>
+      </c>
       <c r="E265" s="12" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -11179,11 +11153,14 @@
       <c r="C266" t="s">
         <v>48</v>
       </c>
+      <c r="D266" s="15" t="s">
+        <v>1374</v>
+      </c>
       <c r="E266" s="12" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -11193,11 +11170,14 @@
       <c r="C267" t="s">
         <v>49</v>
       </c>
+      <c r="D267" s="15" t="s">
+        <v>1601</v>
+      </c>
       <c r="E267" s="12" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -11207,11 +11187,14 @@
       <c r="C268" t="s">
         <v>50</v>
       </c>
+      <c r="D268" s="15" t="s">
+        <v>1602</v>
+      </c>
       <c r="E268" s="12" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
@@ -11221,11 +11204,14 @@
       <c r="C269" t="s">
         <v>51</v>
       </c>
+      <c r="D269" s="15" t="s">
+        <v>1426</v>
+      </c>
       <c r="E269" s="12" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
@@ -11235,6 +11221,9 @@
       <c r="C270" t="s">
         <v>532</v>
       </c>
+      <c r="D270" s="15" t="s">
+        <v>1612</v>
+      </c>
       <c r="E270" s="12" t="s">
         <v>1100</v>
       </c>
@@ -11254,7 +11243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
@@ -11264,11 +11253,14 @@
       <c r="C271" t="s">
         <v>534</v>
       </c>
+      <c r="D271" s="15" t="s">
+        <v>1603</v>
+      </c>
       <c r="E271" s="12" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -11278,11 +11270,14 @@
       <c r="C272" t="s">
         <v>52</v>
       </c>
+      <c r="D272" s="15" t="s">
+        <v>1602</v>
+      </c>
       <c r="E272" s="12" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -11292,11 +11287,14 @@
       <c r="C273" t="s">
         <v>536</v>
       </c>
+      <c r="D273" s="15" t="s">
+        <v>1613</v>
+      </c>
       <c r="E273" s="12" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -11306,11 +11304,14 @@
       <c r="C274" t="s">
         <v>538</v>
       </c>
+      <c r="D274" s="15" t="s">
+        <v>1614</v>
+      </c>
       <c r="E274" s="12" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -11320,11 +11321,14 @@
       <c r="C275" s="4">
         <v>1925</v>
       </c>
+      <c r="D275" s="15" t="s">
+        <v>1615</v>
+      </c>
       <c r="E275" s="12" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -11334,11 +11338,14 @@
       <c r="C276" t="s">
         <v>540</v>
       </c>
+      <c r="D276" s="15" t="s">
+        <v>1616</v>
+      </c>
       <c r="E276" s="12" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -11348,11 +11355,14 @@
       <c r="C277" t="s">
         <v>542</v>
       </c>
+      <c r="D277" s="15" t="s">
+        <v>1617</v>
+      </c>
       <c r="E277" s="12" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
@@ -11362,11 +11372,14 @@
       <c r="C278" t="s">
         <v>53</v>
       </c>
+      <c r="D278" s="15" t="s">
+        <v>1618</v>
+      </c>
       <c r="E278" s="12" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
@@ -11376,11 +11389,14 @@
       <c r="C279" t="s">
         <v>54</v>
       </c>
+      <c r="D279" s="15" t="s">
+        <v>1619</v>
+      </c>
       <c r="E279" s="12" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
@@ -11390,11 +11406,14 @@
       <c r="C280" t="s">
         <v>544</v>
       </c>
+      <c r="D280" s="15" t="s">
+        <v>1620</v>
+      </c>
       <c r="E280" s="12" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
@@ -11404,11 +11423,14 @@
       <c r="C281" t="s">
         <v>546</v>
       </c>
+      <c r="D281" s="15" t="s">
+        <v>1622</v>
+      </c>
       <c r="E281" s="12" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
@@ -11418,11 +11440,14 @@
       <c r="C282" t="s">
         <v>548</v>
       </c>
+      <c r="D282" s="15" t="s">
+        <v>1621</v>
+      </c>
       <c r="E282" s="12" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
@@ -11436,7 +11461,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
@@ -11450,7 +11475,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
@@ -11464,7 +11489,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
@@ -11478,7 +11503,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
@@ -11492,7 +11517,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
@@ -11506,7 +11531,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>287</v>
       </c>
@@ -11520,7 +11545,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>288</v>
       </c>
@@ -11534,7 +11559,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>289</v>
       </c>
@@ -11548,7 +11573,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>290</v>
       </c>
@@ -11562,7 +11587,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>291</v>
       </c>
@@ -11576,7 +11601,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
@@ -11590,7 +11615,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
@@ -11604,7 +11629,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>294</v>
       </c>
@@ -11618,7 +11643,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
@@ -11632,7 +11657,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
@@ -11646,7 +11671,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>297</v>
       </c>
@@ -11660,7 +11685,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>298</v>
       </c>
@@ -11674,7 +11699,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>299</v>
       </c>
@@ -11688,7 +11713,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>300</v>
       </c>
@@ -11702,7 +11727,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>301</v>
       </c>
@@ -11716,7 +11741,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>302</v>
       </c>
@@ -11730,7 +11755,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>303</v>
       </c>
@@ -11744,7 +11769,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>304</v>
       </c>
@@ -11758,7 +11783,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>305</v>
       </c>
@@ -11772,7 +11797,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>306</v>
       </c>
@@ -11786,7 +11811,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>307</v>
       </c>
@@ -11800,7 +11825,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>308</v>
       </c>
@@ -11814,7 +11839,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>309</v>
       </c>
@@ -11828,7 +11853,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>310</v>
       </c>
@@ -11842,7 +11867,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>311</v>
       </c>
@@ -11856,7 +11881,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>312</v>
       </c>
@@ -11870,7 +11895,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>313</v>
       </c>
@@ -11884,7 +11909,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>314</v>
       </c>
@@ -11898,7 +11923,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>315</v>
       </c>
@@ -11912,7 +11937,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>316</v>
       </c>
@@ -11926,7 +11951,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>317</v>
       </c>
@@ -11940,7 +11965,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
@@ -11954,7 +11979,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>319</v>
       </c>
@@ -11968,7 +11993,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>320</v>
       </c>
@@ -11982,7 +12007,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>321</v>
       </c>
@@ -11996,7 +12021,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>322</v>
       </c>
@@ -12010,7 +12035,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>323</v>
       </c>
@@ -12024,7 +12049,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
@@ -12038,7 +12063,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>325</v>
       </c>
@@ -12052,7 +12077,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>326</v>
       </c>
@@ -12066,7 +12091,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>327</v>
       </c>
@@ -12080,7 +12105,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>328</v>
       </c>
@@ -12094,7 +12119,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>329</v>
       </c>
@@ -12108,7 +12133,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>330</v>
       </c>
@@ -12122,7 +12147,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>331</v>
       </c>
@@ -12136,7 +12161,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>332</v>
       </c>
@@ -12150,7 +12175,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>333</v>
       </c>
@@ -12164,7 +12189,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>334</v>
       </c>
@@ -12178,7 +12203,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>335</v>
       </c>
@@ -12192,7 +12217,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>336</v>
       </c>
@@ -12206,7 +12231,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>337</v>
       </c>
@@ -12220,7 +12245,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>338</v>
       </c>
@@ -12234,7 +12259,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>339</v>
       </c>
@@ -12248,7 +12273,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>340</v>
       </c>
@@ -12262,7 +12287,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>341</v>
       </c>
@@ -12276,7 +12301,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>342</v>
       </c>
@@ -12290,7 +12315,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>343</v>
       </c>
@@ -12304,7 +12329,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>344</v>
       </c>
@@ -12318,7 +12343,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>345</v>
       </c>
@@ -12332,7 +12357,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>346</v>
       </c>
@@ -12346,7 +12371,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>347</v>
       </c>
@@ -12360,7 +12385,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>348</v>
       </c>
@@ -12374,7 +12399,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>349</v>
       </c>
@@ -12388,7 +12413,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>350</v>
       </c>
@@ -12402,7 +12427,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>351</v>
       </c>
@@ -12416,7 +12441,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>352</v>
       </c>
@@ -12430,7 +12455,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>353</v>
       </c>
@@ -12444,7 +12469,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>354</v>
       </c>
@@ -12458,7 +12483,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>355</v>
       </c>
@@ -12472,7 +12497,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>356</v>
       </c>
@@ -12486,7 +12511,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>357</v>
       </c>
@@ -12500,7 +12525,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>358</v>
       </c>
@@ -12514,7 +12539,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>359</v>
       </c>
@@ -12528,7 +12553,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>360</v>
       </c>
@@ -12542,7 +12567,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>361</v>
       </c>
@@ -12556,7 +12581,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>362</v>
       </c>
@@ -12570,7 +12595,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>363</v>
       </c>
@@ -12584,7 +12609,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>364</v>
       </c>
@@ -12598,7 +12623,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>365</v>
       </c>
@@ -12612,7 +12637,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>366</v>
       </c>
@@ -12626,7 +12651,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>367</v>
       </c>
@@ -12640,7 +12665,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>368</v>
       </c>
@@ -12654,7 +12679,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>369</v>
       </c>
@@ -12668,7 +12693,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>370</v>
       </c>
@@ -12682,7 +12707,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>371</v>
       </c>
@@ -12696,7 +12721,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>372</v>
       </c>
@@ -12710,7 +12735,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>373</v>
       </c>
@@ -12724,7 +12749,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>374</v>
       </c>
@@ -12738,7 +12763,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
@@ -12752,7 +12777,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>376</v>
       </c>
@@ -12766,7 +12791,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>377</v>
       </c>
@@ -12780,7 +12805,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>378</v>
       </c>
@@ -12794,7 +12819,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>379</v>
       </c>
@@ -12808,7 +12833,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>380</v>
       </c>
@@ -12822,7 +12847,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>381</v>
       </c>
@@ -12836,7 +12861,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>382</v>
       </c>
@@ -12850,7 +12875,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>383</v>
       </c>
@@ -12864,7 +12889,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>384</v>
       </c>
@@ -12878,7 +12903,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>385</v>
       </c>
@@ -12892,7 +12917,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>386</v>
       </c>
@@ -12906,7 +12931,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>387</v>
       </c>
@@ -12920,7 +12945,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>388</v>
       </c>
@@ -12934,7 +12959,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>389</v>
       </c>
@@ -12948,7 +12973,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>390</v>
       </c>
@@ -12962,7 +12987,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>391</v>
       </c>
@@ -12976,7 +13001,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>392</v>
       </c>
@@ -12990,7 +13015,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>393</v>
       </c>
@@ -13004,7 +13029,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>394</v>
       </c>
@@ -13018,7 +13043,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>395</v>
       </c>
@@ -13032,7 +13057,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>396</v>
       </c>
@@ -13046,7 +13071,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>397</v>
       </c>
@@ -13060,7 +13085,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>398</v>
       </c>
@@ -13074,7 +13099,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>399</v>
       </c>
@@ -13088,7 +13113,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>400</v>
       </c>
@@ -13102,7 +13127,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>401</v>
       </c>
@@ -13116,7 +13141,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>402</v>
       </c>
@@ -13130,7 +13155,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>403</v>
       </c>
@@ -13144,7 +13169,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>404</v>
       </c>
@@ -13158,7 +13183,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>405</v>
       </c>
@@ -13172,7 +13197,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>406</v>
       </c>
@@ -13186,7 +13211,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>407</v>
       </c>
@@ -13200,7 +13225,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>408</v>
       </c>
@@ -13214,7 +13239,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>409</v>
       </c>
@@ -13228,7 +13253,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>410</v>
       </c>
@@ -13242,7 +13267,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>411</v>
       </c>
@@ -13256,7 +13281,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>412</v>
       </c>
@@ -13270,7 +13295,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>413</v>
       </c>
@@ -13284,7 +13309,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>414</v>
       </c>
@@ -13298,7 +13323,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>415</v>
       </c>
@@ -13312,7 +13337,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>416</v>
       </c>
@@ -13326,7 +13351,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>417</v>
       </c>
@@ -13340,7 +13365,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>418</v>
       </c>
@@ -13354,7 +13379,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>419</v>
       </c>
@@ -13368,7 +13393,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>420</v>
       </c>
@@ -13382,7 +13407,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>421</v>
       </c>
@@ -13396,7 +13421,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>422</v>
       </c>
@@ -13410,7 +13435,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>423</v>
       </c>
@@ -13424,7 +13449,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>424</v>
       </c>
@@ -13438,7 +13463,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>425</v>
       </c>
@@ -13452,7 +13477,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>426</v>
       </c>
@@ -13466,7 +13491,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>427</v>
       </c>
@@ -13480,7 +13505,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>428</v>
       </c>
@@ -13494,7 +13519,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>429</v>
       </c>
@@ -13508,7 +13533,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>430</v>
       </c>
@@ -13522,7 +13547,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>431</v>
       </c>
@@ -13536,7 +13561,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>432</v>
       </c>
@@ -13550,7 +13575,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>433</v>
       </c>
@@ -13564,7 +13589,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>434</v>
       </c>
@@ -13578,7 +13603,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>435</v>
       </c>
@@ -13592,7 +13617,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>436</v>
       </c>
@@ -13606,7 +13631,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>437</v>
       </c>
@@ -13620,7 +13645,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>438</v>
       </c>
@@ -13634,7 +13659,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>439</v>
       </c>
@@ -13648,7 +13673,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>440</v>
       </c>
@@ -13662,7 +13687,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>441</v>
       </c>
@@ -13676,7 +13701,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>442</v>
       </c>
@@ -13690,7 +13715,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>443</v>
       </c>
@@ -13704,7 +13729,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>444</v>
       </c>
@@ -13718,7 +13743,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>445</v>
       </c>
@@ -13732,7 +13757,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>446</v>
       </c>
@@ -13746,7 +13771,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>447</v>
       </c>
@@ -13760,7 +13785,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>448</v>
       </c>
@@ -13774,7 +13799,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>449</v>
       </c>
@@ -13788,7 +13813,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>450</v>
       </c>
@@ -13802,7 +13827,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>451</v>
       </c>
@@ -13816,7 +13841,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>452</v>
       </c>
@@ -13830,7 +13855,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>453</v>
       </c>
@@ -13844,7 +13869,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>454</v>
       </c>
@@ -13858,7 +13883,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>455</v>
       </c>
@@ -13872,7 +13897,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>456</v>
       </c>
@@ -13886,7 +13911,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>457</v>
       </c>
@@ -13900,7 +13925,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>458</v>
       </c>
@@ -13914,7 +13939,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>459</v>
       </c>
@@ -13928,7 +13953,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>460</v>
       </c>
@@ -13942,7 +13967,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>461</v>
       </c>
@@ -13956,7 +13981,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>462</v>
       </c>
@@ -13970,7 +13995,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>463</v>
       </c>
@@ -13984,7 +14009,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>464</v>
       </c>
@@ -13998,7 +14023,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>465</v>
       </c>
@@ -14012,7 +14037,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>466</v>
       </c>
@@ -14026,7 +14051,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>467</v>
       </c>
@@ -14040,7 +14065,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>468</v>
       </c>
@@ -14054,7 +14079,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>469</v>
       </c>
@@ -14068,7 +14093,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>470</v>
       </c>
@@ -14082,7 +14107,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>471</v>
       </c>
@@ -14096,7 +14121,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>472</v>
       </c>
@@ -14110,7 +14135,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>473</v>
       </c>
@@ -14124,7 +14149,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>474</v>
       </c>
@@ -14138,7 +14163,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>475</v>
       </c>
@@ -14152,7 +14177,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>476</v>
       </c>
@@ -14166,7 +14191,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>477</v>
       </c>
@@ -14183,7 +14208,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>478</v>
       </c>
@@ -14212,7 +14237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>479</v>
       </c>
@@ -14229,7 +14254,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>480</v>
       </c>
@@ -14246,7 +14271,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>481</v>
       </c>
@@ -14263,597 +14288,597 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>600</v>
       </c>
@@ -14881,56 +14906,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="9" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
     <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="22" t="s">
         <v>1317</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>1310</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="25"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="23"/>
       <c r="C2" s="2" t="s">
         <v>865</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -14941,7 +14966,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -14952,7 +14977,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -14963,7 +14988,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -14974,7 +14999,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -14985,7 +15010,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -14996,7 +15021,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -15007,7 +15032,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -15018,7 +15043,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -15029,7 +15054,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -15040,7 +15065,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -15051,7 +15076,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -15062,7 +15087,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -15082,7 +15107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -15093,7 +15118,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -15104,7 +15129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -15112,7 +15137,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -15120,7 +15145,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -15128,7 +15153,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -15136,7 +15161,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -15144,7 +15169,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -15152,7 +15177,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -15160,7 +15185,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -15168,7 +15193,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -15176,7 +15201,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -15184,7 +15209,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -15192,7 +15217,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -15200,7 +15225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -15208,7 +15233,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -15216,7 +15241,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -15224,7 +15249,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -15232,7 +15257,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="8">
         <v>32</v>
       </c>
@@ -15240,7 +15265,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="8">
         <v>33</v>
       </c>
@@ -15248,7 +15273,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="8">
         <v>34</v>
       </c>
@@ -15256,7 +15281,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
         <v>35</v>
       </c>
@@ -15264,7 +15289,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="8">
         <v>36</v>
       </c>
@@ -15272,7 +15297,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="8">
         <v>37</v>
       </c>
@@ -15280,7 +15305,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="8">
         <v>38</v>
       </c>
@@ -15288,7 +15313,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="8">
         <v>39</v>
       </c>
@@ -15296,7 +15321,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="8">
         <v>40</v>
       </c>
@@ -15307,7 +15332,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="8">
         <v>41</v>
       </c>
@@ -15318,7 +15343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="8">
         <v>42</v>
       </c>
@@ -15329,7 +15354,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="8">
         <v>43</v>
       </c>
@@ -15337,7 +15362,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="8">
         <v>44</v>
       </c>
@@ -15345,7 +15370,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="8">
         <v>45</v>
       </c>
@@ -15353,7 +15378,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="8">
         <v>46</v>
       </c>
@@ -15361,7 +15386,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="8">
         <v>47</v>
       </c>
@@ -15369,7 +15394,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="8">
         <v>48</v>
       </c>
@@ -15377,7 +15402,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="8">
         <v>49</v>
       </c>
@@ -15385,7 +15410,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="8">
         <v>50</v>
       </c>
@@ -15393,7 +15418,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="8">
         <v>51</v>
       </c>
@@ -15401,7 +15426,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="8">
         <v>52</v>
       </c>
@@ -15409,7 +15434,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="8">
         <v>53</v>
       </c>
@@ -15417,7 +15442,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="8">
         <v>54</v>
       </c>
@@ -15425,7 +15450,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="8">
         <v>55</v>
       </c>
@@ -15433,7 +15458,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="8">
         <v>56</v>
       </c>
@@ -15441,7 +15466,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="8">
         <v>57</v>
       </c>
@@ -15449,7 +15474,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="8">
         <v>58</v>
       </c>
@@ -15460,7 +15485,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="8">
         <v>59</v>
       </c>
@@ -15468,7 +15493,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="8">
         <v>60</v>
       </c>
@@ -15476,7 +15501,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="8">
         <v>61</v>
       </c>
@@ -15484,7 +15509,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="8">
         <v>62</v>
       </c>
@@ -15492,7 +15517,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="8">
         <v>63</v>
       </c>
@@ -15500,7 +15525,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="8">
         <v>64</v>
       </c>
@@ -15508,7 +15533,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="8">
         <v>65</v>
       </c>
@@ -15516,7 +15541,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="8">
         <v>66</v>
       </c>
@@ -15524,172 +15549,172 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="8">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="8">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="8">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="8">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="8">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="8">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="8">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="8">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="8">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="8">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="8">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="8">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="8">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="8">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="8">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="8">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="8">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="8">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="8">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="8">
         <v>100</v>
       </c>

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0402c\Desktop\proseka Rating project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YNC\Desktop\programming\_Private\proseka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F1C865-857C-4807-8AD1-1C2092909773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="곡 데이터(출시순)" sheetId="3" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1684">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -5982,15 +5981,376 @@
     <t>椎名もた</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>椎名もた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosMo@暴走P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TOKOTOKO (西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>さんP)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasakure.UK × DECO*27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひとしずくP × やま△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大沼パセリ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐藤原材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KIRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Luna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てにをは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和田たけあき(くらげP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キノシタ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIVELA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クワガタP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLAVE.V-V-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうゆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やいり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>シアン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>キノ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ギガ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獅子志司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬゆり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いよわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツミキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mothy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mothy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGHEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Note.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wotaku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adeliae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八王子P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koyori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcmstyle(アンメルツP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misumi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きさら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoneyWorks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keeno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hylen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いよわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ジミ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サムP</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪乃イト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40mP × 一二三 (12340mP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARETU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dixie Flatline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>島ゆろ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まらしぃ × じん × 堀江晶太(kemu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なみぐる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rulmry.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柊マグネタイト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ライブP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蝶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>々</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECO*27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ayase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サツキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のぼる↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無力P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halyosy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;APD.&quot;0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6099,14 +6459,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6136,7 +6488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6208,6 +6560,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6539,32 +6894,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:K602"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B274" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C341" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D283" sqref="D283"/>
+      <selection pane="bottomRight" activeCell="D353" sqref="D353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="35.75" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.09765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="9" style="9" customWidth="1"/>
     <col min="11" max="11" width="0" style="9" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>1312</v>
       </c>
@@ -6586,7 +6941,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="19"/>
       <c r="B2" s="1" t="s">
         <v>865</v>
@@ -6612,7 +6967,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6644,7 +6999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6661,7 +7016,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6678,7 +7033,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6695,7 +7050,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6712,7 +7067,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6729,7 +7084,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6746,7 +7101,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6763,7 +7118,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6780,7 +7135,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6797,7 +7152,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6814,7 +7169,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6831,7 +7186,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6848,7 +7203,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6865,7 +7220,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6882,7 +7237,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6899,7 +7254,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6916,7 +7271,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6933,7 +7288,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6950,7 +7305,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6967,7 +7322,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6984,7 +7339,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7001,7 +7356,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7018,7 +7373,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7035,7 +7390,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7052,7 +7407,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -7069,7 +7424,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -7086,7 +7441,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -7103,7 +7458,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -7120,7 +7475,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7137,7 +7492,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -7154,7 +7509,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7171,7 +7526,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -7188,7 +7543,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7205,7 +7560,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7222,7 +7577,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -7239,7 +7594,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -7256,7 +7611,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -7273,7 +7628,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -7290,7 +7645,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -7307,7 +7662,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -7324,7 +7679,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -7341,7 +7696,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -7358,7 +7713,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -7375,7 +7730,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -7392,7 +7747,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -7409,7 +7764,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -7426,7 +7781,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -7443,7 +7798,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -7460,7 +7815,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -7477,7 +7832,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -7494,7 +7849,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -7511,7 +7866,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -7528,7 +7883,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -7545,7 +7900,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
@@ -7562,7 +7917,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7579,7 +7934,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7596,7 +7951,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7613,7 +7968,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7630,7 +7985,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7647,7 +8002,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7664,7 +8019,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7681,7 +8036,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7698,7 +8053,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7715,7 +8070,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7732,7 +8087,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7749,7 +8104,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7766,7 +8121,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7783,7 +8138,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7800,7 +8155,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7817,7 +8172,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7834,7 +8189,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7851,7 +8206,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7868,7 +8223,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7885,7 +8240,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7902,7 +8257,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7919,7 +8274,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7936,7 +8291,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7953,7 +8308,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7970,7 +8325,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7987,7 +8342,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
@@ -8004,7 +8359,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
@@ -8021,7 +8376,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
@@ -8038,7 +8393,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
@@ -8055,7 +8410,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
@@ -8072,7 +8427,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>86</v>
       </c>
@@ -8089,7 +8444,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
@@ -8106,7 +8461,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>88</v>
       </c>
@@ -8123,7 +8478,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
@@ -8140,7 +8495,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>90</v>
       </c>
@@ -8157,7 +8512,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>91</v>
       </c>
@@ -8174,7 +8529,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
@@ -8191,7 +8546,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>93</v>
       </c>
@@ -8208,7 +8563,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8225,7 +8580,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8242,7 +8597,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>96</v>
       </c>
@@ -8259,7 +8614,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>97</v>
       </c>
@@ -8276,7 +8631,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>98</v>
       </c>
@@ -8293,7 +8648,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>99</v>
       </c>
@@ -8310,7 +8665,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>100</v>
       </c>
@@ -8327,7 +8682,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>101</v>
       </c>
@@ -8344,7 +8699,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>102</v>
       </c>
@@ -8361,7 +8716,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>103</v>
       </c>
@@ -8378,7 +8733,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>104</v>
       </c>
@@ -8395,7 +8750,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>105</v>
       </c>
@@ -8412,7 +8767,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>106</v>
       </c>
@@ -8429,7 +8784,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8446,7 +8801,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>108</v>
       </c>
@@ -8463,7 +8818,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8480,7 +8835,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>110</v>
       </c>
@@ -8497,7 +8852,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8514,7 +8869,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8531,7 +8886,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8548,7 +8903,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8565,7 +8920,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8582,7 +8937,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8599,7 +8954,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8616,7 +8971,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8633,7 +8988,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8650,7 +9005,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8667,7 +9022,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8684,7 +9039,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8701,7 +9056,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8718,7 +9073,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8735,7 +9090,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8752,7 +9107,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8769,7 +9124,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8786,7 +9141,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8803,7 +9158,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8820,7 +9175,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8837,7 +9192,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8854,7 +9209,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8871,7 +9226,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8888,7 +9243,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8905,7 +9260,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8922,7 +9277,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8939,7 +9294,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>137</v>
       </c>
@@ -8956,7 +9311,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>138</v>
       </c>
@@ -8973,7 +9328,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>139</v>
       </c>
@@ -8990,7 +9345,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9007,7 +9362,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9024,7 +9379,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9041,7 +9396,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9058,7 +9413,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9075,7 +9430,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9092,7 +9447,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9109,7 +9464,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9126,7 +9481,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9143,7 +9498,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9160,7 +9515,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9177,7 +9532,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9194,7 +9549,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9211,7 +9566,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9228,7 +9583,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9245,7 +9600,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9262,7 +9617,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9279,7 +9634,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9296,7 +9651,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9313,7 +9668,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>159</v>
       </c>
@@ -9330,7 +9685,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>160</v>
       </c>
@@ -9347,7 +9702,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>161</v>
       </c>
@@ -9364,7 +9719,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>162</v>
       </c>
@@ -9381,7 +9736,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>163</v>
       </c>
@@ -9398,7 +9753,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>164</v>
       </c>
@@ -9415,7 +9770,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>165</v>
       </c>
@@ -9432,7 +9787,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>166</v>
       </c>
@@ -9449,7 +9804,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>167</v>
       </c>
@@ -9466,7 +9821,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>168</v>
       </c>
@@ -9483,7 +9838,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>169</v>
       </c>
@@ -9500,7 +9855,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>170</v>
       </c>
@@ -9517,7 +9872,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>171</v>
       </c>
@@ -9534,7 +9889,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>172</v>
       </c>
@@ -9551,7 +9906,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>173</v>
       </c>
@@ -9568,7 +9923,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>174</v>
       </c>
@@ -9585,7 +9940,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>175</v>
       </c>
@@ -9602,7 +9957,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>176</v>
       </c>
@@ -9619,7 +9974,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>177</v>
       </c>
@@ -9636,7 +9991,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>178</v>
       </c>
@@ -9653,7 +10008,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>179</v>
       </c>
@@ -9670,7 +10025,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>180</v>
       </c>
@@ -9687,7 +10042,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>181</v>
       </c>
@@ -9704,7 +10059,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>182</v>
       </c>
@@ -9721,7 +10076,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>183</v>
       </c>
@@ -9738,7 +10093,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>184</v>
       </c>
@@ -9755,7 +10110,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>185</v>
       </c>
@@ -9772,7 +10127,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>186</v>
       </c>
@@ -9789,7 +10144,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>187</v>
       </c>
@@ -9806,7 +10161,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>188</v>
       </c>
@@ -9823,7 +10178,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>189</v>
       </c>
@@ -9840,7 +10195,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>190</v>
       </c>
@@ -9857,7 +10212,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>191</v>
       </c>
@@ -9874,7 +10229,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>192</v>
       </c>
@@ -9891,7 +10246,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>193</v>
       </c>
@@ -9908,7 +10263,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>194</v>
       </c>
@@ -9925,7 +10280,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="197" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A197" s="6">
         <v>195</v>
       </c>
@@ -9957,7 +10312,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>196</v>
       </c>
@@ -9974,7 +10329,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>197</v>
       </c>
@@ -9991,7 +10346,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>198</v>
       </c>
@@ -10008,7 +10363,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>199</v>
       </c>
@@ -10025,7 +10380,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>200</v>
       </c>
@@ -10042,7 +10397,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>201</v>
       </c>
@@ -10059,7 +10414,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>202</v>
       </c>
@@ -10076,7 +10431,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>203</v>
       </c>
@@ -10093,7 +10448,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>204</v>
       </c>
@@ -10110,7 +10465,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>205</v>
       </c>
@@ -10127,7 +10482,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>206</v>
       </c>
@@ -10144,7 +10499,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>207</v>
       </c>
@@ -10161,7 +10516,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>208</v>
       </c>
@@ -10178,7 +10533,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>209</v>
       </c>
@@ -10195,7 +10550,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>210</v>
       </c>
@@ -10212,7 +10567,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>211</v>
       </c>
@@ -10229,7 +10584,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>212</v>
       </c>
@@ -10246,7 +10601,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>213</v>
       </c>
@@ -10263,7 +10618,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>214</v>
       </c>
@@ -10280,7 +10635,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>215</v>
       </c>
@@ -10297,7 +10652,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>216</v>
       </c>
@@ -10314,7 +10669,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>217</v>
       </c>
@@ -10331,7 +10686,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>218</v>
       </c>
@@ -10348,7 +10703,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>219</v>
       </c>
@@ -10365,7 +10720,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>220</v>
       </c>
@@ -10382,7 +10737,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>221</v>
       </c>
@@ -10399,7 +10754,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>222</v>
       </c>
@@ -10416,7 +10771,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>223</v>
       </c>
@@ -10433,7 +10788,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>224</v>
       </c>
@@ -10450,7 +10805,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>225</v>
       </c>
@@ -10467,7 +10822,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>226</v>
       </c>
@@ -10484,7 +10839,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>227</v>
       </c>
@@ -10501,7 +10856,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>228</v>
       </c>
@@ -10518,7 +10873,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>229</v>
       </c>
@@ -10535,7 +10890,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>230</v>
       </c>
@@ -10552,7 +10907,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>231</v>
       </c>
@@ -10569,7 +10924,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>232</v>
       </c>
@@ -10586,7 +10941,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>233</v>
       </c>
@@ -10603,7 +10958,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>234</v>
       </c>
@@ -10620,7 +10975,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="237" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A237" s="6">
         <v>235</v>
       </c>
@@ -10652,7 +11007,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>236</v>
       </c>
@@ -10669,7 +11024,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>237</v>
       </c>
@@ -10686,7 +11041,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>238</v>
       </c>
@@ -10703,7 +11058,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>239</v>
       </c>
@@ -10720,7 +11075,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>240</v>
       </c>
@@ -10737,7 +11092,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>241</v>
       </c>
@@ -10754,7 +11109,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>242</v>
       </c>
@@ -10771,7 +11126,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>243</v>
       </c>
@@ -10788,7 +11143,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>244</v>
       </c>
@@ -10805,7 +11160,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>245</v>
       </c>
@@ -10822,7 +11177,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>246</v>
       </c>
@@ -10839,7 +11194,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>247</v>
       </c>
@@ -10856,7 +11211,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>248</v>
       </c>
@@ -10873,7 +11228,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>249</v>
       </c>
@@ -10890,7 +11245,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>250</v>
       </c>
@@ -10907,7 +11262,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>251</v>
       </c>
@@ -10924,7 +11279,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>252</v>
       </c>
@@ -10941,7 +11296,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>253</v>
       </c>
@@ -10973,7 +11328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>254</v>
       </c>
@@ -10990,7 +11345,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>255</v>
       </c>
@@ -11007,7 +11362,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>256</v>
       </c>
@@ -11024,7 +11379,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>257</v>
       </c>
@@ -11041,7 +11396,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>258</v>
       </c>
@@ -11058,7 +11413,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>259</v>
       </c>
@@ -11075,7 +11430,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>260</v>
       </c>
@@ -11092,7 +11447,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>261</v>
       </c>
@@ -11109,7 +11464,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>262</v>
       </c>
@@ -11126,7 +11481,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>263</v>
       </c>
@@ -11143,7 +11498,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>264</v>
       </c>
@@ -11160,7 +11515,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>265</v>
       </c>
@@ -11177,7 +11532,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>266</v>
       </c>
@@ -11194,7 +11549,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>267</v>
       </c>
@@ -11211,7 +11566,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>268</v>
       </c>
@@ -11243,7 +11598,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>269</v>
       </c>
@@ -11260,7 +11615,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>270</v>
       </c>
@@ -11277,7 +11632,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>271</v>
       </c>
@@ -11294,7 +11649,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>272</v>
       </c>
@@ -11311,7 +11666,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>273</v>
       </c>
@@ -11328,7 +11683,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>274</v>
       </c>
@@ -11345,7 +11700,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>275</v>
       </c>
@@ -11362,7 +11717,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>276</v>
       </c>
@@ -11379,7 +11734,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>277</v>
       </c>
@@ -11396,7 +11751,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>278</v>
       </c>
@@ -11413,7 +11768,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>279</v>
       </c>
@@ -11430,7 +11785,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>280</v>
       </c>
@@ -11447,7 +11802,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>281</v>
       </c>
@@ -11457,11 +11812,14 @@
       <c r="C283" t="s">
         <v>55</v>
       </c>
+      <c r="D283" s="15" t="s">
+        <v>1623</v>
+      </c>
       <c r="E283" s="12" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>282</v>
       </c>
@@ -11471,11 +11829,14 @@
       <c r="C284" t="s">
         <v>550</v>
       </c>
+      <c r="D284" s="15" t="s">
+        <v>1624</v>
+      </c>
       <c r="E284" s="12" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>283</v>
       </c>
@@ -11485,11 +11846,14 @@
       <c r="C285" t="s">
         <v>56</v>
       </c>
+      <c r="D285" s="15" t="s">
+        <v>1625</v>
+      </c>
       <c r="E285" s="12" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>284</v>
       </c>
@@ -11499,11 +11863,14 @@
       <c r="C286" s="4">
         <v>39</v>
       </c>
+      <c r="D286" s="15" t="s">
+        <v>1626</v>
+      </c>
       <c r="E286" s="12" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>285</v>
       </c>
@@ -11513,11 +11880,14 @@
       <c r="C287" t="s">
         <v>57</v>
       </c>
+      <c r="D287" s="15" t="s">
+        <v>1627</v>
+      </c>
       <c r="E287" s="12" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>286</v>
       </c>
@@ -11527,11 +11897,14 @@
       <c r="C288" t="s">
         <v>552</v>
       </c>
+      <c r="D288" s="15" t="s">
+        <v>1628</v>
+      </c>
       <c r="E288" s="12" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>287</v>
       </c>
@@ -11541,11 +11914,14 @@
       <c r="C289" t="s">
         <v>554</v>
       </c>
+      <c r="D289" s="15" t="s">
+        <v>1629</v>
+      </c>
       <c r="E289" s="12" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>288</v>
       </c>
@@ -11555,11 +11931,14 @@
       <c r="C290" t="s">
         <v>58</v>
       </c>
+      <c r="D290" s="15" t="s">
+        <v>1630</v>
+      </c>
       <c r="E290" s="12" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>289</v>
       </c>
@@ -11569,11 +11948,14 @@
       <c r="C291" t="s">
         <v>556</v>
       </c>
+      <c r="D291" s="15" t="s">
+        <v>1631</v>
+      </c>
       <c r="E291" s="12" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>290</v>
       </c>
@@ -11583,11 +11965,14 @@
       <c r="C292" t="s">
         <v>558</v>
       </c>
+      <c r="D292" s="15" t="s">
+        <v>1632</v>
+      </c>
       <c r="E292" s="12" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>291</v>
       </c>
@@ -11597,11 +11982,14 @@
       <c r="C293" t="s">
         <v>560</v>
       </c>
+      <c r="D293" s="15" t="s">
+        <v>1633</v>
+      </c>
       <c r="E293" s="12" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>292</v>
       </c>
@@ -11611,11 +11999,14 @@
       <c r="C294" t="s">
         <v>59</v>
       </c>
+      <c r="D294" s="15" t="s">
+        <v>1627</v>
+      </c>
       <c r="E294" s="12" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>293</v>
       </c>
@@ -11625,11 +12016,14 @@
       <c r="C295" t="s">
         <v>60</v>
       </c>
+      <c r="D295" s="15" t="s">
+        <v>1634</v>
+      </c>
       <c r="E295" s="12" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>294</v>
       </c>
@@ -11639,11 +12033,14 @@
       <c r="C296" t="s">
         <v>61</v>
       </c>
+      <c r="D296" s="15" t="s">
+        <v>1635</v>
+      </c>
       <c r="E296" s="12" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>295</v>
       </c>
@@ -11653,11 +12050,14 @@
       <c r="C297" t="s">
         <v>562</v>
       </c>
+      <c r="D297" s="15" t="s">
+        <v>1636</v>
+      </c>
       <c r="E297" s="12" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>296</v>
       </c>
@@ -11667,11 +12067,14 @@
       <c r="C298" t="s">
         <v>564</v>
       </c>
+      <c r="D298" s="15" t="s">
+        <v>1637</v>
+      </c>
       <c r="E298" s="12" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>297</v>
       </c>
@@ -11681,11 +12084,14 @@
       <c r="C299" t="s">
         <v>566</v>
       </c>
+      <c r="D299" s="15" t="s">
+        <v>1374</v>
+      </c>
       <c r="E299" s="12" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>298</v>
       </c>
@@ -11695,11 +12101,14 @@
       <c r="C300" t="s">
         <v>568</v>
       </c>
+      <c r="D300" s="15" t="s">
+        <v>1638</v>
+      </c>
       <c r="E300" s="12" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>299</v>
       </c>
@@ -11709,11 +12118,14 @@
       <c r="C301" t="s">
         <v>570</v>
       </c>
+      <c r="D301" s="15" t="s">
+        <v>1423</v>
+      </c>
       <c r="E301" s="12" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>300</v>
       </c>
@@ -11723,11 +12135,14 @@
       <c r="C302" t="s">
         <v>572</v>
       </c>
+      <c r="D302" s="15" t="s">
+        <v>1639</v>
+      </c>
       <c r="E302" s="12" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>301</v>
       </c>
@@ -11737,11 +12152,14 @@
       <c r="C303" t="s">
         <v>574</v>
       </c>
+      <c r="D303" s="15" t="s">
+        <v>1640</v>
+      </c>
       <c r="E303" s="12" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>302</v>
       </c>
@@ -11751,11 +12169,14 @@
       <c r="C304" t="s">
         <v>576</v>
       </c>
+      <c r="D304" s="15" t="s">
+        <v>1641</v>
+      </c>
       <c r="E304" s="12" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>303</v>
       </c>
@@ -11765,11 +12186,14 @@
       <c r="C305" t="s">
         <v>578</v>
       </c>
+      <c r="D305" s="15" t="s">
+        <v>1642</v>
+      </c>
       <c r="E305" s="12" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>304</v>
       </c>
@@ -11779,11 +12203,14 @@
       <c r="C306" t="s">
         <v>580</v>
       </c>
+      <c r="D306" s="15" t="s">
+        <v>1643</v>
+      </c>
       <c r="E306" s="12" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>305</v>
       </c>
@@ -11793,11 +12220,14 @@
       <c r="C307" t="s">
         <v>582</v>
       </c>
+      <c r="D307" s="15" t="s">
+        <v>1644</v>
+      </c>
       <c r="E307" s="12" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>306</v>
       </c>
@@ -11807,11 +12237,14 @@
       <c r="C308" t="s">
         <v>584</v>
       </c>
+      <c r="D308" s="15" t="s">
+        <v>1645</v>
+      </c>
       <c r="E308" s="12" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>307</v>
       </c>
@@ -11821,11 +12254,14 @@
       <c r="C309" t="s">
         <v>586</v>
       </c>
+      <c r="D309" s="15" t="s">
+        <v>1410</v>
+      </c>
       <c r="E309" s="12" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>308</v>
       </c>
@@ -11835,11 +12271,14 @@
       <c r="C310" t="s">
         <v>588</v>
       </c>
+      <c r="D310" s="15" t="s">
+        <v>1646</v>
+      </c>
       <c r="E310" s="12" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>309</v>
       </c>
@@ -11849,11 +12288,14 @@
       <c r="C311" t="s">
         <v>590</v>
       </c>
+      <c r="D311" s="15" t="s">
+        <v>1646</v>
+      </c>
       <c r="E311" s="12" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>310</v>
       </c>
@@ -11863,11 +12305,14 @@
       <c r="C312" t="s">
         <v>592</v>
       </c>
+      <c r="D312" s="15" t="s">
+        <v>1646</v>
+      </c>
       <c r="E312" s="12" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>311</v>
       </c>
@@ -11877,11 +12322,14 @@
       <c r="C313" t="s">
         <v>594</v>
       </c>
+      <c r="D313" s="15" t="s">
+        <v>1647</v>
+      </c>
       <c r="E313" s="12" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>312</v>
       </c>
@@ -11891,11 +12339,14 @@
       <c r="C314" t="s">
         <v>62</v>
       </c>
+      <c r="D314" s="15" t="s">
+        <v>1648</v>
+      </c>
       <c r="E314" s="12" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>313</v>
       </c>
@@ -11905,11 +12356,14 @@
       <c r="C315" t="s">
         <v>596</v>
       </c>
+      <c r="D315" s="15" t="s">
+        <v>1649</v>
+      </c>
       <c r="E315" s="12" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>314</v>
       </c>
@@ -11919,11 +12373,14 @@
       <c r="C316" t="s">
         <v>598</v>
       </c>
+      <c r="D316" s="15" t="s">
+        <v>1650</v>
+      </c>
       <c r="E316" s="12" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>315</v>
       </c>
@@ -11933,11 +12390,14 @@
       <c r="C317" t="s">
         <v>600</v>
       </c>
+      <c r="D317" s="15" t="s">
+        <v>1651</v>
+      </c>
       <c r="E317" s="12" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>316</v>
       </c>
@@ -11947,11 +12407,14 @@
       <c r="C318" t="s">
         <v>63</v>
       </c>
+      <c r="D318" s="15" t="s">
+        <v>1652</v>
+      </c>
       <c r="E318" s="12" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>317</v>
       </c>
@@ -11961,11 +12424,14 @@
       <c r="C319" t="s">
         <v>602</v>
       </c>
+      <c r="D319" s="15" t="s">
+        <v>1653</v>
+      </c>
       <c r="E319" s="12" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>318</v>
       </c>
@@ -11975,11 +12441,14 @@
       <c r="C320" t="s">
         <v>604</v>
       </c>
+      <c r="D320" s="15" t="s">
+        <v>1654</v>
+      </c>
       <c r="E320" s="12" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>319</v>
       </c>
@@ -11989,11 +12458,14 @@
       <c r="C321" t="s">
         <v>64</v>
       </c>
+      <c r="D321" s="15" t="s">
+        <v>1655</v>
+      </c>
       <c r="E321" s="12" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>320</v>
       </c>
@@ -12003,11 +12475,14 @@
       <c r="C322" t="s">
         <v>606</v>
       </c>
+      <c r="D322" s="15" t="s">
+        <v>1656</v>
+      </c>
       <c r="E322" s="12" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>321</v>
       </c>
@@ -12017,11 +12492,14 @@
       <c r="C323" t="s">
         <v>608</v>
       </c>
+      <c r="D323" s="15" t="s">
+        <v>1657</v>
+      </c>
       <c r="E323" s="12" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>322</v>
       </c>
@@ -12031,11 +12509,14 @@
       <c r="C324" t="s">
         <v>610</v>
       </c>
+      <c r="D324" s="15" t="s">
+        <v>1658</v>
+      </c>
       <c r="E324" s="12" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>323</v>
       </c>
@@ -12045,11 +12526,14 @@
       <c r="C325" t="s">
         <v>612</v>
       </c>
+      <c r="D325" s="15" t="s">
+        <v>1659</v>
+      </c>
       <c r="E325" s="12" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>324</v>
       </c>
@@ -12059,11 +12543,14 @@
       <c r="C326" t="s">
         <v>65</v>
       </c>
+      <c r="D326" s="15" t="s">
+        <v>1660</v>
+      </c>
       <c r="E326" s="12" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>325</v>
       </c>
@@ -12073,11 +12560,14 @@
       <c r="C327" t="s">
         <v>614</v>
       </c>
+      <c r="D327" s="15" t="s">
+        <v>1661</v>
+      </c>
       <c r="E327" s="12" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>326</v>
       </c>
@@ -12087,11 +12577,14 @@
       <c r="C328" t="s">
         <v>66</v>
       </c>
+      <c r="D328" s="15" t="s">
+        <v>1662</v>
+      </c>
       <c r="E328" s="12" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>327</v>
       </c>
@@ -12101,11 +12594,14 @@
       <c r="C329" t="s">
         <v>616</v>
       </c>
+      <c r="D329" s="15" t="s">
+        <v>1663</v>
+      </c>
       <c r="E329" s="12" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>328</v>
       </c>
@@ -12115,11 +12611,14 @@
       <c r="C330" t="s">
         <v>67</v>
       </c>
+      <c r="D330" s="15" t="s">
+        <v>1664</v>
+      </c>
       <c r="E330" s="12" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>329</v>
       </c>
@@ -12129,11 +12628,14 @@
       <c r="C331" t="s">
         <v>618</v>
       </c>
+      <c r="D331" s="15" t="s">
+        <v>1416</v>
+      </c>
       <c r="E331" s="12" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>330</v>
       </c>
@@ -12143,11 +12645,14 @@
       <c r="C332" t="s">
         <v>620</v>
       </c>
+      <c r="D332" s="15" t="s">
+        <v>1665</v>
+      </c>
       <c r="E332" s="12" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>331</v>
       </c>
@@ -12157,11 +12662,14 @@
       <c r="C333" t="s">
         <v>622</v>
       </c>
+      <c r="D333" s="15" t="s">
+        <v>1404</v>
+      </c>
       <c r="E333" s="12" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>332</v>
       </c>
@@ -12171,11 +12679,14 @@
       <c r="C334" t="s">
         <v>624</v>
       </c>
+      <c r="D334" s="15" t="s">
+        <v>1666</v>
+      </c>
       <c r="E334" s="12" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>333</v>
       </c>
@@ -12185,11 +12696,14 @@
       <c r="C335" t="s">
         <v>626</v>
       </c>
+      <c r="D335" s="15" t="s">
+        <v>1667</v>
+      </c>
       <c r="E335" s="12" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>334</v>
       </c>
@@ -12199,11 +12713,14 @@
       <c r="C336" t="s">
         <v>68</v>
       </c>
+      <c r="D336" s="15" t="s">
+        <v>1668</v>
+      </c>
       <c r="E336" s="12" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>335</v>
       </c>
@@ -12213,11 +12730,14 @@
       <c r="C337" t="s">
         <v>628</v>
       </c>
+      <c r="D337" s="24" t="s">
+        <v>1669</v>
+      </c>
       <c r="E337" s="12" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>336</v>
       </c>
@@ -12227,11 +12747,14 @@
       <c r="C338" t="s">
         <v>630</v>
       </c>
+      <c r="D338" s="15" t="s">
+        <v>1670</v>
+      </c>
       <c r="E338" s="12" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>337</v>
       </c>
@@ -12241,11 +12764,14 @@
       <c r="C339" t="s">
         <v>632</v>
       </c>
+      <c r="D339" s="15" t="s">
+        <v>1671</v>
+      </c>
       <c r="E339" s="12" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>338</v>
       </c>
@@ -12255,11 +12781,14 @@
       <c r="C340" t="s">
         <v>69</v>
       </c>
+      <c r="D340" s="15" t="s">
+        <v>1672</v>
+      </c>
       <c r="E340" s="12" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>339</v>
       </c>
@@ -12269,11 +12798,14 @@
       <c r="C341" t="s">
         <v>634</v>
       </c>
+      <c r="D341" s="15" t="s">
+        <v>1673</v>
+      </c>
       <c r="E341" s="12" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>340</v>
       </c>
@@ -12283,11 +12815,14 @@
       <c r="C342" t="s">
         <v>636</v>
       </c>
+      <c r="D342" s="15" t="s">
+        <v>1674</v>
+      </c>
       <c r="E342" s="12" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>341</v>
       </c>
@@ -12297,11 +12832,14 @@
       <c r="C343" t="s">
         <v>638</v>
       </c>
+      <c r="D343" s="15" t="s">
+        <v>1552</v>
+      </c>
       <c r="E343" s="12" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>342</v>
       </c>
@@ -12311,11 +12849,14 @@
       <c r="C344" t="s">
         <v>640</v>
       </c>
+      <c r="D344" s="15" t="s">
+        <v>1675</v>
+      </c>
       <c r="E344" s="12" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>343</v>
       </c>
@@ -12325,11 +12866,14 @@
       <c r="C345" t="s">
         <v>642</v>
       </c>
+      <c r="D345" s="15" t="s">
+        <v>1676</v>
+      </c>
       <c r="E345" s="12" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>344</v>
       </c>
@@ -12339,11 +12883,14 @@
       <c r="C346" t="s">
         <v>644</v>
       </c>
+      <c r="D346" s="15" t="s">
+        <v>1677</v>
+      </c>
       <c r="E346" s="12" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>345</v>
       </c>
@@ -12353,11 +12900,14 @@
       <c r="C347" t="s">
         <v>70</v>
       </c>
+      <c r="D347" s="15" t="s">
+        <v>1678</v>
+      </c>
       <c r="E347" s="12" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>346</v>
       </c>
@@ -12367,11 +12917,14 @@
       <c r="C348" t="s">
         <v>71</v>
       </c>
+      <c r="D348" s="15" t="s">
+        <v>1679</v>
+      </c>
       <c r="E348" s="12" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>347</v>
       </c>
@@ -12381,11 +12934,14 @@
       <c r="C349" t="s">
         <v>647</v>
       </c>
+      <c r="D349" s="15" t="s">
+        <v>1680</v>
+      </c>
       <c r="E349" s="12" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>348</v>
       </c>
@@ -12395,11 +12951,14 @@
       <c r="C350" t="s">
         <v>72</v>
       </c>
+      <c r="D350" s="15" t="s">
+        <v>1681</v>
+      </c>
       <c r="E350" s="12" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>349</v>
       </c>
@@ -12409,11 +12968,14 @@
       <c r="C351" t="s">
         <v>649</v>
       </c>
+      <c r="D351" s="15" t="s">
+        <v>1464</v>
+      </c>
       <c r="E351" s="12" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>350</v>
       </c>
@@ -12423,11 +12985,14 @@
       <c r="C352" t="s">
         <v>73</v>
       </c>
+      <c r="D352" s="15" t="s">
+        <v>1682</v>
+      </c>
       <c r="E352" s="12" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>351</v>
       </c>
@@ -12437,11 +13002,14 @@
       <c r="C353" t="s">
         <v>651</v>
       </c>
+      <c r="D353" s="15" t="s">
+        <v>1683</v>
+      </c>
       <c r="E353" s="12" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>352</v>
       </c>
@@ -12455,7 +13023,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>353</v>
       </c>
@@ -12469,7 +13037,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>354</v>
       </c>
@@ -12483,7 +13051,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>355</v>
       </c>
@@ -12497,7 +13065,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>356</v>
       </c>
@@ -12511,7 +13079,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>357</v>
       </c>
@@ -12525,7 +13093,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>358</v>
       </c>
@@ -12539,7 +13107,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>359</v>
       </c>
@@ -12553,7 +13121,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>360</v>
       </c>
@@ -12567,7 +13135,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>361</v>
       </c>
@@ -12581,7 +13149,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>362</v>
       </c>
@@ -12595,7 +13163,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>363</v>
       </c>
@@ -12609,7 +13177,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>364</v>
       </c>
@@ -12623,7 +13191,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>365</v>
       </c>
@@ -12637,7 +13205,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>366</v>
       </c>
@@ -12651,7 +13219,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>367</v>
       </c>
@@ -12665,7 +13233,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>368</v>
       </c>
@@ -12679,7 +13247,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>369</v>
       </c>
@@ -12693,7 +13261,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>370</v>
       </c>
@@ -12707,7 +13275,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>371</v>
       </c>
@@ -12721,7 +13289,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>372</v>
       </c>
@@ -12735,7 +13303,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>373</v>
       </c>
@@ -12749,7 +13317,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>374</v>
       </c>
@@ -12763,7 +13331,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>375</v>
       </c>
@@ -12777,7 +13345,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>376</v>
       </c>
@@ -12791,7 +13359,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>377</v>
       </c>
@@ -12805,7 +13373,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>378</v>
       </c>
@@ -12819,7 +13387,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>379</v>
       </c>
@@ -12833,7 +13401,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>380</v>
       </c>
@@ -12847,7 +13415,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>381</v>
       </c>
@@ -12861,7 +13429,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>382</v>
       </c>
@@ -12875,7 +13443,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>383</v>
       </c>
@@ -12889,7 +13457,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>384</v>
       </c>
@@ -12903,7 +13471,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>385</v>
       </c>
@@ -12917,7 +13485,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>386</v>
       </c>
@@ -12931,7 +13499,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>387</v>
       </c>
@@ -12945,7 +13513,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>388</v>
       </c>
@@ -12959,7 +13527,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>389</v>
       </c>
@@ -12973,7 +13541,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>390</v>
       </c>
@@ -12987,7 +13555,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>391</v>
       </c>
@@ -13001,7 +13569,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>392</v>
       </c>
@@ -13015,7 +13583,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>393</v>
       </c>
@@ -13029,7 +13597,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>394</v>
       </c>
@@ -13043,7 +13611,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>395</v>
       </c>
@@ -13057,7 +13625,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>396</v>
       </c>
@@ -13071,7 +13639,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>397</v>
       </c>
@@ -13085,7 +13653,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>398</v>
       </c>
@@ -13099,7 +13667,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>399</v>
       </c>
@@ -13113,7 +13681,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>400</v>
       </c>
@@ -13127,7 +13695,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>401</v>
       </c>
@@ -13141,7 +13709,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>402</v>
       </c>
@@ -13155,7 +13723,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>403</v>
       </c>
@@ -13169,7 +13737,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>404</v>
       </c>
@@ -13183,7 +13751,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>405</v>
       </c>
@@ -13197,7 +13765,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>406</v>
       </c>
@@ -13211,7 +13779,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>407</v>
       </c>
@@ -13225,7 +13793,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>408</v>
       </c>
@@ -13239,7 +13807,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>409</v>
       </c>
@@ -13253,7 +13821,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>410</v>
       </c>
@@ -13267,7 +13835,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>411</v>
       </c>
@@ -13281,7 +13849,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>412</v>
       </c>
@@ -13295,7 +13863,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>413</v>
       </c>
@@ -13309,7 +13877,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>414</v>
       </c>
@@ -13323,7 +13891,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>415</v>
       </c>
@@ -13337,7 +13905,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>416</v>
       </c>
@@ -13351,7 +13919,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>417</v>
       </c>
@@ -13365,7 +13933,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>418</v>
       </c>
@@ -13379,7 +13947,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>419</v>
       </c>
@@ -13393,7 +13961,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>420</v>
       </c>
@@ -13407,7 +13975,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>421</v>
       </c>
@@ -13421,7 +13989,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>422</v>
       </c>
@@ -13435,7 +14003,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>423</v>
       </c>
@@ -13449,7 +14017,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>424</v>
       </c>
@@ -13463,7 +14031,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>425</v>
       </c>
@@ -13477,7 +14045,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>426</v>
       </c>
@@ -13491,7 +14059,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>427</v>
       </c>
@@ -13505,7 +14073,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>428</v>
       </c>
@@ -13519,7 +14087,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>429</v>
       </c>
@@ -13533,7 +14101,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>430</v>
       </c>
@@ -13547,7 +14115,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>431</v>
       </c>
@@ -13561,7 +14129,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>432</v>
       </c>
@@ -13575,7 +14143,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>433</v>
       </c>
@@ -13589,7 +14157,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>434</v>
       </c>
@@ -13603,7 +14171,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>435</v>
       </c>
@@ -13617,7 +14185,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>436</v>
       </c>
@@ -13631,7 +14199,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>437</v>
       </c>
@@ -13645,7 +14213,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>438</v>
       </c>
@@ -13659,7 +14227,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>439</v>
       </c>
@@ -13673,7 +14241,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>440</v>
       </c>
@@ -13687,7 +14255,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>441</v>
       </c>
@@ -13701,7 +14269,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>442</v>
       </c>
@@ -13715,7 +14283,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>443</v>
       </c>
@@ -13729,7 +14297,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>444</v>
       </c>
@@ -13743,7 +14311,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>445</v>
       </c>
@@ -13757,7 +14325,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>446</v>
       </c>
@@ -13771,7 +14339,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>447</v>
       </c>
@@ -13785,7 +14353,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>448</v>
       </c>
@@ -13799,7 +14367,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>449</v>
       </c>
@@ -13813,7 +14381,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>450</v>
       </c>
@@ -13827,7 +14395,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>451</v>
       </c>
@@ -13841,7 +14409,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>452</v>
       </c>
@@ -13855,7 +14423,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>453</v>
       </c>
@@ -13869,7 +14437,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>454</v>
       </c>
@@ -13883,7 +14451,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>455</v>
       </c>
@@ -13897,7 +14465,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>456</v>
       </c>
@@ -13911,7 +14479,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>457</v>
       </c>
@@ -13925,7 +14493,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>458</v>
       </c>
@@ -13939,7 +14507,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>459</v>
       </c>
@@ -13953,7 +14521,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>460</v>
       </c>
@@ -13967,7 +14535,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>461</v>
       </c>
@@ -13981,7 +14549,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>462</v>
       </c>
@@ -13995,7 +14563,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>463</v>
       </c>
@@ -14009,7 +14577,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>464</v>
       </c>
@@ -14023,7 +14591,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>465</v>
       </c>
@@ -14037,7 +14605,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>466</v>
       </c>
@@ -14051,7 +14619,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>467</v>
       </c>
@@ -14065,7 +14633,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>468</v>
       </c>
@@ -14079,7 +14647,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>469</v>
       </c>
@@ -14093,7 +14661,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>470</v>
       </c>
@@ -14107,7 +14675,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>471</v>
       </c>
@@ -14121,7 +14689,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>472</v>
       </c>
@@ -14135,7 +14703,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>473</v>
       </c>
@@ -14149,7 +14717,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>474</v>
       </c>
@@ -14163,7 +14731,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>475</v>
       </c>
@@ -14177,7 +14745,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>476</v>
       </c>
@@ -14191,7 +14759,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>477</v>
       </c>
@@ -14208,7 +14776,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>478</v>
       </c>
@@ -14237,7 +14805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>479</v>
       </c>
@@ -14254,7 +14822,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>480</v>
       </c>
@@ -14271,7 +14839,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>481</v>
       </c>
@@ -14288,597 +14856,597 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>484</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>485</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>488</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>493</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>496</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>527</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>528</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>529</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>532</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>535</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>536</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>541</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>543</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>545</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>548</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>549</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>550</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>551</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>555</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>558</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>559</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>563</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>566</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>568</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>570</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>571</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>577</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>578</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>580</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>583</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>586</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>587</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>591</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>592</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>593</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>594</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>597</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>598</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>599</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>600</v>
       </c>
@@ -14906,26 +15474,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
     <col min="2" max="2" width="9" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
     <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="22" t="s">
         <v>1317</v>
       </c>
@@ -14943,7 +15511,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="23"/>
       <c r="C2" s="2" t="s">
         <v>865</v>
@@ -14955,7 +15523,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -14966,7 +15534,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -14977,7 +15545,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -14988,7 +15556,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -14999,7 +15567,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -15010,7 +15578,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -15021,7 +15589,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -15032,7 +15600,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -15043,7 +15611,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -15054,7 +15622,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -15065,7 +15633,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -15076,7 +15644,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -15087,7 +15655,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -15107,7 +15675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -15118,7 +15686,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -15129,7 +15697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -15137,7 +15705,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -15145,7 +15713,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -15153,7 +15721,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -15161,7 +15729,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -15169,7 +15737,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -15177,7 +15745,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -15185,7 +15753,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -15193,7 +15761,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -15201,7 +15769,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -15209,7 +15777,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -15217,7 +15785,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -15225,7 +15793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -15233,7 +15801,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -15241,7 +15809,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -15249,7 +15817,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -15257,7 +15825,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="8">
         <v>32</v>
       </c>
@@ -15265,7 +15833,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="8">
         <v>33</v>
       </c>
@@ -15273,7 +15841,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="8">
         <v>34</v>
       </c>
@@ -15281,7 +15849,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="8">
         <v>35</v>
       </c>
@@ -15289,7 +15857,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="8">
         <v>36</v>
       </c>
@@ -15297,7 +15865,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="8">
         <v>37</v>
       </c>
@@ -15305,7 +15873,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="8">
         <v>38</v>
       </c>
@@ -15313,7 +15881,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41" s="8">
         <v>39</v>
       </c>
@@ -15321,7 +15889,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" s="8">
         <v>40</v>
       </c>
@@ -15332,7 +15900,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43" s="8">
         <v>41</v>
       </c>
@@ -15343,7 +15911,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44" s="8">
         <v>42</v>
       </c>
@@ -15354,7 +15922,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45" s="8">
         <v>43</v>
       </c>
@@ -15362,7 +15930,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46" s="8">
         <v>44</v>
       </c>
@@ -15370,7 +15938,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="8">
         <v>45</v>
       </c>
@@ -15378,7 +15946,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48" s="8">
         <v>46</v>
       </c>
@@ -15386,7 +15954,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="8">
         <v>47</v>
       </c>
@@ -15394,7 +15962,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="8">
         <v>48</v>
       </c>
@@ -15402,7 +15970,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51" s="8">
         <v>49</v>
       </c>
@@ -15410,7 +15978,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52" s="8">
         <v>50</v>
       </c>
@@ -15418,7 +15986,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53" s="8">
         <v>51</v>
       </c>
@@ -15426,7 +15994,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54" s="8">
         <v>52</v>
       </c>
@@ -15434,7 +16002,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="8">
         <v>53</v>
       </c>
@@ -15442,7 +16010,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56" s="8">
         <v>54</v>
       </c>
@@ -15450,7 +16018,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="8">
         <v>55</v>
       </c>
@@ -15458,7 +16026,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B58" s="8">
         <v>56</v>
       </c>
@@ -15466,7 +16034,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" s="8">
         <v>57</v>
       </c>
@@ -15474,7 +16042,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60" s="8">
         <v>58</v>
       </c>
@@ -15485,7 +16053,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61" s="8">
         <v>59</v>
       </c>
@@ -15493,7 +16061,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62" s="8">
         <v>60</v>
       </c>
@@ -15501,7 +16069,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63" s="8">
         <v>61</v>
       </c>
@@ -15509,7 +16077,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B64" s="8">
         <v>62</v>
       </c>
@@ -15517,7 +16085,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B65" s="8">
         <v>63</v>
       </c>
@@ -15525,7 +16093,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B66" s="8">
         <v>64</v>
       </c>
@@ -15533,7 +16101,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B67" s="8">
         <v>65</v>
       </c>
@@ -15541,7 +16109,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B68" s="8">
         <v>66</v>
       </c>
@@ -15549,172 +16117,172 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B69" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B70" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B71" s="8">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B72" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B73" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B74" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B75" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B76" s="8">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B77" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B78" s="8">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B79" s="8">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B80" s="8">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B81" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B82" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B83" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B84" s="8">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B85" s="8">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B86" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B87" s="8">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B88" s="8">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B89" s="8">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B90" s="8">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B91" s="8">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B92" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B93" s="8">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B94" s="8">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B95" s="8">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B96" s="8">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B97" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B98" s="8">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B99" s="8">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B100" s="8">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B101" s="8">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B102" s="8">
         <v>100</v>
       </c>

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1726">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -6339,7 +6339,293 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>halyosy</t>
+    <t>ゆうゆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r-906</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DECO*27 × ピノキオピ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ピノキオピ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hinayukki@仕事してP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ピノキオピ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19's Sound Factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅とら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40mP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふじを</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doriko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とあ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>john</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonbana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めろくる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syudou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗山夕璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>瀬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名航</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ラマ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ズP</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いえぬ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろくろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カンザキイオリ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くじら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いよわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆこぴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かめりあ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLAVE.V-V-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬゆり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かめりあ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宮守文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マイキP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MisoilePunch♪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>稲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>葉曇</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSTER project</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6901,10 +7187,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C341" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C390" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D353" sqref="D353"/>
+      <selection pane="bottomRight" activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13003,7 +13289,7 @@
         <v>651</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>1683</v>
+        <v>1374</v>
       </c>
       <c r="E353" s="12" t="s">
         <v>1178</v>
@@ -13019,6 +13305,9 @@
       <c r="C354" t="s">
         <v>653</v>
       </c>
+      <c r="D354" s="15" t="s">
+        <v>1683</v>
+      </c>
       <c r="E354" s="12" t="s">
         <v>1179</v>
       </c>
@@ -13033,6 +13322,9 @@
       <c r="C355" t="s">
         <v>655</v>
       </c>
+      <c r="D355" s="15" t="s">
+        <v>1684</v>
+      </c>
       <c r="E355" s="12" t="s">
         <v>1180</v>
       </c>
@@ -13047,6 +13339,9 @@
       <c r="C356" t="s">
         <v>657</v>
       </c>
+      <c r="D356" s="15" t="s">
+        <v>1685</v>
+      </c>
       <c r="E356" s="12" t="s">
         <v>1181</v>
       </c>
@@ -13061,6 +13356,9 @@
       <c r="C357" t="s">
         <v>659</v>
       </c>
+      <c r="D357" s="15" t="s">
+        <v>1686</v>
+      </c>
       <c r="E357" s="12" t="s">
         <v>1182</v>
       </c>
@@ -13075,6 +13373,9 @@
       <c r="C358" t="s">
         <v>661</v>
       </c>
+      <c r="D358" s="15" t="s">
+        <v>1687</v>
+      </c>
       <c r="E358" s="12" t="s">
         <v>1183</v>
       </c>
@@ -13089,6 +13390,9 @@
       <c r="C359" t="s">
         <v>663</v>
       </c>
+      <c r="D359" s="15" t="s">
+        <v>1688</v>
+      </c>
       <c r="E359" s="12" t="s">
         <v>1184</v>
       </c>
@@ -13103,6 +13407,9 @@
       <c r="C360" t="s">
         <v>665</v>
       </c>
+      <c r="D360" s="15" t="s">
+        <v>1689</v>
+      </c>
       <c r="E360" s="12" t="s">
         <v>1185</v>
       </c>
@@ -13117,6 +13424,9 @@
       <c r="C361" t="s">
         <v>667</v>
       </c>
+      <c r="D361" s="15" t="s">
+        <v>1690</v>
+      </c>
       <c r="E361" s="12" t="s">
         <v>1186</v>
       </c>
@@ -13131,6 +13441,9 @@
       <c r="C362" t="s">
         <v>669</v>
       </c>
+      <c r="D362" s="15" t="s">
+        <v>1691</v>
+      </c>
       <c r="E362" s="12" t="s">
         <v>1187</v>
       </c>
@@ -13145,6 +13458,9 @@
       <c r="C363" t="s">
         <v>670</v>
       </c>
+      <c r="D363" s="15" t="s">
+        <v>1692</v>
+      </c>
       <c r="E363" s="12" t="s">
         <v>1188</v>
       </c>
@@ -13159,6 +13475,9 @@
       <c r="C364" t="s">
         <v>672</v>
       </c>
+      <c r="D364" s="15" t="s">
+        <v>1693</v>
+      </c>
       <c r="E364" s="12" t="s">
         <v>1189</v>
       </c>
@@ -13173,6 +13492,9 @@
       <c r="C365" t="s">
         <v>75</v>
       </c>
+      <c r="D365" s="15" t="s">
+        <v>1694</v>
+      </c>
       <c r="E365" s="12" t="s">
         <v>1190</v>
       </c>
@@ -13187,6 +13509,9 @@
       <c r="C366" t="s">
         <v>674</v>
       </c>
+      <c r="D366" s="15" t="s">
+        <v>1695</v>
+      </c>
       <c r="E366" s="12" t="s">
         <v>1191</v>
       </c>
@@ -13201,6 +13526,9 @@
       <c r="C367" t="s">
         <v>676</v>
       </c>
+      <c r="D367" s="15" t="s">
+        <v>1696</v>
+      </c>
       <c r="E367" s="12" t="s">
         <v>1192</v>
       </c>
@@ -13215,6 +13543,9 @@
       <c r="C368" t="s">
         <v>677</v>
       </c>
+      <c r="D368" s="15" t="s">
+        <v>1697</v>
+      </c>
       <c r="E368" s="12" t="s">
         <v>1193</v>
       </c>
@@ -13229,6 +13560,9 @@
       <c r="C369" t="s">
         <v>679</v>
       </c>
+      <c r="D369" s="15" t="s">
+        <v>1698</v>
+      </c>
       <c r="E369" s="12" t="s">
         <v>1194</v>
       </c>
@@ -13243,6 +13577,9 @@
       <c r="C370" t="s">
         <v>681</v>
       </c>
+      <c r="D370" s="15" t="s">
+        <v>1699</v>
+      </c>
       <c r="E370" s="12" t="s">
         <v>1195</v>
       </c>
@@ -13257,6 +13594,9 @@
       <c r="C371" t="s">
         <v>683</v>
       </c>
+      <c r="D371" s="15" t="s">
+        <v>1700</v>
+      </c>
       <c r="E371" s="12" t="s">
         <v>1196</v>
       </c>
@@ -13271,6 +13611,9 @@
       <c r="C372" t="s">
         <v>684</v>
       </c>
+      <c r="D372" s="15" t="s">
+        <v>1701</v>
+      </c>
       <c r="E372" s="12" t="s">
         <v>1197</v>
       </c>
@@ -13285,6 +13628,9 @@
       <c r="C373" t="s">
         <v>685</v>
       </c>
+      <c r="D373" s="15" t="s">
+        <v>1702</v>
+      </c>
       <c r="E373" s="12" t="s">
         <v>1198</v>
       </c>
@@ -13299,6 +13645,9 @@
       <c r="C374" t="s">
         <v>687</v>
       </c>
+      <c r="D374" s="15" t="s">
+        <v>1703</v>
+      </c>
       <c r="E374" s="12" t="s">
         <v>1199</v>
       </c>
@@ -13313,6 +13662,9 @@
       <c r="C375" t="s">
         <v>689</v>
       </c>
+      <c r="D375" s="15" t="s">
+        <v>1704</v>
+      </c>
       <c r="E375" s="12" t="s">
         <v>1200</v>
       </c>
@@ -13327,6 +13679,9 @@
       <c r="C376" t="s">
         <v>691</v>
       </c>
+      <c r="D376" s="15" t="s">
+        <v>1705</v>
+      </c>
       <c r="E376" s="12" t="s">
         <v>1201</v>
       </c>
@@ -13341,6 +13696,9 @@
       <c r="C377" t="s">
         <v>692</v>
       </c>
+      <c r="D377" s="15" t="s">
+        <v>1706</v>
+      </c>
       <c r="E377" s="12" t="s">
         <v>1202</v>
       </c>
@@ -13355,6 +13713,9 @@
       <c r="C378" t="s">
         <v>694</v>
       </c>
+      <c r="D378" s="24" t="s">
+        <v>1707</v>
+      </c>
       <c r="E378" s="12" t="s">
         <v>1203</v>
       </c>
@@ -13369,6 +13730,9 @@
       <c r="C379" t="s">
         <v>696</v>
       </c>
+      <c r="D379" s="15" t="s">
+        <v>1708</v>
+      </c>
       <c r="E379" s="12" t="s">
         <v>1204</v>
       </c>
@@ -13383,6 +13747,9 @@
       <c r="C380" t="s">
         <v>698</v>
       </c>
+      <c r="D380" s="15" t="s">
+        <v>1709</v>
+      </c>
       <c r="E380" s="12" t="s">
         <v>1205</v>
       </c>
@@ -13397,6 +13764,9 @@
       <c r="C381" t="s">
         <v>700</v>
       </c>
+      <c r="D381" s="15" t="s">
+        <v>1710</v>
+      </c>
       <c r="E381" s="12" t="s">
         <v>1206</v>
       </c>
@@ -13411,6 +13781,9 @@
       <c r="C382" t="s">
         <v>702</v>
       </c>
+      <c r="D382" s="15" t="s">
+        <v>1711</v>
+      </c>
       <c r="E382" s="12" t="s">
         <v>1207</v>
       </c>
@@ -13425,6 +13798,9 @@
       <c r="C383" t="s">
         <v>704</v>
       </c>
+      <c r="D383" s="15" t="s">
+        <v>1712</v>
+      </c>
       <c r="E383" s="12" t="s">
         <v>1208</v>
       </c>
@@ -13439,6 +13815,9 @@
       <c r="C384" t="s">
         <v>706</v>
       </c>
+      <c r="D384" s="15" t="s">
+        <v>1713</v>
+      </c>
       <c r="E384" s="12" t="s">
         <v>1209</v>
       </c>
@@ -13453,6 +13832,9 @@
       <c r="C385" t="s">
         <v>708</v>
       </c>
+      <c r="D385" s="15" t="s">
+        <v>1714</v>
+      </c>
       <c r="E385" s="12" t="s">
         <v>1210</v>
       </c>
@@ -13467,6 +13849,9 @@
       <c r="C386" t="s">
         <v>710</v>
       </c>
+      <c r="D386" s="15" t="s">
+        <v>1715</v>
+      </c>
       <c r="E386" s="12" t="s">
         <v>1211</v>
       </c>
@@ -13481,6 +13866,9 @@
       <c r="C387" t="s">
         <v>712</v>
       </c>
+      <c r="D387" s="15" t="s">
+        <v>1716</v>
+      </c>
       <c r="E387" s="12" t="s">
         <v>1212</v>
       </c>
@@ -13495,6 +13883,9 @@
       <c r="C388" t="s">
         <v>714</v>
       </c>
+      <c r="D388" s="15" t="s">
+        <v>1533</v>
+      </c>
       <c r="E388" s="12" t="s">
         <v>1213</v>
       </c>
@@ -13509,6 +13900,9 @@
       <c r="C389" t="s">
         <v>716</v>
       </c>
+      <c r="D389" s="15" t="s">
+        <v>1717</v>
+      </c>
       <c r="E389" s="12" t="s">
         <v>1214</v>
       </c>
@@ -13523,6 +13917,9 @@
       <c r="C390" t="s">
         <v>718</v>
       </c>
+      <c r="D390" s="15" t="s">
+        <v>1698</v>
+      </c>
       <c r="E390" s="12" t="s">
         <v>1215</v>
       </c>
@@ -13537,6 +13934,9 @@
       <c r="C391" t="s">
         <v>720</v>
       </c>
+      <c r="D391" s="15" t="s">
+        <v>1692</v>
+      </c>
       <c r="E391" s="12" t="s">
         <v>1216</v>
       </c>
@@ -13551,6 +13951,9 @@
       <c r="C392" t="s">
         <v>77</v>
       </c>
+      <c r="D392" s="15" t="s">
+        <v>1718</v>
+      </c>
       <c r="E392" s="12" t="s">
         <v>1217</v>
       </c>
@@ -13565,6 +13968,9 @@
       <c r="C393" t="s">
         <v>78</v>
       </c>
+      <c r="D393" s="15" t="s">
+        <v>1685</v>
+      </c>
       <c r="E393" s="12" t="s">
         <v>1218</v>
       </c>
@@ -13579,6 +13985,9 @@
       <c r="C394" t="s">
         <v>79</v>
       </c>
+      <c r="D394" s="15" t="s">
+        <v>1719</v>
+      </c>
       <c r="E394" s="12" t="s">
         <v>1219</v>
       </c>
@@ -13593,6 +14002,9 @@
       <c r="C395" t="s">
         <v>1306</v>
       </c>
+      <c r="D395" s="15" t="s">
+        <v>1720</v>
+      </c>
       <c r="E395" s="12" t="s">
         <v>1220</v>
       </c>
@@ -13607,6 +14019,9 @@
       <c r="C396" t="s">
         <v>723</v>
       </c>
+      <c r="D396" s="15" t="s">
+        <v>1721</v>
+      </c>
       <c r="E396" s="12" t="s">
         <v>1221</v>
       </c>
@@ -13621,6 +14036,9 @@
       <c r="C397" t="s">
         <v>80</v>
       </c>
+      <c r="D397" s="15" t="s">
+        <v>1722</v>
+      </c>
       <c r="E397" s="12" t="s">
         <v>1222</v>
       </c>
@@ -13635,6 +14053,9 @@
       <c r="C398" t="s">
         <v>725</v>
       </c>
+      <c r="D398" s="15" t="s">
+        <v>1674</v>
+      </c>
       <c r="E398" s="12" t="s">
         <v>1223</v>
       </c>
@@ -13649,6 +14070,9 @@
       <c r="C399" t="s">
         <v>727</v>
       </c>
+      <c r="D399" s="15" t="s">
+        <v>1676</v>
+      </c>
       <c r="E399" s="12" t="s">
         <v>1224</v>
       </c>
@@ -13663,6 +14087,9 @@
       <c r="C400" t="s">
         <v>729</v>
       </c>
+      <c r="D400" s="24" t="s">
+        <v>1723</v>
+      </c>
       <c r="E400" s="12" t="s">
         <v>1225</v>
       </c>
@@ -13677,6 +14104,9 @@
       <c r="C401" t="s">
         <v>731</v>
       </c>
+      <c r="D401" s="15" t="s">
+        <v>1724</v>
+      </c>
       <c r="E401" s="12" t="s">
         <v>1226</v>
       </c>
@@ -13690,6 +14120,9 @@
       </c>
       <c r="C402" t="s">
         <v>733</v>
+      </c>
+      <c r="D402" s="15" t="s">
+        <v>1725</v>
       </c>
       <c r="E402" s="12" t="s">
         <v>1227</v>

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1773">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -2505,9 +2505,6 @@
   </si>
   <si>
     <t>사과팔이 물거품 소녀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">林檎売りの泡沫少女  </t>
   </si>
   <si>
     <t>메리 고 라운드</t>
@@ -6626,6 +6623,337 @@
   </si>
   <si>
     <t>OSTER project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れるりり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakoyakiKZY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>椎乃味</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>醂</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆうゆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>てにをは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稲葉曇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なきそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R Sound Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卯花ロク</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原口沙輔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八王子P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いよわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なきゃむりゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こめだわら × R Sound Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヤスオ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twinfield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大漠波新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香椎モイミ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稲葉曇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kanaria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ponchi♪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すこっぷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>초최종귀축 여동생 플랑도르</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ビ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>トまりお × まろん</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ビ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">トまりお × まろん × まらしぃ </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゴジマジP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉田夜世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>薄塩指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ナユタン星人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ナナホシ管弦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>楽団</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふわりP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄之助 × 春野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はるまきごはん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香椎モイミ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キノシタ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giga &amp; TeddyLoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosMo@暴走P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ワンダフル☆オポチュニティ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ワンダフル☆オポチュニティ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">林檎売りの泡沫少女  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yukkedoluce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7187,10 +7515,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C390" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C438" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D403" sqref="D403"/>
+      <selection pane="bottomRight" activeCell="D453" sqref="D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7207,7 +7535,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>94</v>
@@ -7230,10 +7558,10 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="19"/>
       <c r="B2" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>866</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21"/>
@@ -7264,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F3" s="9">
         <v>5</v>
@@ -7296,10 +7624,10 @@
         <v>105</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -7313,10 +7641,10 @@
         <v>107</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -7330,10 +7658,10 @@
         <v>109</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -7347,10 +7675,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -7364,10 +7692,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -7381,10 +7709,10 @@
         <v>111</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -7398,10 +7726,10 @@
         <v>113</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -7409,16 +7737,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C11" t="s">
         <v>1315</v>
       </c>
-      <c r="C11" t="s">
-        <v>1316</v>
-      </c>
       <c r="D11" s="15" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -7432,10 +7760,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -7449,10 +7777,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -7466,10 +7794,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -7483,10 +7811,10 @@
         <v>119</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -7500,10 +7828,10 @@
         <v>121</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -7517,10 +7845,10 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -7534,10 +7862,10 @@
         <v>125</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -7551,10 +7879,10 @@
         <v>127</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -7568,10 +7896,10 @@
         <v>129</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -7585,10 +7913,10 @@
         <v>131</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -7602,10 +7930,10 @@
         <v>133</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -7619,10 +7947,10 @@
         <v>135</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -7636,10 +7964,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -7653,10 +7981,10 @@
         <v>137</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -7670,10 +7998,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -7687,10 +8015,10 @@
         <v>139</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -7704,10 +8032,10 @@
         <v>141</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -7721,10 +8049,10 @@
         <v>143</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -7738,10 +8066,10 @@
         <v>145</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -7755,10 +8083,10 @@
         <v>147</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -7772,10 +8100,10 @@
         <v>149</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -7789,10 +8117,10 @@
         <v>6</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -7806,10 +8134,10 @@
         <v>151</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -7823,10 +8151,10 @@
         <v>153</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -7840,10 +8168,10 @@
         <v>155</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -7857,10 +8185,10 @@
         <v>157</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -7871,13 +8199,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>1417</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>1418</v>
-      </c>
       <c r="E38" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -7891,10 +8219,10 @@
         <v>159</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -7908,10 +8236,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -7925,10 +8253,10 @@
         <v>161</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -7942,10 +8270,10 @@
         <v>163</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -7959,10 +8287,10 @@
         <v>165</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -7976,10 +8304,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -7993,10 +8321,10 @@
         <v>167</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -8010,10 +8338,10 @@
         <v>169</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -8027,10 +8355,10 @@
         <v>171</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -8044,10 +8372,10 @@
         <v>173</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -8061,10 +8389,10 @@
         <v>10</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -8078,10 +8406,10 @@
         <v>176</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -8095,10 +8423,10 @@
         <v>178</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -8112,10 +8440,10 @@
         <v>180</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -8129,10 +8457,10 @@
         <v>182</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -8146,10 +8474,10 @@
         <v>184</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -8163,10 +8491,10 @@
         <v>186</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -8180,10 +8508,10 @@
         <v>188</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -8197,10 +8525,10 @@
         <v>190</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -8214,10 +8542,10 @@
         <v>192</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -8231,10 +8559,10 @@
         <v>194</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -8248,10 +8576,10 @@
         <v>11</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -8265,10 +8593,10 @@
         <v>196</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -8282,10 +8610,10 @@
         <v>198</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -8299,10 +8627,10 @@
         <v>12</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -8316,10 +8644,10 @@
         <v>200</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -8333,10 +8661,10 @@
         <v>202</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -8350,10 +8678,10 @@
         <v>204</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -8367,10 +8695,10 @@
         <v>206</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
@@ -8384,10 +8712,10 @@
         <v>208</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
@@ -8401,10 +8729,10 @@
         <v>13</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -8418,10 +8746,10 @@
         <v>210</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -8435,10 +8763,10 @@
         <v>212</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
@@ -8452,10 +8780,10 @@
         <v>214</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -8469,10 +8797,10 @@
         <v>216</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -8486,10 +8814,10 @@
         <v>218</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -8503,10 +8831,10 @@
         <v>220</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
@@ -8520,10 +8848,10 @@
         <v>14</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
@@ -8537,10 +8865,10 @@
         <v>15</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -8554,10 +8882,10 @@
         <v>222</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -8571,10 +8899,10 @@
         <v>224</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -8588,10 +8916,10 @@
         <v>16</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
@@ -8605,10 +8933,10 @@
         <v>226</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -8622,10 +8950,10 @@
         <v>227</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -8639,10 +8967,10 @@
         <v>229</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
@@ -8656,10 +8984,10 @@
         <v>231</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
@@ -8673,10 +9001,10 @@
         <v>233</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -8690,10 +9018,10 @@
         <v>235</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -8707,10 +9035,10 @@
         <v>237</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -8724,10 +9052,10 @@
         <v>17</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -8741,10 +9069,10 @@
         <v>239</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
@@ -8758,10 +9086,10 @@
         <v>241</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -8775,10 +9103,10 @@
         <v>243</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -8792,10 +9120,10 @@
         <v>245</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -8809,10 +9137,10 @@
         <v>247</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -8829,7 +9157,7 @@
         <v>164</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
@@ -8843,10 +9171,10 @@
         <v>249</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
@@ -8860,10 +9188,10 @@
         <v>251</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
@@ -8877,10 +9205,10 @@
         <v>253</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
@@ -8894,10 +9222,10 @@
         <v>255</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
@@ -8911,10 +9239,10 @@
         <v>19</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
@@ -8928,10 +9256,10 @@
         <v>257</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
@@ -8945,10 +9273,10 @@
         <v>259</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
@@ -8962,10 +9290,10 @@
         <v>261</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
@@ -8979,10 +9307,10 @@
         <v>263</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
@@ -8996,10 +9324,10 @@
         <v>265</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
@@ -9013,10 +9341,10 @@
         <v>267</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
@@ -9030,10 +9358,10 @@
         <v>269</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
@@ -9047,10 +9375,10 @@
         <v>271</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
@@ -9064,10 +9392,10 @@
         <v>20</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
@@ -9081,10 +9409,10 @@
         <v>273</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
@@ -9098,10 +9426,10 @@
         <v>275</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
@@ -9115,10 +9443,10 @@
         <v>277</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
@@ -9132,10 +9460,10 @@
         <v>279</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -9149,10 +9477,10 @@
         <v>281</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -9166,10 +9494,10 @@
         <v>283</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
@@ -9183,10 +9511,10 @@
         <v>21</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
@@ -9200,10 +9528,10 @@
         <v>285</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
@@ -9217,10 +9545,10 @@
         <v>22</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
@@ -9234,10 +9562,10 @@
         <v>287</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -9251,10 +9579,10 @@
         <v>289</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
@@ -9268,10 +9596,10 @@
         <v>291</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
@@ -9285,10 +9613,10 @@
         <v>293</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
@@ -9302,10 +9630,10 @@
         <v>295</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
@@ -9319,10 +9647,10 @@
         <v>297</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
@@ -9336,10 +9664,10 @@
         <v>299</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
@@ -9353,10 +9681,10 @@
         <v>301</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
@@ -9370,10 +9698,10 @@
         <v>303</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
@@ -9387,10 +9715,10 @@
         <v>305</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
@@ -9404,10 +9732,10 @@
         <v>307</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
@@ -9421,10 +9749,10 @@
         <v>309</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
@@ -9438,10 +9766,10 @@
         <v>311</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
@@ -9455,10 +9783,10 @@
         <v>313</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
@@ -9472,10 +9800,10 @@
         <v>315</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
@@ -9489,10 +9817,10 @@
         <v>23</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
@@ -9506,10 +9834,10 @@
         <v>24</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
@@ -9523,10 +9851,10 @@
         <v>318</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
@@ -9540,10 +9868,10 @@
         <v>320</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
@@ -9557,10 +9885,10 @@
         <v>25</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
@@ -9574,10 +9902,10 @@
         <v>322</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
@@ -9591,10 +9919,10 @@
         <v>324</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
@@ -9608,10 +9936,10 @@
         <v>326</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
@@ -9625,10 +9953,10 @@
         <v>26</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
@@ -9642,10 +9970,10 @@
         <v>328</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
@@ -9659,10 +9987,10 @@
         <v>330</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
@@ -9676,10 +10004,10 @@
         <v>332</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
@@ -9693,10 +10021,10 @@
         <v>334</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
@@ -9710,10 +10038,10 @@
         <v>336</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
@@ -9727,10 +10055,10 @@
         <v>338</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
@@ -9744,10 +10072,10 @@
         <v>340</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
@@ -9761,10 +10089,10 @@
         <v>342</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
@@ -9778,10 +10106,10 @@
         <v>344</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
@@ -9795,10 +10123,10 @@
         <v>346</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
@@ -9812,10 +10140,10 @@
         <v>348</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
@@ -9829,10 +10157,10 @@
         <v>350</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
@@ -9846,10 +10174,10 @@
         <v>352</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
@@ -9857,16 +10185,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C155" t="s">
         <v>353</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
@@ -9880,10 +10208,10 @@
         <v>27</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
@@ -9897,10 +10225,10 @@
         <v>28</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
@@ -9914,10 +10242,10 @@
         <v>355</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>1516</v>
+        <v>1769</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
@@ -9931,10 +10259,10 @@
         <v>357</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
@@ -9948,10 +10276,10 @@
         <v>359</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
@@ -9965,10 +10293,10 @@
         <v>360</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
@@ -9982,10 +10310,10 @@
         <v>362</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.4">
@@ -9999,10 +10327,10 @@
         <v>364</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
@@ -10016,10 +10344,10 @@
         <v>366</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
@@ -10033,10 +10361,10 @@
         <v>30</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
@@ -10050,10 +10378,10 @@
         <v>31</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
@@ -10067,10 +10395,10 @@
         <v>368</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.4">
@@ -10084,10 +10412,10 @@
         <v>370</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
@@ -10101,10 +10429,10 @@
         <v>371</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
@@ -10118,10 +10446,10 @@
         <v>373</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
@@ -10135,10 +10463,10 @@
         <v>33</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
@@ -10152,10 +10480,10 @@
         <v>375</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
@@ -10169,10 +10497,10 @@
         <v>377</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
@@ -10186,10 +10514,10 @@
         <v>379</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
@@ -10203,10 +10531,10 @@
         <v>381</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
@@ -10220,10 +10548,10 @@
         <v>383</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
@@ -10237,10 +10565,10 @@
         <v>385</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.4">
@@ -10254,10 +10582,10 @@
         <v>387</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
@@ -10271,10 +10599,10 @@
         <v>389</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
@@ -10288,10 +10616,10 @@
         <v>391</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
@@ -10305,10 +10633,10 @@
         <v>393</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.4">
@@ -10322,10 +10650,10 @@
         <v>394</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.4">
@@ -10339,10 +10667,10 @@
         <v>34</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
@@ -10356,10 +10684,10 @@
         <v>35</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
@@ -10373,10 +10701,10 @@
         <v>396</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.4">
@@ -10390,10 +10718,10 @@
         <v>398</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.4">
@@ -10407,10 +10735,10 @@
         <v>400</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.4">
@@ -10424,10 +10752,10 @@
         <v>402</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.4">
@@ -10441,10 +10769,10 @@
         <v>404</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.4">
@@ -10458,10 +10786,10 @@
         <v>406</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.4">
@@ -10475,10 +10803,10 @@
         <v>408</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.4">
@@ -10492,10 +10820,10 @@
         <v>410</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.4">
@@ -10509,10 +10837,10 @@
         <v>412</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.4">
@@ -10526,10 +10854,10 @@
         <v>414</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.4">
@@ -10543,10 +10871,10 @@
         <v>416</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.4">
@@ -10560,10 +10888,10 @@
         <v>418</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="197" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -10571,10 +10899,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D197" s="16" t="s">
         <v>419</v>
@@ -10583,19 +10911,19 @@
         <v>419</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H197" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J197" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.4">
@@ -10609,10 +10937,10 @@
         <v>421</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.4">
@@ -10626,10 +10954,10 @@
         <v>36</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.4">
@@ -10643,10 +10971,10 @@
         <v>423</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.4">
@@ -10660,10 +10988,10 @@
         <v>425</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.4">
@@ -10677,10 +11005,10 @@
         <v>427</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.4">
@@ -10694,10 +11022,10 @@
         <v>429</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.4">
@@ -10711,10 +11039,10 @@
         <v>431</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.4">
@@ -10728,10 +11056,10 @@
         <v>433</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.4">
@@ -10745,10 +11073,10 @@
         <v>435</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.4">
@@ -10762,10 +11090,10 @@
         <v>437</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.4">
@@ -10779,10 +11107,10 @@
         <v>439</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.4">
@@ -10796,10 +11124,10 @@
         <v>441</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.4">
@@ -10813,10 +11141,10 @@
         <v>443</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.4">
@@ -10830,10 +11158,10 @@
         <v>445</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.4">
@@ -10847,10 +11175,10 @@
         <v>447</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.4">
@@ -10864,10 +11192,10 @@
         <v>449</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.4">
@@ -10881,10 +11209,10 @@
         <v>451</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.4">
@@ -10898,10 +11226,10 @@
         <v>453</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.4">
@@ -10915,10 +11243,10 @@
         <v>37</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.4">
@@ -10932,10 +11260,10 @@
         <v>455</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.4">
@@ -10949,10 +11277,10 @@
         <v>457</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.4">
@@ -10966,10 +11294,10 @@
         <v>459</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.4">
@@ -10983,10 +11311,10 @@
         <v>38</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.4">
@@ -11000,10 +11328,10 @@
         <v>461</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.4">
@@ -11017,10 +11345,10 @@
         <v>39</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E222" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.4">
@@ -11034,10 +11362,10 @@
         <v>463</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.4">
@@ -11051,10 +11379,10 @@
         <v>40</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.4">
@@ -11068,10 +11396,10 @@
         <v>464</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.4">
@@ -11085,10 +11413,10 @@
         <v>466</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.4">
@@ -11102,10 +11430,10 @@
         <v>468</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.4">
@@ -11119,10 +11447,10 @@
         <v>470</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.4">
@@ -11136,10 +11464,10 @@
         <v>472</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.4">
@@ -11153,10 +11481,10 @@
         <v>474</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.4">
@@ -11170,10 +11498,10 @@
         <v>42</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.4">
@@ -11187,10 +11515,10 @@
         <v>476</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.4">
@@ -11204,10 +11532,10 @@
         <v>478</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.4">
@@ -11221,10 +11549,10 @@
         <v>479</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.4">
@@ -11238,10 +11566,10 @@
         <v>481</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.4">
@@ -11255,10 +11583,10 @@
         <v>43</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="237" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -11266,10 +11594,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D237" s="16" t="s">
         <v>419</v>
@@ -11278,19 +11606,19 @@
         <v>419</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G237" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H237" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I237" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J237" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.4">
@@ -11304,10 +11632,10 @@
         <v>483</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.4">
@@ -11321,10 +11649,10 @@
         <v>485</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.4">
@@ -11338,10 +11666,10 @@
         <v>487</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.4">
@@ -11355,10 +11683,10 @@
         <v>44</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.4">
@@ -11372,10 +11700,10 @@
         <v>489</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.4">
@@ -11389,10 +11717,10 @@
         <v>45</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.4">
@@ -11406,10 +11734,10 @@
         <v>492</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.4">
@@ -11423,10 +11751,10 @@
         <v>494</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.4">
@@ -11440,10 +11768,10 @@
         <v>496</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.4">
@@ -11457,10 +11785,10 @@
         <v>498</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.4">
@@ -11474,10 +11802,10 @@
         <v>500</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.4">
@@ -11491,10 +11819,10 @@
         <v>502</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.4">
@@ -11508,10 +11836,10 @@
         <v>504</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.4">
@@ -11525,10 +11853,10 @@
         <v>506</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.4">
@@ -11542,10 +11870,10 @@
         <v>508</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.4">
@@ -11559,10 +11887,10 @@
         <v>510</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.4">
@@ -11576,10 +11904,10 @@
         <v>46</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.4">
@@ -11593,10 +11921,10 @@
         <v>512</v>
       </c>
       <c r="D255" s="15" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F255" s="9">
         <v>9</v>
@@ -11625,10 +11953,10 @@
         <v>514</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.4">
@@ -11642,10 +11970,10 @@
         <v>516</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.4">
@@ -11659,10 +11987,10 @@
         <v>518</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.4">
@@ -11676,10 +12004,10 @@
         <v>47</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.4">
@@ -11693,10 +12021,10 @@
         <v>520</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.4">
@@ -11710,10 +12038,10 @@
         <v>522</v>
       </c>
       <c r="D261" s="15" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.4">
@@ -11727,10 +12055,10 @@
         <v>524</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.4">
@@ -11744,10 +12072,10 @@
         <v>526</v>
       </c>
       <c r="D263" s="15" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.4">
@@ -11761,10 +12089,10 @@
         <v>528</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.4">
@@ -11778,10 +12106,10 @@
         <v>530</v>
       </c>
       <c r="D265" s="15" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.4">
@@ -11795,10 +12123,10 @@
         <v>48</v>
       </c>
       <c r="D266" s="15" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.4">
@@ -11812,10 +12140,10 @@
         <v>49</v>
       </c>
       <c r="D267" s="15" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.4">
@@ -11829,10 +12157,10 @@
         <v>50</v>
       </c>
       <c r="D268" s="15" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.4">
@@ -11846,10 +12174,10 @@
         <v>51</v>
       </c>
       <c r="D269" s="15" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.4">
@@ -11863,10 +12191,10 @@
         <v>532</v>
       </c>
       <c r="D270" s="15" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F270" s="9">
         <v>9</v>
@@ -11895,10 +12223,10 @@
         <v>534</v>
       </c>
       <c r="D271" s="15" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.4">
@@ -11912,10 +12240,10 @@
         <v>52</v>
       </c>
       <c r="D272" s="15" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.4">
@@ -11929,10 +12257,10 @@
         <v>536</v>
       </c>
       <c r="D273" s="15" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.4">
@@ -11946,10 +12274,10 @@
         <v>538</v>
       </c>
       <c r="D274" s="15" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.4">
@@ -11963,10 +12291,10 @@
         <v>1925</v>
       </c>
       <c r="D275" s="15" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.4">
@@ -11980,10 +12308,10 @@
         <v>540</v>
       </c>
       <c r="D276" s="15" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.4">
@@ -11997,10 +12325,10 @@
         <v>542</v>
       </c>
       <c r="D277" s="15" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.4">
@@ -12014,10 +12342,10 @@
         <v>53</v>
       </c>
       <c r="D278" s="15" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.4">
@@ -12031,10 +12359,10 @@
         <v>54</v>
       </c>
       <c r="D279" s="15" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.4">
@@ -12048,10 +12376,10 @@
         <v>544</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.4">
@@ -12065,10 +12393,10 @@
         <v>546</v>
       </c>
       <c r="D281" s="15" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.4">
@@ -12082,10 +12410,10 @@
         <v>548</v>
       </c>
       <c r="D282" s="15" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.4">
@@ -12099,10 +12427,10 @@
         <v>55</v>
       </c>
       <c r="D283" s="15" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.4">
@@ -12116,10 +12444,10 @@
         <v>550</v>
       </c>
       <c r="D284" s="15" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.4">
@@ -12133,10 +12461,10 @@
         <v>56</v>
       </c>
       <c r="D285" s="15" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.4">
@@ -12150,10 +12478,10 @@
         <v>39</v>
       </c>
       <c r="D286" s="15" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.4">
@@ -12167,10 +12495,10 @@
         <v>57</v>
       </c>
       <c r="D287" s="15" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.4">
@@ -12184,10 +12512,10 @@
         <v>552</v>
       </c>
       <c r="D288" s="15" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.4">
@@ -12201,10 +12529,10 @@
         <v>554</v>
       </c>
       <c r="D289" s="15" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.4">
@@ -12218,10 +12546,10 @@
         <v>58</v>
       </c>
       <c r="D290" s="15" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.4">
@@ -12235,10 +12563,10 @@
         <v>556</v>
       </c>
       <c r="D291" s="15" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.4">
@@ -12252,10 +12580,10 @@
         <v>558</v>
       </c>
       <c r="D292" s="15" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.4">
@@ -12269,10 +12597,10 @@
         <v>560</v>
       </c>
       <c r="D293" s="15" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.4">
@@ -12286,10 +12614,10 @@
         <v>59</v>
       </c>
       <c r="D294" s="15" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.4">
@@ -12303,10 +12631,10 @@
         <v>60</v>
       </c>
       <c r="D295" s="15" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.4">
@@ -12320,10 +12648,10 @@
         <v>61</v>
       </c>
       <c r="D296" s="15" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.4">
@@ -12337,10 +12665,10 @@
         <v>562</v>
       </c>
       <c r="D297" s="15" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E297" s="12" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.4">
@@ -12354,10 +12682,10 @@
         <v>564</v>
       </c>
       <c r="D298" s="15" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.4">
@@ -12371,10 +12699,10 @@
         <v>566</v>
       </c>
       <c r="D299" s="15" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E299" s="12" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.4">
@@ -12388,10 +12716,10 @@
         <v>568</v>
       </c>
       <c r="D300" s="15" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.4">
@@ -12405,10 +12733,10 @@
         <v>570</v>
       </c>
       <c r="D301" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E301" s="12" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.4">
@@ -12422,10 +12750,10 @@
         <v>572</v>
       </c>
       <c r="D302" s="15" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E302" s="12" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.4">
@@ -12439,10 +12767,10 @@
         <v>574</v>
       </c>
       <c r="D303" s="15" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E303" s="12" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.4">
@@ -12456,10 +12784,10 @@
         <v>576</v>
       </c>
       <c r="D304" s="15" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E304" s="12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.4">
@@ -12473,10 +12801,10 @@
         <v>578</v>
       </c>
       <c r="D305" s="15" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E305" s="12" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.4">
@@ -12490,10 +12818,10 @@
         <v>580</v>
       </c>
       <c r="D306" s="15" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E306" s="12" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.4">
@@ -12507,10 +12835,10 @@
         <v>582</v>
       </c>
       <c r="D307" s="15" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.4">
@@ -12524,10 +12852,10 @@
         <v>584</v>
       </c>
       <c r="D308" s="15" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E308" s="12" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.4">
@@ -12541,10 +12869,10 @@
         <v>586</v>
       </c>
       <c r="D309" s="15" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E309" s="12" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.4">
@@ -12558,10 +12886,10 @@
         <v>588</v>
       </c>
       <c r="D310" s="15" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.4">
@@ -12575,10 +12903,10 @@
         <v>590</v>
       </c>
       <c r="D311" s="15" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.4">
@@ -12592,10 +12920,10 @@
         <v>592</v>
       </c>
       <c r="D312" s="15" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.4">
@@ -12609,10 +12937,10 @@
         <v>594</v>
       </c>
       <c r="D313" s="15" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E313" s="12" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.4">
@@ -12626,10 +12954,10 @@
         <v>62</v>
       </c>
       <c r="D314" s="15" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E314" s="12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.4">
@@ -12643,10 +12971,10 @@
         <v>596</v>
       </c>
       <c r="D315" s="15" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E315" s="12" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.4">
@@ -12660,10 +12988,10 @@
         <v>598</v>
       </c>
       <c r="D316" s="15" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E316" s="12" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.4">
@@ -12677,10 +13005,10 @@
         <v>600</v>
       </c>
       <c r="D317" s="15" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E317" s="12" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.4">
@@ -12694,10 +13022,10 @@
         <v>63</v>
       </c>
       <c r="D318" s="15" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.4">
@@ -12711,10 +13039,10 @@
         <v>602</v>
       </c>
       <c r="D319" s="15" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.4">
@@ -12728,10 +13056,10 @@
         <v>604</v>
       </c>
       <c r="D320" s="15" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E320" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.4">
@@ -12745,10 +13073,10 @@
         <v>64</v>
       </c>
       <c r="D321" s="15" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E321" s="12" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.4">
@@ -12762,10 +13090,10 @@
         <v>606</v>
       </c>
       <c r="D322" s="15" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E322" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.4">
@@ -12779,10 +13107,10 @@
         <v>608</v>
       </c>
       <c r="D323" s="15" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.4">
@@ -12796,10 +13124,10 @@
         <v>610</v>
       </c>
       <c r="D324" s="15" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="E324" s="12" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.4">
@@ -12813,10 +13141,10 @@
         <v>612</v>
       </c>
       <c r="D325" s="15" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.4">
@@ -12830,10 +13158,10 @@
         <v>65</v>
       </c>
       <c r="D326" s="15" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.4">
@@ -12847,10 +13175,10 @@
         <v>614</v>
       </c>
       <c r="D327" s="15" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.4">
@@ -12864,10 +13192,10 @@
         <v>66</v>
       </c>
       <c r="D328" s="15" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.4">
@@ -12881,10 +13209,10 @@
         <v>616</v>
       </c>
       <c r="D329" s="15" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.4">
@@ -12898,10 +13226,10 @@
         <v>67</v>
       </c>
       <c r="D330" s="15" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E330" s="12" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.4">
@@ -12915,10 +13243,10 @@
         <v>618</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.4">
@@ -12932,10 +13260,10 @@
         <v>620</v>
       </c>
       <c r="D332" s="15" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.4">
@@ -12949,10 +13277,10 @@
         <v>622</v>
       </c>
       <c r="D333" s="15" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.4">
@@ -12966,10 +13294,10 @@
         <v>624</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.4">
@@ -12983,10 +13311,10 @@
         <v>626</v>
       </c>
       <c r="D335" s="15" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E335" s="12" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.4">
@@ -13000,10 +13328,10 @@
         <v>68</v>
       </c>
       <c r="D336" s="15" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E336" s="12" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.4">
@@ -13017,10 +13345,10 @@
         <v>628</v>
       </c>
       <c r="D337" s="24" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E337" s="12" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.4">
@@ -13034,10 +13362,10 @@
         <v>630</v>
       </c>
       <c r="D338" s="15" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E338" s="12" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.4">
@@ -13051,10 +13379,10 @@
         <v>632</v>
       </c>
       <c r="D339" s="15" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E339" s="12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.4">
@@ -13068,10 +13396,10 @@
         <v>69</v>
       </c>
       <c r="D340" s="15" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E340" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.4">
@@ -13085,10 +13413,10 @@
         <v>634</v>
       </c>
       <c r="D341" s="15" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E341" s="12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.4">
@@ -13102,10 +13430,10 @@
         <v>636</v>
       </c>
       <c r="D342" s="15" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E342" s="12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.4">
@@ -13119,10 +13447,10 @@
         <v>638</v>
       </c>
       <c r="D343" s="15" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.4">
@@ -13136,10 +13464,10 @@
         <v>640</v>
       </c>
       <c r="D344" s="15" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E344" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.4">
@@ -13153,10 +13481,10 @@
         <v>642</v>
       </c>
       <c r="D345" s="15" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.4">
@@ -13170,10 +13498,10 @@
         <v>644</v>
       </c>
       <c r="D346" s="15" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E346" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.4">
@@ -13187,10 +13515,10 @@
         <v>70</v>
       </c>
       <c r="D347" s="15" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E347" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.4">
@@ -13204,10 +13532,10 @@
         <v>71</v>
       </c>
       <c r="D348" s="15" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E348" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.4">
@@ -13221,10 +13549,10 @@
         <v>647</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E349" s="12" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.4">
@@ -13238,10 +13566,10 @@
         <v>72</v>
       </c>
       <c r="D350" s="15" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E350" s="12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.4">
@@ -13255,10 +13583,10 @@
         <v>649</v>
       </c>
       <c r="D351" s="15" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E351" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.4">
@@ -13272,10 +13600,10 @@
         <v>73</v>
       </c>
       <c r="D352" s="15" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E352" s="12" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.4">
@@ -13289,10 +13617,10 @@
         <v>651</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E353" s="12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.4">
@@ -13306,10 +13634,10 @@
         <v>653</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E354" s="12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.4">
@@ -13323,10 +13651,10 @@
         <v>655</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E355" s="12" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.4">
@@ -13340,10 +13668,10 @@
         <v>657</v>
       </c>
       <c r="D356" s="15" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E356" s="12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.4">
@@ -13357,10 +13685,10 @@
         <v>659</v>
       </c>
       <c r="D357" s="15" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E357" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.4">
@@ -13374,10 +13702,10 @@
         <v>661</v>
       </c>
       <c r="D358" s="15" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E358" s="12" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.4">
@@ -13391,10 +13719,10 @@
         <v>663</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E359" s="12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.4">
@@ -13408,10 +13736,10 @@
         <v>665</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E360" s="12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.4">
@@ -13425,10 +13753,10 @@
         <v>667</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E361" s="12" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.4">
@@ -13442,10 +13770,10 @@
         <v>669</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E362" s="12" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.4">
@@ -13459,10 +13787,10 @@
         <v>670</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E363" s="12" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.4">
@@ -13476,10 +13804,10 @@
         <v>672</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E364" s="12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.4">
@@ -13493,10 +13821,10 @@
         <v>75</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E365" s="12" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.4">
@@ -13510,10 +13838,10 @@
         <v>674</v>
       </c>
       <c r="D366" s="15" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E366" s="12" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.4">
@@ -13527,10 +13855,10 @@
         <v>676</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E367" s="12" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.4">
@@ -13544,10 +13872,10 @@
         <v>677</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E368" s="12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.4">
@@ -13561,10 +13889,10 @@
         <v>679</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E369" s="12" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.4">
@@ -13578,10 +13906,10 @@
         <v>681</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E370" s="12" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.4">
@@ -13595,10 +13923,10 @@
         <v>683</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E371" s="12" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.4">
@@ -13612,10 +13940,10 @@
         <v>684</v>
       </c>
       <c r="D372" s="15" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E372" s="12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.4">
@@ -13629,10 +13957,10 @@
         <v>685</v>
       </c>
       <c r="D373" s="15" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E373" s="12" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.4">
@@ -13646,10 +13974,10 @@
         <v>687</v>
       </c>
       <c r="D374" s="15" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E374" s="12" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.4">
@@ -13663,10 +13991,10 @@
         <v>689</v>
       </c>
       <c r="D375" s="15" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E375" s="12" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.4">
@@ -13680,10 +14008,10 @@
         <v>691</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E376" s="12" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.4">
@@ -13697,10 +14025,10 @@
         <v>692</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E377" s="12" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.4">
@@ -13714,10 +14042,10 @@
         <v>694</v>
       </c>
       <c r="D378" s="24" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E378" s="12" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.4">
@@ -13731,10 +14059,10 @@
         <v>696</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E379" s="12" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.4">
@@ -13748,10 +14076,10 @@
         <v>698</v>
       </c>
       <c r="D380" s="15" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E380" s="12" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.4">
@@ -13765,10 +14093,10 @@
         <v>700</v>
       </c>
       <c r="D381" s="15" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E381" s="12" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.4">
@@ -13782,10 +14110,10 @@
         <v>702</v>
       </c>
       <c r="D382" s="15" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E382" s="12" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.4">
@@ -13799,10 +14127,10 @@
         <v>704</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E383" s="12" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.4">
@@ -13816,10 +14144,10 @@
         <v>706</v>
       </c>
       <c r="D384" s="15" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E384" s="12" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.4">
@@ -13833,10 +14161,10 @@
         <v>708</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E385" s="12" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.4">
@@ -13850,10 +14178,10 @@
         <v>710</v>
       </c>
       <c r="D386" s="15" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E386" s="12" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.4">
@@ -13867,10 +14195,10 @@
         <v>712</v>
       </c>
       <c r="D387" s="15" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E387" s="12" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.4">
@@ -13884,10 +14212,10 @@
         <v>714</v>
       </c>
       <c r="D388" s="15" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E388" s="12" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.4">
@@ -13901,10 +14229,10 @@
         <v>716</v>
       </c>
       <c r="D389" s="15" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E389" s="12" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.4">
@@ -13918,10 +14246,10 @@
         <v>718</v>
       </c>
       <c r="D390" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E390" s="12" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.4">
@@ -13935,10 +14263,10 @@
         <v>720</v>
       </c>
       <c r="D391" s="15" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E391" s="12" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.4">
@@ -13952,10 +14280,10 @@
         <v>77</v>
       </c>
       <c r="D392" s="15" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E392" s="12" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.4">
@@ -13969,10 +14297,10 @@
         <v>78</v>
       </c>
       <c r="D393" s="15" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E393" s="12" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.4">
@@ -13986,10 +14314,10 @@
         <v>79</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E394" s="12" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.4">
@@ -13997,16 +14325,16 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C395" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E395" s="12" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.4">
@@ -14020,10 +14348,10 @@
         <v>723</v>
       </c>
       <c r="D396" s="15" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E396" s="12" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.4">
@@ -14037,10 +14365,10 @@
         <v>80</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E397" s="12" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.4">
@@ -14054,10 +14382,10 @@
         <v>725</v>
       </c>
       <c r="D398" s="15" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E398" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.4">
@@ -14071,10 +14399,10 @@
         <v>727</v>
       </c>
       <c r="D399" s="15" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E399" s="12" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.4">
@@ -14088,10 +14416,10 @@
         <v>729</v>
       </c>
       <c r="D400" s="24" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E400" s="12" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.4">
@@ -14105,10 +14433,10 @@
         <v>731</v>
       </c>
       <c r="D401" s="15" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E401" s="12" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.4">
@@ -14122,10 +14450,10 @@
         <v>733</v>
       </c>
       <c r="D402" s="15" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E402" s="12" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.4">
@@ -14138,8 +14466,11 @@
       <c r="C403" t="s">
         <v>735</v>
       </c>
+      <c r="D403" s="15" t="s">
+        <v>1725</v>
+      </c>
       <c r="E403" s="12" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.4">
@@ -14152,8 +14483,11 @@
       <c r="C404" t="s">
         <v>737</v>
       </c>
+      <c r="D404" s="15" t="s">
+        <v>1726</v>
+      </c>
       <c r="E404" s="12" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.4">
@@ -14166,8 +14500,11 @@
       <c r="C405" t="s">
         <v>81</v>
       </c>
+      <c r="D405" s="15" t="s">
+        <v>1727</v>
+      </c>
       <c r="E405" s="12" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.4">
@@ -14180,8 +14517,11 @@
       <c r="C406" t="s">
         <v>739</v>
       </c>
+      <c r="D406" s="15" t="s">
+        <v>1728</v>
+      </c>
       <c r="E406" s="12" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.4">
@@ -14194,8 +14534,11 @@
       <c r="C407" t="s">
         <v>741</v>
       </c>
+      <c r="D407" s="15" t="s">
+        <v>1729</v>
+      </c>
       <c r="E407" s="12" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.4">
@@ -14208,8 +14551,11 @@
       <c r="C408" t="s">
         <v>82</v>
       </c>
+      <c r="D408" s="15" t="s">
+        <v>1683</v>
+      </c>
       <c r="E408" s="12" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.4">
@@ -14222,8 +14568,11 @@
       <c r="C409" t="s">
         <v>743</v>
       </c>
+      <c r="D409" s="24" t="s">
+        <v>1730</v>
+      </c>
       <c r="E409" s="12" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.4">
@@ -14236,8 +14585,11 @@
       <c r="C410" t="s">
         <v>745</v>
       </c>
+      <c r="D410" s="15" t="s">
+        <v>1486</v>
+      </c>
       <c r="E410" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.4">
@@ -14250,8 +14602,11 @@
       <c r="C411" t="s">
         <v>747</v>
       </c>
+      <c r="D411" s="15" t="s">
+        <v>1731</v>
+      </c>
       <c r="E411" s="12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.4">
@@ -14264,8 +14619,11 @@
       <c r="C412" t="s">
         <v>749</v>
       </c>
+      <c r="D412" s="15" t="s">
+        <v>1732</v>
+      </c>
       <c r="E412" s="12" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.4">
@@ -14278,8 +14636,11 @@
       <c r="C413" t="s">
         <v>751</v>
       </c>
+      <c r="D413" s="15" t="s">
+        <v>1733</v>
+      </c>
       <c r="E413" s="12" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.4">
@@ -14292,8 +14653,11 @@
       <c r="C414" t="s">
         <v>83</v>
       </c>
+      <c r="D414" s="15" t="s">
+        <v>1734</v>
+      </c>
       <c r="E414" s="12" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.4">
@@ -14306,8 +14670,11 @@
       <c r="C415" t="s">
         <v>753</v>
       </c>
+      <c r="D415" s="15" t="s">
+        <v>1736</v>
+      </c>
       <c r="E415" s="12" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.4">
@@ -14320,8 +14687,11 @@
       <c r="C416" t="s">
         <v>755</v>
       </c>
+      <c r="D416" s="15" t="s">
+        <v>1735</v>
+      </c>
       <c r="E416" s="12" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.4">
@@ -14334,8 +14704,11 @@
       <c r="C417" t="s">
         <v>757</v>
       </c>
+      <c r="D417" s="15" t="s">
+        <v>1737</v>
+      </c>
       <c r="E417" s="12" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.4">
@@ -14348,8 +14721,11 @@
       <c r="C418" t="s">
         <v>759</v>
       </c>
+      <c r="D418" s="15" t="s">
+        <v>1738</v>
+      </c>
       <c r="E418" s="12" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.4">
@@ -14362,8 +14738,11 @@
       <c r="C419" t="s">
         <v>761</v>
       </c>
+      <c r="D419" s="15" t="s">
+        <v>1739</v>
+      </c>
       <c r="E419" s="12" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.4">
@@ -14376,8 +14755,11 @@
       <c r="C420" t="s">
         <v>84</v>
       </c>
+      <c r="D420" s="15" t="s">
+        <v>1740</v>
+      </c>
       <c r="E420" s="12" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.4">
@@ -14390,8 +14772,11 @@
       <c r="C421" t="s">
         <v>763</v>
       </c>
+      <c r="D421" s="15" t="s">
+        <v>1741</v>
+      </c>
       <c r="E421" s="12" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.4">
@@ -14404,8 +14789,11 @@
       <c r="C422" t="s">
         <v>765</v>
       </c>
+      <c r="D422" s="15" t="s">
+        <v>1742</v>
+      </c>
       <c r="E422" s="12" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.4">
@@ -14418,8 +14806,11 @@
       <c r="C423" t="s">
         <v>767</v>
       </c>
+      <c r="D423" s="15" t="s">
+        <v>1743</v>
+      </c>
       <c r="E423" s="12" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.4">
@@ -14432,8 +14823,11 @@
       <c r="C424" t="s">
         <v>769</v>
       </c>
+      <c r="D424" s="15" t="s">
+        <v>1744</v>
+      </c>
       <c r="E424" s="12" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.4">
@@ -14446,8 +14840,11 @@
       <c r="C425" t="s">
         <v>771</v>
       </c>
+      <c r="D425" s="15" t="s">
+        <v>1694</v>
+      </c>
       <c r="E425" s="12" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.4">
@@ -14460,8 +14857,11 @@
       <c r="C426" t="s">
         <v>773</v>
       </c>
+      <c r="D426" s="24" t="s">
+        <v>1745</v>
+      </c>
       <c r="E426" s="12" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.4">
@@ -14474,8 +14874,11 @@
       <c r="C427" t="s">
         <v>775</v>
       </c>
+      <c r="D427" s="15" t="s">
+        <v>1746</v>
+      </c>
       <c r="E427" s="12" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.4">
@@ -14488,8 +14891,11 @@
       <c r="C428" t="s">
         <v>777</v>
       </c>
+      <c r="D428" s="15" t="s">
+        <v>1747</v>
+      </c>
       <c r="E428" s="12" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.4">
@@ -14502,8 +14908,11 @@
       <c r="C429" t="s">
         <v>779</v>
       </c>
+      <c r="D429" s="15" t="s">
+        <v>1748</v>
+      </c>
       <c r="E429" s="12" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.4">
@@ -14516,8 +14925,11 @@
       <c r="C430" t="s">
         <v>781</v>
       </c>
+      <c r="D430" s="15" t="s">
+        <v>1749</v>
+      </c>
       <c r="E430" s="12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.4">
@@ -14530,8 +14942,11 @@
       <c r="C431" t="s">
         <v>783</v>
       </c>
+      <c r="D431" s="15" t="s">
+        <v>1750</v>
+      </c>
       <c r="E431" s="12" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.4">
@@ -14539,13 +14954,16 @@
         <v>430</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>1389</v>
+        <v>1751</v>
       </c>
       <c r="C432" t="s">
-        <v>1388</v>
+        <v>1387</v>
+      </c>
+      <c r="D432" s="15" t="s">
+        <v>1752</v>
       </c>
       <c r="E432" s="12" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.4">
@@ -14558,8 +14976,11 @@
       <c r="C433" t="s">
         <v>85</v>
       </c>
+      <c r="D433" s="15" t="s">
+        <v>1753</v>
+      </c>
       <c r="E433" s="12" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.4">
@@ -14572,8 +14993,11 @@
       <c r="C434" t="s">
         <v>86</v>
       </c>
+      <c r="D434" s="15" t="s">
+        <v>1752</v>
+      </c>
       <c r="E434" s="12" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.4">
@@ -14586,8 +15010,11 @@
       <c r="C435" t="s">
         <v>785</v>
       </c>
+      <c r="D435" s="24" t="s">
+        <v>1754</v>
+      </c>
       <c r="E435" s="12" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.4">
@@ -14600,8 +15027,11 @@
       <c r="C436" t="s">
         <v>787</v>
       </c>
+      <c r="D436" s="15" t="s">
+        <v>1755</v>
+      </c>
       <c r="E436" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.4">
@@ -14614,8 +15044,11 @@
       <c r="C437" t="s">
         <v>789</v>
       </c>
+      <c r="D437" s="15" t="s">
+        <v>1756</v>
+      </c>
       <c r="E437" s="12" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.4">
@@ -14628,8 +15061,11 @@
       <c r="C438" t="s">
         <v>791</v>
       </c>
+      <c r="D438" s="15" t="s">
+        <v>1713</v>
+      </c>
       <c r="E438" s="12" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.4">
@@ -14642,8 +15078,11 @@
       <c r="C439" t="s">
         <v>793</v>
       </c>
+      <c r="D439" s="15" t="s">
+        <v>1757</v>
+      </c>
       <c r="E439" s="12" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.4">
@@ -14656,8 +15095,11 @@
       <c r="C440" t="s">
         <v>795</v>
       </c>
+      <c r="D440" s="15" t="s">
+        <v>1758</v>
+      </c>
       <c r="E440" s="12" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.4">
@@ -14670,8 +15112,11 @@
       <c r="C441" t="s">
         <v>797</v>
       </c>
+      <c r="D441" s="15" t="s">
+        <v>1759</v>
+      </c>
       <c r="E441" s="12" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.4">
@@ -14684,8 +15129,11 @@
       <c r="C442" t="s">
         <v>799</v>
       </c>
+      <c r="D442" s="15" t="s">
+        <v>1760</v>
+      </c>
       <c r="E442" s="12" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.4">
@@ -14698,8 +15146,11 @@
       <c r="C443" t="s">
         <v>801</v>
       </c>
+      <c r="D443" s="15" t="s">
+        <v>1761</v>
+      </c>
       <c r="E443" s="12" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.4">
@@ -14712,8 +15163,11 @@
       <c r="C444" t="s">
         <v>87</v>
       </c>
+      <c r="D444" s="17" t="s">
+        <v>1762</v>
+      </c>
       <c r="E444" s="12" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.4">
@@ -14726,8 +15180,11 @@
       <c r="C445" t="s">
         <v>803</v>
       </c>
+      <c r="D445" s="15" t="s">
+        <v>1763</v>
+      </c>
       <c r="E445" s="12" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.4">
@@ -14740,8 +15197,11 @@
       <c r="C446" t="s">
         <v>805</v>
       </c>
+      <c r="D446" s="15" t="s">
+        <v>1764</v>
+      </c>
       <c r="E446" s="12" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.4">
@@ -14754,8 +15214,11 @@
       <c r="C447" t="s">
         <v>88</v>
       </c>
+      <c r="D447" s="15" t="s">
+        <v>1765</v>
+      </c>
       <c r="E447" s="12" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.4">
@@ -14768,8 +15231,11 @@
       <c r="C448" t="s">
         <v>807</v>
       </c>
+      <c r="D448" s="15" t="s">
+        <v>1766</v>
+      </c>
       <c r="E448" s="12" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.4">
@@ -14782,8 +15248,11 @@
       <c r="C449" t="s">
         <v>89</v>
       </c>
+      <c r="D449" s="15" t="s">
+        <v>1767</v>
+      </c>
       <c r="E449" s="12" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.4">
@@ -14796,8 +15265,11 @@
       <c r="C450" t="s">
         <v>809</v>
       </c>
+      <c r="D450" s="15" t="s">
+        <v>1768</v>
+      </c>
       <c r="E450" s="12" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.4">
@@ -14810,8 +15282,11 @@
       <c r="C451" t="s">
         <v>811</v>
       </c>
+      <c r="D451" s="15" t="s">
+        <v>1770</v>
+      </c>
       <c r="E451" s="12" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.4">
@@ -14822,10 +15297,13 @@
         <v>812</v>
       </c>
       <c r="C452" t="s">
-        <v>813</v>
+        <v>1771</v>
+      </c>
+      <c r="D452" s="15" t="s">
+        <v>1772</v>
       </c>
       <c r="E452" s="12" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.4">
@@ -14833,13 +15311,13 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
+        <v>813</v>
+      </c>
+      <c r="C453" t="s">
         <v>814</v>
       </c>
-      <c r="C453" t="s">
-        <v>815</v>
-      </c>
       <c r="E453" s="12" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.4">
@@ -14847,13 +15325,13 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
+        <v>815</v>
+      </c>
+      <c r="C454" t="s">
         <v>816</v>
       </c>
-      <c r="C454" t="s">
-        <v>817</v>
-      </c>
       <c r="E454" s="12" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.4">
@@ -14861,13 +15339,13 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C455" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E455" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.4">
@@ -14875,13 +15353,13 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
+        <v>818</v>
+      </c>
+      <c r="C456" t="s">
         <v>819</v>
       </c>
-      <c r="C456" t="s">
-        <v>820</v>
-      </c>
       <c r="E456" s="12" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.4">
@@ -14889,13 +15367,13 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
+        <v>820</v>
+      </c>
+      <c r="C457" t="s">
         <v>821</v>
       </c>
-      <c r="C457" t="s">
-        <v>822</v>
-      </c>
       <c r="E457" s="12" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.4">
@@ -14906,10 +15384,10 @@
         <v>90</v>
       </c>
       <c r="C458" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E458" s="12" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.4">
@@ -14917,13 +15395,13 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
+        <v>823</v>
+      </c>
+      <c r="C459" t="s">
         <v>824</v>
       </c>
-      <c r="C459" t="s">
-        <v>825</v>
-      </c>
       <c r="E459" s="12" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.4">
@@ -14931,13 +15409,13 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
+        <v>825</v>
+      </c>
+      <c r="C460" t="s">
         <v>826</v>
       </c>
-      <c r="C460" t="s">
-        <v>827</v>
-      </c>
       <c r="E460" s="12" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.4">
@@ -14948,10 +15426,10 @@
         <v>91</v>
       </c>
       <c r="C461" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E461" s="12" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.4">
@@ -14959,13 +15437,13 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
+        <v>828</v>
+      </c>
+      <c r="C462" t="s">
         <v>829</v>
       </c>
-      <c r="C462" t="s">
-        <v>830</v>
-      </c>
       <c r="E462" s="12" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.4">
@@ -14973,13 +15451,13 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
+        <v>830</v>
+      </c>
+      <c r="C463" t="s">
         <v>831</v>
       </c>
-      <c r="C463" t="s">
-        <v>832</v>
-      </c>
       <c r="E463" s="12" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.4">
@@ -14987,13 +15465,13 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C464" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E464" s="12" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.4">
@@ -15001,13 +15479,13 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
+        <v>833</v>
+      </c>
+      <c r="C465" t="s">
         <v>834</v>
       </c>
-      <c r="C465" t="s">
-        <v>835</v>
-      </c>
       <c r="E465" s="12" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.4">
@@ -15015,13 +15493,13 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
+        <v>835</v>
+      </c>
+      <c r="C466" t="s">
         <v>836</v>
       </c>
-      <c r="C466" t="s">
-        <v>837</v>
-      </c>
       <c r="E466" s="12" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.4">
@@ -15029,13 +15507,13 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
+        <v>837</v>
+      </c>
+      <c r="C467" t="s">
         <v>838</v>
       </c>
-      <c r="C467" t="s">
-        <v>839</v>
-      </c>
       <c r="E467" s="12" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.4">
@@ -15049,7 +15527,7 @@
         <v>92</v>
       </c>
       <c r="E468" s="12" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.4">
@@ -15057,13 +15535,13 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
+        <v>839</v>
+      </c>
+      <c r="C469" t="s">
         <v>840</v>
       </c>
-      <c r="C469" t="s">
-        <v>841</v>
-      </c>
       <c r="E469" s="12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.4">
@@ -15071,13 +15549,13 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
+        <v>841</v>
+      </c>
+      <c r="C470" t="s">
         <v>842</v>
       </c>
-      <c r="C470" t="s">
-        <v>843</v>
-      </c>
       <c r="E470" s="12" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.4">
@@ -15085,13 +15563,13 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
+        <v>843</v>
+      </c>
+      <c r="C471" t="s">
         <v>844</v>
       </c>
-      <c r="C471" t="s">
-        <v>845</v>
-      </c>
       <c r="E471" s="12" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.4">
@@ -15099,13 +15577,13 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
+        <v>845</v>
+      </c>
+      <c r="C472" t="s">
         <v>846</v>
       </c>
-      <c r="C472" t="s">
-        <v>847</v>
-      </c>
       <c r="E472" s="12" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.4">
@@ -15113,13 +15591,13 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
+        <v>847</v>
+      </c>
+      <c r="C473" t="s">
         <v>848</v>
       </c>
-      <c r="C473" t="s">
-        <v>849</v>
-      </c>
       <c r="E473" s="12" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.4">
@@ -15127,13 +15605,13 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
+        <v>849</v>
+      </c>
+      <c r="C474" t="s">
         <v>850</v>
       </c>
-      <c r="C474" t="s">
-        <v>851</v>
-      </c>
       <c r="E474" s="12" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.4">
@@ -15141,13 +15619,13 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
+        <v>851</v>
+      </c>
+      <c r="C475" t="s">
         <v>852</v>
       </c>
-      <c r="C475" t="s">
-        <v>853</v>
-      </c>
       <c r="E475" s="12" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.4">
@@ -15155,13 +15633,13 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
+        <v>853</v>
+      </c>
+      <c r="C476" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="C476" s="5" t="s">
-        <v>855</v>
-      </c>
       <c r="E476" s="12" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.4">
@@ -15175,7 +15653,7 @@
         <v>93</v>
       </c>
       <c r="E477" s="12" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.4">
@@ -15183,13 +15661,13 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C478" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E478" s="12" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.4">
@@ -15197,16 +15675,16 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
+        <v>856</v>
+      </c>
+      <c r="C479" t="s">
         <v>857</v>
       </c>
-      <c r="C479" t="s">
-        <v>858</v>
-      </c>
       <c r="D479" s="15" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E479" s="12" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.4">
@@ -15214,13 +15692,13 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
+        <v>858</v>
+      </c>
+      <c r="C480" t="s">
         <v>859</v>
       </c>
-      <c r="C480" t="s">
-        <v>860</v>
-      </c>
       <c r="E480" s="12" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F480" s="9">
         <v>8</v>
@@ -15243,16 +15721,16 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
+        <v>860</v>
+      </c>
+      <c r="C481" t="s">
         <v>861</v>
       </c>
-      <c r="C481" t="s">
-        <v>862</v>
-      </c>
       <c r="D481" s="15" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E481" s="12" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.4">
@@ -15260,16 +15738,16 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
+        <v>862</v>
+      </c>
+      <c r="C482" t="s">
         <v>863</v>
       </c>
-      <c r="C482" t="s">
-        <v>864</v>
-      </c>
       <c r="D482" s="15" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E482" s="12" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.4">
@@ -15277,16 +15755,16 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C483" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D483" s="15" t="s">
         <v>1385</v>
       </c>
-      <c r="C483" s="11" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D483" s="15" t="s">
-        <v>1386</v>
-      </c>
       <c r="E483" s="12" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.4">
@@ -15928,7 +16406,7 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="22" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>94</v>
@@ -15938,19 +16416,19 @@
         <v>95</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>1310</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="23"/>
       <c r="C2" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -15972,10 +16450,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -15983,10 +16461,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D5" t="s">
         <v>1315</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -16093,16 +16571,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D15" t="s">
         <v>1318</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F15" t="s">
         <v>1319</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1320</v>
       </c>
       <c r="G15">
         <v>36</v>
@@ -16135,7 +16613,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
@@ -16143,7 +16621,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
@@ -16151,7 +16629,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
@@ -16159,7 +16637,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
@@ -16167,7 +16645,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
@@ -16175,7 +16653,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
@@ -16183,7 +16661,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
@@ -16191,7 +16669,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
@@ -16199,7 +16677,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
@@ -16207,7 +16685,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
@@ -16215,7 +16693,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
@@ -16231,7 +16709,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
@@ -16239,7 +16717,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
@@ -16247,7 +16725,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
@@ -16255,7 +16733,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
@@ -16263,7 +16741,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
@@ -16271,7 +16749,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
@@ -16279,7 +16757,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
@@ -16287,7 +16765,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
@@ -16295,7 +16773,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
@@ -16303,7 +16781,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
@@ -16311,7 +16789,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
@@ -16319,7 +16797,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.4">
@@ -16327,10 +16805,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.4">
@@ -16349,7 +16827,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>86</v>
@@ -16360,7 +16838,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.4">
@@ -16368,7 +16846,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
@@ -16376,7 +16854,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.4">
@@ -16384,7 +16862,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
@@ -16392,7 +16870,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
@@ -16400,7 +16878,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
@@ -16408,7 +16886,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
@@ -16416,7 +16894,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
@@ -16424,7 +16902,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
@@ -16432,7 +16910,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
@@ -16440,7 +16918,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
@@ -16448,7 +16926,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
@@ -16456,7 +16934,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.4">
@@ -16464,7 +16942,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
@@ -16472,7 +16950,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
@@ -16483,7 +16961,7 @@
         <v>394</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
@@ -16491,7 +16969,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
@@ -16499,7 +16977,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
@@ -16507,7 +16985,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.4">
@@ -16515,7 +16993,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.4">
@@ -16523,7 +17001,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
@@ -16531,7 +17009,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -16539,7 +17017,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -16547,7 +17025,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1807">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -2591,13 +2591,6 @@
   <si>
     <t>熱風</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모자이크 롤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">モザイクロール </t>
   </si>
   <si>
     <t>메스머라이저</t>
@@ -4380,9 +4373,6 @@
   <si>
     <t>Aira</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>なきそ</t>
   </si>
   <si>
     <t>かめりあ</t>
@@ -4567,10 +4557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2024. 10. 28. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2023. 05. 26. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6954,6 +6940,205 @@
   </si>
   <si>
     <t>yukkedoluce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>加賀 (ネギシャワ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARETU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原口 沙輔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>駄菓子O型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏代孝明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マツシタレオ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平田義久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kanaria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カルロス袴田(サイゼP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guiano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツミキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉田ヨシユキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葵木ゴウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖野あらわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kemu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サツキ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECO*27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모자이크 롤 (Reloaded)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>モザイクロール (Reloaded)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜め上P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆちゃP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なきそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doriko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フューエル</t>
+  </si>
+  <si>
+    <t>鬱P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2024. 10. 28. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2024. 10. 29. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その音が鳴るなら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石風呂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2024. 10. 31. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>妄想アスパルテ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ム</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2024. 11. 05. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퓨얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 소리가 울린다면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>망상 아스파탐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7102,7 +7287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7156,6 +7341,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7515,10 +7703,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C438" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D453" sqref="D453"/>
+      <selection pane="bottomRight" activeCell="C477" sqref="C477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7534,37 +7722,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="19"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+        <v>863</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="9" t="s">
         <v>97</v>
       </c>
@@ -7592,10 +7780,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="F3" s="9">
         <v>5</v>
@@ -7624,10 +7812,10 @@
         <v>105</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -7641,10 +7829,10 @@
         <v>107</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -7658,10 +7846,10 @@
         <v>109</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -7675,10 +7863,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -7692,10 +7880,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -7709,10 +7897,10 @@
         <v>111</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -7726,10 +7914,10 @@
         <v>113</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -7737,16 +7925,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C11" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -7760,10 +7948,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -7777,10 +7965,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -7794,10 +7982,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -7811,10 +7999,10 @@
         <v>119</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -7828,10 +8016,10 @@
         <v>121</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -7845,10 +8033,10 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -7862,10 +8050,10 @@
         <v>125</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -7879,10 +8067,10 @@
         <v>127</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -7896,10 +8084,10 @@
         <v>129</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -7913,10 +8101,10 @@
         <v>131</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -7930,10 +8118,10 @@
         <v>133</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -7947,10 +8135,10 @@
         <v>135</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -7964,10 +8152,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -7981,10 +8169,10 @@
         <v>137</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -7998,10 +8186,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -8015,10 +8203,10 @@
         <v>139</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -8032,10 +8220,10 @@
         <v>141</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -8049,10 +8237,10 @@
         <v>143</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -8066,10 +8254,10 @@
         <v>145</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -8083,10 +8271,10 @@
         <v>147</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -8100,10 +8288,10 @@
         <v>149</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -8117,10 +8305,10 @@
         <v>6</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -8134,10 +8322,10 @@
         <v>151</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -8151,10 +8339,10 @@
         <v>153</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -8168,10 +8356,10 @@
         <v>155</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -8185,10 +8373,10 @@
         <v>157</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -8199,13 +8387,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -8219,10 +8407,10 @@
         <v>159</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -8236,10 +8424,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -8253,10 +8441,10 @@
         <v>161</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -8270,10 +8458,10 @@
         <v>163</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -8287,10 +8475,10 @@
         <v>165</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -8304,10 +8492,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -8321,10 +8509,10 @@
         <v>167</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -8338,10 +8526,10 @@
         <v>169</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -8355,10 +8543,10 @@
         <v>171</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -8372,10 +8560,10 @@
         <v>173</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -8389,10 +8577,10 @@
         <v>10</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -8406,10 +8594,10 @@
         <v>176</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -8423,10 +8611,10 @@
         <v>178</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -8440,10 +8628,10 @@
         <v>180</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -8457,10 +8645,10 @@
         <v>182</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -8474,10 +8662,10 @@
         <v>184</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -8491,10 +8679,10 @@
         <v>186</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -8508,10 +8696,10 @@
         <v>188</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -8525,10 +8713,10 @@
         <v>190</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -8542,10 +8730,10 @@
         <v>192</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -8559,10 +8747,10 @@
         <v>194</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -8576,10 +8764,10 @@
         <v>11</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -8593,10 +8781,10 @@
         <v>196</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -8610,10 +8798,10 @@
         <v>198</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -8627,10 +8815,10 @@
         <v>12</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -8644,10 +8832,10 @@
         <v>200</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -8661,10 +8849,10 @@
         <v>202</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -8678,10 +8866,10 @@
         <v>204</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -8695,10 +8883,10 @@
         <v>206</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
@@ -8712,10 +8900,10 @@
         <v>208</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
@@ -8729,10 +8917,10 @@
         <v>13</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -8746,10 +8934,10 @@
         <v>210</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -8763,10 +8951,10 @@
         <v>212</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
@@ -8780,10 +8968,10 @@
         <v>214</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -8797,10 +8985,10 @@
         <v>216</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -8814,10 +9002,10 @@
         <v>218</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -8831,10 +9019,10 @@
         <v>220</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
@@ -8848,10 +9036,10 @@
         <v>14</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
@@ -8865,10 +9053,10 @@
         <v>15</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -8882,10 +9070,10 @@
         <v>222</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -8899,10 +9087,10 @@
         <v>224</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -8916,10 +9104,10 @@
         <v>16</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
@@ -8933,10 +9121,10 @@
         <v>226</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -8950,10 +9138,10 @@
         <v>227</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -8967,10 +9155,10 @@
         <v>229</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
@@ -8984,10 +9172,10 @@
         <v>231</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
@@ -9001,10 +9189,10 @@
         <v>233</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -9018,10 +9206,10 @@
         <v>235</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -9035,10 +9223,10 @@
         <v>237</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -9052,10 +9240,10 @@
         <v>17</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -9069,10 +9257,10 @@
         <v>239</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
@@ -9086,10 +9274,10 @@
         <v>241</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -9103,10 +9291,10 @@
         <v>243</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -9120,10 +9308,10 @@
         <v>245</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -9137,10 +9325,10 @@
         <v>247</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -9157,7 +9345,7 @@
         <v>164</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
@@ -9171,10 +9359,10 @@
         <v>249</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
@@ -9188,10 +9376,10 @@
         <v>251</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
@@ -9205,10 +9393,10 @@
         <v>253</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
@@ -9222,10 +9410,10 @@
         <v>255</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
@@ -9239,10 +9427,10 @@
         <v>19</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
@@ -9256,10 +9444,10 @@
         <v>257</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
@@ -9273,10 +9461,10 @@
         <v>259</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
@@ -9290,10 +9478,10 @@
         <v>261</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
@@ -9307,10 +9495,10 @@
         <v>263</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
@@ -9324,10 +9512,10 @@
         <v>265</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
@@ -9341,10 +9529,10 @@
         <v>267</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
@@ -9358,10 +9546,10 @@
         <v>269</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
@@ -9375,10 +9563,10 @@
         <v>271</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
@@ -9392,10 +9580,10 @@
         <v>20</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
@@ -9409,10 +9597,10 @@
         <v>273</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
@@ -9426,10 +9614,10 @@
         <v>275</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
@@ -9443,10 +9631,10 @@
         <v>277</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
@@ -9460,10 +9648,10 @@
         <v>279</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
@@ -9477,10 +9665,10 @@
         <v>281</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
@@ -9494,10 +9682,10 @@
         <v>283</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
@@ -9511,10 +9699,10 @@
         <v>21</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
@@ -9528,10 +9716,10 @@
         <v>285</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
@@ -9545,10 +9733,10 @@
         <v>22</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
@@ -9562,10 +9750,10 @@
         <v>287</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
@@ -9579,10 +9767,10 @@
         <v>289</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
@@ -9596,10 +9784,10 @@
         <v>291</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
@@ -9613,10 +9801,10 @@
         <v>293</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
@@ -9630,10 +9818,10 @@
         <v>295</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
@@ -9647,10 +9835,10 @@
         <v>297</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
@@ -9664,10 +9852,10 @@
         <v>299</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
@@ -9681,10 +9869,10 @@
         <v>301</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
@@ -9698,10 +9886,10 @@
         <v>303</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
@@ -9715,10 +9903,10 @@
         <v>305</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
@@ -9732,10 +9920,10 @@
         <v>307</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
@@ -9749,10 +9937,10 @@
         <v>309</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
@@ -9766,10 +9954,10 @@
         <v>311</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
@@ -9783,10 +9971,10 @@
         <v>313</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
@@ -9800,10 +9988,10 @@
         <v>315</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
@@ -9817,10 +10005,10 @@
         <v>23</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
@@ -9834,10 +10022,10 @@
         <v>24</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
@@ -9851,10 +10039,10 @@
         <v>318</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
@@ -9868,10 +10056,10 @@
         <v>320</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
@@ -9885,10 +10073,10 @@
         <v>25</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
@@ -9902,10 +10090,10 @@
         <v>322</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
@@ -9919,10 +10107,10 @@
         <v>324</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
@@ -9936,10 +10124,10 @@
         <v>326</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
@@ -9953,10 +10141,10 @@
         <v>26</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
@@ -9970,10 +10158,10 @@
         <v>328</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
@@ -9987,10 +10175,10 @@
         <v>330</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
@@ -10004,10 +10192,10 @@
         <v>332</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
@@ -10021,10 +10209,10 @@
         <v>334</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
@@ -10038,10 +10226,10 @@
         <v>336</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
@@ -10055,10 +10243,10 @@
         <v>338</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
@@ -10072,10 +10260,10 @@
         <v>340</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
@@ -10089,10 +10277,10 @@
         <v>342</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
@@ -10106,10 +10294,10 @@
         <v>344</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
@@ -10123,10 +10311,10 @@
         <v>346</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
@@ -10140,10 +10328,10 @@
         <v>348</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
@@ -10157,10 +10345,10 @@
         <v>350</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
@@ -10174,10 +10362,10 @@
         <v>352</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
@@ -10185,16 +10373,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="C155" t="s">
         <v>353</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
@@ -10208,10 +10396,10 @@
         <v>27</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
@@ -10225,10 +10413,10 @@
         <v>28</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
@@ -10242,10 +10430,10 @@
         <v>355</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
@@ -10259,10 +10447,10 @@
         <v>357</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
@@ -10276,10 +10464,10 @@
         <v>359</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
@@ -10293,10 +10481,10 @@
         <v>360</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.4">
@@ -10310,10 +10498,10 @@
         <v>362</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.4">
@@ -10327,10 +10515,10 @@
         <v>364</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.4">
@@ -10344,10 +10532,10 @@
         <v>366</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.4">
@@ -10361,10 +10549,10 @@
         <v>30</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.4">
@@ -10378,10 +10566,10 @@
         <v>31</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.4">
@@ -10395,10 +10583,10 @@
         <v>368</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.4">
@@ -10412,10 +10600,10 @@
         <v>370</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.4">
@@ -10429,10 +10617,10 @@
         <v>371</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.4">
@@ -10446,10 +10634,10 @@
         <v>373</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.4">
@@ -10463,10 +10651,10 @@
         <v>33</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.4">
@@ -10480,10 +10668,10 @@
         <v>375</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.4">
@@ -10497,10 +10685,10 @@
         <v>377</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.4">
@@ -10514,10 +10702,10 @@
         <v>379</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.4">
@@ -10531,10 +10719,10 @@
         <v>381</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.4">
@@ -10548,10 +10736,10 @@
         <v>383</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.4">
@@ -10565,10 +10753,10 @@
         <v>385</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.4">
@@ -10582,10 +10770,10 @@
         <v>387</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.4">
@@ -10599,10 +10787,10 @@
         <v>389</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.4">
@@ -10616,10 +10804,10 @@
         <v>391</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.4">
@@ -10633,10 +10821,10 @@
         <v>393</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.4">
@@ -10650,10 +10838,10 @@
         <v>394</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.4">
@@ -10667,10 +10855,10 @@
         <v>34</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.4">
@@ -10684,10 +10872,10 @@
         <v>35</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.4">
@@ -10701,10 +10889,10 @@
         <v>396</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.4">
@@ -10718,10 +10906,10 @@
         <v>398</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.4">
@@ -10735,10 +10923,10 @@
         <v>400</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.4">
@@ -10752,10 +10940,10 @@
         <v>402</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.4">
@@ -10769,10 +10957,10 @@
         <v>404</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.4">
@@ -10786,10 +10974,10 @@
         <v>406</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.4">
@@ -10803,10 +10991,10 @@
         <v>408</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.4">
@@ -10820,10 +11008,10 @@
         <v>410</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.4">
@@ -10837,10 +11025,10 @@
         <v>412</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.4">
@@ -10854,10 +11042,10 @@
         <v>414</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.4">
@@ -10871,10 +11059,10 @@
         <v>416</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.4">
@@ -10888,10 +11076,10 @@
         <v>418</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="197" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -10899,10 +11087,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D197" s="16" t="s">
         <v>419</v>
@@ -10911,19 +11099,19 @@
         <v>419</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="H197" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="J197" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.4">
@@ -10937,10 +11125,10 @@
         <v>421</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.4">
@@ -10954,10 +11142,10 @@
         <v>36</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.4">
@@ -10971,10 +11159,10 @@
         <v>423</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.4">
@@ -10988,10 +11176,10 @@
         <v>425</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.4">
@@ -11005,10 +11193,10 @@
         <v>427</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.4">
@@ -11022,10 +11210,10 @@
         <v>429</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.4">
@@ -11039,10 +11227,10 @@
         <v>431</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.4">
@@ -11056,10 +11244,10 @@
         <v>433</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.4">
@@ -11073,10 +11261,10 @@
         <v>435</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.4">
@@ -11090,10 +11278,10 @@
         <v>437</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.4">
@@ -11107,10 +11295,10 @@
         <v>439</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.4">
@@ -11124,10 +11312,10 @@
         <v>441</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.4">
@@ -11141,10 +11329,10 @@
         <v>443</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.4">
@@ -11158,10 +11346,10 @@
         <v>445</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.4">
@@ -11175,10 +11363,10 @@
         <v>447</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.4">
@@ -11192,10 +11380,10 @@
         <v>449</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.4">
@@ -11209,10 +11397,10 @@
         <v>451</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.4">
@@ -11226,10 +11414,10 @@
         <v>453</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.4">
@@ -11243,10 +11431,10 @@
         <v>37</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.4">
@@ -11260,10 +11448,10 @@
         <v>455</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.4">
@@ -11277,10 +11465,10 @@
         <v>457</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.4">
@@ -11294,10 +11482,10 @@
         <v>459</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.4">
@@ -11311,10 +11499,10 @@
         <v>38</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.4">
@@ -11328,10 +11516,10 @@
         <v>461</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.4">
@@ -11345,10 +11533,10 @@
         <v>39</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="E222" s="14" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.4">
@@ -11362,10 +11550,10 @@
         <v>463</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.4">
@@ -11379,10 +11567,10 @@
         <v>40</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.4">
@@ -11396,10 +11584,10 @@
         <v>464</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.4">
@@ -11413,10 +11601,10 @@
         <v>466</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.4">
@@ -11430,10 +11618,10 @@
         <v>468</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.4">
@@ -11447,10 +11635,10 @@
         <v>470</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.4">
@@ -11464,10 +11652,10 @@
         <v>472</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.4">
@@ -11481,10 +11669,10 @@
         <v>474</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.4">
@@ -11498,10 +11686,10 @@
         <v>42</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.4">
@@ -11515,10 +11703,10 @@
         <v>476</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.4">
@@ -11532,10 +11720,10 @@
         <v>478</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.4">
@@ -11549,10 +11737,10 @@
         <v>479</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.4">
@@ -11566,10 +11754,10 @@
         <v>481</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.4">
@@ -11583,10 +11771,10 @@
         <v>43</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="237" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -11594,10 +11782,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D237" s="16" t="s">
         <v>419</v>
@@ -11606,19 +11794,19 @@
         <v>419</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G237" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="H237" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I237" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="J237" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.4">
@@ -11632,10 +11820,10 @@
         <v>483</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.4">
@@ -11649,10 +11837,10 @@
         <v>485</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.4">
@@ -11666,10 +11854,10 @@
         <v>487</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.4">
@@ -11683,10 +11871,10 @@
         <v>44</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.4">
@@ -11700,10 +11888,10 @@
         <v>489</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.4">
@@ -11717,10 +11905,10 @@
         <v>45</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.4">
@@ -11734,10 +11922,10 @@
         <v>492</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.4">
@@ -11751,10 +11939,10 @@
         <v>494</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.4">
@@ -11768,10 +11956,10 @@
         <v>496</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.4">
@@ -11785,10 +11973,10 @@
         <v>498</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.4">
@@ -11802,10 +11990,10 @@
         <v>500</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.4">
@@ -11819,10 +12007,10 @@
         <v>502</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.4">
@@ -11836,10 +12024,10 @@
         <v>504</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.4">
@@ -11853,10 +12041,10 @@
         <v>506</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.4">
@@ -11870,10 +12058,10 @@
         <v>508</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.4">
@@ -11887,10 +12075,10 @@
         <v>510</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.4">
@@ -11904,10 +12092,10 @@
         <v>46</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.4">
@@ -11921,10 +12109,10 @@
         <v>512</v>
       </c>
       <c r="D255" s="15" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F255" s="9">
         <v>9</v>
@@ -11953,10 +12141,10 @@
         <v>514</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.4">
@@ -11970,10 +12158,10 @@
         <v>516</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.4">
@@ -11987,10 +12175,10 @@
         <v>518</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.4">
@@ -12004,10 +12192,10 @@
         <v>47</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.4">
@@ -12021,10 +12209,10 @@
         <v>520</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.4">
@@ -12038,10 +12226,10 @@
         <v>522</v>
       </c>
       <c r="D261" s="15" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.4">
@@ -12055,10 +12243,10 @@
         <v>524</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.4">
@@ -12072,10 +12260,10 @@
         <v>526</v>
       </c>
       <c r="D263" s="15" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.4">
@@ -12089,10 +12277,10 @@
         <v>528</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.4">
@@ -12106,10 +12294,10 @@
         <v>530</v>
       </c>
       <c r="D265" s="15" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.4">
@@ -12123,10 +12311,10 @@
         <v>48</v>
       </c>
       <c r="D266" s="15" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.4">
@@ -12140,10 +12328,10 @@
         <v>49</v>
       </c>
       <c r="D267" s="15" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.4">
@@ -12157,10 +12345,10 @@
         <v>50</v>
       </c>
       <c r="D268" s="15" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.4">
@@ -12174,10 +12362,10 @@
         <v>51</v>
       </c>
       <c r="D269" s="15" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.4">
@@ -12191,10 +12379,10 @@
         <v>532</v>
       </c>
       <c r="D270" s="15" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F270" s="9">
         <v>9</v>
@@ -12223,10 +12411,10 @@
         <v>534</v>
       </c>
       <c r="D271" s="15" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.4">
@@ -12240,10 +12428,10 @@
         <v>52</v>
       </c>
       <c r="D272" s="15" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.4">
@@ -12257,10 +12445,10 @@
         <v>536</v>
       </c>
       <c r="D273" s="15" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.4">
@@ -12274,10 +12462,10 @@
         <v>538</v>
       </c>
       <c r="D274" s="15" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.4">
@@ -12291,10 +12479,10 @@
         <v>1925</v>
       </c>
       <c r="D275" s="15" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.4">
@@ -12308,10 +12496,10 @@
         <v>540</v>
       </c>
       <c r="D276" s="15" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.4">
@@ -12325,10 +12513,10 @@
         <v>542</v>
       </c>
       <c r="D277" s="15" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.4">
@@ -12342,10 +12530,10 @@
         <v>53</v>
       </c>
       <c r="D278" s="15" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.4">
@@ -12359,10 +12547,10 @@
         <v>54</v>
       </c>
       <c r="D279" s="15" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.4">
@@ -12376,10 +12564,10 @@
         <v>544</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.4">
@@ -12393,10 +12581,10 @@
         <v>546</v>
       </c>
       <c r="D281" s="15" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="E281" s="12" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.4">
@@ -12410,10 +12598,10 @@
         <v>548</v>
       </c>
       <c r="D282" s="15" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="E282" s="12" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.4">
@@ -12427,10 +12615,10 @@
         <v>55</v>
       </c>
       <c r="D283" s="15" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.4">
@@ -12444,10 +12632,10 @@
         <v>550</v>
       </c>
       <c r="D284" s="15" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="E284" s="12" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.4">
@@ -12461,10 +12649,10 @@
         <v>56</v>
       </c>
       <c r="D285" s="15" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="E285" s="12" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.4">
@@ -12478,10 +12666,10 @@
         <v>39</v>
       </c>
       <c r="D286" s="15" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="E286" s="12" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.4">
@@ -12495,10 +12683,10 @@
         <v>57</v>
       </c>
       <c r="D287" s="15" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="E287" s="12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.4">
@@ -12512,10 +12700,10 @@
         <v>552</v>
       </c>
       <c r="D288" s="15" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="E288" s="12" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.4">
@@ -12529,10 +12717,10 @@
         <v>554</v>
       </c>
       <c r="D289" s="15" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="E289" s="12" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.4">
@@ -12546,10 +12734,10 @@
         <v>58</v>
       </c>
       <c r="D290" s="15" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.4">
@@ -12563,10 +12751,10 @@
         <v>556</v>
       </c>
       <c r="D291" s="15" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.4">
@@ -12580,10 +12768,10 @@
         <v>558</v>
       </c>
       <c r="D292" s="15" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="E292" s="12" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.4">
@@ -12597,10 +12785,10 @@
         <v>560</v>
       </c>
       <c r="D293" s="15" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.4">
@@ -12614,10 +12802,10 @@
         <v>59</v>
       </c>
       <c r="D294" s="15" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="E294" s="12" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.4">
@@ -12631,10 +12819,10 @@
         <v>60</v>
       </c>
       <c r="D295" s="15" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.4">
@@ -12648,10 +12836,10 @@
         <v>61</v>
       </c>
       <c r="D296" s="15" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.4">
@@ -12665,10 +12853,10 @@
         <v>562</v>
       </c>
       <c r="D297" s="15" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="E297" s="12" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.4">
@@ -12682,10 +12870,10 @@
         <v>564</v>
       </c>
       <c r="D298" s="15" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="E298" s="12" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.4">
@@ -12699,10 +12887,10 @@
         <v>566</v>
       </c>
       <c r="D299" s="15" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E299" s="12" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.4">
@@ -12716,10 +12904,10 @@
         <v>568</v>
       </c>
       <c r="D300" s="15" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="E300" s="12" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.4">
@@ -12733,10 +12921,10 @@
         <v>570</v>
       </c>
       <c r="D301" s="15" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E301" s="12" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.4">
@@ -12750,10 +12938,10 @@
         <v>572</v>
       </c>
       <c r="D302" s="15" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="E302" s="12" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.4">
@@ -12767,10 +12955,10 @@
         <v>574</v>
       </c>
       <c r="D303" s="15" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="E303" s="12" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.4">
@@ -12784,10 +12972,10 @@
         <v>576</v>
       </c>
       <c r="D304" s="15" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E304" s="12" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.4">
@@ -12801,10 +12989,10 @@
         <v>578</v>
       </c>
       <c r="D305" s="15" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="E305" s="12" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.4">
@@ -12818,10 +13006,10 @@
         <v>580</v>
       </c>
       <c r="D306" s="15" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="E306" s="12" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.4">
@@ -12835,10 +13023,10 @@
         <v>582</v>
       </c>
       <c r="D307" s="15" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.4">
@@ -12852,10 +13040,10 @@
         <v>584</v>
       </c>
       <c r="D308" s="15" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="E308" s="12" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.4">
@@ -12869,10 +13057,10 @@
         <v>586</v>
       </c>
       <c r="D309" s="15" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="E309" s="12" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.4">
@@ -12886,10 +13074,10 @@
         <v>588</v>
       </c>
       <c r="D310" s="15" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.4">
@@ -12903,10 +13091,10 @@
         <v>590</v>
       </c>
       <c r="D311" s="15" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="E311" s="12" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.4">
@@ -12920,10 +13108,10 @@
         <v>592</v>
       </c>
       <c r="D312" s="15" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.4">
@@ -12937,10 +13125,10 @@
         <v>594</v>
       </c>
       <c r="D313" s="15" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="E313" s="12" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.4">
@@ -12954,10 +13142,10 @@
         <v>62</v>
       </c>
       <c r="D314" s="15" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="E314" s="12" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.4">
@@ -12971,10 +13159,10 @@
         <v>596</v>
       </c>
       <c r="D315" s="15" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="E315" s="12" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.4">
@@ -12988,10 +13176,10 @@
         <v>598</v>
       </c>
       <c r="D316" s="15" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="E316" s="12" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.4">
@@ -13005,10 +13193,10 @@
         <v>600</v>
       </c>
       <c r="D317" s="15" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="E317" s="12" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.4">
@@ -13022,10 +13210,10 @@
         <v>63</v>
       </c>
       <c r="D318" s="15" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.4">
@@ -13039,10 +13227,10 @@
         <v>602</v>
       </c>
       <c r="D319" s="15" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.4">
@@ -13056,10 +13244,10 @@
         <v>604</v>
       </c>
       <c r="D320" s="15" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="E320" s="12" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.4">
@@ -13073,10 +13261,10 @@
         <v>64</v>
       </c>
       <c r="D321" s="15" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="E321" s="12" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.4">
@@ -13090,10 +13278,10 @@
         <v>606</v>
       </c>
       <c r="D322" s="15" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="E322" s="12" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.4">
@@ -13107,10 +13295,10 @@
         <v>608</v>
       </c>
       <c r="D323" s="15" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.4">
@@ -13124,10 +13312,10 @@
         <v>610</v>
       </c>
       <c r="D324" s="15" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="E324" s="12" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.4">
@@ -13141,10 +13329,10 @@
         <v>612</v>
       </c>
       <c r="D325" s="15" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.4">
@@ -13158,10 +13346,10 @@
         <v>65</v>
       </c>
       <c r="D326" s="15" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="E326" s="12" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.4">
@@ -13175,10 +13363,10 @@
         <v>614</v>
       </c>
       <c r="D327" s="15" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.4">
@@ -13192,10 +13380,10 @@
         <v>66</v>
       </c>
       <c r="D328" s="15" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.4">
@@ -13209,10 +13397,10 @@
         <v>616</v>
       </c>
       <c r="D329" s="15" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.4">
@@ -13226,10 +13414,10 @@
         <v>67</v>
       </c>
       <c r="D330" s="15" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="E330" s="12" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.4">
@@ -13243,10 +13431,10 @@
         <v>618</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.4">
@@ -13260,10 +13448,10 @@
         <v>620</v>
       </c>
       <c r="D332" s="15" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.4">
@@ -13277,10 +13465,10 @@
         <v>622</v>
       </c>
       <c r="D333" s="15" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.4">
@@ -13294,10 +13482,10 @@
         <v>624</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="E334" s="12" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.4">
@@ -13311,10 +13499,10 @@
         <v>626</v>
       </c>
       <c r="D335" s="15" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="E335" s="12" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.4">
@@ -13328,10 +13516,10 @@
         <v>68</v>
       </c>
       <c r="D336" s="15" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="E336" s="12" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.4">
@@ -13344,11 +13532,11 @@
       <c r="C337" t="s">
         <v>628</v>
       </c>
-      <c r="D337" s="24" t="s">
-        <v>1668</v>
+      <c r="D337" s="25" t="s">
+        <v>1664</v>
       </c>
       <c r="E337" s="12" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.4">
@@ -13362,10 +13550,10 @@
         <v>630</v>
       </c>
       <c r="D338" s="15" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="E338" s="12" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.4">
@@ -13379,10 +13567,10 @@
         <v>632</v>
       </c>
       <c r="D339" s="15" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="E339" s="12" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.4">
@@ -13396,10 +13584,10 @@
         <v>69</v>
       </c>
       <c r="D340" s="15" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="E340" s="12" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.4">
@@ -13413,10 +13601,10 @@
         <v>634</v>
       </c>
       <c r="D341" s="15" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="E341" s="12" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.4">
@@ -13430,10 +13618,10 @@
         <v>636</v>
       </c>
       <c r="D342" s="15" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="E342" s="12" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.4">
@@ -13447,10 +13635,10 @@
         <v>638</v>
       </c>
       <c r="D343" s="15" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.4">
@@ -13464,10 +13652,10 @@
         <v>640</v>
       </c>
       <c r="D344" s="15" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="E344" s="12" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.4">
@@ -13481,10 +13669,10 @@
         <v>642</v>
       </c>
       <c r="D345" s="15" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E345" s="12" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.4">
@@ -13498,10 +13686,10 @@
         <v>644</v>
       </c>
       <c r="D346" s="15" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="E346" s="12" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.4">
@@ -13515,10 +13703,10 @@
         <v>70</v>
       </c>
       <c r="D347" s="15" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="E347" s="12" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.4">
@@ -13532,10 +13720,10 @@
         <v>71</v>
       </c>
       <c r="D348" s="15" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="E348" s="12" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.4">
@@ -13549,10 +13737,10 @@
         <v>647</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="E349" s="12" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.4">
@@ -13566,10 +13754,10 @@
         <v>72</v>
       </c>
       <c r="D350" s="15" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="E350" s="12" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.4">
@@ -13583,10 +13771,10 @@
         <v>649</v>
       </c>
       <c r="D351" s="15" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="E351" s="12" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.4">
@@ -13600,10 +13788,10 @@
         <v>73</v>
       </c>
       <c r="D352" s="15" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="E352" s="12" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.4">
@@ -13617,10 +13805,10 @@
         <v>651</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E353" s="12" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.4">
@@ -13634,10 +13822,10 @@
         <v>653</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="E354" s="12" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.4">
@@ -13651,10 +13839,10 @@
         <v>655</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="E355" s="12" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.4">
@@ -13668,10 +13856,10 @@
         <v>657</v>
       </c>
       <c r="D356" s="15" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="E356" s="12" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.4">
@@ -13685,10 +13873,10 @@
         <v>659</v>
       </c>
       <c r="D357" s="15" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="E357" s="12" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.4">
@@ -13702,10 +13890,10 @@
         <v>661</v>
       </c>
       <c r="D358" s="15" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="E358" s="12" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.4">
@@ -13719,10 +13907,10 @@
         <v>663</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="E359" s="12" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.4">
@@ -13736,10 +13924,10 @@
         <v>665</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="E360" s="12" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.4">
@@ -13753,10 +13941,10 @@
         <v>667</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="E361" s="12" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.4">
@@ -13770,10 +13958,10 @@
         <v>669</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="E362" s="12" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.4">
@@ -13787,10 +13975,10 @@
         <v>670</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="E363" s="12" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.4">
@@ -13804,10 +13992,10 @@
         <v>672</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="E364" s="12" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.4">
@@ -13821,10 +14009,10 @@
         <v>75</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="E365" s="12" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.4">
@@ -13838,10 +14026,10 @@
         <v>674</v>
       </c>
       <c r="D366" s="15" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="E366" s="12" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.4">
@@ -13855,10 +14043,10 @@
         <v>676</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="E367" s="12" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.4">
@@ -13872,10 +14060,10 @@
         <v>677</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="E368" s="12" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.4">
@@ -13889,10 +14077,10 @@
         <v>679</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="E369" s="12" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.4">
@@ -13906,10 +14094,10 @@
         <v>681</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="E370" s="12" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.4">
@@ -13923,10 +14111,10 @@
         <v>683</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="E371" s="12" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.4">
@@ -13940,10 +14128,10 @@
         <v>684</v>
       </c>
       <c r="D372" s="15" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="E372" s="12" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.4">
@@ -13957,10 +14145,10 @@
         <v>685</v>
       </c>
       <c r="D373" s="15" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="E373" s="12" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.4">
@@ -13974,10 +14162,10 @@
         <v>687</v>
       </c>
       <c r="D374" s="15" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="E374" s="12" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.4">
@@ -13991,10 +14179,10 @@
         <v>689</v>
       </c>
       <c r="D375" s="15" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="E375" s="12" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.4">
@@ -14008,10 +14196,10 @@
         <v>691</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="E376" s="12" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.4">
@@ -14025,10 +14213,10 @@
         <v>692</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="E377" s="12" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.4">
@@ -14041,11 +14229,11 @@
       <c r="C378" t="s">
         <v>694</v>
       </c>
-      <c r="D378" s="24" t="s">
-        <v>1706</v>
+      <c r="D378" s="25" t="s">
+        <v>1702</v>
       </c>
       <c r="E378" s="12" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.4">
@@ -14059,10 +14247,10 @@
         <v>696</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="E379" s="12" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.4">
@@ -14076,10 +14264,10 @@
         <v>698</v>
       </c>
       <c r="D380" s="15" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="E380" s="12" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.4">
@@ -14093,10 +14281,10 @@
         <v>700</v>
       </c>
       <c r="D381" s="15" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="E381" s="12" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.4">
@@ -14110,10 +14298,10 @@
         <v>702</v>
       </c>
       <c r="D382" s="15" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="E382" s="12" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.4">
@@ -14127,10 +14315,10 @@
         <v>704</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="E383" s="12" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.4">
@@ -14144,10 +14332,10 @@
         <v>706</v>
       </c>
       <c r="D384" s="15" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="E384" s="12" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.4">
@@ -14161,10 +14349,10 @@
         <v>708</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="E385" s="12" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.4">
@@ -14178,10 +14366,10 @@
         <v>710</v>
       </c>
       <c r="D386" s="15" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="E386" s="12" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.4">
@@ -14195,10 +14383,10 @@
         <v>712</v>
       </c>
       <c r="D387" s="15" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="E387" s="12" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.4">
@@ -14212,10 +14400,10 @@
         <v>714</v>
       </c>
       <c r="D388" s="15" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="E388" s="12" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.4">
@@ -14229,10 +14417,10 @@
         <v>716</v>
       </c>
       <c r="D389" s="15" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="E389" s="12" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.4">
@@ -14246,10 +14434,10 @@
         <v>718</v>
       </c>
       <c r="D390" s="15" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="E390" s="12" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.4">
@@ -14263,10 +14451,10 @@
         <v>720</v>
       </c>
       <c r="D391" s="15" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="E391" s="12" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.4">
@@ -14280,10 +14468,10 @@
         <v>77</v>
       </c>
       <c r="D392" s="15" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="E392" s="12" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.4">
@@ -14297,10 +14485,10 @@
         <v>78</v>
       </c>
       <c r="D393" s="15" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="E393" s="12" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.4">
@@ -14314,10 +14502,10 @@
         <v>79</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="E394" s="12" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.4">
@@ -14325,16 +14513,16 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C395" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E395" s="12" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.4">
@@ -14348,10 +14536,10 @@
         <v>723</v>
       </c>
       <c r="D396" s="15" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="E396" s="12" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.4">
@@ -14365,10 +14553,10 @@
         <v>80</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="E397" s="12" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.4">
@@ -14382,10 +14570,10 @@
         <v>725</v>
       </c>
       <c r="D398" s="15" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="E398" s="12" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.4">
@@ -14399,10 +14587,10 @@
         <v>727</v>
       </c>
       <c r="D399" s="15" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E399" s="12" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.4">
@@ -14415,11 +14603,11 @@
       <c r="C400" t="s">
         <v>729</v>
       </c>
-      <c r="D400" s="24" t="s">
-        <v>1722</v>
+      <c r="D400" s="25" t="s">
+        <v>1718</v>
       </c>
       <c r="E400" s="12" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.4">
@@ -14433,10 +14621,10 @@
         <v>731</v>
       </c>
       <c r="D401" s="15" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="E401" s="12" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.4">
@@ -14450,10 +14638,10 @@
         <v>733</v>
       </c>
       <c r="D402" s="15" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="E402" s="12" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.4">
@@ -14467,10 +14655,10 @@
         <v>735</v>
       </c>
       <c r="D403" s="15" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E403" s="12" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.4">
@@ -14484,10 +14672,10 @@
         <v>737</v>
       </c>
       <c r="D404" s="15" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="E404" s="12" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.4">
@@ -14501,10 +14689,10 @@
         <v>81</v>
       </c>
       <c r="D405" s="15" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="E405" s="12" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.4">
@@ -14518,10 +14706,10 @@
         <v>739</v>
       </c>
       <c r="D406" s="15" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E406" s="12" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.4">
@@ -14535,10 +14723,10 @@
         <v>741</v>
       </c>
       <c r="D407" s="15" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="E407" s="12" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.4">
@@ -14552,10 +14740,10 @@
         <v>82</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="E408" s="12" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.4">
@@ -14568,11 +14756,11 @@
       <c r="C409" t="s">
         <v>743</v>
       </c>
-      <c r="D409" s="24" t="s">
-        <v>1730</v>
+      <c r="D409" s="25" t="s">
+        <v>1726</v>
       </c>
       <c r="E409" s="12" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.4">
@@ -14586,10 +14774,10 @@
         <v>745</v>
       </c>
       <c r="D410" s="15" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="E410" s="12" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.4">
@@ -14603,10 +14791,10 @@
         <v>747</v>
       </c>
       <c r="D411" s="15" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="E411" s="12" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.4">
@@ -14620,10 +14808,10 @@
         <v>749</v>
       </c>
       <c r="D412" s="15" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="E412" s="12" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.4">
@@ -14637,10 +14825,10 @@
         <v>751</v>
       </c>
       <c r="D413" s="15" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="E413" s="12" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.4">
@@ -14654,10 +14842,10 @@
         <v>83</v>
       </c>
       <c r="D414" s="15" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="E414" s="12" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.4">
@@ -14671,10 +14859,10 @@
         <v>753</v>
       </c>
       <c r="D415" s="15" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="E415" s="12" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.4">
@@ -14688,10 +14876,10 @@
         <v>755</v>
       </c>
       <c r="D416" s="15" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="E416" s="12" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.4">
@@ -14705,10 +14893,10 @@
         <v>757</v>
       </c>
       <c r="D417" s="15" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="E417" s="12" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.4">
@@ -14722,10 +14910,10 @@
         <v>759</v>
       </c>
       <c r="D418" s="15" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="E418" s="12" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.4">
@@ -14739,10 +14927,10 @@
         <v>761</v>
       </c>
       <c r="D419" s="15" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="E419" s="12" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.4">
@@ -14756,10 +14944,10 @@
         <v>84</v>
       </c>
       <c r="D420" s="15" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="E420" s="12" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.4">
@@ -14773,10 +14961,10 @@
         <v>763</v>
       </c>
       <c r="D421" s="15" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="E421" s="12" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.4">
@@ -14790,10 +14978,10 @@
         <v>765</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="E422" s="12" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.4">
@@ -14807,10 +14995,10 @@
         <v>767</v>
       </c>
       <c r="D423" s="15" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="E423" s="12" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.4">
@@ -14824,10 +15012,10 @@
         <v>769</v>
       </c>
       <c r="D424" s="15" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="E424" s="12" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.4">
@@ -14841,10 +15029,10 @@
         <v>771</v>
       </c>
       <c r="D425" s="15" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="E425" s="12" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.4">
@@ -14857,11 +15045,11 @@
       <c r="C426" t="s">
         <v>773</v>
       </c>
-      <c r="D426" s="24" t="s">
-        <v>1745</v>
+      <c r="D426" s="25" t="s">
+        <v>1741</v>
       </c>
       <c r="E426" s="12" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.4">
@@ -14875,10 +15063,10 @@
         <v>775</v>
       </c>
       <c r="D427" s="15" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="E427" s="12" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.4">
@@ -14892,10 +15080,10 @@
         <v>777</v>
       </c>
       <c r="D428" s="15" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="E428" s="12" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.4">
@@ -14909,10 +15097,10 @@
         <v>779</v>
       </c>
       <c r="D429" s="15" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="E429" s="12" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.4">
@@ -14926,10 +15114,10 @@
         <v>781</v>
       </c>
       <c r="D430" s="15" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="E430" s="12" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.4">
@@ -14943,10 +15131,10 @@
         <v>783</v>
       </c>
       <c r="D431" s="15" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="E431" s="12" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.4">
@@ -14954,16 +15142,16 @@
         <v>430</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="C432" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="D432" s="15" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="E432" s="12" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.4">
@@ -14977,10 +15165,10 @@
         <v>85</v>
       </c>
       <c r="D433" s="15" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="E433" s="12" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.4">
@@ -14994,10 +15182,10 @@
         <v>86</v>
       </c>
       <c r="D434" s="15" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="E434" s="12" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.4">
@@ -15010,11 +15198,11 @@
       <c r="C435" t="s">
         <v>785</v>
       </c>
-      <c r="D435" s="24" t="s">
-        <v>1754</v>
+      <c r="D435" s="25" t="s">
+        <v>1750</v>
       </c>
       <c r="E435" s="12" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.4">
@@ -15028,10 +15216,10 @@
         <v>787</v>
       </c>
       <c r="D436" s="15" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="E436" s="12" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.4">
@@ -15045,10 +15233,10 @@
         <v>789</v>
       </c>
       <c r="D437" s="15" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="E437" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.4">
@@ -15062,10 +15250,10 @@
         <v>791</v>
       </c>
       <c r="D438" s="15" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="E438" s="12" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.4">
@@ -15079,10 +15267,10 @@
         <v>793</v>
       </c>
       <c r="D439" s="15" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="E439" s="12" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.4">
@@ -15096,10 +15284,10 @@
         <v>795</v>
       </c>
       <c r="D440" s="15" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="E440" s="12" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.4">
@@ -15113,10 +15301,10 @@
         <v>797</v>
       </c>
       <c r="D441" s="15" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="E441" s="12" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.4">
@@ -15130,10 +15318,10 @@
         <v>799</v>
       </c>
       <c r="D442" s="15" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="E442" s="12" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.4">
@@ -15147,10 +15335,10 @@
         <v>801</v>
       </c>
       <c r="D443" s="15" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="E443" s="12" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.4">
@@ -15164,10 +15352,10 @@
         <v>87</v>
       </c>
       <c r="D444" s="17" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="E444" s="12" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.4">
@@ -15181,10 +15369,10 @@
         <v>803</v>
       </c>
       <c r="D445" s="15" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="E445" s="12" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.4">
@@ -15198,10 +15386,10 @@
         <v>805</v>
       </c>
       <c r="D446" s="15" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="E446" s="12" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.4">
@@ -15215,10 +15403,10 @@
         <v>88</v>
       </c>
       <c r="D447" s="15" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="E447" s="12" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.4">
@@ -15232,10 +15420,10 @@
         <v>807</v>
       </c>
       <c r="D448" s="15" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="E448" s="12" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.4">
@@ -15249,10 +15437,10 @@
         <v>89</v>
       </c>
       <c r="D449" s="15" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="E449" s="12" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.4">
@@ -15266,10 +15454,10 @@
         <v>809</v>
       </c>
       <c r="D450" s="15" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="E450" s="12" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.4">
@@ -15283,10 +15471,10 @@
         <v>811</v>
       </c>
       <c r="D451" s="15" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="E451" s="12" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.4">
@@ -15297,13 +15485,13 @@
         <v>812</v>
       </c>
       <c r="C452" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="D452" s="15" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="E452" s="12" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.4">
@@ -15316,8 +15504,11 @@
       <c r="C453" t="s">
         <v>814</v>
       </c>
+      <c r="D453" s="15" t="s">
+        <v>1769</v>
+      </c>
       <c r="E453" s="12" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.4">
@@ -15330,8 +15521,11 @@
       <c r="C454" t="s">
         <v>816</v>
       </c>
+      <c r="D454" s="15" t="s">
+        <v>1770</v>
+      </c>
       <c r="E454" s="12" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.4">
@@ -15339,13 +15533,16 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C455" t="s">
         <v>817</v>
       </c>
+      <c r="D455" s="15" t="s">
+        <v>1771</v>
+      </c>
       <c r="E455" s="12" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.4">
@@ -15358,8 +15555,11 @@
       <c r="C456" t="s">
         <v>819</v>
       </c>
+      <c r="D456" s="15" t="s">
+        <v>1772</v>
+      </c>
       <c r="E456" s="12" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.4">
@@ -15372,8 +15572,11 @@
       <c r="C457" t="s">
         <v>821</v>
       </c>
+      <c r="D457" s="15" t="s">
+        <v>1773</v>
+      </c>
       <c r="E457" s="12" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.4">
@@ -15386,8 +15589,11 @@
       <c r="C458" t="s">
         <v>822</v>
       </c>
+      <c r="D458" s="15" t="s">
+        <v>1774</v>
+      </c>
       <c r="E458" s="12" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.4">
@@ -15400,8 +15606,11 @@
       <c r="C459" t="s">
         <v>824</v>
       </c>
+      <c r="D459" s="15" t="s">
+        <v>1775</v>
+      </c>
       <c r="E459" s="12" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.4">
@@ -15414,8 +15623,11 @@
       <c r="C460" t="s">
         <v>826</v>
       </c>
+      <c r="D460" s="15" t="s">
+        <v>1776</v>
+      </c>
       <c r="E460" s="12" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.4">
@@ -15428,8 +15640,11 @@
       <c r="C461" t="s">
         <v>827</v>
       </c>
+      <c r="D461" s="15" t="s">
+        <v>1777</v>
+      </c>
       <c r="E461" s="12" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.4">
@@ -15442,8 +15657,11 @@
       <c r="C462" t="s">
         <v>829</v>
       </c>
+      <c r="D462" s="15" t="s">
+        <v>1669</v>
+      </c>
       <c r="E462" s="12" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.4">
@@ -15456,8 +15674,11 @@
       <c r="C463" t="s">
         <v>831</v>
       </c>
+      <c r="D463" s="15" t="s">
+        <v>1778</v>
+      </c>
       <c r="E463" s="12" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.4">
@@ -15465,13 +15686,16 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C464" t="s">
         <v>832</v>
       </c>
+      <c r="D464" s="15" t="s">
+        <v>1779</v>
+      </c>
       <c r="E464" s="12" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.4">
@@ -15484,8 +15708,11 @@
       <c r="C465" t="s">
         <v>834</v>
       </c>
+      <c r="D465" s="15" t="s">
+        <v>1780</v>
+      </c>
       <c r="E465" s="12" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.4">
@@ -15498,8 +15725,11 @@
       <c r="C466" t="s">
         <v>836</v>
       </c>
+      <c r="D466" s="15" t="s">
+        <v>1781</v>
+      </c>
       <c r="E466" s="12" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.4">
@@ -15512,8 +15742,11 @@
       <c r="C467" t="s">
         <v>838</v>
       </c>
+      <c r="D467" s="15" t="s">
+        <v>1782</v>
+      </c>
       <c r="E467" s="12" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.4">
@@ -15526,8 +15759,11 @@
       <c r="C468" t="s">
         <v>92</v>
       </c>
+      <c r="D468" s="15" t="s">
+        <v>1783</v>
+      </c>
       <c r="E468" s="12" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.4">
@@ -15540,8 +15776,11 @@
       <c r="C469" t="s">
         <v>840</v>
       </c>
+      <c r="D469" s="15" t="s">
+        <v>1784</v>
+      </c>
       <c r="E469" s="12" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.4">
@@ -15549,13 +15788,16 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>841</v>
+        <v>1787</v>
       </c>
       <c r="C470" t="s">
-        <v>842</v>
+        <v>1788</v>
+      </c>
+      <c r="D470" s="15" t="s">
+        <v>1786</v>
       </c>
       <c r="E470" s="12" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.4">
@@ -15563,13 +15805,16 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C471" t="s">
-        <v>844</v>
+        <v>842</v>
+      </c>
+      <c r="D471" s="15" t="s">
+        <v>1785</v>
       </c>
       <c r="E471" s="12" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.4">
@@ -15577,13 +15822,16 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C472" t="s">
-        <v>846</v>
+        <v>844</v>
+      </c>
+      <c r="D472" s="15" t="s">
+        <v>1677</v>
       </c>
       <c r="E472" s="12" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.4">
@@ -15591,13 +15839,16 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C473" t="s">
-        <v>848</v>
+        <v>846</v>
+      </c>
+      <c r="D473" s="15" t="s">
+        <v>1626</v>
       </c>
       <c r="E473" s="12" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.4">
@@ -15605,13 +15856,16 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C474" t="s">
-        <v>850</v>
+        <v>848</v>
+      </c>
+      <c r="D474" s="15" t="s">
+        <v>1698</v>
       </c>
       <c r="E474" s="12" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.4">
@@ -15619,13 +15873,16 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C475" t="s">
-        <v>852</v>
+        <v>850</v>
+      </c>
+      <c r="D475" s="15" t="s">
+        <v>1789</v>
       </c>
       <c r="E475" s="12" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.4">
@@ -15633,13 +15890,16 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
+      </c>
+      <c r="D476" s="15" t="s">
+        <v>1684</v>
       </c>
       <c r="E476" s="12" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.4">
@@ -15652,8 +15912,11 @@
       <c r="C477" t="s">
         <v>93</v>
       </c>
+      <c r="D477" s="15" t="s">
+        <v>1790</v>
+      </c>
       <c r="E477" s="12" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.4">
@@ -15661,13 +15924,16 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C478" t="s">
-        <v>855</v>
+        <v>853</v>
+      </c>
+      <c r="D478" s="15" t="s">
+        <v>1791</v>
       </c>
       <c r="E478" s="12" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.4">
@@ -15675,16 +15941,16 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C479" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D479" s="15" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E479" s="12" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.4">
@@ -15692,13 +15958,16 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C480" t="s">
-        <v>859</v>
+        <v>857</v>
+      </c>
+      <c r="D480" s="15" t="s">
+        <v>1792</v>
       </c>
       <c r="E480" s="12" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F480" s="9">
         <v>8</v>
@@ -15721,16 +15990,16 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C481" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D481" s="15" t="s">
-        <v>1369</v>
+        <v>1793</v>
       </c>
       <c r="E481" s="12" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.4">
@@ -15738,16 +16007,16 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C482" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D482" s="15" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E482" s="12" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.4">
@@ -15755,31 +16024,67 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D483" s="15" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="E483" s="12" t="s">
-        <v>1395</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>482</v>
       </c>
+      <c r="B484" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C484" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D484" s="15" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E484" s="18" t="s">
+        <v>1797</v>
+      </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>483</v>
       </c>
+      <c r="B485" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D485" s="15" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E485" s="12" t="s">
+        <v>1800</v>
+      </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D486" s="15" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E486" s="12" t="s">
+        <v>1803</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.4">
@@ -16405,34 +16710,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="22" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>1310</v>
+      <c r="F1" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+        <v>863</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="8">
@@ -16450,10 +16755,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D4" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -16461,10 +16766,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -16571,16 +16876,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F15" t="s">
         <v>1317</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1319</v>
       </c>
       <c r="G15">
         <v>36</v>
@@ -16613,7 +16918,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
@@ -16621,7 +16926,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
@@ -16629,7 +16934,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
@@ -16637,7 +16942,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
@@ -16645,7 +16950,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
@@ -16653,7 +16958,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
@@ -16661,7 +16966,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
@@ -16669,7 +16974,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
@@ -16677,7 +16982,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
@@ -16685,7 +16990,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
@@ -16693,7 +16998,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
@@ -16709,7 +17014,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
@@ -16717,7 +17022,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
@@ -16725,7 +17030,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
@@ -16733,7 +17038,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
@@ -16741,7 +17046,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
@@ -16749,7 +17054,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
@@ -16757,7 +17062,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
@@ -16765,7 +17070,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
@@ -16773,7 +17078,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
@@ -16781,7 +17086,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
@@ -16789,7 +17094,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
@@ -16797,7 +17102,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.4">
@@ -16805,10 +17110,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.4">
@@ -16827,7 +17132,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>86</v>
@@ -16838,7 +17143,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.4">
@@ -16846,7 +17151,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
@@ -16854,7 +17159,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.4">
@@ -16862,7 +17167,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
@@ -16870,7 +17175,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
@@ -16878,7 +17183,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
@@ -16886,7 +17191,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
@@ -16894,7 +17199,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
@@ -16902,7 +17207,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
@@ -16910,7 +17215,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
@@ -16918,7 +17223,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
@@ -16926,7 +17231,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
@@ -16934,7 +17239,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.4">
@@ -16942,7 +17247,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
@@ -16950,7 +17255,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
@@ -16961,7 +17266,7 @@
         <v>394</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
@@ -16969,7 +17274,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
@@ -16977,7 +17282,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
@@ -16985,7 +17290,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.4">
@@ -16993,7 +17298,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.4">
@@ -17009,7 +17314,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
@@ -17017,7 +17322,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
@@ -17025,7 +17330,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="곡 데이터(출시순)" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1845">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -4223,19 +4223,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미쿠미쿠하게 해줄께♪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>굿바이 선언</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>양왕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4505,34 +4497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>최종귀축 여동생 플랑도르</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2024. 09. 20. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7139,6 +7103,461 @@
   </si>
   <si>
     <t>망상 아스파탐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ワールドワイドワンダー</t>
+  </si>
+  <si>
+    <t>월드와이드 원더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄想感傷代償連盟</t>
+  </si>
+  <si>
+    <t>망상감상대상연맹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アイディスマイル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>威風堂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>々</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>駆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>けろ！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potatoになっていく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一千光年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シャルル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球最後の告白を</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음 예보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レグルス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ラグトレイン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みくみくにしてあげる♪【してやんよ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미쿠미쿠하게 해줄께♪【해줄거야】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>グッバイ宣言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>嬢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>王</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メモリア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命性シンドロウム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱風</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あるふぁんくらぶ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バグ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カゲロウデイズ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>キラ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女レイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>スイ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>トマジック</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダイジョブですか?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いかないで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>泡沫未</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>エンパ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プル</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星を繋ぐ</t>
+  </si>
+  <si>
+    <r>
+      <t>ロウワ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>オペラ！スペ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>スオペラ！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京テディベア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>초최종귀축 여동생 플랑도르</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color of Drops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flyway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>おぎゃりないざ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>酔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いどれ知らず</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>トキヲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ファンカ</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7287,7 +7706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7346,6 +7765,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7363,7 +7788,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7702,7 +8133,7 @@
   </sheetPr>
   <dimension ref="A1:K602"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7722,37 +8153,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>1309</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="1" t="s">
         <v>862</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="9" t="s">
         <v>97</v>
       </c>
@@ -7783,7 +8214,7 @@
         <v>1310</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="F3" s="9">
         <v>5</v>
@@ -7812,10 +8243,10 @@
         <v>105</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -7829,10 +8260,10 @@
         <v>107</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -7846,10 +8277,10 @@
         <v>109</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -7863,10 +8294,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -7880,10 +8311,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -7897,10 +8328,10 @@
         <v>111</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -7914,10 +8345,10 @@
         <v>113</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -7931,10 +8362,10 @@
         <v>1313</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -7948,10 +8379,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -7965,10 +8396,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -7982,10 +8413,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -7999,10 +8430,10 @@
         <v>119</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -8016,10 +8447,10 @@
         <v>121</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -8033,10 +8464,10 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -8050,10 +8481,10 @@
         <v>125</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -8067,10 +8498,10 @@
         <v>127</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -8084,10 +8515,10 @@
         <v>129</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -8101,10 +8532,10 @@
         <v>131</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -8118,10 +8549,10 @@
         <v>133</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -8135,10 +8566,10 @@
         <v>135</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -8152,10 +8583,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -8169,10 +8600,10 @@
         <v>137</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -8186,10 +8617,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -8203,10 +8634,10 @@
         <v>139</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -8220,10 +8651,10 @@
         <v>141</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -8237,10 +8668,10 @@
         <v>143</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -8254,10 +8685,10 @@
         <v>145</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -8271,7 +8702,7 @@
         <v>147</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>864</v>
@@ -8288,7 +8719,7 @@
         <v>149</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>865</v>
@@ -8305,7 +8736,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>866</v>
@@ -8322,7 +8753,7 @@
         <v>151</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>867</v>
@@ -8339,7 +8770,7 @@
         <v>153</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>868</v>
@@ -8356,7 +8787,7 @@
         <v>155</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>869</v>
@@ -8373,7 +8804,7 @@
         <v>157</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>870</v>
@@ -8387,10 +8818,10 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>871</v>
@@ -8407,7 +8838,7 @@
         <v>159</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>872</v>
@@ -8424,7 +8855,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>873</v>
@@ -8441,7 +8872,7 @@
         <v>161</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>874</v>
@@ -8458,7 +8889,7 @@
         <v>163</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>875</v>
@@ -8475,7 +8906,7 @@
         <v>165</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>876</v>
@@ -8492,7 +8923,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>877</v>
@@ -8509,7 +8940,7 @@
         <v>167</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>878</v>
@@ -8526,7 +8957,7 @@
         <v>169</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>879</v>
@@ -8543,7 +8974,7 @@
         <v>171</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>880</v>
@@ -8560,7 +8991,7 @@
         <v>173</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>881</v>
@@ -8577,7 +9008,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>882</v>
@@ -8594,10 +9025,10 @@
         <v>176</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -8611,7 +9042,7 @@
         <v>178</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>883</v>
@@ -8628,7 +9059,7 @@
         <v>180</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>884</v>
@@ -8645,7 +9076,7 @@
         <v>182</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>885</v>
@@ -8662,7 +9093,7 @@
         <v>184</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>886</v>
@@ -8679,7 +9110,7 @@
         <v>186</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>887</v>
@@ -8696,7 +9127,7 @@
         <v>188</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>888</v>
@@ -8713,7 +9144,7 @@
         <v>190</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>889</v>
@@ -8730,7 +9161,7 @@
         <v>192</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>890</v>
@@ -8747,7 +9178,7 @@
         <v>194</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>891</v>
@@ -8764,7 +9195,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>892</v>
@@ -8781,7 +9212,7 @@
         <v>196</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>893</v>
@@ -8798,7 +9229,7 @@
         <v>198</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>894</v>
@@ -8815,7 +9246,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>895</v>
@@ -8832,7 +9263,7 @@
         <v>200</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>896</v>
@@ -8849,7 +9280,7 @@
         <v>202</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>897</v>
@@ -8866,7 +9297,7 @@
         <v>204</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>898</v>
@@ -8883,7 +9314,7 @@
         <v>206</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>899</v>
@@ -8900,7 +9331,7 @@
         <v>208</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>900</v>
@@ -8917,7 +9348,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>901</v>
@@ -8934,7 +9365,7 @@
         <v>210</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>902</v>
@@ -8951,7 +9382,7 @@
         <v>212</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>903</v>
@@ -8968,7 +9399,7 @@
         <v>214</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>904</v>
@@ -8985,7 +9416,7 @@
         <v>216</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>905</v>
@@ -9002,7 +9433,7 @@
         <v>218</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>906</v>
@@ -9019,7 +9450,7 @@
         <v>220</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>907</v>
@@ -9036,7 +9467,7 @@
         <v>14</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>908</v>
@@ -9053,7 +9484,7 @@
         <v>15</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>909</v>
@@ -9070,7 +9501,7 @@
         <v>222</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>910</v>
@@ -9087,7 +9518,7 @@
         <v>224</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>911</v>
@@ -9104,7 +9535,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>912</v>
@@ -9121,7 +9552,7 @@
         <v>226</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>913</v>
@@ -9138,7 +9569,7 @@
         <v>227</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>914</v>
@@ -9155,7 +9586,7 @@
         <v>229</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>915</v>
@@ -9172,7 +9603,7 @@
         <v>231</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>916</v>
@@ -9189,7 +9620,7 @@
         <v>233</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>917</v>
@@ -9206,7 +9637,7 @@
         <v>235</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>918</v>
@@ -9223,7 +9654,7 @@
         <v>237</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>919</v>
@@ -9240,7 +9671,7 @@
         <v>17</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>920</v>
@@ -9257,7 +9688,7 @@
         <v>239</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>921</v>
@@ -9274,7 +9705,7 @@
         <v>241</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>921</v>
@@ -9291,7 +9722,7 @@
         <v>243</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>922</v>
@@ -9308,7 +9739,7 @@
         <v>245</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>923</v>
@@ -9325,7 +9756,7 @@
         <v>247</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>924</v>
@@ -9359,7 +9790,7 @@
         <v>249</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>926</v>
@@ -9376,7 +9807,7 @@
         <v>251</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>927</v>
@@ -9393,7 +9824,7 @@
         <v>253</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>928</v>
@@ -9410,7 +9841,7 @@
         <v>255</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>929</v>
@@ -9427,7 +9858,7 @@
         <v>19</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>930</v>
@@ -9444,7 +9875,7 @@
         <v>257</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>931</v>
@@ -9461,7 +9892,7 @@
         <v>259</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>932</v>
@@ -9478,7 +9909,7 @@
         <v>261</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>933</v>
@@ -9495,7 +9926,7 @@
         <v>263</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>934</v>
@@ -9512,7 +9943,7 @@
         <v>265</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>935</v>
@@ -9529,7 +9960,7 @@
         <v>267</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>936</v>
@@ -9546,7 +9977,7 @@
         <v>269</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>937</v>
@@ -9563,7 +9994,7 @@
         <v>271</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>938</v>
@@ -9580,7 +10011,7 @@
         <v>20</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>939</v>
@@ -9597,7 +10028,7 @@
         <v>273</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>940</v>
@@ -9614,7 +10045,7 @@
         <v>275</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>941</v>
@@ -9631,7 +10062,7 @@
         <v>277</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>942</v>
@@ -9648,7 +10079,7 @@
         <v>279</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>943</v>
@@ -9665,7 +10096,7 @@
         <v>281</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>944</v>
@@ -9682,7 +10113,7 @@
         <v>283</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>945</v>
@@ -9699,7 +10130,7 @@
         <v>21</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>946</v>
@@ -9716,7 +10147,7 @@
         <v>285</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>947</v>
@@ -9733,7 +10164,7 @@
         <v>22</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>948</v>
@@ -9750,7 +10181,7 @@
         <v>287</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>949</v>
@@ -9767,7 +10198,7 @@
         <v>289</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>950</v>
@@ -9784,7 +10215,7 @@
         <v>291</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>951</v>
@@ -9801,7 +10232,7 @@
         <v>293</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>952</v>
@@ -9818,7 +10249,7 @@
         <v>295</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>953</v>
@@ -9835,7 +10266,7 @@
         <v>297</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>954</v>
@@ -9852,7 +10283,7 @@
         <v>299</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>955</v>
@@ -9869,7 +10300,7 @@
         <v>301</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>956</v>
@@ -9886,7 +10317,7 @@
         <v>303</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>957</v>
@@ -9903,7 +10334,7 @@
         <v>305</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>958</v>
@@ -9920,7 +10351,7 @@
         <v>307</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>959</v>
@@ -9937,7 +10368,7 @@
         <v>309</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>960</v>
@@ -9954,7 +10385,7 @@
         <v>311</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>961</v>
@@ -9971,7 +10402,7 @@
         <v>313</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>962</v>
@@ -9988,7 +10419,7 @@
         <v>315</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>963</v>
@@ -10005,7 +10436,7 @@
         <v>23</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>964</v>
@@ -10022,7 +10453,7 @@
         <v>24</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>965</v>
@@ -10039,7 +10470,7 @@
         <v>318</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>966</v>
@@ -10056,7 +10487,7 @@
         <v>320</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>967</v>
@@ -10073,7 +10504,7 @@
         <v>25</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>968</v>
@@ -10090,7 +10521,7 @@
         <v>322</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>969</v>
@@ -10107,7 +10538,7 @@
         <v>324</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>970</v>
@@ -10124,7 +10555,7 @@
         <v>326</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>971</v>
@@ -10141,7 +10572,7 @@
         <v>26</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>972</v>
@@ -10158,7 +10589,7 @@
         <v>328</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>973</v>
@@ -10175,7 +10606,7 @@
         <v>330</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>974</v>
@@ -10192,7 +10623,7 @@
         <v>332</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>975</v>
@@ -10209,7 +10640,7 @@
         <v>334</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>976</v>
@@ -10226,7 +10657,7 @@
         <v>336</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>977</v>
@@ -10243,7 +10674,7 @@
         <v>338</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>978</v>
@@ -10260,7 +10691,7 @@
         <v>340</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>979</v>
@@ -10277,7 +10708,7 @@
         <v>342</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>980</v>
@@ -10294,7 +10725,7 @@
         <v>344</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>981</v>
@@ -10311,7 +10742,7 @@
         <v>346</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>982</v>
@@ -10328,7 +10759,7 @@
         <v>348</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>983</v>
@@ -10345,7 +10776,7 @@
         <v>350</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>984</v>
@@ -10362,7 +10793,7 @@
         <v>352</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>985</v>
@@ -10373,13 +10804,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C155" t="s">
         <v>353</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>986</v>
@@ -10396,7 +10827,7 @@
         <v>27</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>987</v>
@@ -10413,7 +10844,7 @@
         <v>28</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>988</v>
@@ -10430,7 +10861,7 @@
         <v>355</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>989</v>
@@ -10447,7 +10878,7 @@
         <v>357</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>990</v>
@@ -10464,7 +10895,7 @@
         <v>359</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>991</v>
@@ -10481,7 +10912,7 @@
         <v>360</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>992</v>
@@ -10498,7 +10929,7 @@
         <v>362</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>993</v>
@@ -10515,7 +10946,7 @@
         <v>364</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>994</v>
@@ -10532,7 +10963,7 @@
         <v>366</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>995</v>
@@ -10549,7 +10980,7 @@
         <v>30</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>996</v>
@@ -10566,7 +10997,7 @@
         <v>31</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>997</v>
@@ -10583,7 +11014,7 @@
         <v>368</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>998</v>
@@ -10600,7 +11031,7 @@
         <v>370</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>999</v>
@@ -10617,7 +11048,7 @@
         <v>371</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>1000</v>
@@ -10634,7 +11065,7 @@
         <v>373</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>1001</v>
@@ -10651,7 +11082,7 @@
         <v>33</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>1002</v>
@@ -10668,7 +11099,7 @@
         <v>375</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>1003</v>
@@ -10685,7 +11116,7 @@
         <v>377</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>1004</v>
@@ -10702,7 +11133,7 @@
         <v>379</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>1005</v>
@@ -10719,7 +11150,7 @@
         <v>381</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>1006</v>
@@ -10736,7 +11167,7 @@
         <v>383</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>1007</v>
@@ -10753,7 +11184,7 @@
         <v>385</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>1008</v>
@@ -10770,7 +11201,7 @@
         <v>387</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>1009</v>
@@ -10787,7 +11218,7 @@
         <v>389</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>1010</v>
@@ -10804,7 +11235,7 @@
         <v>391</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>1011</v>
@@ -10821,7 +11252,7 @@
         <v>393</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>1012</v>
@@ -10838,7 +11269,7 @@
         <v>394</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>1013</v>
@@ -10855,7 +11286,7 @@
         <v>34</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="E183" s="12" t="s">
         <v>1014</v>
@@ -10872,7 +11303,7 @@
         <v>35</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="E184" s="12" t="s">
         <v>1015</v>
@@ -10889,7 +11320,7 @@
         <v>396</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E185" s="12" t="s">
         <v>1016</v>
@@ -10906,7 +11337,7 @@
         <v>398</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>1017</v>
@@ -10923,7 +11354,7 @@
         <v>400</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="E187" s="12" t="s">
         <v>1018</v>
@@ -10940,7 +11371,7 @@
         <v>402</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>1019</v>
@@ -10957,7 +11388,7 @@
         <v>404</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>1020</v>
@@ -10974,7 +11405,7 @@
         <v>406</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>1021</v>
@@ -10991,7 +11422,7 @@
         <v>408</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>1022</v>
@@ -11008,7 +11439,7 @@
         <v>410</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="E192" s="12" t="s">
         <v>1023</v>
@@ -11025,7 +11456,7 @@
         <v>412</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="E193" s="12" t="s">
         <v>1024</v>
@@ -11042,7 +11473,7 @@
         <v>414</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="E194" s="12" t="s">
         <v>1025</v>
@@ -11059,7 +11490,7 @@
         <v>416</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>1026</v>
@@ -11076,10 +11507,10 @@
         <v>418</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="197" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -11125,7 +11556,7 @@
         <v>421</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="E198" s="12" t="s">
         <v>1027</v>
@@ -11142,7 +11573,7 @@
         <v>36</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="E199" s="12" t="s">
         <v>1028</v>
@@ -11159,7 +11590,7 @@
         <v>423</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>1029</v>
@@ -11176,7 +11607,7 @@
         <v>425</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>1030</v>
@@ -11193,7 +11624,7 @@
         <v>427</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="E202" s="12" t="s">
         <v>1031</v>
@@ -11210,7 +11641,7 @@
         <v>429</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E203" s="12" t="s">
         <v>1032</v>
@@ -11227,7 +11658,7 @@
         <v>431</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="E204" s="12" t="s">
         <v>1033</v>
@@ -11244,7 +11675,7 @@
         <v>433</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="E205" s="12" t="s">
         <v>1034</v>
@@ -11261,7 +11692,7 @@
         <v>435</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="E206" s="12" t="s">
         <v>1035</v>
@@ -11278,7 +11709,7 @@
         <v>437</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="E207" s="12" t="s">
         <v>1036</v>
@@ -11295,7 +11726,7 @@
         <v>439</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="E208" s="12" t="s">
         <v>1037</v>
@@ -11312,7 +11743,7 @@
         <v>441</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="E209" s="12" t="s">
         <v>1038</v>
@@ -11329,7 +11760,7 @@
         <v>443</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="E210" s="12" t="s">
         <v>1039</v>
@@ -11346,7 +11777,7 @@
         <v>445</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="E211" s="12" t="s">
         <v>1040</v>
@@ -11363,7 +11794,7 @@
         <v>447</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="E212" s="12" t="s">
         <v>1041</v>
@@ -11380,7 +11811,7 @@
         <v>449</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="E213" s="12" t="s">
         <v>1042</v>
@@ -11397,7 +11828,7 @@
         <v>451</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="E214" s="12" t="s">
         <v>1043</v>
@@ -11414,7 +11845,7 @@
         <v>453</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E215" s="12" t="s">
         <v>1044</v>
@@ -11431,7 +11862,7 @@
         <v>37</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="E216" s="12" t="s">
         <v>1045</v>
@@ -11448,7 +11879,7 @@
         <v>455</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="E217" s="12" t="s">
         <v>1046</v>
@@ -11465,7 +11896,7 @@
         <v>457</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="E218" s="12" t="s">
         <v>1047</v>
@@ -11482,7 +11913,7 @@
         <v>459</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="E219" s="12" t="s">
         <v>1048</v>
@@ -11499,7 +11930,7 @@
         <v>38</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="E220" s="12" t="s">
         <v>1049</v>
@@ -11516,7 +11947,7 @@
         <v>461</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="E221" s="12" t="s">
         <v>1050</v>
@@ -11533,7 +11964,7 @@
         <v>39</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E222" s="14" t="s">
         <v>1051</v>
@@ -11550,10 +11981,10 @@
         <v>463</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.4">
@@ -11567,7 +11998,7 @@
         <v>40</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="E224" s="12" t="s">
         <v>1052</v>
@@ -11584,7 +12015,7 @@
         <v>464</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="E225" s="12" t="s">
         <v>1053</v>
@@ -11601,7 +12032,7 @@
         <v>466</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="E226" s="12" t="s">
         <v>1054</v>
@@ -11618,7 +12049,7 @@
         <v>468</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="E227" s="12" t="s">
         <v>1055</v>
@@ -11635,7 +12066,7 @@
         <v>470</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E228" s="12" t="s">
         <v>1056</v>
@@ -11652,7 +12083,7 @@
         <v>472</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="E229" s="12" t="s">
         <v>1057</v>
@@ -11669,7 +12100,7 @@
         <v>474</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="E230" s="12" t="s">
         <v>1058</v>
@@ -11686,7 +12117,7 @@
         <v>42</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="E231" s="12" t="s">
         <v>1059</v>
@@ -11703,7 +12134,7 @@
         <v>476</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="E232" s="12" t="s">
         <v>1060</v>
@@ -11720,7 +12151,7 @@
         <v>478</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="E233" s="12" t="s">
         <v>1061</v>
@@ -11737,7 +12168,7 @@
         <v>479</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="E234" s="12" t="s">
         <v>1062</v>
@@ -11754,7 +12185,7 @@
         <v>481</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="E235" s="12" t="s">
         <v>1063</v>
@@ -11771,7 +12202,7 @@
         <v>43</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E236" s="12" t="s">
         <v>1064</v>
@@ -11820,7 +12251,7 @@
         <v>483</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E238" s="12" t="s">
         <v>1065</v>
@@ -11837,7 +12268,7 @@
         <v>485</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="E239" s="12" t="s">
         <v>1066</v>
@@ -11854,7 +12285,7 @@
         <v>487</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="E240" s="12" t="s">
         <v>1067</v>
@@ -11871,7 +12302,7 @@
         <v>44</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="E241" s="12" t="s">
         <v>1068</v>
@@ -11888,7 +12319,7 @@
         <v>489</v>
       </c>
       <c r="D242" s="15" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="E242" s="12" t="s">
         <v>1069</v>
@@ -11905,7 +12336,7 @@
         <v>45</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="E243" s="12" t="s">
         <v>1070</v>
@@ -11922,7 +12353,7 @@
         <v>492</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="E244" s="12" t="s">
         <v>1071</v>
@@ -11939,7 +12370,7 @@
         <v>494</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="E245" s="12" t="s">
         <v>1072</v>
@@ -11956,7 +12387,7 @@
         <v>496</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="E246" s="12" t="s">
         <v>1073</v>
@@ -11973,7 +12404,7 @@
         <v>498</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="E247" s="12" t="s">
         <v>1074</v>
@@ -11990,7 +12421,7 @@
         <v>500</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="E248" s="12" t="s">
         <v>1075</v>
@@ -12007,7 +12438,7 @@
         <v>502</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="E249" s="12" t="s">
         <v>1076</v>
@@ -12024,7 +12455,7 @@
         <v>504</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="E250" s="12" t="s">
         <v>1077</v>
@@ -12041,7 +12472,7 @@
         <v>506</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="E251" s="12" t="s">
         <v>1078</v>
@@ -12058,7 +12489,7 @@
         <v>508</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="E252" s="12" t="s">
         <v>1079</v>
@@ -12075,7 +12506,7 @@
         <v>510</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="E253" s="12" t="s">
         <v>1080</v>
@@ -12092,7 +12523,7 @@
         <v>46</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="E254" s="12" t="s">
         <v>1081</v>
@@ -12109,7 +12540,7 @@
         <v>512</v>
       </c>
       <c r="D255" s="15" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="E255" s="12" t="s">
         <v>1082</v>
@@ -12141,7 +12572,7 @@
         <v>514</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>1083</v>
@@ -12158,7 +12589,7 @@
         <v>516</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="E257" s="12" t="s">
         <v>1084</v>
@@ -12175,7 +12606,7 @@
         <v>518</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="E258" s="12" t="s">
         <v>1085</v>
@@ -12192,7 +12623,7 @@
         <v>47</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="E259" s="12" t="s">
         <v>1086</v>
@@ -12209,7 +12640,7 @@
         <v>520</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="E260" s="12" t="s">
         <v>1087</v>
@@ -12226,7 +12657,7 @@
         <v>522</v>
       </c>
       <c r="D261" s="15" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="E261" s="12" t="s">
         <v>1088</v>
@@ -12243,7 +12674,7 @@
         <v>524</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="E262" s="12" t="s">
         <v>1089</v>
@@ -12260,7 +12691,7 @@
         <v>526</v>
       </c>
       <c r="D263" s="15" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="E263" s="12" t="s">
         <v>1090</v>
@@ -12277,7 +12708,7 @@
         <v>528</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="E264" s="12" t="s">
         <v>1091</v>
@@ -12294,7 +12725,7 @@
         <v>530</v>
       </c>
       <c r="D265" s="15" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="E265" s="12" t="s">
         <v>1092</v>
@@ -12311,7 +12742,7 @@
         <v>48</v>
       </c>
       <c r="D266" s="15" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E266" s="12" t="s">
         <v>1093</v>
@@ -12328,7 +12759,7 @@
         <v>49</v>
       </c>
       <c r="D267" s="15" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="E267" s="12" t="s">
         <v>1094</v>
@@ -12345,7 +12776,7 @@
         <v>50</v>
       </c>
       <c r="D268" s="15" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E268" s="12" t="s">
         <v>1095</v>
@@ -12362,7 +12793,7 @@
         <v>51</v>
       </c>
       <c r="D269" s="15" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E269" s="12" t="s">
         <v>1096</v>
@@ -12379,7 +12810,7 @@
         <v>532</v>
       </c>
       <c r="D270" s="15" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="E270" s="12" t="s">
         <v>1097</v>
@@ -12411,7 +12842,7 @@
         <v>534</v>
       </c>
       <c r="D271" s="15" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="E271" s="12" t="s">
         <v>1098</v>
@@ -12428,7 +12859,7 @@
         <v>52</v>
       </c>
       <c r="D272" s="15" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E272" s="12" t="s">
         <v>1099</v>
@@ -12445,7 +12876,7 @@
         <v>536</v>
       </c>
       <c r="D273" s="15" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="E273" s="12" t="s">
         <v>1100</v>
@@ -12462,7 +12893,7 @@
         <v>538</v>
       </c>
       <c r="D274" s="15" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="E274" s="12" t="s">
         <v>1101</v>
@@ -12479,7 +12910,7 @@
         <v>1925</v>
       </c>
       <c r="D275" s="15" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="E275" s="12" t="s">
         <v>1102</v>
@@ -12496,7 +12927,7 @@
         <v>540</v>
       </c>
       <c r="D276" s="15" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="E276" s="12" t="s">
         <v>1103</v>
@@ -12513,7 +12944,7 @@
         <v>542</v>
       </c>
       <c r="D277" s="15" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E277" s="12" t="s">
         <v>1104</v>
@@ -12530,10 +12961,10 @@
         <v>53</v>
       </c>
       <c r="D278" s="15" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.4">
@@ -12547,7 +12978,7 @@
         <v>54</v>
       </c>
       <c r="D279" s="15" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="E279" s="12" t="s">
         <v>1105</v>
@@ -12564,7 +12995,7 @@
         <v>544</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="E280" s="12" t="s">
         <v>1106</v>
@@ -12581,7 +13012,7 @@
         <v>546</v>
       </c>
       <c r="D281" s="15" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E281" s="12" t="s">
         <v>1107</v>
@@ -12598,7 +13029,7 @@
         <v>548</v>
       </c>
       <c r="D282" s="15" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="E282" s="12" t="s">
         <v>1108</v>
@@ -12615,7 +13046,7 @@
         <v>55</v>
       </c>
       <c r="D283" s="15" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="E283" s="12" t="s">
         <v>1109</v>
@@ -12632,7 +13063,7 @@
         <v>550</v>
       </c>
       <c r="D284" s="15" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="E284" s="12" t="s">
         <v>1110</v>
@@ -12649,7 +13080,7 @@
         <v>56</v>
       </c>
       <c r="D285" s="15" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E285" s="12" t="s">
         <v>1111</v>
@@ -12666,7 +13097,7 @@
         <v>39</v>
       </c>
       <c r="D286" s="15" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="E286" s="12" t="s">
         <v>1112</v>
@@ -12683,7 +13114,7 @@
         <v>57</v>
       </c>
       <c r="D287" s="15" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E287" s="12" t="s">
         <v>1113</v>
@@ -12700,7 +13131,7 @@
         <v>552</v>
       </c>
       <c r="D288" s="15" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E288" s="12" t="s">
         <v>1114</v>
@@ -12717,7 +13148,7 @@
         <v>554</v>
       </c>
       <c r="D289" s="15" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E289" s="12" t="s">
         <v>1115</v>
@@ -12734,10 +13165,10 @@
         <v>58</v>
       </c>
       <c r="D290" s="15" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="E290" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.4">
@@ -12751,7 +13182,7 @@
         <v>556</v>
       </c>
       <c r="D291" s="15" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E291" s="12" t="s">
         <v>1116</v>
@@ -12768,7 +13199,7 @@
         <v>558</v>
       </c>
       <c r="D292" s="15" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="E292" s="12" t="s">
         <v>1117</v>
@@ -12785,7 +13216,7 @@
         <v>560</v>
       </c>
       <c r="D293" s="15" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="E293" s="12" t="s">
         <v>1118</v>
@@ -12802,7 +13233,7 @@
         <v>59</v>
       </c>
       <c r="D294" s="15" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E294" s="12" t="s">
         <v>1119</v>
@@ -12819,7 +13250,7 @@
         <v>60</v>
       </c>
       <c r="D295" s="15" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E295" s="12" t="s">
         <v>1120</v>
@@ -12836,7 +13267,7 @@
         <v>61</v>
       </c>
       <c r="D296" s="15" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="E296" s="12" t="s">
         <v>1120</v>
@@ -12853,7 +13284,7 @@
         <v>562</v>
       </c>
       <c r="D297" s="15" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="E297" s="12" t="s">
         <v>1121</v>
@@ -12870,7 +13301,7 @@
         <v>564</v>
       </c>
       <c r="D298" s="15" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="E298" s="12" t="s">
         <v>1122</v>
@@ -12887,7 +13318,7 @@
         <v>566</v>
       </c>
       <c r="D299" s="15" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E299" s="12" t="s">
         <v>1123</v>
@@ -12904,7 +13335,7 @@
         <v>568</v>
       </c>
       <c r="D300" s="15" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="E300" s="12" t="s">
         <v>1124</v>
@@ -12921,7 +13352,7 @@
         <v>570</v>
       </c>
       <c r="D301" s="15" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E301" s="12" t="s">
         <v>1125</v>
@@ -12938,7 +13369,7 @@
         <v>572</v>
       </c>
       <c r="D302" s="15" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="E302" s="12" t="s">
         <v>1126</v>
@@ -12955,7 +13386,7 @@
         <v>574</v>
       </c>
       <c r="D303" s="15" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="E303" s="12" t="s">
         <v>1127</v>
@@ -12972,7 +13403,7 @@
         <v>576</v>
       </c>
       <c r="D304" s="15" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="E304" s="12" t="s">
         <v>1128</v>
@@ -12989,7 +13420,7 @@
         <v>578</v>
       </c>
       <c r="D305" s="15" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="E305" s="12" t="s">
         <v>1129</v>
@@ -13006,7 +13437,7 @@
         <v>580</v>
       </c>
       <c r="D306" s="15" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="E306" s="12" t="s">
         <v>1130</v>
@@ -13023,7 +13454,7 @@
         <v>582</v>
       </c>
       <c r="D307" s="15" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="E307" s="12" t="s">
         <v>1131</v>
@@ -13040,7 +13471,7 @@
         <v>584</v>
       </c>
       <c r="D308" s="15" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="E308" s="12" t="s">
         <v>1132</v>
@@ -13057,7 +13488,7 @@
         <v>586</v>
       </c>
       <c r="D309" s="15" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E309" s="12" t="s">
         <v>1133</v>
@@ -13074,7 +13505,7 @@
         <v>588</v>
       </c>
       <c r="D310" s="15" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E310" s="12" t="s">
         <v>1134</v>
@@ -13091,7 +13522,7 @@
         <v>590</v>
       </c>
       <c r="D311" s="15" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E311" s="12" t="s">
         <v>1135</v>
@@ -13108,7 +13539,7 @@
         <v>592</v>
       </c>
       <c r="D312" s="15" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E312" s="12" t="s">
         <v>1136</v>
@@ -13125,7 +13556,7 @@
         <v>594</v>
       </c>
       <c r="D313" s="15" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="E313" s="12" t="s">
         <v>1137</v>
@@ -13142,7 +13573,7 @@
         <v>62</v>
       </c>
       <c r="D314" s="15" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="E314" s="12" t="s">
         <v>1138</v>
@@ -13159,7 +13590,7 @@
         <v>596</v>
       </c>
       <c r="D315" s="15" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="E315" s="12" t="s">
         <v>1139</v>
@@ -13176,7 +13607,7 @@
         <v>598</v>
       </c>
       <c r="D316" s="15" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="E316" s="12" t="s">
         <v>1140</v>
@@ -13193,7 +13624,7 @@
         <v>600</v>
       </c>
       <c r="D317" s="15" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="E317" s="12" t="s">
         <v>1141</v>
@@ -13210,10 +13641,10 @@
         <v>63</v>
       </c>
       <c r="D318" s="15" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.4">
@@ -13227,7 +13658,7 @@
         <v>602</v>
       </c>
       <c r="D319" s="15" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="E319" s="12" t="s">
         <v>1142</v>
@@ -13244,7 +13675,7 @@
         <v>604</v>
       </c>
       <c r="D320" s="15" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E320" s="12" t="s">
         <v>1143</v>
@@ -13261,7 +13692,7 @@
         <v>64</v>
       </c>
       <c r="D321" s="15" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="E321" s="12" t="s">
         <v>1144</v>
@@ -13278,7 +13709,7 @@
         <v>606</v>
       </c>
       <c r="D322" s="15" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E322" s="12" t="s">
         <v>1145</v>
@@ -13295,7 +13726,7 @@
         <v>608</v>
       </c>
       <c r="D323" s="15" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="E323" s="12" t="s">
         <v>1146</v>
@@ -13312,7 +13743,7 @@
         <v>610</v>
       </c>
       <c r="D324" s="15" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E324" s="12" t="s">
         <v>1147</v>
@@ -13329,10 +13760,10 @@
         <v>612</v>
       </c>
       <c r="D325" s="15" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.4">
@@ -13346,7 +13777,7 @@
         <v>65</v>
       </c>
       <c r="D326" s="15" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E326" s="12" t="s">
         <v>1148</v>
@@ -13363,7 +13794,7 @@
         <v>614</v>
       </c>
       <c r="D327" s="15" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="E327" s="12" t="s">
         <v>1149</v>
@@ -13380,7 +13811,7 @@
         <v>66</v>
       </c>
       <c r="D328" s="15" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="E328" s="12" t="s">
         <v>1150</v>
@@ -13397,7 +13828,7 @@
         <v>616</v>
       </c>
       <c r="D329" s="15" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="E329" s="12" t="s">
         <v>1151</v>
@@ -13414,7 +13845,7 @@
         <v>67</v>
       </c>
       <c r="D330" s="15" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="E330" s="12" t="s">
         <v>1152</v>
@@ -13431,7 +13862,7 @@
         <v>618</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E331" s="12" t="s">
         <v>1153</v>
@@ -13448,7 +13879,7 @@
         <v>620</v>
       </c>
       <c r="D332" s="15" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="E332" s="12" t="s">
         <v>1154</v>
@@ -13465,7 +13896,7 @@
         <v>622</v>
       </c>
       <c r="D333" s="15" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E333" s="12" t="s">
         <v>1155</v>
@@ -13482,7 +13913,7 @@
         <v>624</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="E334" s="12" t="s">
         <v>1156</v>
@@ -13499,7 +13930,7 @@
         <v>626</v>
       </c>
       <c r="D335" s="15" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="E335" s="12" t="s">
         <v>1157</v>
@@ -13516,7 +13947,7 @@
         <v>68</v>
       </c>
       <c r="D336" s="15" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E336" s="12" t="s">
         <v>1158</v>
@@ -13532,8 +13963,8 @@
       <c r="C337" t="s">
         <v>628</v>
       </c>
-      <c r="D337" s="25" t="s">
-        <v>1664</v>
+      <c r="D337" s="20" t="s">
+        <v>1661</v>
       </c>
       <c r="E337" s="12" t="s">
         <v>1159</v>
@@ -13550,7 +13981,7 @@
         <v>630</v>
       </c>
       <c r="D338" s="15" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="E338" s="12" t="s">
         <v>1160</v>
@@ -13567,7 +13998,7 @@
         <v>632</v>
       </c>
       <c r="D339" s="15" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E339" s="12" t="s">
         <v>1161</v>
@@ -13584,7 +14015,7 @@
         <v>69</v>
       </c>
       <c r="D340" s="15" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="E340" s="12" t="s">
         <v>1162</v>
@@ -13601,7 +14032,7 @@
         <v>634</v>
       </c>
       <c r="D341" s="15" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="E341" s="12" t="s">
         <v>1163</v>
@@ -13618,7 +14049,7 @@
         <v>636</v>
       </c>
       <c r="D342" s="15" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E342" s="12" t="s">
         <v>1164</v>
@@ -13635,7 +14066,7 @@
         <v>638</v>
       </c>
       <c r="D343" s="15" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="E343" s="12" t="s">
         <v>1165</v>
@@ -13652,7 +14083,7 @@
         <v>640</v>
       </c>
       <c r="D344" s="15" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="E344" s="12" t="s">
         <v>1166</v>
@@ -13669,7 +14100,7 @@
         <v>642</v>
       </c>
       <c r="D345" s="15" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="E345" s="12" t="s">
         <v>1167</v>
@@ -13686,7 +14117,7 @@
         <v>644</v>
       </c>
       <c r="D346" s="15" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="E346" s="12" t="s">
         <v>1168</v>
@@ -13703,7 +14134,7 @@
         <v>70</v>
       </c>
       <c r="D347" s="15" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="E347" s="12" t="s">
         <v>1169</v>
@@ -13720,7 +14151,7 @@
         <v>71</v>
       </c>
       <c r="D348" s="15" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E348" s="12" t="s">
         <v>1170</v>
@@ -13737,7 +14168,7 @@
         <v>647</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="E349" s="12" t="s">
         <v>1171</v>
@@ -13754,7 +14185,7 @@
         <v>72</v>
       </c>
       <c r="D350" s="15" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="E350" s="12" t="s">
         <v>1172</v>
@@ -13771,7 +14202,7 @@
         <v>649</v>
       </c>
       <c r="D351" s="15" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E351" s="12" t="s">
         <v>1173</v>
@@ -13788,7 +14219,7 @@
         <v>73</v>
       </c>
       <c r="D352" s="15" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="E352" s="12" t="s">
         <v>1174</v>
@@ -13805,7 +14236,7 @@
         <v>651</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E353" s="12" t="s">
         <v>1175</v>
@@ -13822,7 +14253,7 @@
         <v>653</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E354" s="12" t="s">
         <v>1176</v>
@@ -13839,7 +14270,7 @@
         <v>655</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E355" s="12" t="s">
         <v>1177</v>
@@ -13856,7 +14287,7 @@
         <v>657</v>
       </c>
       <c r="D356" s="15" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="E356" s="12" t="s">
         <v>1178</v>
@@ -13873,7 +14304,7 @@
         <v>659</v>
       </c>
       <c r="D357" s="15" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="E357" s="12" t="s">
         <v>1179</v>
@@ -13890,7 +14321,7 @@
         <v>661</v>
       </c>
       <c r="D358" s="15" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E358" s="12" t="s">
         <v>1180</v>
@@ -13907,7 +14338,7 @@
         <v>663</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="E359" s="12" t="s">
         <v>1181</v>
@@ -13924,7 +14355,7 @@
         <v>665</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="E360" s="12" t="s">
         <v>1182</v>
@@ -13941,7 +14372,7 @@
         <v>667</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="E361" s="12" t="s">
         <v>1183</v>
@@ -13958,7 +14389,7 @@
         <v>669</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="E362" s="12" t="s">
         <v>1184</v>
@@ -13975,7 +14406,7 @@
         <v>670</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E363" s="12" t="s">
         <v>1185</v>
@@ -13992,7 +14423,7 @@
         <v>672</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="E364" s="12" t="s">
         <v>1186</v>
@@ -14009,7 +14440,7 @@
         <v>75</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="E365" s="12" t="s">
         <v>1187</v>
@@ -14026,7 +14457,7 @@
         <v>674</v>
       </c>
       <c r="D366" s="15" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E366" s="12" t="s">
         <v>1188</v>
@@ -14043,7 +14474,7 @@
         <v>676</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="E367" s="12" t="s">
         <v>1189</v>
@@ -14060,7 +14491,7 @@
         <v>677</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E368" s="12" t="s">
         <v>1190</v>
@@ -14077,7 +14508,7 @@
         <v>679</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E369" s="12" t="s">
         <v>1191</v>
@@ -14094,7 +14525,7 @@
         <v>681</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="E370" s="12" t="s">
         <v>1192</v>
@@ -14111,7 +14542,7 @@
         <v>683</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="E371" s="12" t="s">
         <v>1193</v>
@@ -14128,7 +14559,7 @@
         <v>684</v>
       </c>
       <c r="D372" s="15" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="E372" s="12" t="s">
         <v>1194</v>
@@ -14145,7 +14576,7 @@
         <v>685</v>
       </c>
       <c r="D373" s="15" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="E373" s="12" t="s">
         <v>1195</v>
@@ -14162,7 +14593,7 @@
         <v>687</v>
       </c>
       <c r="D374" s="15" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="E374" s="12" t="s">
         <v>1196</v>
@@ -14179,7 +14610,7 @@
         <v>689</v>
       </c>
       <c r="D375" s="15" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E375" s="12" t="s">
         <v>1197</v>
@@ -14196,7 +14627,7 @@
         <v>691</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="E376" s="12" t="s">
         <v>1198</v>
@@ -14213,7 +14644,7 @@
         <v>692</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="E377" s="12" t="s">
         <v>1199</v>
@@ -14229,8 +14660,8 @@
       <c r="C378" t="s">
         <v>694</v>
       </c>
-      <c r="D378" s="25" t="s">
-        <v>1702</v>
+      <c r="D378" s="20" t="s">
+        <v>1699</v>
       </c>
       <c r="E378" s="12" t="s">
         <v>1200</v>
@@ -14247,7 +14678,7 @@
         <v>696</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="E379" s="12" t="s">
         <v>1201</v>
@@ -14264,7 +14695,7 @@
         <v>698</v>
       </c>
       <c r="D380" s="15" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="E380" s="12" t="s">
         <v>1202</v>
@@ -14281,7 +14712,7 @@
         <v>700</v>
       </c>
       <c r="D381" s="15" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E381" s="12" t="s">
         <v>1203</v>
@@ -14298,7 +14729,7 @@
         <v>702</v>
       </c>
       <c r="D382" s="15" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="E382" s="12" t="s">
         <v>1204</v>
@@ -14315,7 +14746,7 @@
         <v>704</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="E383" s="12" t="s">
         <v>1205</v>
@@ -14332,7 +14763,7 @@
         <v>706</v>
       </c>
       <c r="D384" s="15" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="E384" s="12" t="s">
         <v>1206</v>
@@ -14349,7 +14780,7 @@
         <v>708</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="E385" s="12" t="s">
         <v>1207</v>
@@ -14366,7 +14797,7 @@
         <v>710</v>
       </c>
       <c r="D386" s="15" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="E386" s="12" t="s">
         <v>1208</v>
@@ -14383,7 +14814,7 @@
         <v>712</v>
       </c>
       <c r="D387" s="15" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="E387" s="12" t="s">
         <v>1209</v>
@@ -14400,7 +14831,7 @@
         <v>714</v>
       </c>
       <c r="D388" s="15" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="E388" s="12" t="s">
         <v>1210</v>
@@ -14417,7 +14848,7 @@
         <v>716</v>
       </c>
       <c r="D389" s="15" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="E389" s="12" t="s">
         <v>1211</v>
@@ -14434,7 +14865,7 @@
         <v>718</v>
       </c>
       <c r="D390" s="15" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E390" s="12" t="s">
         <v>1212</v>
@@ -14451,7 +14882,7 @@
         <v>720</v>
       </c>
       <c r="D391" s="15" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E391" s="12" t="s">
         <v>1213</v>
@@ -14468,7 +14899,7 @@
         <v>77</v>
       </c>
       <c r="D392" s="15" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="E392" s="12" t="s">
         <v>1214</v>
@@ -14485,7 +14916,7 @@
         <v>78</v>
       </c>
       <c r="D393" s="15" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="E393" s="12" t="s">
         <v>1215</v>
@@ -14502,7 +14933,7 @@
         <v>79</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="E394" s="12" t="s">
         <v>1216</v>
@@ -14519,7 +14950,7 @@
         <v>1303</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="E395" s="12" t="s">
         <v>1217</v>
@@ -14536,7 +14967,7 @@
         <v>723</v>
       </c>
       <c r="D396" s="15" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="E396" s="12" t="s">
         <v>1218</v>
@@ -14553,7 +14984,7 @@
         <v>80</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="E397" s="12" t="s">
         <v>1219</v>
@@ -14570,7 +15001,7 @@
         <v>725</v>
       </c>
       <c r="D398" s="15" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E398" s="12" t="s">
         <v>1220</v>
@@ -14587,7 +15018,7 @@
         <v>727</v>
       </c>
       <c r="D399" s="15" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="E399" s="12" t="s">
         <v>1221</v>
@@ -14603,8 +15034,8 @@
       <c r="C400" t="s">
         <v>729</v>
       </c>
-      <c r="D400" s="25" t="s">
-        <v>1718</v>
+      <c r="D400" s="20" t="s">
+        <v>1715</v>
       </c>
       <c r="E400" s="12" t="s">
         <v>1222</v>
@@ -14621,7 +15052,7 @@
         <v>731</v>
       </c>
       <c r="D401" s="15" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="E401" s="12" t="s">
         <v>1223</v>
@@ -14638,7 +15069,7 @@
         <v>733</v>
       </c>
       <c r="D402" s="15" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="E402" s="12" t="s">
         <v>1224</v>
@@ -14655,7 +15086,7 @@
         <v>735</v>
       </c>
       <c r="D403" s="15" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="E403" s="12" t="s">
         <v>1225</v>
@@ -14672,7 +15103,7 @@
         <v>737</v>
       </c>
       <c r="D404" s="15" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="E404" s="12" t="s">
         <v>1226</v>
@@ -14689,7 +15120,7 @@
         <v>81</v>
       </c>
       <c r="D405" s="15" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="E405" s="12" t="s">
         <v>1227</v>
@@ -14706,7 +15137,7 @@
         <v>739</v>
       </c>
       <c r="D406" s="15" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="E406" s="12" t="s">
         <v>1228</v>
@@ -14723,7 +15154,7 @@
         <v>741</v>
       </c>
       <c r="D407" s="15" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="E407" s="12" t="s">
         <v>1229</v>
@@ -14740,7 +15171,7 @@
         <v>82</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E408" s="12" t="s">
         <v>1230</v>
@@ -14756,8 +15187,8 @@
       <c r="C409" t="s">
         <v>743</v>
       </c>
-      <c r="D409" s="25" t="s">
-        <v>1726</v>
+      <c r="D409" s="20" t="s">
+        <v>1723</v>
       </c>
       <c r="E409" s="12" t="s">
         <v>1231</v>
@@ -14774,7 +15205,7 @@
         <v>745</v>
       </c>
       <c r="D410" s="15" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="E410" s="12" t="s">
         <v>1232</v>
@@ -14791,7 +15222,7 @@
         <v>747</v>
       </c>
       <c r="D411" s="15" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="E411" s="12" t="s">
         <v>1233</v>
@@ -14808,7 +15239,7 @@
         <v>749</v>
       </c>
       <c r="D412" s="15" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="E412" s="12" t="s">
         <v>1234</v>
@@ -14825,7 +15256,7 @@
         <v>751</v>
       </c>
       <c r="D413" s="15" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="E413" s="12" t="s">
         <v>1235</v>
@@ -14842,7 +15273,7 @@
         <v>83</v>
       </c>
       <c r="D414" s="15" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="E414" s="12" t="s">
         <v>1236</v>
@@ -14859,7 +15290,7 @@
         <v>753</v>
       </c>
       <c r="D415" s="15" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="E415" s="12" t="s">
         <v>1237</v>
@@ -14876,7 +15307,7 @@
         <v>755</v>
       </c>
       <c r="D416" s="15" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="E416" s="12" t="s">
         <v>1238</v>
@@ -14893,7 +15324,7 @@
         <v>757</v>
       </c>
       <c r="D417" s="15" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="E417" s="12" t="s">
         <v>1239</v>
@@ -14910,7 +15341,7 @@
         <v>759</v>
       </c>
       <c r="D418" s="15" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="E418" s="12" t="s">
         <v>1240</v>
@@ -14927,7 +15358,7 @@
         <v>761</v>
       </c>
       <c r="D419" s="15" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="E419" s="12" t="s">
         <v>1241</v>
@@ -14944,7 +15375,7 @@
         <v>84</v>
       </c>
       <c r="D420" s="15" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="E420" s="12" t="s">
         <v>1242</v>
@@ -14961,7 +15392,7 @@
         <v>763</v>
       </c>
       <c r="D421" s="15" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="E421" s="12" t="s">
         <v>1243</v>
@@ -14978,7 +15409,7 @@
         <v>765</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="E422" s="12" t="s">
         <v>1244</v>
@@ -14995,7 +15426,7 @@
         <v>767</v>
       </c>
       <c r="D423" s="15" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="E423" s="12" t="s">
         <v>1245</v>
@@ -15012,7 +15443,7 @@
         <v>769</v>
       </c>
       <c r="D424" s="15" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="E424" s="12" t="s">
         <v>1246</v>
@@ -15029,7 +15460,7 @@
         <v>771</v>
       </c>
       <c r="D425" s="15" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E425" s="12" t="s">
         <v>1247</v>
@@ -15045,8 +15476,8 @@
       <c r="C426" t="s">
         <v>773</v>
       </c>
-      <c r="D426" s="25" t="s">
-        <v>1741</v>
+      <c r="D426" s="20" t="s">
+        <v>1738</v>
       </c>
       <c r="E426" s="12" t="s">
         <v>1248</v>
@@ -15063,7 +15494,7 @@
         <v>775</v>
       </c>
       <c r="D427" s="15" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="E427" s="12" t="s">
         <v>1249</v>
@@ -15080,7 +15511,7 @@
         <v>777</v>
       </c>
       <c r="D428" s="15" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="E428" s="12" t="s">
         <v>1250</v>
@@ -15097,7 +15528,7 @@
         <v>779</v>
       </c>
       <c r="D429" s="15" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="E429" s="12" t="s">
         <v>1251</v>
@@ -15114,7 +15545,7 @@
         <v>781</v>
       </c>
       <c r="D430" s="15" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="E430" s="12" t="s">
         <v>1252</v>
@@ -15131,7 +15562,7 @@
         <v>783</v>
       </c>
       <c r="D431" s="15" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="E431" s="12" t="s">
         <v>1253</v>
@@ -15142,13 +15573,13 @@
         <v>430</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="C432" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="D432" s="15" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="E432" s="12" t="s">
         <v>1254</v>
@@ -15165,7 +15596,7 @@
         <v>85</v>
       </c>
       <c r="D433" s="15" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="E433" s="12" t="s">
         <v>1255</v>
@@ -15182,7 +15613,7 @@
         <v>86</v>
       </c>
       <c r="D434" s="15" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="E434" s="12" t="s">
         <v>1256</v>
@@ -15198,8 +15629,8 @@
       <c r="C435" t="s">
         <v>785</v>
       </c>
-      <c r="D435" s="25" t="s">
-        <v>1750</v>
+      <c r="D435" s="20" t="s">
+        <v>1747</v>
       </c>
       <c r="E435" s="12" t="s">
         <v>1257</v>
@@ -15216,7 +15647,7 @@
         <v>787</v>
       </c>
       <c r="D436" s="15" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="E436" s="12" t="s">
         <v>1258</v>
@@ -15233,7 +15664,7 @@
         <v>789</v>
       </c>
       <c r="D437" s="15" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="E437" s="12" t="s">
         <v>1259</v>
@@ -15250,7 +15681,7 @@
         <v>791</v>
       </c>
       <c r="D438" s="15" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="E438" s="12" t="s">
         <v>1260</v>
@@ -15267,10 +15698,10 @@
         <v>793</v>
       </c>
       <c r="D439" s="15" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="E439" s="12" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.4">
@@ -15284,7 +15715,7 @@
         <v>795</v>
       </c>
       <c r="D440" s="15" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="E440" s="12" t="s">
         <v>1261</v>
@@ -15301,7 +15732,7 @@
         <v>797</v>
       </c>
       <c r="D441" s="15" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="E441" s="12" t="s">
         <v>1262</v>
@@ -15318,7 +15749,7 @@
         <v>799</v>
       </c>
       <c r="D442" s="15" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="E442" s="12" t="s">
         <v>1263</v>
@@ -15335,7 +15766,7 @@
         <v>801</v>
       </c>
       <c r="D443" s="15" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="E443" s="12" t="s">
         <v>1264</v>
@@ -15352,7 +15783,7 @@
         <v>87</v>
       </c>
       <c r="D444" s="17" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="E444" s="12" t="s">
         <v>1265</v>
@@ -15369,10 +15800,10 @@
         <v>803</v>
       </c>
       <c r="D445" s="15" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="E445" s="12" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.4">
@@ -15386,7 +15817,7 @@
         <v>805</v>
       </c>
       <c r="D446" s="15" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="E446" s="12" t="s">
         <v>1266</v>
@@ -15403,7 +15834,7 @@
         <v>88</v>
       </c>
       <c r="D447" s="15" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="E447" s="12" t="s">
         <v>1267</v>
@@ -15420,7 +15851,7 @@
         <v>807</v>
       </c>
       <c r="D448" s="15" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="E448" s="12" t="s">
         <v>1268</v>
@@ -15437,7 +15868,7 @@
         <v>89</v>
       </c>
       <c r="D449" s="15" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="E449" s="12" t="s">
         <v>1269</v>
@@ -15454,7 +15885,7 @@
         <v>809</v>
       </c>
       <c r="D450" s="15" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="E450" s="12" t="s">
         <v>1270</v>
@@ -15471,7 +15902,7 @@
         <v>811</v>
       </c>
       <c r="D451" s="15" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="E451" s="12" t="s">
         <v>1271</v>
@@ -15485,10 +15916,10 @@
         <v>812</v>
       </c>
       <c r="C452" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D452" s="15" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="E452" s="12" t="s">
         <v>1272</v>
@@ -15505,7 +15936,7 @@
         <v>814</v>
       </c>
       <c r="D453" s="15" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="E453" s="12" t="s">
         <v>1273</v>
@@ -15522,7 +15953,7 @@
         <v>816</v>
       </c>
       <c r="D454" s="15" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="E454" s="12" t="s">
         <v>1274</v>
@@ -15539,7 +15970,7 @@
         <v>817</v>
       </c>
       <c r="D455" s="15" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="E455" s="12" t="s">
         <v>1275</v>
@@ -15556,7 +15987,7 @@
         <v>819</v>
       </c>
       <c r="D456" s="15" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="E456" s="12" t="s">
         <v>1276</v>
@@ -15573,7 +16004,7 @@
         <v>821</v>
       </c>
       <c r="D457" s="15" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="E457" s="12" t="s">
         <v>1277</v>
@@ -15590,7 +16021,7 @@
         <v>822</v>
       </c>
       <c r="D458" s="15" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="E458" s="12" t="s">
         <v>1278</v>
@@ -15607,7 +16038,7 @@
         <v>824</v>
       </c>
       <c r="D459" s="15" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="E459" s="12" t="s">
         <v>1279</v>
@@ -15624,7 +16055,7 @@
         <v>826</v>
       </c>
       <c r="D460" s="15" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="E460" s="12" t="s">
         <v>1280</v>
@@ -15641,7 +16072,7 @@
         <v>827</v>
       </c>
       <c r="D461" s="15" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="E461" s="12" t="s">
         <v>1281</v>
@@ -15658,7 +16089,7 @@
         <v>829</v>
       </c>
       <c r="D462" s="15" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E462" s="12" t="s">
         <v>1282</v>
@@ -15675,7 +16106,7 @@
         <v>831</v>
       </c>
       <c r="D463" s="15" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="E463" s="12" t="s">
         <v>1283</v>
@@ -15692,7 +16123,7 @@
         <v>832</v>
       </c>
       <c r="D464" s="15" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="E464" s="12" t="s">
         <v>1284</v>
@@ -15709,7 +16140,7 @@
         <v>834</v>
       </c>
       <c r="D465" s="15" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="E465" s="12" t="s">
         <v>1285</v>
@@ -15726,7 +16157,7 @@
         <v>836</v>
       </c>
       <c r="D466" s="15" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="E466" s="12" t="s">
         <v>1286</v>
@@ -15743,10 +16174,10 @@
         <v>838</v>
       </c>
       <c r="D467" s="15" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="E467" s="12" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.4">
@@ -15760,7 +16191,7 @@
         <v>92</v>
       </c>
       <c r="D468" s="15" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="E468" s="12" t="s">
         <v>1287</v>
@@ -15777,7 +16208,7 @@
         <v>840</v>
       </c>
       <c r="D469" s="15" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="E469" s="12" t="s">
         <v>1288</v>
@@ -15788,13 +16219,13 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="C470" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="D470" s="15" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="E470" s="12" t="s">
         <v>1289</v>
@@ -15811,7 +16242,7 @@
         <v>842</v>
       </c>
       <c r="D471" s="15" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="E471" s="12" t="s">
         <v>1290</v>
@@ -15828,7 +16259,7 @@
         <v>844</v>
       </c>
       <c r="D472" s="15" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="E472" s="12" t="s">
         <v>1291</v>
@@ -15845,7 +16276,7 @@
         <v>846</v>
       </c>
       <c r="D473" s="15" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E473" s="12" t="s">
         <v>1292</v>
@@ -15862,7 +16293,7 @@
         <v>848</v>
       </c>
       <c r="D474" s="15" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="E474" s="12" t="s">
         <v>1293</v>
@@ -15879,7 +16310,7 @@
         <v>850</v>
       </c>
       <c r="D475" s="15" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="E475" s="12" t="s">
         <v>1294</v>
@@ -15896,7 +16327,7 @@
         <v>852</v>
       </c>
       <c r="D476" s="15" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="E476" s="12" t="s">
         <v>1295</v>
@@ -15913,7 +16344,7 @@
         <v>93</v>
       </c>
       <c r="D477" s="15" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="E477" s="12" t="s">
         <v>1296</v>
@@ -15930,7 +16361,7 @@
         <v>853</v>
       </c>
       <c r="D478" s="15" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="E478" s="12" t="s">
         <v>1297</v>
@@ -15947,7 +16378,7 @@
         <v>855</v>
       </c>
       <c r="D479" s="15" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E479" s="12" t="s">
         <v>1298</v>
@@ -15964,7 +16395,7 @@
         <v>857</v>
       </c>
       <c r="D480" s="15" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="E480" s="12" t="s">
         <v>1299</v>
@@ -15996,7 +16427,7 @@
         <v>859</v>
       </c>
       <c r="D481" s="15" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="E481" s="12" t="s">
         <v>1300</v>
@@ -16013,10 +16444,10 @@
         <v>861</v>
       </c>
       <c r="D482" s="15" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E482" s="12" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.4">
@@ -16024,16 +16455,16 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C483" s="11" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D483" s="15" t="s">
         <v>1380</v>
       </c>
-      <c r="D483" s="15" t="s">
-        <v>1382</v>
-      </c>
       <c r="E483" s="12" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.4">
@@ -16041,16 +16472,16 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="C484" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D484" s="15" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E484" s="18" t="s">
         <v>1794</v>
-      </c>
-      <c r="D484" s="15" t="s">
-        <v>1795</v>
-      </c>
-      <c r="E484" s="18" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.4">
@@ -16058,16 +16489,16 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="C485" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D485" s="15" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="E485" s="12" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.4">
@@ -16075,16 +16506,16 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="C486" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="D486" s="15" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="E486" s="12" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.4">
@@ -16693,51 +17124,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.59765625" customWidth="1"/>
     <col min="2" max="2" width="9" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="3" max="3" width="31.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9" style="19" customWidth="1"/>
     <col min="8" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>1314</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>1307</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="24"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>862</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="8">
@@ -16749,6 +17182,9 @@
       <c r="D3" t="s">
         <v>103</v>
       </c>
+      <c r="G3" s="19">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="8">
@@ -16760,6 +17196,9 @@
       <c r="D4" t="s">
         <v>1311</v>
       </c>
+      <c r="G4" s="19">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="8">
@@ -16771,6 +17210,9 @@
       <c r="D5" t="s">
         <v>1313</v>
       </c>
+      <c r="G5" s="19">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="8">
@@ -16782,6 +17224,9 @@
       <c r="D6" t="s">
         <v>173</v>
       </c>
+      <c r="G6" s="19">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="8">
@@ -16793,6 +17238,9 @@
       <c r="D7" t="s">
         <v>186</v>
       </c>
+      <c r="G7" s="19">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="8">
@@ -16804,6 +17252,9 @@
       <c r="D8" t="s">
         <v>429</v>
       </c>
+      <c r="G8" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="8">
@@ -16815,6 +17266,9 @@
       <c r="D9" t="s">
         <v>255</v>
       </c>
+      <c r="G9" s="19">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="8">
@@ -16826,6 +17280,9 @@
       <c r="D10" t="s">
         <v>526</v>
       </c>
+      <c r="G10" s="19">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="8">
@@ -16837,6 +17294,9 @@
       <c r="D11" t="s">
         <v>265</v>
       </c>
+      <c r="G11" s="19">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="8">
@@ -16848,6 +17308,9 @@
       <c r="D12" t="s">
         <v>305</v>
       </c>
+      <c r="G12" s="19">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="8">
@@ -16859,6 +17322,9 @@
       <c r="D13" t="s">
         <v>492</v>
       </c>
+      <c r="G13" s="19">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="8">
@@ -16870,6 +17336,9 @@
       <c r="D14" t="s">
         <v>461</v>
       </c>
+      <c r="G14" s="19">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="8">
@@ -16887,7 +17356,7 @@
       <c r="F15" t="s">
         <v>1317</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="19">
         <v>36</v>
       </c>
     </row>
@@ -16901,8 +17370,11 @@
       <c r="D16" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="G16" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -16912,353 +17384,599 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="G17" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="8">
         <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G18" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="8">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G19" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="8">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="27" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G20" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="8">
         <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="27" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G21" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="27" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G22" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="8">
         <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D23" s="27" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G23" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="8">
         <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D24" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G24" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="8">
         <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D25" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G25" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="8">
         <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G26" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="8">
         <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D27" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G27" s="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="8">
         <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D28" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G28" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="8">
         <v>27</v>
       </c>
+      <c r="C29" t="s">
+        <v>1815</v>
+      </c>
       <c r="D29" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="G29" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="8">
         <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G30" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="8">
         <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G31" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="8">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1819</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G32" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="8">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1332</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G33" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="8">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1333</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G34" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="8">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1334</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G35" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="8">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1335</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G36" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="8">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1336</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G37" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="8">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1337</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G38" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="8">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1338</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G39" s="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="8">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1339</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G40" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="8">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C41" s="7" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G41" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="8">
         <v>40</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1385</v>
+        <v>85</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+      <c r="G42" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="8">
         <v>41</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>85</v>
+      <c r="C43" t="s">
+        <v>1340</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="G43" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="8">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>1342</v>
+        <v>1840</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1840</v>
+      </c>
+      <c r="G44" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="8">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1341</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G45" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="8">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1342</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G46" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="8">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1343</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G47" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="8">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1344</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G48" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="8">
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1345</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G49" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="8">
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1346</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G50" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="8">
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1347</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G51" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="8">
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1348</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G52" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="8">
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1349</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G53" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="8">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1350</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G54" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="8">
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1351</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G55" s="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="8">
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1352</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G56" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="8">
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1353</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G57" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="8">
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1354</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G58" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="8">
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1355</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G59" s="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="8">
         <v>58</v>
       </c>
@@ -17266,129 +17984,198 @@
         <v>394</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1356</v>
+      </c>
+      <c r="G60" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="8">
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1357</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G61" s="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="8">
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1358</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G62" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="8">
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1359</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G63" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="8">
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1360</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G64" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="8">
         <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D65" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G65" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="8">
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1361</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G66" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="8">
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1362</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G67" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="8">
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1363</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G68" s="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="8">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C69" s="7" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G69" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="8">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C70" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G70" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="8">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="8">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="8">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="8">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="8">
         <v>78</v>
       </c>

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -32,6 +32,7 @@
   <customWorkbookViews>
     <customWorkbookView name="main" guid="{9E8C27FD-5DF8-48AD-A74D-D3BBBDC46F2B}" includeHiddenRowCol="0" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="3"/>
   </customWorkbookViews>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8150,10 +8151,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B326" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J486" sqref="J3:J486"/>
+      <selection pane="bottomRight" activeCell="J343" sqref="J343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -12084,6 +12085,9 @@
       <c r="I123" s="22">
         <v>26</v>
       </c>
+      <c r="J123" s="22">
+        <v>33</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124">
@@ -12209,6 +12213,9 @@
       <c r="I127" s="22">
         <v>25</v>
       </c>
+      <c r="J127" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128">
@@ -12270,6 +12277,9 @@
       <c r="I129" s="22">
         <v>26</v>
       </c>
+      <c r="J129" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130">
@@ -12363,6 +12373,9 @@
       <c r="I132" s="22">
         <v>25</v>
       </c>
+      <c r="J132" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133">
@@ -12424,6 +12437,9 @@
       <c r="I134" s="22">
         <v>25</v>
       </c>
+      <c r="J134" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135">
@@ -12965,6 +12981,9 @@
       <c r="I151" s="22">
         <v>25</v>
       </c>
+      <c r="J151" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152">
@@ -13058,6 +13077,9 @@
       <c r="I154" s="22">
         <v>24</v>
       </c>
+      <c r="J154" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155">
@@ -13087,6 +13109,9 @@
       <c r="I155" s="22">
         <v>31</v>
       </c>
+      <c r="J155" s="22">
+        <v>35</v>
+      </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156">
@@ -13116,6 +13141,9 @@
       <c r="I156" s="22">
         <v>31</v>
       </c>
+      <c r="J156" s="22">
+        <v>36</v>
+      </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157">
@@ -13145,6 +13173,9 @@
       <c r="I157" s="22">
         <v>30</v>
       </c>
+      <c r="J157" s="22">
+        <v>35</v>
+      </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158">
@@ -14134,6 +14165,9 @@
       <c r="I188" s="22">
         <v>24</v>
       </c>
+      <c r="J188" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189">
@@ -14451,6 +14485,9 @@
       <c r="I198" s="22">
         <v>25</v>
       </c>
+      <c r="J198" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199">
@@ -14608,6 +14645,9 @@
       <c r="I203" s="22">
         <v>25</v>
       </c>
+      <c r="J203" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A204">
@@ -15341,6 +15381,9 @@
       <c r="I226" s="22">
         <v>26</v>
       </c>
+      <c r="J226" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A227">
@@ -15434,6 +15477,9 @@
       <c r="I229" s="22">
         <v>28</v>
       </c>
+      <c r="J229" s="22">
+        <v>32</v>
+      </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A230">
@@ -15559,6 +15605,9 @@
       <c r="I233" s="22">
         <v>24</v>
       </c>
+      <c r="J233" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A234">
@@ -15652,6 +15701,9 @@
       <c r="I236" s="22">
         <v>25</v>
       </c>
+      <c r="J236" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="237" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A237" s="6">
@@ -15969,6 +16021,9 @@
       <c r="I246" s="22">
         <v>25</v>
       </c>
+      <c r="J246" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A247">
@@ -16019,7 +16074,7 @@
         <v>1068</v>
       </c>
       <c r="F248" s="22">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="G248" s="22">
         <v>13</v>
@@ -16029,6 +16084,9 @@
       </c>
       <c r="I248" s="22">
         <v>24</v>
+      </c>
+      <c r="J248" s="22">
+        <v>29</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.4">
@@ -16283,6 +16341,9 @@
       <c r="I256" s="22">
         <v>24</v>
       </c>
+      <c r="J256" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A257">
@@ -16312,6 +16373,9 @@
       <c r="I257" s="22">
         <v>25</v>
       </c>
+      <c r="J257" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A258">
@@ -16341,6 +16405,9 @@
       <c r="I258" s="22">
         <v>24</v>
       </c>
+      <c r="J258" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A259">
@@ -16370,6 +16437,9 @@
       <c r="I259" s="22">
         <v>24</v>
       </c>
+      <c r="J259" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A260">
@@ -16399,6 +16469,9 @@
       <c r="I260" s="22">
         <v>25</v>
       </c>
+      <c r="J260" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A261">
@@ -16556,6 +16629,9 @@
       <c r="I265" s="22">
         <v>23</v>
       </c>
+      <c r="J265" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A266">
@@ -16585,6 +16661,9 @@
       <c r="I266" s="22">
         <v>24</v>
       </c>
+      <c r="J266" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A267">
@@ -16614,6 +16693,9 @@
       <c r="I267" s="22">
         <v>24</v>
       </c>
+      <c r="J267" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A268">
@@ -16643,6 +16725,9 @@
       <c r="I268" s="22">
         <v>23</v>
       </c>
+      <c r="J268" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A269">
@@ -16672,6 +16757,9 @@
       <c r="I269" s="22">
         <v>27</v>
       </c>
+      <c r="J269" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A270">
@@ -16733,6 +16821,9 @@
       <c r="I271" s="22">
         <v>24</v>
       </c>
+      <c r="J271" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A272">
@@ -16762,6 +16853,9 @@
       <c r="I272" s="22">
         <v>23</v>
       </c>
+      <c r="J272" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A273">
@@ -16791,6 +16885,9 @@
       <c r="I273" s="22">
         <v>25</v>
       </c>
+      <c r="J273" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A274">
@@ -16820,6 +16917,9 @@
       <c r="I274" s="22">
         <v>23</v>
       </c>
+      <c r="J274" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A275">
@@ -16849,6 +16949,9 @@
       <c r="I275" s="22">
         <v>24</v>
       </c>
+      <c r="J275" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A276">
@@ -16910,6 +17013,9 @@
       <c r="I277" s="22">
         <v>25</v>
       </c>
+      <c r="J277" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A278">
@@ -16939,6 +17045,9 @@
       <c r="I278" s="22">
         <v>25</v>
       </c>
+      <c r="J278" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A279">
@@ -16968,6 +17077,9 @@
       <c r="I279" s="22">
         <v>21</v>
       </c>
+      <c r="J279" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A280">
@@ -16997,6 +17109,9 @@
       <c r="I280" s="22">
         <v>24</v>
       </c>
+      <c r="J280" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A281">
@@ -17026,6 +17141,9 @@
       <c r="I281" s="22">
         <v>23</v>
       </c>
+      <c r="J281" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A282">
@@ -17055,6 +17173,9 @@
       <c r="I282" s="22">
         <v>25</v>
       </c>
+      <c r="J282" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A283">
@@ -17084,6 +17205,9 @@
       <c r="I283" s="22">
         <v>24</v>
       </c>
+      <c r="J283" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A284">
@@ -17113,6 +17237,9 @@
       <c r="I284" s="22">
         <v>31</v>
       </c>
+      <c r="J284" s="22">
+        <v>37</v>
+      </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A285">
@@ -17142,6 +17269,9 @@
       <c r="I285" s="22">
         <v>25</v>
       </c>
+      <c r="J285" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A286">
@@ -17171,6 +17301,9 @@
       <c r="I286" s="22">
         <v>24</v>
       </c>
+      <c r="J286" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A287">
@@ -17200,6 +17333,9 @@
       <c r="I287" s="22">
         <v>26</v>
       </c>
+      <c r="J287" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A288">
@@ -17261,6 +17397,9 @@
       <c r="I289" s="22">
         <v>23</v>
       </c>
+      <c r="J289" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A290">
@@ -17290,6 +17429,9 @@
       <c r="I290" s="22">
         <v>23</v>
       </c>
+      <c r="J290" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A291">
@@ -17319,6 +17461,9 @@
       <c r="I291" s="22">
         <v>25</v>
       </c>
+      <c r="J291" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A292">
@@ -17380,6 +17525,9 @@
       <c r="I293" s="22">
         <v>27</v>
       </c>
+      <c r="J293" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A294">
@@ -17409,6 +17557,9 @@
       <c r="I294" s="22">
         <v>27</v>
       </c>
+      <c r="J294" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A295">
@@ -17502,6 +17653,9 @@
       <c r="I297" s="22">
         <v>23</v>
       </c>
+      <c r="J297" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A298">
@@ -17531,6 +17685,9 @@
       <c r="I298" s="22">
         <v>27</v>
       </c>
+      <c r="J298" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A299">
@@ -17560,6 +17717,9 @@
       <c r="I299" s="22">
         <v>24</v>
       </c>
+      <c r="J299" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A300">
@@ -17589,6 +17749,9 @@
       <c r="I300" s="22">
         <v>23</v>
       </c>
+      <c r="J300" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A301">
@@ -17618,6 +17781,9 @@
       <c r="I301" s="22">
         <v>25</v>
       </c>
+      <c r="J301" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A302">
@@ -17679,6 +17845,9 @@
       <c r="I303" s="22">
         <v>24</v>
       </c>
+      <c r="J303" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A304">
@@ -17740,6 +17909,9 @@
       <c r="I305" s="22">
         <v>24</v>
       </c>
+      <c r="J305" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A306">
@@ -17769,6 +17941,9 @@
       <c r="I306" s="22">
         <v>25</v>
       </c>
+      <c r="J306" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A307">
@@ -17798,6 +17973,9 @@
       <c r="I307" s="22">
         <v>26</v>
       </c>
+      <c r="J307" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A308">
@@ -17827,6 +18005,9 @@
       <c r="I308" s="22">
         <v>28</v>
       </c>
+      <c r="J308" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A309">
@@ -17856,6 +18037,9 @@
       <c r="I309" s="22">
         <v>25</v>
       </c>
+      <c r="J309" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A310">
@@ -17885,6 +18069,9 @@
       <c r="I310" s="22">
         <v>26</v>
       </c>
+      <c r="J310" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A311">
@@ -17914,6 +18101,9 @@
       <c r="I311" s="22">
         <v>24</v>
       </c>
+      <c r="J311" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A312">
@@ -17943,6 +18133,9 @@
       <c r="I312" s="22">
         <v>24</v>
       </c>
+      <c r="J312" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A313">
@@ -17972,6 +18165,9 @@
       <c r="I313" s="22">
         <v>24</v>
       </c>
+      <c r="J313" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A314">
@@ -18001,6 +18197,9 @@
       <c r="I314" s="22">
         <v>23</v>
       </c>
+      <c r="J314" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A315">
@@ -18094,6 +18293,9 @@
       <c r="I317" s="22">
         <v>27</v>
       </c>
+      <c r="J317" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A318">
@@ -18123,6 +18325,9 @@
       <c r="I318" s="22">
         <v>25</v>
       </c>
+      <c r="J318" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A319">
@@ -18152,6 +18357,9 @@
       <c r="I319" s="22">
         <v>23</v>
       </c>
+      <c r="J319" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A320">
@@ -18213,6 +18421,9 @@
       <c r="I321" s="22">
         <v>24</v>
       </c>
+      <c r="J321" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A322">
@@ -18274,6 +18485,9 @@
       <c r="I323" s="22">
         <v>24</v>
       </c>
+      <c r="J323" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A324">
@@ -18303,6 +18517,9 @@
       <c r="I324" s="22">
         <v>26</v>
       </c>
+      <c r="J324" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A325">
@@ -18332,6 +18549,9 @@
       <c r="I325" s="22">
         <v>24</v>
       </c>
+      <c r="J325" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A326">
@@ -18489,6 +18709,9 @@
       <c r="I330" s="22">
         <v>23</v>
       </c>
+      <c r="J330" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A331">
@@ -18518,6 +18741,9 @@
       <c r="I331" s="22">
         <v>23</v>
       </c>
+      <c r="J331" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A332">
@@ -18547,6 +18773,9 @@
       <c r="I332" s="22">
         <v>23</v>
       </c>
+      <c r="J332" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A333">
@@ -18576,6 +18805,9 @@
       <c r="I333" s="22">
         <v>24</v>
       </c>
+      <c r="J333" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A334">
@@ -18605,6 +18837,9 @@
       <c r="I334" s="22">
         <v>24</v>
       </c>
+      <c r="J334" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A335">
@@ -18666,6 +18901,9 @@
       <c r="I336" s="22">
         <v>24</v>
       </c>
+      <c r="J336" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A337">
@@ -18695,6 +18933,9 @@
       <c r="I337" s="22">
         <v>24</v>
       </c>
+      <c r="J337" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A338">
@@ -18788,6 +19029,9 @@
       <c r="I340" s="22">
         <v>26</v>
       </c>
+      <c r="J340" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A341">
@@ -18816,6 +19060,9 @@
       </c>
       <c r="I341" s="22">
         <v>24</v>
+      </c>
+      <c r="J341" s="22">
+        <v>28</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.4">

--- a/song(v.10-24).xlsx
+++ b/song(v.10-24).xlsx
@@ -32,7 +32,6 @@
   <customWorkbookViews>
     <customWorkbookView name="main" guid="{9E8C27FD-5DF8-48AD-A74D-D3BBBDC46F2B}" includeHiddenRowCol="0" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="3"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="1857">
   <si>
     <t>Tell Your World</t>
   </si>
@@ -7553,6 +7552,63 @@
   </si>
   <si>
     <t>넌센스 문학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キャットラビング</t>
+  </si>
+  <si>
+    <t>캣 러빙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぼくのかみさま</t>
+  </si>
+  <si>
+    <t>패리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パリィ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024. 11. 13. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2024. 11. 20. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2024. 11. 25. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香椎モイミ</t>
+  </si>
+  <si>
+    <t>羽生まゐご</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宮守文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8151,10 +8207,10 @@
   <dimension ref="A1:K602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B326" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B480" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J343" sqref="J343"/>
+      <selection pane="bottomRight" activeCell="F490" sqref="F490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -19125,6 +19181,9 @@
       <c r="I343" s="22">
         <v>23</v>
       </c>
+      <c r="J343" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A344">
@@ -19154,6 +19213,9 @@
       <c r="I344" s="22">
         <v>24</v>
       </c>
+      <c r="J344" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A345">
@@ -19183,6 +19245,9 @@
       <c r="I345" s="22">
         <v>22</v>
       </c>
+      <c r="J345" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A346">
@@ -19212,6 +19277,9 @@
       <c r="I346" s="22">
         <v>26</v>
       </c>
+      <c r="J346" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A347">
@@ -19241,6 +19309,9 @@
       <c r="I347" s="22">
         <v>26</v>
       </c>
+      <c r="J347" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A348">
@@ -19270,6 +19341,9 @@
       <c r="I348" s="22">
         <v>27</v>
       </c>
+      <c r="J348" s="22">
+        <v>32</v>
+      </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A349">
@@ -19299,6 +19373,9 @@
       <c r="I349" s="22">
         <v>24</v>
       </c>
+      <c r="J349" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A350">
@@ -19328,6 +19405,9 @@
       <c r="I350" s="22">
         <v>24</v>
       </c>
+      <c r="J350" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A351">
@@ -19357,6 +19437,9 @@
       <c r="I351" s="22">
         <v>24</v>
       </c>
+      <c r="J351" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A352">
@@ -19418,6 +19501,9 @@
       <c r="I353" s="22">
         <v>25</v>
       </c>
+      <c r="J353" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A354">
@@ -19511,6 +19597,9 @@
       <c r="I356" s="22">
         <v>24</v>
       </c>
+      <c r="J356" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A357">
@@ -19540,6 +19629,9 @@
       <c r="I357" s="22">
         <v>24</v>
       </c>
+      <c r="J357" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A358">
@@ -19601,6 +19693,9 @@
       <c r="I359" s="22">
         <v>26</v>
       </c>
+      <c r="J359" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A360">
@@ -19662,6 +19757,9 @@
       <c r="I361" s="22">
         <v>24</v>
       </c>
+      <c r="J361" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A362">
@@ -19723,6 +19821,9 @@
       <c r="I363" s="22">
         <v>23</v>
       </c>
+      <c r="J363" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A364">
@@ -19752,6 +19853,9 @@
       <c r="I364" s="22">
         <v>24</v>
       </c>
+      <c r="J364" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A365">
@@ -19781,6 +19885,9 @@
       <c r="I365" s="22">
         <v>25</v>
       </c>
+      <c r="J365" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A366">
@@ -19810,6 +19917,9 @@
       <c r="I366" s="22">
         <v>25</v>
       </c>
+      <c r="J366" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A367">
@@ -19839,6 +19949,9 @@
       <c r="I367" s="22">
         <v>26</v>
       </c>
+      <c r="J367" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A368">
@@ -19868,6 +19981,9 @@
       <c r="I368" s="22">
         <v>24</v>
       </c>
+      <c r="J368" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A369">
@@ -19897,6 +20013,9 @@
       <c r="I369" s="22">
         <v>24</v>
       </c>
+      <c r="J369" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A370">
@@ -20022,6 +20141,9 @@
       <c r="I373" s="22">
         <v>23</v>
       </c>
+      <c r="J373" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A374">
@@ -20051,6 +20173,9 @@
       <c r="I374" s="22">
         <v>26</v>
       </c>
+      <c r="J374" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A375">
@@ -20080,6 +20205,9 @@
       <c r="I375" s="22">
         <v>25</v>
       </c>
+      <c r="J375" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A376">
@@ -20109,6 +20237,9 @@
       <c r="I376" s="22">
         <v>26</v>
       </c>
+      <c r="J376" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A377">
@@ -20170,6 +20301,9 @@
       <c r="I378" s="22">
         <v>25</v>
       </c>
+      <c r="J378" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A379">
@@ -20199,6 +20333,9 @@
       <c r="I379" s="22">
         <v>25</v>
       </c>
+      <c r="J379" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A380">
@@ -20228,6 +20365,9 @@
       <c r="I380" s="22">
         <v>26</v>
       </c>
+      <c r="J380" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A381">
@@ -20257,6 +20397,9 @@
       <c r="I381" s="22">
         <v>26</v>
       </c>
+      <c r="J381" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A382">
@@ -20286,6 +20429,9 @@
       <c r="I382" s="22">
         <v>25</v>
       </c>
+      <c r="J382" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A383">
@@ -20347,6 +20493,9 @@
       <c r="I384" s="22">
         <v>26</v>
       </c>
+      <c r="J384" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A385">
@@ -20472,6 +20621,9 @@
       <c r="I388" s="22">
         <v>23</v>
       </c>
+      <c r="J388" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A389">
@@ -20501,6 +20653,9 @@
       <c r="I389" s="22">
         <v>24</v>
       </c>
+      <c r="J389" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A390">
@@ -20530,6 +20685,9 @@
       <c r="I390" s="22">
         <v>24</v>
       </c>
+      <c r="J390" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A391">
@@ -20559,6 +20717,9 @@
       <c r="I391" s="22">
         <v>24</v>
       </c>
+      <c r="J391" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A392">
@@ -20620,6 +20781,9 @@
       <c r="I393" s="22">
         <v>23</v>
       </c>
+      <c r="J393" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A394">
@@ -20681,6 +20845,9 @@
       <c r="I395" s="22">
         <v>27</v>
       </c>
+      <c r="J395" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A396">
@@ -20806,6 +20973,9 @@
       <c r="I399" s="22">
         <v>25</v>
       </c>
+      <c r="J399" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A400">
@@ -20835,6 +21005,9 @@
       <c r="I400" s="22">
         <v>26</v>
       </c>
+      <c r="J400" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A401">
@@ -20928,6 +21101,9 @@
       <c r="I403" s="22">
         <v>23</v>
       </c>
+      <c r="J403" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A404">
@@ -20989,6 +21165,9 @@
       <c r="I405" s="22">
         <v>26</v>
       </c>
+      <c r="J405" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A406">
@@ -21050,6 +21229,9 @@
       <c r="I407" s="22">
         <v>24</v>
       </c>
+      <c r="J407" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A408">
@@ -21079,6 +21261,9 @@
       <c r="I408" s="22">
         <v>24</v>
       </c>
+      <c r="J408" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A409">
@@ -21140,6 +21325,9 @@
       <c r="I410" s="22">
         <v>24</v>
       </c>
+      <c r="J410" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A411">
@@ -21169,6 +21357,9 @@
       <c r="I411" s="22">
         <v>25</v>
       </c>
+      <c r="J411" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A412">
@@ -21198,6 +21389,9 @@
       <c r="I412" s="22">
         <v>23</v>
       </c>
+      <c r="J412" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A413">
@@ -21227,6 +21421,9 @@
       <c r="I413" s="22">
         <v>23</v>
       </c>
+      <c r="J413" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A414">
@@ -21256,6 +21453,9 @@
       <c r="I414" s="22">
         <v>23</v>
       </c>
+      <c r="J414" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A415">
@@ -21285,6 +21485,9 @@
       <c r="I415" s="22">
         <v>24</v>
       </c>
+      <c r="J415" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A416">
@@ -21314,6 +21517,9 @@
       <c r="I416" s="22">
         <v>25</v>
       </c>
+      <c r="J416" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A417">
@@ -21343,6 +21549,9 @@
       <c r="I417" s="22">
         <v>31</v>
       </c>
+      <c r="J417" s="22">
+        <v>33</v>
+      </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A418">
@@ -21372,6 +21581,9 @@
       <c r="I418" s="22">
         <v>23</v>
       </c>
+      <c r="J418" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A419">
@@ -21497,6 +21709,9 @@
       <c r="I422" s="22">
         <v>26</v>
       </c>
+      <c r="J422" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A423">
@@ -21526,6 +21741,9 @@
       <c r="I423" s="22">
         <v>25</v>
       </c>
+      <c r="J423" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A424">
@@ -21555,6 +21773,9 @@
       <c r="I424" s="22">
         <v>25</v>
       </c>
+      <c r="J424" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A425">
@@ -21616,6 +21837,9 @@
       <c r="I426" s="22">
         <v>24</v>
       </c>
+      <c r="J426" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A427">
@@ -21677,6 +21901,9 @@
       <c r="I428" s="22">
         <v>31</v>
       </c>
+      <c r="J428" s="22">
+        <v>34</v>
+      </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A429">
@@ -21706,6 +21933,9 @@
       <c r="I429" s="22">
         <v>26</v>
       </c>
+      <c r="J429" s="22">
+        <v>32</v>
+      </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A430">
@@ -21735,6 +21965,9 @@
       <c r="I430" s="22">
         <v>23</v>
       </c>
+      <c r="J430" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A431">
@@ -21764,6 +21997,9 @@
       <c r="I431" s="22">
         <v>23</v>
       </c>
+      <c r="J431" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A432">
@@ -21825,6 +22061,9 @@
       <c r="I433" s="22">
         <v>24</v>
       </c>
+      <c r="J433" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A434">
@@ -21886,6 +22125,9 @@
       <c r="I435" s="22">
         <v>24</v>
       </c>
+      <c r="J435" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A436">
@@ -22011,6 +22253,9 @@
       <c r="I439" s="22">
         <v>26</v>
       </c>
+      <c r="J439" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A440">
@@ -22040,6 +22285,9 @@
       <c r="I440" s="22">
         <v>26</v>
       </c>
+      <c r="J440" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A441">
@@ -22069,6 +22317,9 @@
       <c r="I441" s="22">
         <v>26</v>
       </c>
+      <c r="J441" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A442">
@@ -22098,6 +22349,9 @@
       <c r="I442" s="22">
         <v>24</v>
       </c>
+      <c r="J442" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A443">
@@ -22127,6 +22381,9 @@
       <c r="I443" s="22">
         <v>24</v>
       </c>
+      <c r="J443" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A444">
@@ -22156,6 +22413,9 @@
       <c r="I444" s="22">
         <v>24</v>
       </c>
+      <c r="J444" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A445">
@@ -22185,6 +22445,9 @@
       <c r="I445" s="22">
         <v>24</v>
       </c>
+      <c r="J445" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A446">
@@ -22214,6 +22477,9 @@
       <c r="I446" s="22">
         <v>25</v>
       </c>
+      <c r="J446" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A447">
@@ -22243,6 +22509,9 @@
       <c r="I447" s="22">
         <v>24</v>
       </c>
+      <c r="J447" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A448">
@@ -22272,6 +22541,9 @@
       <c r="I448" s="22">
         <v>26</v>
       </c>
+      <c r="J448" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A449">
@@ -22333,6 +22605,9 @@
       <c r="I450" s="22">
         <v>31</v>
       </c>
+      <c r="J450" s="22">
+        <v>34</v>
+      </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A451">
@@ -22394,6 +22669,9 @@
       <c r="I452" s="22">
         <v>24</v>
       </c>
+      <c r="J452" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A453">
@@ -22423,6 +22701,9 @@
       <c r="I453" s="22">
         <v>26</v>
       </c>
+      <c r="J453" s="22">
+        <v>29</v>
+      </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A454">
@@ -22452,6 +22733,9 @@
       <c r="I454" s="22">
         <v>24</v>
       </c>
+      <c r="J454" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A455">
@@ -22481,6 +22765,9 @@
       <c r="I455" s="22">
         <v>25</v>
       </c>
+      <c r="J455" s="22">
+        <v>31</v>
+      </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A456">
@@ -22510,6 +22797,9 @@
       <c r="I456" s="22">
         <v>22</v>
       </c>
+      <c r="J456" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A457">
@@ -22571,6 +22861,9 @@
       <c r="I458" s="22">
         <v>24</v>
       </c>
+      <c r="J458" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A459">
@@ -22600,6 +22893,9 @@
       <c r="I459" s="22">
         <v>21</v>
       </c>
+      <c r="J459" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A460">
@@ -22629,6 +22925,9 @@
       <c r="I460" s="22">
         <v>23</v>
       </c>
+      <c r="J460" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A461">
@@ -22690,6 +22989,9 @@
       <c r="I462" s="22">
         <v>25</v>
       </c>
+      <c r="J462" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A463">
@@ -22783,6 +23085,9 @@
       <c r="I465" s="22">
         <v>25</v>
       </c>
+      <c r="J465" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A466">
@@ -22812,6 +23117,9 @@
       <c r="I466" s="22">
         <v>21</v>
       </c>
+      <c r="J466" s="22">
+        <v>27</v>
+      </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A467">
@@ -22841,6 +23149,9 @@
       <c r="I467" s="22">
         <v>26</v>
       </c>
+      <c r="J467" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A468">
@@ -23454,15 +23765,96 @@
       <c r="A487">
         <v>485</v>
       </c>
+      <c r="B487" s="7" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D487" s="14" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E487" s="11" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F487" s="22">
+        <v>7</v>
+      </c>
+      <c r="G487" s="22">
+        <v>12</v>
+      </c>
+      <c r="H487" s="22">
+        <v>17</v>
+      </c>
+      <c r="I487" s="22">
+        <v>25</v>
+      </c>
+      <c r="J487" s="22">
+        <v>30</v>
+      </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>486</v>
       </c>
+      <c r="B488" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D488" s="14" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E488" s="11" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F488" s="22">
+        <v>6</v>
+      </c>
+      <c r="G488" s="22">
+        <v>13</v>
+      </c>
+      <c r="H488" s="22">
+        <v>17</v>
+      </c>
+      <c r="I488" s="22">
+        <v>24</v>
+      </c>
+      <c r="J488" s="22">
+        <v>28</v>
+      </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D489" s="14" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E489" s="11" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F489" s="22">
+        <v>6</v>
+      </c>
+      <c r="G489" s="22">
+        <v>12</v>
+      </c>
+      <c r="H489" s="22">
+        <v>18</v>
+      </c>
+      <c r="I489" s="22">
+        <v>27</v>
+      </c>
+      <c r="J489" s="22">
+        <v>31</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.4">
